--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="223">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,12 @@
     <t>['6', '12', '84']</t>
   </si>
   <si>
+    <t>['5', '24', '90+1']</t>
+  </si>
+  <si>
+    <t>['35', '84', '90+1']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -674,6 +680,9 @@
   </si>
   <si>
     <t>['14', '23']</t>
+  </si>
+  <si>
+    <t>['50', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1294,7 +1303,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1500,7 +1509,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1706,7 +1715,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1990,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>0.17</v>
@@ -2118,7 +2127,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2324,7 +2333,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3354,7 +3363,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -3766,7 +3775,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4053,7 +4062,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ15">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4259,7 +4268,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ16">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4590,7 +4599,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4796,7 +4805,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5002,7 +5011,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5414,7 +5423,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -5620,7 +5629,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -5826,7 +5835,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -5904,7 +5913,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -6032,7 +6041,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6444,7 +6453,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6650,7 +6659,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7268,7 +7277,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7555,7 +7564,7 @@
         <v>3</v>
       </c>
       <c r="AQ32">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR32">
         <v>2.81</v>
@@ -8092,7 +8101,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8298,7 +8307,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8916,7 +8925,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9122,7 +9131,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9328,7 +9337,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9612,7 +9621,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>0.6</v>
@@ -9740,7 +9749,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10027,7 +10036,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ44">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR44">
         <v>1.86</v>
@@ -10152,7 +10161,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10358,7 +10367,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -10645,7 +10654,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ47">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>1.61</v>
@@ -10770,7 +10779,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q48">
         <v>1.83</v>
@@ -11182,7 +11191,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11388,7 +11397,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -11466,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>0</v>
@@ -11594,7 +11603,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -11800,7 +11809,7 @@
         <v>106</v>
       </c>
       <c r="P53" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12006,7 +12015,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12624,7 +12633,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12911,7 +12920,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ58">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR58">
         <v>1.61</v>
@@ -13036,7 +13045,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13448,7 +13457,7 @@
         <v>135</v>
       </c>
       <c r="P61" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13654,7 +13663,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14066,7 +14075,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14350,7 +14359,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
         <v>1.83</v>
@@ -14478,7 +14487,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14684,7 +14693,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -14890,7 +14899,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15096,7 +15105,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15302,7 +15311,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15508,7 +15517,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15714,7 +15723,7 @@
         <v>93</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15920,7 +15929,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16332,7 +16341,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16538,7 +16547,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16619,7 +16628,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ76">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR76">
         <v>1.01</v>
@@ -16744,7 +16753,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16950,7 +16959,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17156,7 +17165,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17237,7 +17246,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ79">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR79">
         <v>1.36</v>
@@ -17362,7 +17371,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q80">
         <v>2.63</v>
@@ -17774,7 +17783,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18058,7 +18067,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ83">
         <v>1.2</v>
@@ -18186,7 +18195,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18598,7 +18607,7 @@
         <v>90</v>
       </c>
       <c r="P86" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19628,7 +19637,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -19834,7 +19843,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20040,7 +20049,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20246,7 +20255,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20452,7 +20461,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -20658,7 +20667,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -20864,7 +20873,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -20945,7 +20954,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ97">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR97">
         <v>1.3</v>
@@ -21070,7 +21079,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21276,7 +21285,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21357,7 +21366,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ99">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR99">
         <v>1.67</v>
@@ -21639,6 +21648,418 @@
       </c>
       <c r="BP100">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7468461</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45618.625</v>
+      </c>
+      <c r="F101">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>73</v>
+      </c>
+      <c r="H101" t="s">
+        <v>71</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>3</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>5</v>
+      </c>
+      <c r="O101" t="s">
+        <v>159</v>
+      </c>
+      <c r="P101" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q101">
+        <v>2.05</v>
+      </c>
+      <c r="R101">
+        <v>2.4</v>
+      </c>
+      <c r="S101">
+        <v>5.5</v>
+      </c>
+      <c r="T101">
+        <v>1.3</v>
+      </c>
+      <c r="U101">
+        <v>3.4</v>
+      </c>
+      <c r="V101">
+        <v>2.5</v>
+      </c>
+      <c r="W101">
+        <v>1.5</v>
+      </c>
+      <c r="X101">
+        <v>6</v>
+      </c>
+      <c r="Y101">
+        <v>1.13</v>
+      </c>
+      <c r="Z101">
+        <v>1.55</v>
+      </c>
+      <c r="AA101">
+        <v>4.4</v>
+      </c>
+      <c r="AB101">
+        <v>5.5</v>
+      </c>
+      <c r="AC101">
+        <v>1.03</v>
+      </c>
+      <c r="AD101">
+        <v>15</v>
+      </c>
+      <c r="AE101">
+        <v>1.2</v>
+      </c>
+      <c r="AF101">
+        <v>4.5</v>
+      </c>
+      <c r="AG101">
+        <v>1.62</v>
+      </c>
+      <c r="AH101">
+        <v>2.3</v>
+      </c>
+      <c r="AI101">
+        <v>1.75</v>
+      </c>
+      <c r="AJ101">
+        <v>2</v>
+      </c>
+      <c r="AK101">
+        <v>1.12</v>
+      </c>
+      <c r="AL101">
+        <v>1.18</v>
+      </c>
+      <c r="AM101">
+        <v>2.6</v>
+      </c>
+      <c r="AN101">
+        <v>1.83</v>
+      </c>
+      <c r="AO101">
+        <v>0.6</v>
+      </c>
+      <c r="AP101">
+        <v>2</v>
+      </c>
+      <c r="AQ101">
+        <v>0.5</v>
+      </c>
+      <c r="AR101">
+        <v>1.51</v>
+      </c>
+      <c r="AS101">
+        <v>1.27</v>
+      </c>
+      <c r="AT101">
+        <v>2.78</v>
+      </c>
+      <c r="AU101">
+        <v>5</v>
+      </c>
+      <c r="AV101">
+        <v>5</v>
+      </c>
+      <c r="AW101">
+        <v>4</v>
+      </c>
+      <c r="AX101">
+        <v>6</v>
+      </c>
+      <c r="AY101">
+        <v>11</v>
+      </c>
+      <c r="AZ101">
+        <v>14</v>
+      </c>
+      <c r="BA101">
+        <v>2</v>
+      </c>
+      <c r="BB101">
+        <v>8</v>
+      </c>
+      <c r="BC101">
+        <v>10</v>
+      </c>
+      <c r="BD101">
+        <v>1.4</v>
+      </c>
+      <c r="BE101">
+        <v>6.75</v>
+      </c>
+      <c r="BF101">
+        <v>3.3</v>
+      </c>
+      <c r="BG101">
+        <v>1.46</v>
+      </c>
+      <c r="BH101">
+        <v>2.5</v>
+      </c>
+      <c r="BI101">
+        <v>1.75</v>
+      </c>
+      <c r="BJ101">
+        <v>1.95</v>
+      </c>
+      <c r="BK101">
+        <v>2.2</v>
+      </c>
+      <c r="BL101">
+        <v>1.58</v>
+      </c>
+      <c r="BM101">
+        <v>2.88</v>
+      </c>
+      <c r="BN101">
+        <v>1.35</v>
+      </c>
+      <c r="BO101">
+        <v>3.8</v>
+      </c>
+      <c r="BP101">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7468661</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45618.70833333334</v>
+      </c>
+      <c r="F102">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>79</v>
+      </c>
+      <c r="H102" t="s">
+        <v>76</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>3</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102" t="s">
+        <v>160</v>
+      </c>
+      <c r="P102" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q102">
+        <v>1.73</v>
+      </c>
+      <c r="R102">
+        <v>2.75</v>
+      </c>
+      <c r="S102">
+        <v>7</v>
+      </c>
+      <c r="T102">
+        <v>1.25</v>
+      </c>
+      <c r="U102">
+        <v>3.75</v>
+      </c>
+      <c r="V102">
+        <v>2.1</v>
+      </c>
+      <c r="W102">
+        <v>1.67</v>
+      </c>
+      <c r="X102">
+        <v>5</v>
+      </c>
+      <c r="Y102">
+        <v>1.17</v>
+      </c>
+      <c r="Z102">
+        <v>1.33</v>
+      </c>
+      <c r="AA102">
+        <v>5.75</v>
+      </c>
+      <c r="AB102">
+        <v>8</v>
+      </c>
+      <c r="AC102">
+        <v>1.01</v>
+      </c>
+      <c r="AD102">
+        <v>23</v>
+      </c>
+      <c r="AE102">
+        <v>1.14</v>
+      </c>
+      <c r="AF102">
+        <v>6</v>
+      </c>
+      <c r="AG102">
+        <v>1.45</v>
+      </c>
+      <c r="AH102">
+        <v>2.7</v>
+      </c>
+      <c r="AI102">
+        <v>1.75</v>
+      </c>
+      <c r="AJ102">
+        <v>2</v>
+      </c>
+      <c r="AK102">
+        <v>1.05</v>
+      </c>
+      <c r="AL102">
+        <v>1.11</v>
+      </c>
+      <c r="AM102">
+        <v>3.4</v>
+      </c>
+      <c r="AN102">
+        <v>3</v>
+      </c>
+      <c r="AO102">
+        <v>1.4</v>
+      </c>
+      <c r="AP102">
+        <v>3</v>
+      </c>
+      <c r="AQ102">
+        <v>1.17</v>
+      </c>
+      <c r="AR102">
+        <v>2.25</v>
+      </c>
+      <c r="AS102">
+        <v>1.26</v>
+      </c>
+      <c r="AT102">
+        <v>3.51</v>
+      </c>
+      <c r="AU102">
+        <v>9</v>
+      </c>
+      <c r="AV102">
+        <v>3</v>
+      </c>
+      <c r="AW102">
+        <v>4</v>
+      </c>
+      <c r="AX102">
+        <v>6</v>
+      </c>
+      <c r="AY102">
+        <v>18</v>
+      </c>
+      <c r="AZ102">
+        <v>12</v>
+      </c>
+      <c r="BA102">
+        <v>7</v>
+      </c>
+      <c r="BB102">
+        <v>5</v>
+      </c>
+      <c r="BC102">
+        <v>12</v>
+      </c>
+      <c r="BD102">
+        <v>1.23</v>
+      </c>
+      <c r="BE102">
+        <v>8</v>
+      </c>
+      <c r="BF102">
+        <v>4.6</v>
+      </c>
+      <c r="BG102">
+        <v>1.3</v>
+      </c>
+      <c r="BH102">
+        <v>3.05</v>
+      </c>
+      <c r="BI102">
+        <v>1.54</v>
+      </c>
+      <c r="BJ102">
+        <v>2.3</v>
+      </c>
+      <c r="BK102">
+        <v>1.89</v>
+      </c>
+      <c r="BL102">
+        <v>1.8</v>
+      </c>
+      <c r="BM102">
+        <v>2.4</v>
+      </c>
+      <c r="BN102">
+        <v>1.5</v>
+      </c>
+      <c r="BO102">
+        <v>3.05</v>
+      </c>
+      <c r="BP102">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,10 +493,19 @@
     <t>['6', '12', '84']</t>
   </si>
   <si>
+    <t>['35', '84', '90+1']</t>
+  </si>
+  <si>
     <t>['5', '24', '90+1']</t>
   </si>
   <si>
-    <t>['35', '84', '90+1']</t>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['55']</t>
   </si>
   <si>
     <t>['3', '84', '86', '90']</t>
@@ -683,6 +692,9 @@
   </si>
   <si>
     <t>['50', '90+6']</t>
+  </si>
+  <si>
+    <t>['49', '57', '89']</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1303,7 +1315,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1509,7 +1521,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1590,7 +1602,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1715,7 +1727,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1793,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
         <v>1.83</v>
@@ -2127,7 +2139,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2333,7 +2345,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3032,7 +3044,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3363,7 +3375,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -3775,7 +3787,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -3853,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.6</v>
@@ -4059,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
         <v>0.5</v>
@@ -4599,7 +4611,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4805,7 +4817,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5011,7 +5023,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5423,7 +5435,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -5629,7 +5641,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -5710,7 +5722,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR23">
         <v>1.52</v>
@@ -5835,7 +5847,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6041,7 +6053,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6453,7 +6465,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6531,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>0.2</v>
@@ -6659,7 +6671,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -6943,7 +6955,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.83</v>
@@ -7277,7 +7289,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8101,7 +8113,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8307,7 +8319,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8591,10 +8603,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
         <v>2.03</v>
@@ -8925,7 +8937,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9131,7 +9143,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9337,7 +9349,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9415,7 +9427,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
         <v>2.33</v>
@@ -9749,7 +9761,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10161,7 +10173,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10367,7 +10379,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -10448,7 +10460,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ46">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR46">
         <v>1.4</v>
@@ -10779,7 +10791,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q48">
         <v>1.83</v>
@@ -11063,7 +11075,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
         <v>1.33</v>
@@ -11191,7 +11203,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11397,7 +11409,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -11603,7 +11615,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -11684,7 +11696,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ52">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -11809,7 +11821,7 @@
         <v>106</v>
       </c>
       <c r="P53" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12015,7 +12027,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12302,7 +12314,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ55">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR55">
         <v>1.26</v>
@@ -12633,7 +12645,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12711,7 +12723,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>0.67</v>
@@ -13045,7 +13057,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13457,7 +13469,7 @@
         <v>135</v>
       </c>
       <c r="P61" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13535,7 +13547,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61">
         <v>0</v>
@@ -13663,7 +13675,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14075,7 +14087,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14487,7 +14499,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14693,7 +14705,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -14771,7 +14783,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>1.5</v>
@@ -14899,7 +14911,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15105,7 +15117,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15186,7 +15198,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>1.32</v>
@@ -15311,7 +15323,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15517,7 +15529,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15723,7 +15735,7 @@
         <v>93</v>
       </c>
       <c r="P72" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15929,7 +15941,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16010,7 +16022,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ73">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR73">
         <v>1.44</v>
@@ -16341,7 +16353,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16547,7 +16559,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16625,7 +16637,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ76">
         <v>0.5</v>
@@ -16753,7 +16765,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16831,7 +16843,7 @@
         <v>1.75</v>
       </c>
       <c r="AP77">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ77">
         <v>1.83</v>
@@ -16959,7 +16971,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17165,7 +17177,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17371,7 +17383,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>2.63</v>
@@ -17783,7 +17795,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18195,7 +18207,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18276,7 +18288,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ84">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR84">
         <v>1.48</v>
@@ -18607,7 +18619,7 @@
         <v>90</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18891,7 +18903,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
         <v>0.4</v>
@@ -19637,7 +19649,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -19718,7 +19730,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR91">
         <v>1.49</v>
@@ -19843,7 +19855,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20049,7 +20061,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20255,7 +20267,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20333,7 +20345,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ94">
         <v>0.83</v>
@@ -20461,7 +20473,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -20667,7 +20679,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -20873,7 +20885,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21079,7 +21091,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21285,7 +21297,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21655,7 +21667,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>7468461</v>
+        <v>7468661</v>
       </c>
       <c r="C101" t="s">
         <v>68</v>
@@ -21664,94 +21676,94 @@
         <v>69</v>
       </c>
       <c r="E101" s="2">
-        <v>45618.625</v>
+        <v>45617.875</v>
       </c>
       <c r="F101">
         <v>12</v>
       </c>
       <c r="G101" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H101" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L101">
         <v>3</v>
       </c>
       <c r="M101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N101">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O101" t="s">
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>222</v>
+        <v>90</v>
       </c>
       <c r="Q101">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="R101">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="S101">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="T101">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U101">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V101">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="W101">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="X101">
+        <v>5</v>
+      </c>
+      <c r="Y101">
+        <v>1.17</v>
+      </c>
+      <c r="Z101">
+        <v>1.33</v>
+      </c>
+      <c r="AA101">
+        <v>5.75</v>
+      </c>
+      <c r="AB101">
+        <v>8</v>
+      </c>
+      <c r="AC101">
+        <v>1.01</v>
+      </c>
+      <c r="AD101">
+        <v>23</v>
+      </c>
+      <c r="AE101">
+        <v>1.14</v>
+      </c>
+      <c r="AF101">
         <v>6</v>
       </c>
-      <c r="Y101">
-        <v>1.13</v>
-      </c>
-      <c r="Z101">
-        <v>1.55</v>
-      </c>
-      <c r="AA101">
-        <v>4.4</v>
-      </c>
-      <c r="AB101">
-        <v>5.5</v>
-      </c>
-      <c r="AC101">
-        <v>1.03</v>
-      </c>
-      <c r="AD101">
-        <v>15</v>
-      </c>
-      <c r="AE101">
-        <v>1.2</v>
-      </c>
-      <c r="AF101">
-        <v>4.5</v>
-      </c>
       <c r="AG101">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="AH101">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="AI101">
         <v>1.75</v>
@@ -21760,40 +21772,40 @@
         <v>2</v>
       </c>
       <c r="AK101">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="AL101">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AM101">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="AN101">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="AO101">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ101">
-        <v>0.5</v>
+        <v>1.17</v>
       </c>
       <c r="AR101">
-        <v>1.51</v>
+        <v>2.25</v>
       </c>
       <c r="AS101">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AT101">
-        <v>2.78</v>
+        <v>3.51</v>
       </c>
       <c r="AU101">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV101">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW101">
         <v>4</v>
@@ -21802,58 +21814,58 @@
         <v>6</v>
       </c>
       <c r="AY101">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ101">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA101">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB101">
+        <v>5</v>
+      </c>
+      <c r="BC101">
+        <v>12</v>
+      </c>
+      <c r="BD101">
+        <v>1.23</v>
+      </c>
+      <c r="BE101">
         <v>8</v>
       </c>
-      <c r="BC101">
-        <v>10</v>
-      </c>
-      <c r="BD101">
-        <v>1.4</v>
-      </c>
-      <c r="BE101">
-        <v>6.75</v>
-      </c>
       <c r="BF101">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="BG101">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="BH101">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="BI101">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="BJ101">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="BK101">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="BL101">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="BM101">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="BN101">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="BO101">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="BP101">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="102" spans="1:68">
@@ -21861,7 +21873,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7468661</v>
+        <v>7468461</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
@@ -21870,94 +21882,94 @@
         <v>69</v>
       </c>
       <c r="E102" s="2">
-        <v>45618.70833333334</v>
+        <v>45617.875</v>
       </c>
       <c r="F102">
         <v>12</v>
       </c>
       <c r="G102" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H102" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L102">
         <v>3</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O102" t="s">
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="Q102">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="R102">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="S102">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="T102">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U102">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="V102">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="W102">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="X102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y102">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="Z102">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AA102">
-        <v>5.75</v>
+        <v>4.4</v>
       </c>
       <c r="AB102">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AC102">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD102">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE102">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AF102">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AG102">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="AH102">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="AI102">
         <v>1.75</v>
@@ -21966,40 +21978,40 @@
         <v>2</v>
       </c>
       <c r="AK102">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="AL102">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="AM102">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="AN102">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="AO102">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="AP102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ102">
-        <v>1.17</v>
+        <v>0.5</v>
       </c>
       <c r="AR102">
-        <v>2.25</v>
+        <v>1.51</v>
       </c>
       <c r="AS102">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AT102">
-        <v>3.51</v>
+        <v>2.78</v>
       </c>
       <c r="AU102">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW102">
         <v>4</v>
@@ -22008,58 +22020,676 @@
         <v>6</v>
       </c>
       <c r="AY102">
+        <v>11</v>
+      </c>
+      <c r="AZ102">
+        <v>14</v>
+      </c>
+      <c r="BA102">
+        <v>2</v>
+      </c>
+      <c r="BB102">
+        <v>8</v>
+      </c>
+      <c r="BC102">
+        <v>10</v>
+      </c>
+      <c r="BD102">
+        <v>1.4</v>
+      </c>
+      <c r="BE102">
+        <v>6.75</v>
+      </c>
+      <c r="BF102">
+        <v>3.3</v>
+      </c>
+      <c r="BG102">
+        <v>1.46</v>
+      </c>
+      <c r="BH102">
+        <v>2.5</v>
+      </c>
+      <c r="BI102">
+        <v>1.75</v>
+      </c>
+      <c r="BJ102">
+        <v>1.95</v>
+      </c>
+      <c r="BK102">
+        <v>2.2</v>
+      </c>
+      <c r="BL102">
+        <v>1.58</v>
+      </c>
+      <c r="BM102">
+        <v>2.88</v>
+      </c>
+      <c r="BN102">
+        <v>1.35</v>
+      </c>
+      <c r="BO102">
+        <v>3.8</v>
+      </c>
+      <c r="BP102">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7468456</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45619.54166666666</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>83</v>
+      </c>
+      <c r="H103" t="s">
+        <v>87</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>3</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103" t="s">
+        <v>161</v>
+      </c>
+      <c r="P103" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q103">
+        <v>2.88</v>
+      </c>
+      <c r="R103">
+        <v>2.25</v>
+      </c>
+      <c r="S103">
+        <v>3.5</v>
+      </c>
+      <c r="T103">
+        <v>1.33</v>
+      </c>
+      <c r="U103">
+        <v>3.25</v>
+      </c>
+      <c r="V103">
+        <v>2.63</v>
+      </c>
+      <c r="W103">
+        <v>1.44</v>
+      </c>
+      <c r="X103">
+        <v>7</v>
+      </c>
+      <c r="Y103">
+        <v>1.1</v>
+      </c>
+      <c r="Z103">
+        <v>3.31</v>
+      </c>
+      <c r="AA103">
+        <v>1.79</v>
+      </c>
+      <c r="AB103">
+        <v>4.04</v>
+      </c>
+      <c r="AC103">
+        <v>1.04</v>
+      </c>
+      <c r="AD103">
+        <v>13</v>
+      </c>
+      <c r="AE103">
+        <v>1.25</v>
+      </c>
+      <c r="AF103">
+        <v>4</v>
+      </c>
+      <c r="AG103">
+        <v>1.73</v>
+      </c>
+      <c r="AH103">
+        <v>2</v>
+      </c>
+      <c r="AI103">
+        <v>1.62</v>
+      </c>
+      <c r="AJ103">
+        <v>2.2</v>
+      </c>
+      <c r="AK103">
+        <v>1.38</v>
+      </c>
+      <c r="AL103">
+        <v>1.25</v>
+      </c>
+      <c r="AM103">
+        <v>1.7</v>
+      </c>
+      <c r="AN103">
+        <v>1.6</v>
+      </c>
+      <c r="AO103">
+        <v>2.5</v>
+      </c>
+      <c r="AP103">
+        <v>1.33</v>
+      </c>
+      <c r="AQ103">
+        <v>2.57</v>
+      </c>
+      <c r="AR103">
+        <v>1.68</v>
+      </c>
+      <c r="AS103">
+        <v>1.21</v>
+      </c>
+      <c r="AT103">
+        <v>2.89</v>
+      </c>
+      <c r="AU103">
+        <v>9</v>
+      </c>
+      <c r="AV103">
+        <v>5</v>
+      </c>
+      <c r="AW103">
+        <v>7</v>
+      </c>
+      <c r="AX103">
+        <v>2</v>
+      </c>
+      <c r="AY103">
         <v>18</v>
       </c>
-      <c r="AZ102">
+      <c r="AZ103">
+        <v>11</v>
+      </c>
+      <c r="BA103">
+        <v>6</v>
+      </c>
+      <c r="BB103">
+        <v>0</v>
+      </c>
+      <c r="BC103">
+        <v>6</v>
+      </c>
+      <c r="BD103">
+        <v>1.58</v>
+      </c>
+      <c r="BE103">
+        <v>6.5</v>
+      </c>
+      <c r="BF103">
+        <v>2.65</v>
+      </c>
+      <c r="BG103">
+        <v>1.36</v>
+      </c>
+      <c r="BH103">
+        <v>2.8</v>
+      </c>
+      <c r="BI103">
+        <v>1.61</v>
+      </c>
+      <c r="BJ103">
+        <v>2.15</v>
+      </c>
+      <c r="BK103">
+        <v>1.98</v>
+      </c>
+      <c r="BL103">
+        <v>1.72</v>
+      </c>
+      <c r="BM103">
+        <v>2.55</v>
+      </c>
+      <c r="BN103">
+        <v>1.44</v>
+      </c>
+      <c r="BO103">
+        <v>3.3</v>
+      </c>
+      <c r="BP103">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7468458</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45619.625</v>
+      </c>
+      <c r="F104">
         <v>12</v>
       </c>
-      <c r="BA102">
+      <c r="G104" t="s">
+        <v>82</v>
+      </c>
+      <c r="H104" t="s">
+        <v>75</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104" t="s">
+        <v>162</v>
+      </c>
+      <c r="P104" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q104">
+        <v>2.88</v>
+      </c>
+      <c r="R104">
+        <v>2.3</v>
+      </c>
+      <c r="S104">
+        <v>3.4</v>
+      </c>
+      <c r="T104">
+        <v>1.33</v>
+      </c>
+      <c r="U104">
+        <v>3.25</v>
+      </c>
+      <c r="V104">
+        <v>2.63</v>
+      </c>
+      <c r="W104">
+        <v>1.44</v>
+      </c>
+      <c r="X104">
+        <v>6.5</v>
+      </c>
+      <c r="Y104">
+        <v>1.11</v>
+      </c>
+      <c r="Z104">
+        <v>2.31</v>
+      </c>
+      <c r="AA104">
+        <v>3.42</v>
+      </c>
+      <c r="AB104">
+        <v>2.65</v>
+      </c>
+      <c r="AC104">
+        <v>1.03</v>
+      </c>
+      <c r="AD104">
+        <v>15</v>
+      </c>
+      <c r="AE104">
+        <v>1.22</v>
+      </c>
+      <c r="AF104">
+        <v>4.33</v>
+      </c>
+      <c r="AG104">
+        <v>1.6</v>
+      </c>
+      <c r="AH104">
+        <v>2.35</v>
+      </c>
+      <c r="AI104">
+        <v>1.57</v>
+      </c>
+      <c r="AJ104">
+        <v>2.25</v>
+      </c>
+      <c r="AK104">
+        <v>1.44</v>
+      </c>
+      <c r="AL104">
+        <v>1.24</v>
+      </c>
+      <c r="AM104">
+        <v>1.63</v>
+      </c>
+      <c r="AN104">
+        <v>1.8</v>
+      </c>
+      <c r="AO104">
+        <v>0</v>
+      </c>
+      <c r="AP104">
+        <v>2</v>
+      </c>
+      <c r="AQ104">
+        <v>0</v>
+      </c>
+      <c r="AR104">
+        <v>1.28</v>
+      </c>
+      <c r="AS104">
+        <v>1.07</v>
+      </c>
+      <c r="AT104">
+        <v>2.35</v>
+      </c>
+      <c r="AU104">
+        <v>5</v>
+      </c>
+      <c r="AV104">
+        <v>4</v>
+      </c>
+      <c r="AW104">
+        <v>4</v>
+      </c>
+      <c r="AX104">
+        <v>5</v>
+      </c>
+      <c r="AY104">
+        <v>12</v>
+      </c>
+      <c r="AZ104">
+        <v>12</v>
+      </c>
+      <c r="BA104">
+        <v>5</v>
+      </c>
+      <c r="BB104">
+        <v>11</v>
+      </c>
+      <c r="BC104">
+        <v>16</v>
+      </c>
+      <c r="BD104">
+        <v>1.84</v>
+      </c>
+      <c r="BE104">
+        <v>6.4</v>
+      </c>
+      <c r="BF104">
+        <v>2.17</v>
+      </c>
+      <c r="BG104">
+        <v>1.34</v>
+      </c>
+      <c r="BH104">
+        <v>2.9</v>
+      </c>
+      <c r="BI104">
+        <v>1.58</v>
+      </c>
+      <c r="BJ104">
+        <v>2.2</v>
+      </c>
+      <c r="BK104">
+        <v>1.95</v>
+      </c>
+      <c r="BL104">
+        <v>1.74</v>
+      </c>
+      <c r="BM104">
+        <v>2.48</v>
+      </c>
+      <c r="BN104">
+        <v>1.47</v>
+      </c>
+      <c r="BO104">
+        <v>3.2</v>
+      </c>
+      <c r="BP104">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7468463</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45619.70833333334</v>
+      </c>
+      <c r="F105">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>72</v>
+      </c>
+      <c r="H105" t="s">
+        <v>80</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105" t="s">
+        <v>163</v>
+      </c>
+      <c r="P105" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q105">
+        <v>3.1</v>
+      </c>
+      <c r="R105">
+        <v>2.38</v>
+      </c>
+      <c r="S105">
+        <v>3</v>
+      </c>
+      <c r="T105">
+        <v>1.3</v>
+      </c>
+      <c r="U105">
+        <v>3.4</v>
+      </c>
+      <c r="V105">
+        <v>2.38</v>
+      </c>
+      <c r="W105">
+        <v>1.53</v>
+      </c>
+      <c r="X105">
+        <v>6</v>
+      </c>
+      <c r="Y105">
+        <v>1.13</v>
+      </c>
+      <c r="Z105">
+        <v>2.59</v>
+      </c>
+      <c r="AA105">
+        <v>3.48</v>
+      </c>
+      <c r="AB105">
+        <v>2.33</v>
+      </c>
+      <c r="AC105">
+        <v>1.02</v>
+      </c>
+      <c r="AD105">
+        <v>17</v>
+      </c>
+      <c r="AE105">
+        <v>1.19</v>
+      </c>
+      <c r="AF105">
+        <v>4.75</v>
+      </c>
+      <c r="AG105">
+        <v>1.55</v>
+      </c>
+      <c r="AH105">
+        <v>2.36</v>
+      </c>
+      <c r="AI105">
+        <v>1.5</v>
+      </c>
+      <c r="AJ105">
+        <v>2.5</v>
+      </c>
+      <c r="AK105">
+        <v>1.57</v>
+      </c>
+      <c r="AL105">
+        <v>1.24</v>
+      </c>
+      <c r="AM105">
+        <v>1.5</v>
+      </c>
+      <c r="AN105">
+        <v>1.4</v>
+      </c>
+      <c r="AO105">
+        <v>1.6</v>
+      </c>
+      <c r="AP105">
+        <v>1.33</v>
+      </c>
+      <c r="AQ105">
+        <v>1.5</v>
+      </c>
+      <c r="AR105">
+        <v>1.09</v>
+      </c>
+      <c r="AS105">
+        <v>1.08</v>
+      </c>
+      <c r="AT105">
+        <v>2.17</v>
+      </c>
+      <c r="AU105">
         <v>7</v>
       </c>
-      <c r="BB102">
+      <c r="AV105">
+        <v>8</v>
+      </c>
+      <c r="AW105">
         <v>5</v>
       </c>
-      <c r="BC102">
-        <v>12</v>
-      </c>
-      <c r="BD102">
-        <v>1.23</v>
-      </c>
-      <c r="BE102">
-        <v>8</v>
-      </c>
-      <c r="BF102">
-        <v>4.6</v>
-      </c>
-      <c r="BG102">
-        <v>1.3</v>
-      </c>
-      <c r="BH102">
-        <v>3.05</v>
-      </c>
-      <c r="BI102">
-        <v>1.54</v>
-      </c>
-      <c r="BJ102">
-        <v>2.3</v>
-      </c>
-      <c r="BK102">
-        <v>1.89</v>
-      </c>
-      <c r="BL102">
-        <v>1.8</v>
-      </c>
-      <c r="BM102">
-        <v>2.4</v>
-      </c>
-      <c r="BN102">
-        <v>1.5</v>
-      </c>
-      <c r="BO102">
-        <v>3.05</v>
-      </c>
-      <c r="BP102">
-        <v>1.3</v>
+      <c r="AX105">
+        <v>5</v>
+      </c>
+      <c r="AY105">
+        <v>15</v>
+      </c>
+      <c r="AZ105">
+        <v>14</v>
+      </c>
+      <c r="BA105">
+        <v>4</v>
+      </c>
+      <c r="BB105">
+        <v>2</v>
+      </c>
+      <c r="BC105">
+        <v>6</v>
+      </c>
+      <c r="BD105">
+        <v>1.98</v>
+      </c>
+      <c r="BE105">
+        <v>6.4</v>
+      </c>
+      <c r="BF105">
+        <v>1.98</v>
+      </c>
+      <c r="BG105">
+        <v>1.26</v>
+      </c>
+      <c r="BH105">
+        <v>3.4</v>
+      </c>
+      <c r="BI105">
+        <v>1.47</v>
+      </c>
+      <c r="BJ105">
+        <v>2.48</v>
+      </c>
+      <c r="BK105">
+        <v>1.76</v>
+      </c>
+      <c r="BL105">
+        <v>1.94</v>
+      </c>
+      <c r="BM105">
+        <v>2.2</v>
+      </c>
+      <c r="BN105">
+        <v>1.58</v>
+      </c>
+      <c r="BO105">
+        <v>2.8</v>
+      </c>
+      <c r="BP105">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,12 @@
     <t>['55']</t>
   </si>
   <si>
+    <t>['54', '62']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -695,6 +701,12 @@
   </si>
   <si>
     <t>['49', '57', '89']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['3', '74']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1327,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1521,7 +1533,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1727,7 +1739,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2139,7 +2151,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2345,7 +2357,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2426,7 +2438,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ7">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3375,7 +3387,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -3659,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ13">
         <v>1.2</v>
@@ -3787,7 +3799,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -3868,7 +3880,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4277,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>1.17</v>
@@ -4483,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ17">
         <v>0.67</v>
@@ -4611,7 +4623,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4692,7 +4704,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ18">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4817,7 +4829,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5023,7 +5035,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5104,7 +5116,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ20">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>0.4</v>
@@ -5435,7 +5447,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -5641,7 +5653,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -5847,7 +5859,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6053,7 +6065,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6465,7 +6477,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6546,7 +6558,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR27">
         <v>0.32</v>
@@ -6671,7 +6683,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -6749,7 +6761,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ28">
         <v>2.33</v>
@@ -7289,7 +7301,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7988,7 +8000,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ34">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.04</v>
@@ -8113,7 +8125,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8319,7 +8331,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8397,7 +8409,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ36">
         <v>1.67</v>
@@ -8809,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>0.17</v>
@@ -8937,7 +8949,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9015,10 +9027,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ39">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR39">
         <v>1.47</v>
@@ -9143,7 +9155,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9349,7 +9361,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9636,7 +9648,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.39</v>
@@ -9761,7 +9773,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10173,7 +10185,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10379,7 +10391,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -10791,7 +10803,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q48">
         <v>1.83</v>
@@ -10872,7 +10884,7 @@
         <v>3</v>
       </c>
       <c r="AQ48">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR48">
         <v>2.56</v>
@@ -11203,7 +11215,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11409,7 +11421,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -11615,7 +11627,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -11821,7 +11833,7 @@
         <v>106</v>
       </c>
       <c r="P53" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12027,7 +12039,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12105,7 +12117,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ54">
         <v>0.17</v>
@@ -12645,7 +12657,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12929,7 +12941,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ58">
         <v>1.17</v>
@@ -13057,7 +13069,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13469,7 +13481,7 @@
         <v>135</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13675,7 +13687,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13962,7 +13974,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ63">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.6</v>
@@ -14087,7 +14099,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14165,7 +14177,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
         <v>2.33</v>
@@ -14499,7 +14511,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14580,7 +14592,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ66">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR66">
         <v>1.43</v>
@@ -14705,7 +14717,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -14911,7 +14923,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -14992,7 +15004,7 @@
         <v>3</v>
       </c>
       <c r="AQ68">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR68">
         <v>2.38</v>
@@ -15117,7 +15129,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15323,7 +15335,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15529,7 +15541,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15735,7 +15747,7 @@
         <v>93</v>
       </c>
       <c r="P72" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15813,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ72">
         <v>1.33</v>
@@ -15941,7 +15953,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16228,7 +16240,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ74">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.65</v>
@@ -16353,7 +16365,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16559,7 +16571,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16765,7 +16777,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16971,7 +16983,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17177,7 +17189,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17383,7 +17395,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q80">
         <v>2.63</v>
@@ -17667,7 +17679,7 @@
         <v>3</v>
       </c>
       <c r="AP81">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
         <v>2.4</v>
@@ -17795,7 +17807,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18207,7 +18219,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18285,7 +18297,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ84">
         <v>1.5</v>
@@ -18619,7 +18631,7 @@
         <v>90</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18906,7 +18918,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR87">
         <v>1.3</v>
@@ -19318,7 +19330,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ89">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR89">
         <v>1.39</v>
@@ -19649,7 +19661,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -19727,7 +19739,7 @@
         <v>2.4</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ91">
         <v>2.57</v>
@@ -19855,7 +19867,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20061,7 +20073,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20267,7 +20279,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20473,7 +20485,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -20679,7 +20691,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -20757,7 +20769,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ96">
         <v>1.83</v>
@@ -20885,7 +20897,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21091,7 +21103,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21297,7 +21309,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21915,7 +21927,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22088,7 +22100,7 @@
         <v>69</v>
       </c>
       <c r="E103" s="2">
-        <v>45619.54166666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -22121,7 +22133,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22294,7 +22306,7 @@
         <v>69</v>
       </c>
       <c r="E104" s="2">
-        <v>45619.625</v>
+        <v>45618.875</v>
       </c>
       <c r="F104">
         <v>12</v>
@@ -22690,6 +22702,624 @@
       </c>
       <c r="BP105">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7468457</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45619.875</v>
+      </c>
+      <c r="F106">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>84</v>
+      </c>
+      <c r="H106" t="s">
+        <v>86</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106" t="s">
+        <v>164</v>
+      </c>
+      <c r="P106" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q106">
+        <v>2.38</v>
+      </c>
+      <c r="R106">
+        <v>2.25</v>
+      </c>
+      <c r="S106">
+        <v>4.75</v>
+      </c>
+      <c r="T106">
+        <v>1.36</v>
+      </c>
+      <c r="U106">
+        <v>3</v>
+      </c>
+      <c r="V106">
+        <v>2.63</v>
+      </c>
+      <c r="W106">
+        <v>1.44</v>
+      </c>
+      <c r="X106">
+        <v>7</v>
+      </c>
+      <c r="Y106">
+        <v>1.1</v>
+      </c>
+      <c r="Z106">
+        <v>1.84</v>
+      </c>
+      <c r="AA106">
+        <v>3.37</v>
+      </c>
+      <c r="AB106">
+        <v>3.84</v>
+      </c>
+      <c r="AC106">
+        <v>1.04</v>
+      </c>
+      <c r="AD106">
+        <v>13</v>
+      </c>
+      <c r="AE106">
+        <v>1.26</v>
+      </c>
+      <c r="AF106">
+        <v>4</v>
+      </c>
+      <c r="AG106">
+        <v>1.83</v>
+      </c>
+      <c r="AH106">
+        <v>2.01</v>
+      </c>
+      <c r="AI106">
+        <v>1.75</v>
+      </c>
+      <c r="AJ106">
+        <v>2</v>
+      </c>
+      <c r="AK106">
+        <v>1.22</v>
+      </c>
+      <c r="AL106">
+        <v>1.22</v>
+      </c>
+      <c r="AM106">
+        <v>2.05</v>
+      </c>
+      <c r="AN106">
+        <v>1.8</v>
+      </c>
+      <c r="AO106">
+        <v>0.4</v>
+      </c>
+      <c r="AP106">
+        <v>2</v>
+      </c>
+      <c r="AQ106">
+        <v>0.33</v>
+      </c>
+      <c r="AR106">
+        <v>1.61</v>
+      </c>
+      <c r="AS106">
+        <v>1.41</v>
+      </c>
+      <c r="AT106">
+        <v>3.02</v>
+      </c>
+      <c r="AU106">
+        <v>6</v>
+      </c>
+      <c r="AV106">
+        <v>4</v>
+      </c>
+      <c r="AW106">
+        <v>6</v>
+      </c>
+      <c r="AX106">
+        <v>1</v>
+      </c>
+      <c r="AY106">
+        <v>16</v>
+      </c>
+      <c r="AZ106">
+        <v>11</v>
+      </c>
+      <c r="BA106">
+        <v>4</v>
+      </c>
+      <c r="BB106">
+        <v>7</v>
+      </c>
+      <c r="BC106">
+        <v>11</v>
+      </c>
+      <c r="BD106">
+        <v>1.47</v>
+      </c>
+      <c r="BE106">
+        <v>6.75</v>
+      </c>
+      <c r="BF106">
+        <v>3.05</v>
+      </c>
+      <c r="BG106">
+        <v>1.41</v>
+      </c>
+      <c r="BH106">
+        <v>2.65</v>
+      </c>
+      <c r="BI106">
+        <v>1.68</v>
+      </c>
+      <c r="BJ106">
+        <v>2.04</v>
+      </c>
+      <c r="BK106">
+        <v>2.08</v>
+      </c>
+      <c r="BL106">
+        <v>1.65</v>
+      </c>
+      <c r="BM106">
+        <v>2.65</v>
+      </c>
+      <c r="BN106">
+        <v>1.41</v>
+      </c>
+      <c r="BO106">
+        <v>3.55</v>
+      </c>
+      <c r="BP106">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7468459</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45619.875</v>
+      </c>
+      <c r="F107">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>81</v>
+      </c>
+      <c r="H107" t="s">
+        <v>78</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>165</v>
+      </c>
+      <c r="P107" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q107">
+        <v>2.6</v>
+      </c>
+      <c r="R107">
+        <v>2.2</v>
+      </c>
+      <c r="S107">
+        <v>4.33</v>
+      </c>
+      <c r="T107">
+        <v>1.4</v>
+      </c>
+      <c r="U107">
+        <v>2.75</v>
+      </c>
+      <c r="V107">
+        <v>2.75</v>
+      </c>
+      <c r="W107">
+        <v>1.4</v>
+      </c>
+      <c r="X107">
+        <v>8</v>
+      </c>
+      <c r="Y107">
+        <v>1.08</v>
+      </c>
+      <c r="Z107">
+        <v>1.9</v>
+      </c>
+      <c r="AA107">
+        <v>3.6</v>
+      </c>
+      <c r="AB107">
+        <v>3.8</v>
+      </c>
+      <c r="AC107">
+        <v>1.05</v>
+      </c>
+      <c r="AD107">
+        <v>11</v>
+      </c>
+      <c r="AE107">
+        <v>1.3</v>
+      </c>
+      <c r="AF107">
+        <v>3.6</v>
+      </c>
+      <c r="AG107">
+        <v>1.82</v>
+      </c>
+      <c r="AH107">
+        <v>1.88</v>
+      </c>
+      <c r="AI107">
+        <v>1.75</v>
+      </c>
+      <c r="AJ107">
+        <v>2</v>
+      </c>
+      <c r="AK107">
+        <v>1.26</v>
+      </c>
+      <c r="AL107">
+        <v>1.25</v>
+      </c>
+      <c r="AM107">
+        <v>1.88</v>
+      </c>
+      <c r="AN107">
+        <v>1.6</v>
+      </c>
+      <c r="AO107">
+        <v>0.2</v>
+      </c>
+      <c r="AP107">
+        <v>1.83</v>
+      </c>
+      <c r="AQ107">
+        <v>0.17</v>
+      </c>
+      <c r="AR107">
+        <v>1.43</v>
+      </c>
+      <c r="AS107">
+        <v>1.25</v>
+      </c>
+      <c r="AT107">
+        <v>2.68</v>
+      </c>
+      <c r="AU107">
+        <v>3</v>
+      </c>
+      <c r="AV107">
+        <v>2</v>
+      </c>
+      <c r="AW107">
+        <v>3</v>
+      </c>
+      <c r="AX107">
+        <v>1</v>
+      </c>
+      <c r="AY107">
+        <v>6</v>
+      </c>
+      <c r="AZ107">
+        <v>5</v>
+      </c>
+      <c r="BA107">
+        <v>3</v>
+      </c>
+      <c r="BB107">
+        <v>3</v>
+      </c>
+      <c r="BC107">
+        <v>6</v>
+      </c>
+      <c r="BD107">
+        <v>1.7</v>
+      </c>
+      <c r="BE107">
+        <v>6.1</v>
+      </c>
+      <c r="BF107">
+        <v>2.45</v>
+      </c>
+      <c r="BG107">
+        <v>1.41</v>
+      </c>
+      <c r="BH107">
+        <v>2.63</v>
+      </c>
+      <c r="BI107">
+        <v>1.72</v>
+      </c>
+      <c r="BJ107">
+        <v>1.98</v>
+      </c>
+      <c r="BK107">
+        <v>2.15</v>
+      </c>
+      <c r="BL107">
+        <v>1.61</v>
+      </c>
+      <c r="BM107">
+        <v>2.8</v>
+      </c>
+      <c r="BN107">
+        <v>1.37</v>
+      </c>
+      <c r="BO107">
+        <v>3.65</v>
+      </c>
+      <c r="BP107">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7468460</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45620.54166666666</v>
+      </c>
+      <c r="F108">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>85</v>
+      </c>
+      <c r="H108" t="s">
+        <v>70</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>90</v>
+      </c>
+      <c r="P108" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q108">
+        <v>2.6</v>
+      </c>
+      <c r="R108">
+        <v>2</v>
+      </c>
+      <c r="S108">
+        <v>5</v>
+      </c>
+      <c r="T108">
+        <v>1.5</v>
+      </c>
+      <c r="U108">
+        <v>2.5</v>
+      </c>
+      <c r="V108">
+        <v>3.5</v>
+      </c>
+      <c r="W108">
+        <v>1.29</v>
+      </c>
+      <c r="X108">
+        <v>11</v>
+      </c>
+      <c r="Y108">
+        <v>1.05</v>
+      </c>
+      <c r="Z108">
+        <v>1.87</v>
+      </c>
+      <c r="AA108">
+        <v>3.2</v>
+      </c>
+      <c r="AB108">
+        <v>3.95</v>
+      </c>
+      <c r="AC108">
+        <v>1.09</v>
+      </c>
+      <c r="AD108">
+        <v>8</v>
+      </c>
+      <c r="AE108">
+        <v>1.44</v>
+      </c>
+      <c r="AF108">
+        <v>2.8</v>
+      </c>
+      <c r="AG108">
+        <v>2</v>
+      </c>
+      <c r="AH108">
+        <v>1.73</v>
+      </c>
+      <c r="AI108">
+        <v>2.05</v>
+      </c>
+      <c r="AJ108">
+        <v>1.7</v>
+      </c>
+      <c r="AK108">
+        <v>1.2</v>
+      </c>
+      <c r="AL108">
+        <v>1.28</v>
+      </c>
+      <c r="AM108">
+        <v>1.96</v>
+      </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
+        <v>0.6</v>
+      </c>
+      <c r="AP108">
+        <v>0.83</v>
+      </c>
+      <c r="AQ108">
+        <v>1</v>
+      </c>
+      <c r="AR108">
+        <v>1.38</v>
+      </c>
+      <c r="AS108">
+        <v>0.97</v>
+      </c>
+      <c r="AT108">
+        <v>2.35</v>
+      </c>
+      <c r="AU108">
+        <v>5</v>
+      </c>
+      <c r="AV108">
+        <v>6</v>
+      </c>
+      <c r="AW108">
+        <v>8</v>
+      </c>
+      <c r="AX108">
+        <v>2</v>
+      </c>
+      <c r="AY108">
+        <v>19</v>
+      </c>
+      <c r="AZ108">
+        <v>9</v>
+      </c>
+      <c r="BA108">
+        <v>10</v>
+      </c>
+      <c r="BB108">
+        <v>2</v>
+      </c>
+      <c r="BC108">
+        <v>12</v>
+      </c>
+      <c r="BD108">
+        <v>1.5</v>
+      </c>
+      <c r="BE108">
+        <v>6.75</v>
+      </c>
+      <c r="BF108">
+        <v>2.9</v>
+      </c>
+      <c r="BG108">
+        <v>1.3</v>
+      </c>
+      <c r="BH108">
+        <v>3.1</v>
+      </c>
+      <c r="BI108">
+        <v>1.52</v>
+      </c>
+      <c r="BJ108">
+        <v>2.32</v>
+      </c>
+      <c r="BK108">
+        <v>1.86</v>
+      </c>
+      <c r="BL108">
+        <v>1.82</v>
+      </c>
+      <c r="BM108">
+        <v>2.33</v>
+      </c>
+      <c r="BN108">
+        <v>1.5</v>
+      </c>
+      <c r="BO108">
+        <v>3.05</v>
+      </c>
+      <c r="BP108">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,10 +502,13 @@
     <t>['80']</t>
   </si>
   <si>
+    <t>['55']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
-    <t>['55']</t>
+    <t>['90+3']</t>
   </si>
   <si>
     <t>['54', '62']</t>
@@ -703,10 +706,10 @@
     <t>['49', '57', '89']</t>
   </si>
   <si>
-    <t>['19']</t>
+    <t>['3', '74']</t>
   </si>
   <si>
-    <t>['3', '74']</t>
+    <t>['19']</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP108"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,7 +1330,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1533,7 +1536,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1739,7 +1742,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2151,7 +2154,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2229,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2357,7 +2360,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3387,7 +3390,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -3674,7 +3677,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ13">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3799,7 +3802,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4623,7 +4626,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4829,7 +4832,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5035,7 +5038,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5447,7 +5450,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -5653,7 +5656,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -5859,7 +5862,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6065,7 +6068,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6477,7 +6480,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6683,7 +6686,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7301,7 +7304,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7379,7 +7382,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31">
         <v>2.4</v>
@@ -8125,7 +8128,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8206,7 +8209,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ35">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.25</v>
@@ -8331,7 +8334,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8949,7 +8952,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9155,7 +9158,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9361,7 +9364,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9773,7 +9776,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10185,7 +10188,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10391,7 +10394,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -10675,7 +10678,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ47">
         <v>0.5</v>
@@ -10803,7 +10806,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q48">
         <v>1.83</v>
@@ -11215,7 +11218,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11421,7 +11424,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -11627,7 +11630,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -11833,7 +11836,7 @@
         <v>106</v>
       </c>
       <c r="P53" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12039,7 +12042,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12532,7 +12535,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -12657,7 +12660,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13069,7 +13072,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13481,7 +13484,7 @@
         <v>135</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13687,7 +13690,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14099,7 +14102,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14511,7 +14514,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14717,7 +14720,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -14923,7 +14926,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15129,7 +15132,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15335,7 +15338,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15413,7 +15416,7 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ70">
         <v>1.67</v>
@@ -15541,7 +15544,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15622,7 +15625,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ71">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.25</v>
@@ -15747,7 +15750,7 @@
         <v>93</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15953,7 +15956,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16365,7 +16368,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16571,7 +16574,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16777,7 +16780,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16983,7 +16986,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17189,7 +17192,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17395,7 +17398,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q80">
         <v>2.63</v>
@@ -17807,7 +17810,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18094,7 +18097,7 @@
         <v>2</v>
       </c>
       <c r="AQ83">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.55</v>
@@ -18219,7 +18222,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18631,7 +18634,7 @@
         <v>90</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19327,7 +19330,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ89">
         <v>0.17</v>
@@ -19661,7 +19664,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -19867,7 +19870,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20073,7 +20076,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20279,7 +20282,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20485,7 +20488,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -20691,7 +20694,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -20897,7 +20900,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21103,7 +21106,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21309,7 +21312,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21927,7 +21930,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22133,7 +22136,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22297,7 +22300,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>7468458</v>
+        <v>7468463</v>
       </c>
       <c r="C104" t="s">
         <v>68</v>
@@ -22312,190 +22315,190 @@
         <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H104" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104">
         <v>1</v>
       </c>
       <c r="M104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O104" t="s">
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="Q104">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R104">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S104">
+        <v>3</v>
+      </c>
+      <c r="T104">
+        <v>1.3</v>
+      </c>
+      <c r="U104">
         <v>3.4</v>
       </c>
-      <c r="T104">
-        <v>1.33</v>
-      </c>
-      <c r="U104">
-        <v>3.25</v>
-      </c>
       <c r="V104">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W104">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X104">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y104">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z104">
-        <v>2.31</v>
+        <v>2.59</v>
       </c>
       <c r="AA104">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="AB104">
-        <v>2.65</v>
+        <v>2.33</v>
       </c>
       <c r="AC104">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD104">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE104">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AF104">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AG104">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AH104">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="AI104">
+        <v>1.5</v>
+      </c>
+      <c r="AJ104">
+        <v>2.5</v>
+      </c>
+      <c r="AK104">
         <v>1.57</v>
-      </c>
-      <c r="AJ104">
-        <v>2.25</v>
-      </c>
-      <c r="AK104">
-        <v>1.44</v>
       </c>
       <c r="AL104">
         <v>1.24</v>
       </c>
       <c r="AM104">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AN104">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AO104">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AP104">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ104">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR104">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="AS104">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AT104">
-        <v>2.35</v>
+        <v>2.17</v>
       </c>
       <c r="AU104">
+        <v>7</v>
+      </c>
+      <c r="AV104">
+        <v>8</v>
+      </c>
+      <c r="AW104">
         <v>5</v>
-      </c>
-      <c r="AV104">
-        <v>4</v>
-      </c>
-      <c r="AW104">
-        <v>4</v>
       </c>
       <c r="AX104">
         <v>5</v>
       </c>
       <c r="AY104">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ104">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB104">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BC104">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="BD104">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="BE104">
         <v>6.4</v>
       </c>
       <c r="BF104">
-        <v>2.17</v>
+        <v>1.98</v>
       </c>
       <c r="BG104">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="BH104">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="BI104">
+        <v>1.47</v>
+      </c>
+      <c r="BJ104">
+        <v>2.48</v>
+      </c>
+      <c r="BK104">
+        <v>1.76</v>
+      </c>
+      <c r="BL104">
+        <v>1.94</v>
+      </c>
+      <c r="BM104">
+        <v>2.2</v>
+      </c>
+      <c r="BN104">
         <v>1.58</v>
       </c>
-      <c r="BJ104">
-        <v>2.2</v>
-      </c>
-      <c r="BK104">
-        <v>1.95</v>
-      </c>
-      <c r="BL104">
-        <v>1.74</v>
-      </c>
-      <c r="BM104">
-        <v>2.48</v>
-      </c>
-      <c r="BN104">
-        <v>1.47</v>
-      </c>
       <c r="BO104">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="BP104">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="105" spans="1:68">
@@ -22503,7 +22506,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7468463</v>
+        <v>7468458</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -22512,196 +22515,196 @@
         <v>69</v>
       </c>
       <c r="E105" s="2">
-        <v>45619.70833333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F105">
         <v>12</v>
       </c>
       <c r="G105" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H105" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105">
         <v>1</v>
       </c>
       <c r="M105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O105" t="s">
         <v>163</v>
       </c>
       <c r="P105" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="Q105">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R105">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S105">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T105">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U105">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V105">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W105">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X105">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y105">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z105">
-        <v>2.59</v>
+        <v>2.31</v>
       </c>
       <c r="AA105">
-        <v>3.48</v>
+        <v>3.42</v>
       </c>
       <c r="AB105">
-        <v>2.33</v>
+        <v>2.65</v>
       </c>
       <c r="AC105">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD105">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE105">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AF105">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AG105">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AH105">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="AI105">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AJ105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AK105">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AL105">
         <v>1.24</v>
       </c>
       <c r="AM105">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AN105">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AO105">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AP105">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AQ105">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AR105">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="AS105">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT105">
-        <v>2.17</v>
+        <v>2.35</v>
       </c>
       <c r="AU105">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV105">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW105">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX105">
         <v>5</v>
       </c>
       <c r="AY105">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ105">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA105">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB105">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BC105">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BD105">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="BE105">
         <v>6.4</v>
       </c>
       <c r="BF105">
-        <v>1.98</v>
+        <v>2.17</v>
       </c>
       <c r="BG105">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="BH105">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="BI105">
+        <v>1.58</v>
+      </c>
+      <c r="BJ105">
+        <v>2.2</v>
+      </c>
+      <c r="BK105">
+        <v>1.95</v>
+      </c>
+      <c r="BL105">
+        <v>1.74</v>
+      </c>
+      <c r="BM105">
+        <v>2.48</v>
+      </c>
+      <c r="BN105">
         <v>1.47</v>
       </c>
-      <c r="BJ105">
-        <v>2.48</v>
-      </c>
-      <c r="BK105">
-        <v>1.76</v>
-      </c>
-      <c r="BL105">
-        <v>1.94</v>
-      </c>
-      <c r="BM105">
-        <v>2.2</v>
-      </c>
-      <c r="BN105">
-        <v>1.58</v>
-      </c>
       <c r="BO105">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="BP105">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="106" spans="1:68">
@@ -22709,7 +22712,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>7468457</v>
+        <v>7468462</v>
       </c>
       <c r="C106" t="s">
         <v>68</v>
@@ -22721,46 +22724,46 @@
         <v>45619.875</v>
       </c>
       <c r="F106">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H106" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O106" t="s">
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>229</v>
+        <v>90</v>
       </c>
       <c r="Q106">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R106">
         <v>2.25</v>
       </c>
       <c r="S106">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="T106">
         <v>1.36</v>
@@ -22781,13 +22784,13 @@
         <v>1.1</v>
       </c>
       <c r="Z106">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="AA106">
-        <v>3.37</v>
+        <v>3.34</v>
       </c>
       <c r="AB106">
-        <v>3.84</v>
+        <v>3.47</v>
       </c>
       <c r="AC106">
         <v>1.04</v>
@@ -22802,112 +22805,112 @@
         <v>4</v>
       </c>
       <c r="AG106">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AH106">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="AI106">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AJ106">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AK106">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AL106">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AM106">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AN106">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AO106">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ106">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR106">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="AS106">
-        <v>1.41</v>
+        <v>0.89</v>
       </c>
       <c r="AT106">
-        <v>3.02</v>
+        <v>2.38</v>
       </c>
       <c r="AU106">
+        <v>7</v>
+      </c>
+      <c r="AV106">
         <v>6</v>
       </c>
-      <c r="AV106">
-        <v>4</v>
-      </c>
       <c r="AW106">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY106">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ106">
         <v>11</v>
       </c>
       <c r="BA106">
+        <v>2</v>
+      </c>
+      <c r="BB106">
+        <v>2</v>
+      </c>
+      <c r="BC106">
         <v>4</v>
       </c>
-      <c r="BB106">
-        <v>7</v>
-      </c>
-      <c r="BC106">
-        <v>11</v>
-      </c>
       <c r="BD106">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="BE106">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF106">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="BG106">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="BH106">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="BI106">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="BJ106">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="BK106">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="BL106">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="BM106">
-        <v>2.65</v>
+        <v>2.48</v>
       </c>
       <c r="BN106">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="BO106">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="BP106">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="107" spans="1:68">
@@ -22915,7 +22918,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>7468459</v>
+        <v>7468460</v>
       </c>
       <c r="C107" t="s">
         <v>68</v>
@@ -22930,190 +22933,190 @@
         <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H107" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107">
         <v>1</v>
       </c>
       <c r="L107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O107" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="Q107">
         <v>2.6</v>
       </c>
       <c r="R107">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S107">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="T107">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U107">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V107">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="W107">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="X107">
+        <v>11</v>
+      </c>
+      <c r="Y107">
+        <v>1.05</v>
+      </c>
+      <c r="Z107">
+        <v>1.87</v>
+      </c>
+      <c r="AA107">
+        <v>3.2</v>
+      </c>
+      <c r="AB107">
+        <v>3.95</v>
+      </c>
+      <c r="AC107">
+        <v>1.09</v>
+      </c>
+      <c r="AD107">
         <v>8</v>
       </c>
-      <c r="Y107">
-        <v>1.08</v>
-      </c>
-      <c r="Z107">
-        <v>1.9</v>
-      </c>
-      <c r="AA107">
-        <v>3.6</v>
-      </c>
-      <c r="AB107">
-        <v>3.8</v>
-      </c>
-      <c r="AC107">
-        <v>1.05</v>
-      </c>
-      <c r="AD107">
-        <v>11</v>
-      </c>
       <c r="AE107">
+        <v>1.44</v>
+      </c>
+      <c r="AF107">
+        <v>2.8</v>
+      </c>
+      <c r="AG107">
+        <v>2</v>
+      </c>
+      <c r="AH107">
+        <v>1.73</v>
+      </c>
+      <c r="AI107">
+        <v>2.05</v>
+      </c>
+      <c r="AJ107">
+        <v>1.7</v>
+      </c>
+      <c r="AK107">
+        <v>1.2</v>
+      </c>
+      <c r="AL107">
+        <v>1.28</v>
+      </c>
+      <c r="AM107">
+        <v>1.96</v>
+      </c>
+      <c r="AN107">
+        <v>1</v>
+      </c>
+      <c r="AO107">
+        <v>0.6</v>
+      </c>
+      <c r="AP107">
+        <v>0.83</v>
+      </c>
+      <c r="AQ107">
+        <v>1</v>
+      </c>
+      <c r="AR107">
+        <v>1.38</v>
+      </c>
+      <c r="AS107">
+        <v>0.97</v>
+      </c>
+      <c r="AT107">
+        <v>2.35</v>
+      </c>
+      <c r="AU107">
+        <v>5</v>
+      </c>
+      <c r="AV107">
+        <v>6</v>
+      </c>
+      <c r="AW107">
+        <v>8</v>
+      </c>
+      <c r="AX107">
+        <v>2</v>
+      </c>
+      <c r="AY107">
+        <v>19</v>
+      </c>
+      <c r="AZ107">
+        <v>9</v>
+      </c>
+      <c r="BA107">
+        <v>10</v>
+      </c>
+      <c r="BB107">
+        <v>2</v>
+      </c>
+      <c r="BC107">
+        <v>12</v>
+      </c>
+      <c r="BD107">
+        <v>1.5</v>
+      </c>
+      <c r="BE107">
+        <v>6.75</v>
+      </c>
+      <c r="BF107">
+        <v>2.9</v>
+      </c>
+      <c r="BG107">
         <v>1.3</v>
       </c>
-      <c r="AF107">
-        <v>3.6</v>
-      </c>
-      <c r="AG107">
+      <c r="BH107">
+        <v>3.1</v>
+      </c>
+      <c r="BI107">
+        <v>1.52</v>
+      </c>
+      <c r="BJ107">
+        <v>2.32</v>
+      </c>
+      <c r="BK107">
+        <v>1.86</v>
+      </c>
+      <c r="BL107">
         <v>1.82</v>
       </c>
-      <c r="AH107">
-        <v>1.88</v>
-      </c>
-      <c r="AI107">
-        <v>1.75</v>
-      </c>
-      <c r="AJ107">
-        <v>2</v>
-      </c>
-      <c r="AK107">
-        <v>1.26</v>
-      </c>
-      <c r="AL107">
-        <v>1.25</v>
-      </c>
-      <c r="AM107">
-        <v>1.88</v>
-      </c>
-      <c r="AN107">
-        <v>1.6</v>
-      </c>
-      <c r="AO107">
-        <v>0.2</v>
-      </c>
-      <c r="AP107">
-        <v>1.83</v>
-      </c>
-      <c r="AQ107">
-        <v>0.17</v>
-      </c>
-      <c r="AR107">
-        <v>1.43</v>
-      </c>
-      <c r="AS107">
-        <v>1.25</v>
-      </c>
-      <c r="AT107">
-        <v>2.68</v>
-      </c>
-      <c r="AU107">
-        <v>3</v>
-      </c>
-      <c r="AV107">
-        <v>2</v>
-      </c>
-      <c r="AW107">
-        <v>3</v>
-      </c>
-      <c r="AX107">
-        <v>1</v>
-      </c>
-      <c r="AY107">
-        <v>6</v>
-      </c>
-      <c r="AZ107">
-        <v>5</v>
-      </c>
-      <c r="BA107">
-        <v>3</v>
-      </c>
-      <c r="BB107">
-        <v>3</v>
-      </c>
-      <c r="BC107">
-        <v>6</v>
-      </c>
-      <c r="BD107">
-        <v>1.7</v>
-      </c>
-      <c r="BE107">
-        <v>6.1</v>
-      </c>
-      <c r="BF107">
-        <v>2.45</v>
-      </c>
-      <c r="BG107">
-        <v>1.41</v>
-      </c>
-      <c r="BH107">
-        <v>2.63</v>
-      </c>
-      <c r="BI107">
-        <v>1.72</v>
-      </c>
-      <c r="BJ107">
-        <v>1.98</v>
-      </c>
-      <c r="BK107">
-        <v>2.15</v>
-      </c>
-      <c r="BL107">
-        <v>1.61</v>
-      </c>
       <c r="BM107">
-        <v>2.8</v>
+        <v>2.33</v>
       </c>
       <c r="BN107">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="BO107">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="BP107">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="108" spans="1:68">
@@ -23121,7 +23124,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7468460</v>
+        <v>7468457</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -23130,16 +23133,16 @@
         <v>69</v>
       </c>
       <c r="E108" s="2">
-        <v>45620.54166666666</v>
+        <v>45619.875</v>
       </c>
       <c r="F108">
         <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H108" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -23151,175 +23154,381 @@
         <v>1</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O108" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q108">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="S108">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="T108">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="U108">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V108">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="W108">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="X108">
+        <v>7</v>
+      </c>
+      <c r="Y108">
+        <v>1.1</v>
+      </c>
+      <c r="Z108">
+        <v>1.84</v>
+      </c>
+      <c r="AA108">
+        <v>3.37</v>
+      </c>
+      <c r="AB108">
+        <v>3.84</v>
+      </c>
+      <c r="AC108">
+        <v>1.04</v>
+      </c>
+      <c r="AD108">
+        <v>13</v>
+      </c>
+      <c r="AE108">
+        <v>1.26</v>
+      </c>
+      <c r="AF108">
+        <v>4</v>
+      </c>
+      <c r="AG108">
+        <v>1.83</v>
+      </c>
+      <c r="AH108">
+        <v>2.01</v>
+      </c>
+      <c r="AI108">
+        <v>1.75</v>
+      </c>
+      <c r="AJ108">
+        <v>2</v>
+      </c>
+      <c r="AK108">
+        <v>1.22</v>
+      </c>
+      <c r="AL108">
+        <v>1.22</v>
+      </c>
+      <c r="AM108">
+        <v>2.05</v>
+      </c>
+      <c r="AN108">
+        <v>1.8</v>
+      </c>
+      <c r="AO108">
+        <v>0.4</v>
+      </c>
+      <c r="AP108">
+        <v>2</v>
+      </c>
+      <c r="AQ108">
+        <v>0.33</v>
+      </c>
+      <c r="AR108">
+        <v>1.61</v>
+      </c>
+      <c r="AS108">
+        <v>1.41</v>
+      </c>
+      <c r="AT108">
+        <v>3.02</v>
+      </c>
+      <c r="AU108">
+        <v>6</v>
+      </c>
+      <c r="AV108">
+        <v>4</v>
+      </c>
+      <c r="AW108">
+        <v>6</v>
+      </c>
+      <c r="AX108">
+        <v>1</v>
+      </c>
+      <c r="AY108">
+        <v>16</v>
+      </c>
+      <c r="AZ108">
         <v>11</v>
       </c>
-      <c r="Y108">
-        <v>1.05</v>
-      </c>
-      <c r="Z108">
-        <v>1.87</v>
-      </c>
-      <c r="AA108">
-        <v>3.2</v>
-      </c>
-      <c r="AB108">
-        <v>3.95</v>
-      </c>
-      <c r="AC108">
-        <v>1.09</v>
-      </c>
-      <c r="AD108">
-        <v>8</v>
-      </c>
-      <c r="AE108">
-        <v>1.44</v>
-      </c>
-      <c r="AF108">
-        <v>2.8</v>
-      </c>
-      <c r="AG108">
-        <v>2</v>
-      </c>
-      <c r="AH108">
-        <v>1.73</v>
-      </c>
-      <c r="AI108">
-        <v>2.05</v>
-      </c>
-      <c r="AJ108">
-        <v>1.7</v>
-      </c>
-      <c r="AK108">
-        <v>1.2</v>
-      </c>
-      <c r="AL108">
-        <v>1.28</v>
-      </c>
-      <c r="AM108">
-        <v>1.96</v>
-      </c>
-      <c r="AN108">
-        <v>1</v>
-      </c>
-      <c r="AO108">
-        <v>0.6</v>
-      </c>
-      <c r="AP108">
-        <v>0.83</v>
-      </c>
-      <c r="AQ108">
-        <v>1</v>
-      </c>
-      <c r="AR108">
-        <v>1.38</v>
-      </c>
-      <c r="AS108">
-        <v>0.97</v>
-      </c>
-      <c r="AT108">
-        <v>2.35</v>
-      </c>
-      <c r="AU108">
-        <v>5</v>
-      </c>
-      <c r="AV108">
-        <v>6</v>
-      </c>
-      <c r="AW108">
-        <v>8</v>
-      </c>
-      <c r="AX108">
-        <v>2</v>
-      </c>
-      <c r="AY108">
-        <v>19</v>
-      </c>
-      <c r="AZ108">
-        <v>9</v>
-      </c>
       <c r="BA108">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BB108">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BC108">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD108">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="BE108">
         <v>6.75</v>
       </c>
       <c r="BF108">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="BG108">
+        <v>1.41</v>
+      </c>
+      <c r="BH108">
+        <v>2.65</v>
+      </c>
+      <c r="BI108">
+        <v>1.68</v>
+      </c>
+      <c r="BJ108">
+        <v>2.04</v>
+      </c>
+      <c r="BK108">
+        <v>2.08</v>
+      </c>
+      <c r="BL108">
+        <v>1.65</v>
+      </c>
+      <c r="BM108">
+        <v>2.65</v>
+      </c>
+      <c r="BN108">
+        <v>1.41</v>
+      </c>
+      <c r="BO108">
+        <v>3.55</v>
+      </c>
+      <c r="BP108">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7468459</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45619.875</v>
+      </c>
+      <c r="F109">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>81</v>
+      </c>
+      <c r="H109" t="s">
+        <v>78</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109" t="s">
+        <v>166</v>
+      </c>
+      <c r="P109" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q109">
+        <v>2.6</v>
+      </c>
+      <c r="R109">
+        <v>2.2</v>
+      </c>
+      <c r="S109">
+        <v>4.33</v>
+      </c>
+      <c r="T109">
+        <v>1.4</v>
+      </c>
+      <c r="U109">
+        <v>2.75</v>
+      </c>
+      <c r="V109">
+        <v>2.75</v>
+      </c>
+      <c r="W109">
+        <v>1.4</v>
+      </c>
+      <c r="X109">
+        <v>8</v>
+      </c>
+      <c r="Y109">
+        <v>1.08</v>
+      </c>
+      <c r="Z109">
+        <v>1.9</v>
+      </c>
+      <c r="AA109">
+        <v>3.6</v>
+      </c>
+      <c r="AB109">
+        <v>3.8</v>
+      </c>
+      <c r="AC109">
+        <v>1.05</v>
+      </c>
+      <c r="AD109">
+        <v>11</v>
+      </c>
+      <c r="AE109">
         <v>1.3</v>
       </c>
-      <c r="BH108">
-        <v>3.1</v>
-      </c>
-      <c r="BI108">
-        <v>1.52</v>
-      </c>
-      <c r="BJ108">
-        <v>2.32</v>
-      </c>
-      <c r="BK108">
-        <v>1.86</v>
-      </c>
-      <c r="BL108">
+      <c r="AF109">
+        <v>3.6</v>
+      </c>
+      <c r="AG109">
         <v>1.82</v>
       </c>
-      <c r="BM108">
-        <v>2.33</v>
-      </c>
-      <c r="BN108">
-        <v>1.5</v>
-      </c>
-      <c r="BO108">
-        <v>3.05</v>
-      </c>
-      <c r="BP108">
-        <v>1.32</v>
+      <c r="AH109">
+        <v>1.88</v>
+      </c>
+      <c r="AI109">
+        <v>1.75</v>
+      </c>
+      <c r="AJ109">
+        <v>2</v>
+      </c>
+      <c r="AK109">
+        <v>1.26</v>
+      </c>
+      <c r="AL109">
+        <v>1.25</v>
+      </c>
+      <c r="AM109">
+        <v>1.88</v>
+      </c>
+      <c r="AN109">
+        <v>1.6</v>
+      </c>
+      <c r="AO109">
+        <v>0.2</v>
+      </c>
+      <c r="AP109">
+        <v>1.83</v>
+      </c>
+      <c r="AQ109">
+        <v>0.17</v>
+      </c>
+      <c r="AR109">
+        <v>1.43</v>
+      </c>
+      <c r="AS109">
+        <v>1.25</v>
+      </c>
+      <c r="AT109">
+        <v>2.68</v>
+      </c>
+      <c r="AU109">
+        <v>3</v>
+      </c>
+      <c r="AV109">
+        <v>2</v>
+      </c>
+      <c r="AW109">
+        <v>3</v>
+      </c>
+      <c r="AX109">
+        <v>1</v>
+      </c>
+      <c r="AY109">
+        <v>6</v>
+      </c>
+      <c r="AZ109">
+        <v>5</v>
+      </c>
+      <c r="BA109">
+        <v>3</v>
+      </c>
+      <c r="BB109">
+        <v>3</v>
+      </c>
+      <c r="BC109">
+        <v>6</v>
+      </c>
+      <c r="BD109">
+        <v>1.7</v>
+      </c>
+      <c r="BE109">
+        <v>6.1</v>
+      </c>
+      <c r="BF109">
+        <v>2.45</v>
+      </c>
+      <c r="BG109">
+        <v>1.41</v>
+      </c>
+      <c r="BH109">
+        <v>2.63</v>
+      </c>
+      <c r="BI109">
+        <v>1.72</v>
+      </c>
+      <c r="BJ109">
+        <v>1.98</v>
+      </c>
+      <c r="BK109">
+        <v>2.15</v>
+      </c>
+      <c r="BL109">
+        <v>1.61</v>
+      </c>
+      <c r="BM109">
+        <v>2.8</v>
+      </c>
+      <c r="BN109">
+        <v>1.37</v>
+      </c>
+      <c r="BO109">
+        <v>3.65</v>
+      </c>
+      <c r="BP109">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -493,28 +493,28 @@
     <t>['6', '12', '84']</t>
   </si>
   <si>
-    <t>['35', '84', '90+1']</t>
+    <t>['5', '24', '90+1']</t>
   </si>
   <si>
-    <t>['5', '24', '90+1']</t>
+    <t>['35', '84', '90+1']</t>
   </si>
   <si>
     <t>['80']</t>
   </si>
   <si>
+    <t>['47']</t>
+  </si>
+  <si>
     <t>['55']</t>
   </si>
   <si>
-    <t>['47']</t>
+    <t>['45']</t>
   </si>
   <si>
     <t>['90+3']</t>
   </si>
   <si>
     <t>['54', '62']</t>
-  </si>
-  <si>
-    <t>['45']</t>
   </si>
   <si>
     <t>['3', '84', '86', '90']</t>
@@ -21682,7 +21682,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>7468661</v>
+        <v>7468461</v>
       </c>
       <c r="C101" t="s">
         <v>68</v>
@@ -21691,94 +21691,94 @@
         <v>69</v>
       </c>
       <c r="E101" s="2">
-        <v>45617.875</v>
+        <v>45618.625</v>
       </c>
       <c r="F101">
         <v>12</v>
       </c>
       <c r="G101" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H101" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L101">
         <v>3</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N101">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O101" t="s">
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="Q101">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="R101">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="S101">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="T101">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U101">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="V101">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="W101">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="X101">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y101">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="Z101">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AA101">
-        <v>5.75</v>
+        <v>4.4</v>
       </c>
       <c r="AB101">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AC101">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD101">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE101">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AF101">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AG101">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="AH101">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="AI101">
         <v>1.75</v>
@@ -21787,100 +21787,100 @@
         <v>2</v>
       </c>
       <c r="AK101">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="AL101">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="AM101">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="AN101">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="AO101">
+        <v>0.6</v>
+      </c>
+      <c r="AP101">
+        <v>2</v>
+      </c>
+      <c r="AQ101">
+        <v>0.5</v>
+      </c>
+      <c r="AR101">
+        <v>1.51</v>
+      </c>
+      <c r="AS101">
+        <v>1.27</v>
+      </c>
+      <c r="AT101">
+        <v>2.78</v>
+      </c>
+      <c r="AU101">
+        <v>-1</v>
+      </c>
+      <c r="AV101">
+        <v>-1</v>
+      </c>
+      <c r="AW101">
+        <v>-1</v>
+      </c>
+      <c r="AX101">
+        <v>-1</v>
+      </c>
+      <c r="AY101">
+        <v>-1</v>
+      </c>
+      <c r="AZ101">
+        <v>-1</v>
+      </c>
+      <c r="BA101">
+        <v>2</v>
+      </c>
+      <c r="BB101">
+        <v>8</v>
+      </c>
+      <c r="BC101">
+        <v>10</v>
+      </c>
+      <c r="BD101">
         <v>1.4</v>
       </c>
-      <c r="AP101">
-        <v>3</v>
-      </c>
-      <c r="AQ101">
-        <v>1.17</v>
-      </c>
-      <c r="AR101">
-        <v>2.25</v>
-      </c>
-      <c r="AS101">
-        <v>1.26</v>
-      </c>
-      <c r="AT101">
-        <v>3.51</v>
-      </c>
-      <c r="AU101">
-        <v>9</v>
-      </c>
-      <c r="AV101">
-        <v>3</v>
-      </c>
-      <c r="AW101">
-        <v>4</v>
-      </c>
-      <c r="AX101">
-        <v>6</v>
-      </c>
-      <c r="AY101">
-        <v>18</v>
-      </c>
-      <c r="AZ101">
-        <v>12</v>
-      </c>
-      <c r="BA101">
-        <v>7</v>
-      </c>
-      <c r="BB101">
-        <v>5</v>
-      </c>
-      <c r="BC101">
-        <v>12</v>
-      </c>
-      <c r="BD101">
-        <v>1.23</v>
-      </c>
       <c r="BE101">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="BF101">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="BG101">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="BH101">
-        <v>3.05</v>
+        <v>2.5</v>
       </c>
       <c r="BI101">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="BJ101">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="BK101">
-        <v>1.89</v>
+        <v>2.2</v>
       </c>
       <c r="BL101">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="BM101">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="BN101">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="BO101">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="BP101">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="102" spans="1:68">
@@ -21888,7 +21888,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7468461</v>
+        <v>7468661</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
@@ -21897,94 +21897,94 @@
         <v>69</v>
       </c>
       <c r="E102" s="2">
-        <v>45617.875</v>
+        <v>45618.70833333334</v>
       </c>
       <c r="F102">
         <v>12</v>
       </c>
       <c r="G102" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H102" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L102">
         <v>3</v>
       </c>
       <c r="M102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O102" t="s">
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>90</v>
       </c>
       <c r="Q102">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="R102">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="S102">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="T102">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U102">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V102">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="W102">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="X102">
+        <v>5</v>
+      </c>
+      <c r="Y102">
+        <v>1.17</v>
+      </c>
+      <c r="Z102">
+        <v>1.33</v>
+      </c>
+      <c r="AA102">
+        <v>5.75</v>
+      </c>
+      <c r="AB102">
+        <v>8</v>
+      </c>
+      <c r="AC102">
+        <v>1.01</v>
+      </c>
+      <c r="AD102">
+        <v>23</v>
+      </c>
+      <c r="AE102">
+        <v>1.14</v>
+      </c>
+      <c r="AF102">
         <v>6</v>
       </c>
-      <c r="Y102">
-        <v>1.13</v>
-      </c>
-      <c r="Z102">
-        <v>1.55</v>
-      </c>
-      <c r="AA102">
-        <v>4.4</v>
-      </c>
-      <c r="AB102">
-        <v>5.5</v>
-      </c>
-      <c r="AC102">
-        <v>1.03</v>
-      </c>
-      <c r="AD102">
-        <v>15</v>
-      </c>
-      <c r="AE102">
-        <v>1.2</v>
-      </c>
-      <c r="AF102">
-        <v>4.5</v>
-      </c>
       <c r="AG102">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="AH102">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="AI102">
         <v>1.75</v>
@@ -21993,100 +21993,100 @@
         <v>2</v>
       </c>
       <c r="AK102">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="AL102">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AM102">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="AN102">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="AO102">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ102">
-        <v>0.5</v>
+        <v>1.17</v>
       </c>
       <c r="AR102">
-        <v>1.51</v>
+        <v>2.25</v>
       </c>
       <c r="AS102">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AT102">
-        <v>2.78</v>
+        <v>3.51</v>
       </c>
       <c r="AU102">
+        <v>-1</v>
+      </c>
+      <c r="AV102">
+        <v>-1</v>
+      </c>
+      <c r="AW102">
+        <v>-1</v>
+      </c>
+      <c r="AX102">
+        <v>-1</v>
+      </c>
+      <c r="AY102">
+        <v>-1</v>
+      </c>
+      <c r="AZ102">
+        <v>-1</v>
+      </c>
+      <c r="BA102">
+        <v>7</v>
+      </c>
+      <c r="BB102">
         <v>5</v>
       </c>
-      <c r="AV102">
-        <v>5</v>
-      </c>
-      <c r="AW102">
-        <v>4</v>
-      </c>
-      <c r="AX102">
-        <v>6</v>
-      </c>
-      <c r="AY102">
-        <v>11</v>
-      </c>
-      <c r="AZ102">
-        <v>14</v>
-      </c>
-      <c r="BA102">
-        <v>2</v>
-      </c>
-      <c r="BB102">
+      <c r="BC102">
+        <v>12</v>
+      </c>
+      <c r="BD102">
+        <v>1.23</v>
+      </c>
+      <c r="BE102">
         <v>8</v>
       </c>
-      <c r="BC102">
-        <v>10</v>
-      </c>
-      <c r="BD102">
-        <v>1.4</v>
-      </c>
-      <c r="BE102">
-        <v>6.75</v>
-      </c>
       <c r="BF102">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="BG102">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="BH102">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="BI102">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="BJ102">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="BK102">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="BL102">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="BM102">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="BN102">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="BO102">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="BP102">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="103" spans="1:68">
@@ -22103,10 +22103,10 @@
         <v>69</v>
       </c>
       <c r="E103" s="2">
-        <v>45618.875</v>
+        <v>45619.54166666666</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G103" t="s">
         <v>83</v>
@@ -22229,22 +22229,22 @@
         <v>2.89</v>
       </c>
       <c r="AU103">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AV103">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW103">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AX103">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY103">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="AZ103">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BA103">
         <v>6</v>
@@ -22300,7 +22300,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>7468463</v>
+        <v>7468458</v>
       </c>
       <c r="C104" t="s">
         <v>68</v>
@@ -22309,196 +22309,196 @@
         <v>69</v>
       </c>
       <c r="E104" s="2">
-        <v>45618.875</v>
+        <v>45619.625</v>
       </c>
       <c r="F104">
         <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H104" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104">
         <v>1</v>
       </c>
       <c r="M104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O104" t="s">
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="Q104">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R104">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S104">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T104">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U104">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V104">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W104">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X104">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y104">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z104">
-        <v>2.59</v>
+        <v>2.31</v>
       </c>
       <c r="AA104">
-        <v>3.48</v>
+        <v>3.42</v>
       </c>
       <c r="AB104">
-        <v>2.33</v>
+        <v>2.65</v>
       </c>
       <c r="AC104">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD104">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE104">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AF104">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AG104">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AH104">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="AI104">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AJ104">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AK104">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AL104">
         <v>1.24</v>
       </c>
       <c r="AM104">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AN104">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AO104">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AP104">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AQ104">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AR104">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="AS104">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT104">
-        <v>2.17</v>
+        <v>2.35</v>
       </c>
       <c r="AU104">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AV104">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AW104">
+        <v>-1</v>
+      </c>
+      <c r="AX104">
+        <v>-1</v>
+      </c>
+      <c r="AY104">
+        <v>-1</v>
+      </c>
+      <c r="AZ104">
+        <v>-1</v>
+      </c>
+      <c r="BA104">
         <v>5</v>
       </c>
-      <c r="AX104">
-        <v>5</v>
-      </c>
-      <c r="AY104">
-        <v>15</v>
-      </c>
-      <c r="AZ104">
-        <v>14</v>
-      </c>
-      <c r="BA104">
-        <v>4</v>
-      </c>
       <c r="BB104">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BC104">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BD104">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="BE104">
         <v>6.4</v>
       </c>
       <c r="BF104">
-        <v>1.98</v>
+        <v>2.17</v>
       </c>
       <c r="BG104">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="BH104">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="BI104">
+        <v>1.58</v>
+      </c>
+      <c r="BJ104">
+        <v>2.2</v>
+      </c>
+      <c r="BK104">
+        <v>1.95</v>
+      </c>
+      <c r="BL104">
+        <v>1.74</v>
+      </c>
+      <c r="BM104">
+        <v>2.48</v>
+      </c>
+      <c r="BN104">
         <v>1.47</v>
       </c>
-      <c r="BJ104">
-        <v>2.48</v>
-      </c>
-      <c r="BK104">
-        <v>1.76</v>
-      </c>
-      <c r="BL104">
-        <v>1.94</v>
-      </c>
-      <c r="BM104">
-        <v>2.2</v>
-      </c>
-      <c r="BN104">
-        <v>1.58</v>
-      </c>
       <c r="BO104">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="BP104">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="105" spans="1:68">
@@ -22506,7 +22506,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7468458</v>
+        <v>7468463</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -22515,196 +22515,196 @@
         <v>69</v>
       </c>
       <c r="E105" s="2">
-        <v>45618.875</v>
+        <v>45619.70833333334</v>
       </c>
       <c r="F105">
         <v>12</v>
       </c>
       <c r="G105" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H105" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105">
         <v>1</v>
       </c>
       <c r="M105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O105" t="s">
         <v>163</v>
       </c>
       <c r="P105" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="Q105">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R105">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S105">
+        <v>3</v>
+      </c>
+      <c r="T105">
+        <v>1.3</v>
+      </c>
+      <c r="U105">
         <v>3.4</v>
       </c>
-      <c r="T105">
-        <v>1.33</v>
-      </c>
-      <c r="U105">
-        <v>3.25</v>
-      </c>
       <c r="V105">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W105">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X105">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y105">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z105">
-        <v>2.31</v>
+        <v>2.59</v>
       </c>
       <c r="AA105">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="AB105">
-        <v>2.65</v>
+        <v>2.33</v>
       </c>
       <c r="AC105">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD105">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE105">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AF105">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AG105">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AH105">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="AI105">
+        <v>1.5</v>
+      </c>
+      <c r="AJ105">
+        <v>2.5</v>
+      </c>
+      <c r="AK105">
         <v>1.57</v>
-      </c>
-      <c r="AJ105">
-        <v>2.25</v>
-      </c>
-      <c r="AK105">
-        <v>1.44</v>
       </c>
       <c r="AL105">
         <v>1.24</v>
       </c>
       <c r="AM105">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AN105">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AO105">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AP105">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ105">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR105">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="AS105">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AT105">
-        <v>2.35</v>
+        <v>2.17</v>
       </c>
       <c r="AU105">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV105">
+        <v>-1</v>
+      </c>
+      <c r="AW105">
+        <v>-1</v>
+      </c>
+      <c r="AX105">
+        <v>-1</v>
+      </c>
+      <c r="AY105">
+        <v>-1</v>
+      </c>
+      <c r="AZ105">
+        <v>-1</v>
+      </c>
+      <c r="BA105">
         <v>4</v>
       </c>
-      <c r="AW105">
-        <v>4</v>
-      </c>
-      <c r="AX105">
-        <v>5</v>
-      </c>
-      <c r="AY105">
-        <v>12</v>
-      </c>
-      <c r="AZ105">
-        <v>12</v>
-      </c>
-      <c r="BA105">
-        <v>5</v>
-      </c>
       <c r="BB105">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BC105">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="BD105">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="BE105">
         <v>6.4</v>
       </c>
       <c r="BF105">
-        <v>2.17</v>
+        <v>1.98</v>
       </c>
       <c r="BG105">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="BH105">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="BI105">
+        <v>1.47</v>
+      </c>
+      <c r="BJ105">
+        <v>2.48</v>
+      </c>
+      <c r="BK105">
+        <v>1.76</v>
+      </c>
+      <c r="BL105">
+        <v>1.94</v>
+      </c>
+      <c r="BM105">
+        <v>2.2</v>
+      </c>
+      <c r="BN105">
         <v>1.58</v>
       </c>
-      <c r="BJ105">
-        <v>2.2</v>
-      </c>
-      <c r="BK105">
-        <v>1.95</v>
-      </c>
-      <c r="BL105">
-        <v>1.74</v>
-      </c>
-      <c r="BM105">
-        <v>2.48</v>
-      </c>
-      <c r="BN105">
-        <v>1.47</v>
-      </c>
       <c r="BO105">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="BP105">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="106" spans="1:68">
@@ -22712,7 +22712,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>7468462</v>
+        <v>7468459</v>
       </c>
       <c r="C106" t="s">
         <v>68</v>
@@ -22721,25 +22721,25 @@
         <v>69</v>
       </c>
       <c r="E106" s="2">
-        <v>45619.875</v>
+        <v>45620.45833333334</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H106" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106">
         <v>1</v>
@@ -22757,160 +22757,160 @@
         <v>90</v>
       </c>
       <c r="Q106">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R106">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S106">
         <v>4.33</v>
       </c>
       <c r="T106">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U106">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V106">
+        <v>2.75</v>
+      </c>
+      <c r="W106">
+        <v>1.4</v>
+      </c>
+      <c r="X106">
+        <v>8</v>
+      </c>
+      <c r="Y106">
+        <v>1.08</v>
+      </c>
+      <c r="Z106">
+        <v>1.9</v>
+      </c>
+      <c r="AA106">
+        <v>3.6</v>
+      </c>
+      <c r="AB106">
+        <v>3.8</v>
+      </c>
+      <c r="AC106">
+        <v>1.05</v>
+      </c>
+      <c r="AD106">
+        <v>11</v>
+      </c>
+      <c r="AE106">
+        <v>1.3</v>
+      </c>
+      <c r="AF106">
+        <v>3.6</v>
+      </c>
+      <c r="AG106">
+        <v>1.82</v>
+      </c>
+      <c r="AH106">
+        <v>1.88</v>
+      </c>
+      <c r="AI106">
+        <v>1.75</v>
+      </c>
+      <c r="AJ106">
+        <v>2</v>
+      </c>
+      <c r="AK106">
+        <v>1.26</v>
+      </c>
+      <c r="AL106">
+        <v>1.25</v>
+      </c>
+      <c r="AM106">
+        <v>1.88</v>
+      </c>
+      <c r="AN106">
+        <v>1.6</v>
+      </c>
+      <c r="AO106">
+        <v>0.2</v>
+      </c>
+      <c r="AP106">
+        <v>1.83</v>
+      </c>
+      <c r="AQ106">
+        <v>0.17</v>
+      </c>
+      <c r="AR106">
+        <v>1.43</v>
+      </c>
+      <c r="AS106">
+        <v>1.25</v>
+      </c>
+      <c r="AT106">
+        <v>2.68</v>
+      </c>
+      <c r="AU106">
+        <v>-1</v>
+      </c>
+      <c r="AV106">
+        <v>-1</v>
+      </c>
+      <c r="AW106">
+        <v>-1</v>
+      </c>
+      <c r="AX106">
+        <v>-1</v>
+      </c>
+      <c r="AY106">
+        <v>-1</v>
+      </c>
+      <c r="AZ106">
+        <v>-1</v>
+      </c>
+      <c r="BA106">
+        <v>3</v>
+      </c>
+      <c r="BB106">
+        <v>3</v>
+      </c>
+      <c r="BC106">
+        <v>6</v>
+      </c>
+      <c r="BD106">
+        <v>1.7</v>
+      </c>
+      <c r="BE106">
+        <v>6.1</v>
+      </c>
+      <c r="BF106">
+        <v>2.45</v>
+      </c>
+      <c r="BG106">
+        <v>1.41</v>
+      </c>
+      <c r="BH106">
         <v>2.63</v>
       </c>
-      <c r="W106">
-        <v>1.44</v>
-      </c>
-      <c r="X106">
-        <v>7</v>
-      </c>
-      <c r="Y106">
-        <v>1.1</v>
-      </c>
-      <c r="Z106">
-        <v>1.95</v>
-      </c>
-      <c r="AA106">
-        <v>3.34</v>
-      </c>
-      <c r="AB106">
-        <v>3.47</v>
-      </c>
-      <c r="AC106">
-        <v>1.04</v>
-      </c>
-      <c r="AD106">
-        <v>13</v>
-      </c>
-      <c r="AE106">
-        <v>1.26</v>
-      </c>
-      <c r="AF106">
-        <v>4</v>
-      </c>
-      <c r="AG106">
+      <c r="BI106">
         <v>1.72</v>
       </c>
-      <c r="AH106">
-        <v>2</v>
-      </c>
-      <c r="AI106">
-        <v>1.7</v>
-      </c>
-      <c r="AJ106">
-        <v>2.05</v>
-      </c>
-      <c r="AK106">
-        <v>1.24</v>
-      </c>
-      <c r="AL106">
-        <v>1.24</v>
-      </c>
-      <c r="AM106">
+      <c r="BJ106">
         <v>1.98</v>
       </c>
-      <c r="AN106">
-        <v>2.4</v>
-      </c>
-      <c r="AO106">
-        <v>1.2</v>
-      </c>
-      <c r="AP106">
-        <v>2.5</v>
-      </c>
-      <c r="AQ106">
-        <v>1</v>
-      </c>
-      <c r="AR106">
-        <v>1.49</v>
-      </c>
-      <c r="AS106">
-        <v>0.89</v>
-      </c>
-      <c r="AT106">
-        <v>2.38</v>
-      </c>
-      <c r="AU106">
-        <v>7</v>
-      </c>
-      <c r="AV106">
-        <v>6</v>
-      </c>
-      <c r="AW106">
-        <v>3</v>
-      </c>
-      <c r="AX106">
-        <v>3</v>
-      </c>
-      <c r="AY106">
-        <v>11</v>
-      </c>
-      <c r="AZ106">
-        <v>11</v>
-      </c>
-      <c r="BA106">
-        <v>2</v>
-      </c>
-      <c r="BB106">
-        <v>2</v>
-      </c>
-      <c r="BC106">
-        <v>4</v>
-      </c>
-      <c r="BD106">
-        <v>1.56</v>
-      </c>
-      <c r="BE106">
-        <v>6.5</v>
-      </c>
-      <c r="BF106">
-        <v>2.65</v>
-      </c>
-      <c r="BG106">
-        <v>1.34</v>
-      </c>
-      <c r="BH106">
-        <v>2.9</v>
-      </c>
-      <c r="BI106">
-        <v>1.58</v>
-      </c>
-      <c r="BJ106">
-        <v>2.18</v>
-      </c>
       <c r="BK106">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="BL106">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="BM106">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="BN106">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="BO106">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="BP106">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="107" spans="1:68">
@@ -22927,7 +22927,7 @@
         <v>69</v>
       </c>
       <c r="E107" s="2">
-        <v>45619.875</v>
+        <v>45620.54166666666</v>
       </c>
       <c r="F107">
         <v>12</v>
@@ -23053,22 +23053,22 @@
         <v>2.35</v>
       </c>
       <c r="AU107">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV107">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AW107">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AX107">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY107">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="AZ107">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BA107">
         <v>10</v>
@@ -23124,7 +23124,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7468457</v>
+        <v>7468462</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -23133,49 +23133,49 @@
         <v>69</v>
       </c>
       <c r="E108" s="2">
-        <v>45619.875</v>
+        <v>45620.54166666666</v>
       </c>
       <c r="F108">
         <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H108" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O108" t="s">
         <v>165</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="Q108">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R108">
         <v>2.25</v>
       </c>
       <c r="S108">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="T108">
         <v>1.36</v>
@@ -23196,13 +23196,13 @@
         <v>1.1</v>
       </c>
       <c r="Z108">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="AA108">
-        <v>3.37</v>
+        <v>3.34</v>
       </c>
       <c r="AB108">
-        <v>3.84</v>
+        <v>3.47</v>
       </c>
       <c r="AC108">
         <v>1.04</v>
@@ -23217,112 +23217,112 @@
         <v>4</v>
       </c>
       <c r="AG108">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AH108">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="AI108">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AJ108">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AK108">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AL108">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AM108">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AN108">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AO108">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="AP108">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ108">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR108">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="AS108">
-        <v>1.41</v>
+        <v>0.89</v>
       </c>
       <c r="AT108">
-        <v>3.02</v>
+        <v>2.38</v>
       </c>
       <c r="AU108">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV108">
+        <v>-1</v>
+      </c>
+      <c r="AW108">
+        <v>-1</v>
+      </c>
+      <c r="AX108">
+        <v>-1</v>
+      </c>
+      <c r="AY108">
+        <v>-1</v>
+      </c>
+      <c r="AZ108">
+        <v>-1</v>
+      </c>
+      <c r="BA108">
+        <v>2</v>
+      </c>
+      <c r="BB108">
+        <v>2</v>
+      </c>
+      <c r="BC108">
         <v>4</v>
       </c>
-      <c r="AW108">
-        <v>6</v>
-      </c>
-      <c r="AX108">
-        <v>1</v>
-      </c>
-      <c r="AY108">
-        <v>16</v>
-      </c>
-      <c r="AZ108">
-        <v>11</v>
-      </c>
-      <c r="BA108">
-        <v>4</v>
-      </c>
-      <c r="BB108">
-        <v>7</v>
-      </c>
-      <c r="BC108">
-        <v>11</v>
-      </c>
       <c r="BD108">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="BE108">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF108">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="BG108">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="BH108">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="BI108">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="BJ108">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="BK108">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="BL108">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="BM108">
-        <v>2.65</v>
+        <v>2.48</v>
       </c>
       <c r="BN108">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="BO108">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="BP108">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="109" spans="1:68">
@@ -23330,7 +23330,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7468459</v>
+        <v>7468457</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23339,94 +23339,94 @@
         <v>69</v>
       </c>
       <c r="E109" s="2">
-        <v>45619.875</v>
+        <v>45620.69791666666</v>
       </c>
       <c r="F109">
         <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H109" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109">
         <v>1</v>
       </c>
       <c r="L109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O109" t="s">
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>90</v>
+        <v>231</v>
       </c>
       <c r="Q109">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="R109">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S109">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="T109">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U109">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V109">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W109">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X109">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y109">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z109">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="AA109">
-        <v>3.6</v>
+        <v>3.37</v>
       </c>
       <c r="AB109">
-        <v>3.8</v>
+        <v>3.84</v>
       </c>
       <c r="AC109">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD109">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE109">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AF109">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AG109">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AH109">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="AI109">
         <v>1.75</v>
@@ -23435,100 +23435,100 @@
         <v>2</v>
       </c>
       <c r="AK109">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AL109">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM109">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AN109">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AO109">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AP109">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ109">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="AR109">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="AS109">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="AT109">
-        <v>2.68</v>
+        <v>3.02</v>
       </c>
       <c r="AU109">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AV109">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW109">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AY109">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AZ109">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BA109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB109">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC109">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD109">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="BE109">
-        <v>6.1</v>
+        <v>6.75</v>
       </c>
       <c r="BF109">
-        <v>2.45</v>
+        <v>3.05</v>
       </c>
       <c r="BG109">
         <v>1.41</v>
       </c>
       <c r="BH109">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="BI109">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="BJ109">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="BK109">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="BL109">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="BM109">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BN109">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="BO109">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="BP109">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -21817,22 +21817,22 @@
         <v>2.78</v>
       </c>
       <c r="AU101">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV101">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW101">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX101">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY101">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ101">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA101">
         <v>2</v>
@@ -22023,22 +22023,22 @@
         <v>3.51</v>
       </c>
       <c r="AU102">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV102">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW102">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX102">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY102">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ102">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA102">
         <v>7</v>
@@ -22229,22 +22229,22 @@
         <v>2.89</v>
       </c>
       <c r="AU103">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV103">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW103">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX103">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY103">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ103">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA103">
         <v>6</v>
@@ -22435,22 +22435,22 @@
         <v>2.35</v>
       </c>
       <c r="AU104">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV104">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW104">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX104">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY104">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ104">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA104">
         <v>5</v>
@@ -22641,22 +22641,22 @@
         <v>2.17</v>
       </c>
       <c r="AU105">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV105">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW105">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX105">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY105">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ105">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA105">
         <v>4</v>
@@ -22847,22 +22847,22 @@
         <v>2.68</v>
       </c>
       <c r="AU106">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV106">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW106">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX106">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY106">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ106">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA106">
         <v>3</v>
@@ -23053,22 +23053,22 @@
         <v>2.35</v>
       </c>
       <c r="AU107">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV107">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW107">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AX107">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY107">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="AZ107">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA107">
         <v>10</v>
@@ -23259,22 +23259,22 @@
         <v>2.38</v>
       </c>
       <c r="AU108">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV108">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW108">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX108">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY108">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ108">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA108">
         <v>2</v>
@@ -23465,22 +23465,22 @@
         <v>3.02</v>
       </c>
       <c r="AU109">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV109">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW109">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX109">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY109">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ109">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA109">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,6 +517,15 @@
     <t>['54', '62']</t>
   </si>
   <si>
+    <t>['39', '45+6', '53', '61', '67']</t>
+  </si>
+  <si>
+    <t>['12', '45+1', '90+2']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -710,6 +719,12 @@
   </si>
   <si>
     <t>['19']</t>
+  </si>
+  <si>
+    <t>['23', '61']</t>
+  </si>
+  <si>
+    <t>['85']</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1330,7 +1345,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1536,7 +1551,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1614,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ3">
         <v>2.57</v>
@@ -1742,7 +1757,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1820,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ4">
         <v>1.83</v>
@@ -2029,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="AQ5">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2154,7 +2169,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2360,7 +2375,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2441,7 +2456,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ7">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2647,7 +2662,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ8">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2853,7 +2868,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3056,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3262,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -3390,7 +3405,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -3802,7 +3817,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4626,7 +4641,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4832,7 +4847,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5038,7 +5053,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5119,7 +5134,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR20">
         <v>0.4</v>
@@ -5322,10 +5337,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ21">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR21">
         <v>1.56</v>
@@ -5450,7 +5465,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -5531,7 +5546,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ22">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR22">
         <v>1.21</v>
@@ -5656,7 +5671,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -5862,7 +5877,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -5943,7 +5958,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR24">
         <v>1.57</v>
@@ -6068,7 +6083,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6480,7 +6495,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6558,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ27">
         <v>0.17</v>
@@ -6686,7 +6701,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7304,7 +7319,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7588,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ32">
         <v>0.5</v>
@@ -7794,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -8128,7 +8143,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8334,7 +8349,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8827,7 +8842,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR38">
         <v>1.16</v>
@@ -8952,7 +8967,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9033,7 +9048,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ39">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR39">
         <v>1.47</v>
@@ -9158,7 +9173,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9236,10 +9251,10 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR40">
         <v>1.95</v>
@@ -9364,7 +9379,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9442,7 +9457,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ41">
         <v>2.33</v>
@@ -9776,7 +9791,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9857,7 +9872,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ43">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR43">
         <v>1.49</v>
@@ -10060,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ44">
         <v>1.17</v>
@@ -10188,7 +10203,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10394,7 +10409,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -10806,7 +10821,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q48">
         <v>1.83</v>
@@ -10884,7 +10899,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ48">
         <v>0.17</v>
@@ -11218,7 +11233,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11424,7 +11439,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -11630,7 +11645,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -11836,7 +11851,7 @@
         <v>106</v>
       </c>
       <c r="P53" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12042,7 +12057,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12123,7 +12138,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ54">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR54">
         <v>1.5</v>
@@ -12660,7 +12675,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13072,7 +13087,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13150,7 +13165,7 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ59">
         <v>2.4</v>
@@ -13359,7 +13374,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ60">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR60">
         <v>1.79</v>
@@ -13484,7 +13499,7 @@
         <v>135</v>
       </c>
       <c r="P61" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13562,7 +13577,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ61">
         <v>0</v>
@@ -13690,7 +13705,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13771,7 +13786,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ62">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR62">
         <v>1.38</v>
@@ -13974,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14102,7 +14117,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14514,7 +14529,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14592,7 +14607,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ66">
         <v>0.17</v>
@@ -14720,7 +14735,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -14801,7 +14816,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR67">
         <v>1.42</v>
@@ -14926,7 +14941,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15004,10 +15019,10 @@
         <v>0.67</v>
       </c>
       <c r="AP68">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ68">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR68">
         <v>2.38</v>
@@ -15132,7 +15147,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15338,7 +15353,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15544,7 +15559,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15750,7 +15765,7 @@
         <v>93</v>
       </c>
       <c r="P72" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15956,7 +15971,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16240,7 +16255,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16368,7 +16383,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16449,7 +16464,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ75">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR75">
         <v>1.25</v>
@@ -16574,7 +16589,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16652,7 +16667,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ76">
         <v>0.5</v>
@@ -16780,7 +16795,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16986,7 +17001,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17192,7 +17207,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17398,7 +17413,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>2.63</v>
@@ -17479,7 +17494,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ80">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR80">
         <v>1.34</v>
@@ -17810,7 +17825,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18222,7 +18237,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18506,10 +18521,10 @@
         <v>1.8</v>
       </c>
       <c r="AP85">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ85">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR85">
         <v>2.29</v>
@@ -18634,7 +18649,7 @@
         <v>90</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18712,7 +18727,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ86">
         <v>1.33</v>
@@ -18921,7 +18936,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR87">
         <v>1.3</v>
@@ -19664,7 +19679,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -19870,7 +19885,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20076,7 +20091,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20282,7 +20297,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20363,7 +20378,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ94">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR94">
         <v>1.78</v>
@@ -20488,7 +20503,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -20694,7 +20709,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -20900,7 +20915,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21106,7 +21121,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21312,7 +21327,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21390,7 +21405,7 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ99">
         <v>1.17</v>
@@ -21599,7 +21614,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ100">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR100">
         <v>1.78</v>
@@ -21724,7 +21739,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22008,7 +22023,7 @@
         <v>1.4</v>
       </c>
       <c r="AP102">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ102">
         <v>1.17</v>
@@ -22136,7 +22151,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22626,7 +22641,7 @@
         <v>1.6</v>
       </c>
       <c r="AP105">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ105">
         <v>1.5</v>
@@ -22960,7 +22975,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q107">
         <v>2.6</v>
@@ -23372,7 +23387,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23453,7 +23468,7 @@
         <v>2</v>
       </c>
       <c r="AQ109">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR109">
         <v>1.61</v>
@@ -23529,6 +23544,830 @@
       </c>
       <c r="BP109">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7468464</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45625.69791666666</v>
+      </c>
+      <c r="F110">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>72</v>
+      </c>
+      <c r="H110" t="s">
+        <v>83</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>90</v>
+      </c>
+      <c r="P110" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q110">
+        <v>3.4</v>
+      </c>
+      <c r="R110">
+        <v>2.2</v>
+      </c>
+      <c r="S110">
+        <v>3</v>
+      </c>
+      <c r="T110">
+        <v>1.36</v>
+      </c>
+      <c r="U110">
+        <v>3</v>
+      </c>
+      <c r="V110">
+        <v>2.75</v>
+      </c>
+      <c r="W110">
+        <v>1.4</v>
+      </c>
+      <c r="X110">
+        <v>7</v>
+      </c>
+      <c r="Y110">
+        <v>1.1</v>
+      </c>
+      <c r="Z110">
+        <v>2.52</v>
+      </c>
+      <c r="AA110">
+        <v>3.15</v>
+      </c>
+      <c r="AB110">
+        <v>2.59</v>
+      </c>
+      <c r="AC110">
+        <v>1.05</v>
+      </c>
+      <c r="AD110">
+        <v>12</v>
+      </c>
+      <c r="AE110">
+        <v>1.28</v>
+      </c>
+      <c r="AF110">
+        <v>3.75</v>
+      </c>
+      <c r="AG110">
+        <v>2.01</v>
+      </c>
+      <c r="AH110">
+        <v>1.66</v>
+      </c>
+      <c r="AI110">
+        <v>1.67</v>
+      </c>
+      <c r="AJ110">
+        <v>2.1</v>
+      </c>
+      <c r="AK110">
+        <v>1.58</v>
+      </c>
+      <c r="AL110">
+        <v>1.28</v>
+      </c>
+      <c r="AM110">
+        <v>1.44</v>
+      </c>
+      <c r="AN110">
+        <v>1.33</v>
+      </c>
+      <c r="AO110">
+        <v>1.5</v>
+      </c>
+      <c r="AP110">
+        <v>1.14</v>
+      </c>
+      <c r="AQ110">
+        <v>1.71</v>
+      </c>
+      <c r="AR110">
+        <v>1.22</v>
+      </c>
+      <c r="AS110">
+        <v>1.29</v>
+      </c>
+      <c r="AT110">
+        <v>2.51</v>
+      </c>
+      <c r="AU110">
+        <v>4</v>
+      </c>
+      <c r="AV110">
+        <v>7</v>
+      </c>
+      <c r="AW110">
+        <v>8</v>
+      </c>
+      <c r="AX110">
+        <v>4</v>
+      </c>
+      <c r="AY110">
+        <v>17</v>
+      </c>
+      <c r="AZ110">
+        <v>12</v>
+      </c>
+      <c r="BA110">
+        <v>3</v>
+      </c>
+      <c r="BB110">
+        <v>1</v>
+      </c>
+      <c r="BC110">
+        <v>4</v>
+      </c>
+      <c r="BD110">
+        <v>2.15</v>
+      </c>
+      <c r="BE110">
+        <v>6.5</v>
+      </c>
+      <c r="BF110">
+        <v>1.85</v>
+      </c>
+      <c r="BG110">
+        <v>1.33</v>
+      </c>
+      <c r="BH110">
+        <v>2.95</v>
+      </c>
+      <c r="BI110">
+        <v>1.56</v>
+      </c>
+      <c r="BJ110">
+        <v>2.23</v>
+      </c>
+      <c r="BK110">
+        <v>1.92</v>
+      </c>
+      <c r="BL110">
+        <v>1.77</v>
+      </c>
+      <c r="BM110">
+        <v>2.43</v>
+      </c>
+      <c r="BN110">
+        <v>1.47</v>
+      </c>
+      <c r="BO110">
+        <v>3.15</v>
+      </c>
+      <c r="BP110">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7468465</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45626.54166666666</v>
+      </c>
+      <c r="F111">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>78</v>
+      </c>
+      <c r="H111" t="s">
+        <v>82</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>5</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>5</v>
+      </c>
+      <c r="O111" t="s">
+        <v>167</v>
+      </c>
+      <c r="P111" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q111">
+        <v>2</v>
+      </c>
+      <c r="R111">
+        <v>2.38</v>
+      </c>
+      <c r="S111">
+        <v>6.5</v>
+      </c>
+      <c r="T111">
+        <v>1.33</v>
+      </c>
+      <c r="U111">
+        <v>3.25</v>
+      </c>
+      <c r="V111">
+        <v>2.63</v>
+      </c>
+      <c r="W111">
+        <v>1.44</v>
+      </c>
+      <c r="X111">
+        <v>6.5</v>
+      </c>
+      <c r="Y111">
+        <v>1.11</v>
+      </c>
+      <c r="Z111">
+        <v>1.57</v>
+      </c>
+      <c r="AA111">
+        <v>4.1</v>
+      </c>
+      <c r="AB111">
+        <v>5.75</v>
+      </c>
+      <c r="AC111">
+        <v>1.03</v>
+      </c>
+      <c r="AD111">
+        <v>15</v>
+      </c>
+      <c r="AE111">
+        <v>1.24</v>
+      </c>
+      <c r="AF111">
+        <v>4.2</v>
+      </c>
+      <c r="AG111">
+        <v>1.68</v>
+      </c>
+      <c r="AH111">
+        <v>2.05</v>
+      </c>
+      <c r="AI111">
+        <v>1.95</v>
+      </c>
+      <c r="AJ111">
+        <v>1.8</v>
+      </c>
+      <c r="AK111">
+        <v>1.1</v>
+      </c>
+      <c r="AL111">
+        <v>1.17</v>
+      </c>
+      <c r="AM111">
+        <v>2.75</v>
+      </c>
+      <c r="AN111">
+        <v>1.67</v>
+      </c>
+      <c r="AO111">
+        <v>0.17</v>
+      </c>
+      <c r="AP111">
+        <v>1.86</v>
+      </c>
+      <c r="AQ111">
+        <v>0.14</v>
+      </c>
+      <c r="AR111">
+        <v>1.53</v>
+      </c>
+      <c r="AS111">
+        <v>1.15</v>
+      </c>
+      <c r="AT111">
+        <v>2.68</v>
+      </c>
+      <c r="AU111">
+        <v>11</v>
+      </c>
+      <c r="AV111">
+        <v>0</v>
+      </c>
+      <c r="AW111">
+        <v>4</v>
+      </c>
+      <c r="AX111">
+        <v>2</v>
+      </c>
+      <c r="AY111">
+        <v>21</v>
+      </c>
+      <c r="AZ111">
+        <v>3</v>
+      </c>
+      <c r="BA111">
+        <v>6</v>
+      </c>
+      <c r="BB111">
+        <v>1</v>
+      </c>
+      <c r="BC111">
+        <v>7</v>
+      </c>
+      <c r="BD111">
+        <v>1.24</v>
+      </c>
+      <c r="BE111">
+        <v>7.5</v>
+      </c>
+      <c r="BF111">
+        <v>4.4</v>
+      </c>
+      <c r="BG111">
+        <v>1.3</v>
+      </c>
+      <c r="BH111">
+        <v>3.05</v>
+      </c>
+      <c r="BI111">
+        <v>1.53</v>
+      </c>
+      <c r="BJ111">
+        <v>2.3</v>
+      </c>
+      <c r="BK111">
+        <v>1.85</v>
+      </c>
+      <c r="BL111">
+        <v>1.83</v>
+      </c>
+      <c r="BM111">
+        <v>2.3</v>
+      </c>
+      <c r="BN111">
+        <v>1.54</v>
+      </c>
+      <c r="BO111">
+        <v>2.9</v>
+      </c>
+      <c r="BP111">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7468468</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45626.625</v>
+      </c>
+      <c r="F112">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>71</v>
+      </c>
+      <c r="H112" t="s">
+        <v>86</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>4</v>
+      </c>
+      <c r="O112" t="s">
+        <v>168</v>
+      </c>
+      <c r="P112" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q112">
+        <v>2.88</v>
+      </c>
+      <c r="R112">
+        <v>2.2</v>
+      </c>
+      <c r="S112">
+        <v>3.75</v>
+      </c>
+      <c r="T112">
+        <v>1.4</v>
+      </c>
+      <c r="U112">
+        <v>2.75</v>
+      </c>
+      <c r="V112">
+        <v>2.75</v>
+      </c>
+      <c r="W112">
+        <v>1.4</v>
+      </c>
+      <c r="X112">
+        <v>8</v>
+      </c>
+      <c r="Y112">
+        <v>1.08</v>
+      </c>
+      <c r="Z112">
+        <v>2.04</v>
+      </c>
+      <c r="AA112">
+        <v>3.14</v>
+      </c>
+      <c r="AB112">
+        <v>3.12</v>
+      </c>
+      <c r="AC112">
+        <v>1.05</v>
+      </c>
+      <c r="AD112">
+        <v>12</v>
+      </c>
+      <c r="AE112">
+        <v>1.3</v>
+      </c>
+      <c r="AF112">
+        <v>3.6</v>
+      </c>
+      <c r="AG112">
+        <v>1.88</v>
+      </c>
+      <c r="AH112">
+        <v>1.96</v>
+      </c>
+      <c r="AI112">
+        <v>1.7</v>
+      </c>
+      <c r="AJ112">
+        <v>2.05</v>
+      </c>
+      <c r="AK112">
+        <v>1.35</v>
+      </c>
+      <c r="AL112">
+        <v>1.26</v>
+      </c>
+      <c r="AM112">
+        <v>1.7</v>
+      </c>
+      <c r="AN112">
+        <v>1.67</v>
+      </c>
+      <c r="AO112">
+        <v>0.33</v>
+      </c>
+      <c r="AP112">
+        <v>1.86</v>
+      </c>
+      <c r="AQ112">
+        <v>0.29</v>
+      </c>
+      <c r="AR112">
+        <v>1.45</v>
+      </c>
+      <c r="AS112">
+        <v>1.37</v>
+      </c>
+      <c r="AT112">
+        <v>2.82</v>
+      </c>
+      <c r="AU112">
+        <v>9</v>
+      </c>
+      <c r="AV112">
+        <v>5</v>
+      </c>
+      <c r="AW112">
+        <v>1</v>
+      </c>
+      <c r="AX112">
+        <v>5</v>
+      </c>
+      <c r="AY112">
+        <v>12</v>
+      </c>
+      <c r="AZ112">
+        <v>13</v>
+      </c>
+      <c r="BA112">
+        <v>4</v>
+      </c>
+      <c r="BB112">
+        <v>3</v>
+      </c>
+      <c r="BC112">
+        <v>7</v>
+      </c>
+      <c r="BD112">
+        <v>1.58</v>
+      </c>
+      <c r="BE112">
+        <v>6.4</v>
+      </c>
+      <c r="BF112">
+        <v>2.65</v>
+      </c>
+      <c r="BG112">
+        <v>1.47</v>
+      </c>
+      <c r="BH112">
+        <v>2.43</v>
+      </c>
+      <c r="BI112">
+        <v>1.8</v>
+      </c>
+      <c r="BJ112">
+        <v>1.89</v>
+      </c>
+      <c r="BK112">
+        <v>2.3</v>
+      </c>
+      <c r="BL112">
+        <v>1.54</v>
+      </c>
+      <c r="BM112">
+        <v>3</v>
+      </c>
+      <c r="BN112">
+        <v>1.32</v>
+      </c>
+      <c r="BO112">
+        <v>4.1</v>
+      </c>
+      <c r="BP112">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7468470</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45626.70833333334</v>
+      </c>
+      <c r="F113">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>79</v>
+      </c>
+      <c r="H113" t="s">
+        <v>85</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>169</v>
+      </c>
+      <c r="P113" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q113">
+        <v>1.62</v>
+      </c>
+      <c r="R113">
+        <v>2.88</v>
+      </c>
+      <c r="S113">
+        <v>9</v>
+      </c>
+      <c r="T113">
+        <v>1.22</v>
+      </c>
+      <c r="U113">
+        <v>4</v>
+      </c>
+      <c r="V113">
+        <v>2</v>
+      </c>
+      <c r="W113">
+        <v>1.73</v>
+      </c>
+      <c r="X113">
+        <v>4.33</v>
+      </c>
+      <c r="Y113">
+        <v>1.2</v>
+      </c>
+      <c r="Z113">
+        <v>1.21</v>
+      </c>
+      <c r="AA113">
+        <v>6</v>
+      </c>
+      <c r="AB113">
+        <v>9</v>
+      </c>
+      <c r="AC113">
+        <v>1.01</v>
+      </c>
+      <c r="AD113">
+        <v>26</v>
+      </c>
+      <c r="AE113">
+        <v>1.12</v>
+      </c>
+      <c r="AF113">
+        <v>6.5</v>
+      </c>
+      <c r="AG113">
+        <v>1.4</v>
+      </c>
+      <c r="AH113">
+        <v>2.9</v>
+      </c>
+      <c r="AI113">
+        <v>1.95</v>
+      </c>
+      <c r="AJ113">
+        <v>1.8</v>
+      </c>
+      <c r="AK113">
+        <v>1.04</v>
+      </c>
+      <c r="AL113">
+        <v>1.08</v>
+      </c>
+      <c r="AM113">
+        <v>4.5</v>
+      </c>
+      <c r="AN113">
+        <v>3</v>
+      </c>
+      <c r="AO113">
+        <v>0.83</v>
+      </c>
+      <c r="AP113">
+        <v>2.71</v>
+      </c>
+      <c r="AQ113">
+        <v>0.86</v>
+      </c>
+      <c r="AR113">
+        <v>2.24</v>
+      </c>
+      <c r="AS113">
+        <v>1.18</v>
+      </c>
+      <c r="AT113">
+        <v>3.42</v>
+      </c>
+      <c r="AU113">
+        <v>11</v>
+      </c>
+      <c r="AV113">
+        <v>3</v>
+      </c>
+      <c r="AW113">
+        <v>8</v>
+      </c>
+      <c r="AX113">
+        <v>2</v>
+      </c>
+      <c r="AY113">
+        <v>25</v>
+      </c>
+      <c r="AZ113">
+        <v>6</v>
+      </c>
+      <c r="BA113">
+        <v>9</v>
+      </c>
+      <c r="BB113">
+        <v>3</v>
+      </c>
+      <c r="BC113">
+        <v>12</v>
+      </c>
+      <c r="BD113">
+        <v>1.16</v>
+      </c>
+      <c r="BE113">
+        <v>9.5</v>
+      </c>
+      <c r="BF113">
+        <v>5.6</v>
+      </c>
+      <c r="BG113">
+        <v>1.26</v>
+      </c>
+      <c r="BH113">
+        <v>3.4</v>
+      </c>
+      <c r="BI113">
+        <v>1.47</v>
+      </c>
+      <c r="BJ113">
+        <v>2.48</v>
+      </c>
+      <c r="BK113">
+        <v>1.74</v>
+      </c>
+      <c r="BL113">
+        <v>1.96</v>
+      </c>
+      <c r="BM113">
+        <v>2.15</v>
+      </c>
+      <c r="BN113">
+        <v>1.61</v>
+      </c>
+      <c r="BO113">
+        <v>2.7</v>
+      </c>
+      <c r="BP113">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,18 @@
     <t>['2']</t>
   </si>
   <si>
+    <t>['45+2', '90+3']</t>
+  </si>
+  <si>
+    <t>['32', '39']</t>
+  </si>
+  <si>
+    <t>['4', '41', '43', '69']</t>
+  </si>
+  <si>
+    <t>['53', '89']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -725,6 +737,18 @@
   </si>
   <si>
     <t>['85']</t>
+  </si>
+  <si>
+    <t>['44', '54']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['41']</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1345,7 +1369,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1423,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ2">
         <v>2.33</v>
@@ -1551,7 +1575,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1757,7 +1781,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1838,7 +1862,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ4">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2169,7 +2193,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2250,7 +2274,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2375,7 +2399,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2453,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ7">
         <v>0.29</v>
@@ -2659,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ8">
         <v>0.86</v>
@@ -3405,7 +3429,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -3483,10 +3507,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ12">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3692,7 +3716,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3817,7 +3841,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4516,7 +4540,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ17">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4641,7 +4665,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4847,7 +4871,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -4925,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
         <v>1.67</v>
@@ -5053,7 +5077,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5131,7 +5155,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ20">
         <v>0.29</v>
@@ -5465,7 +5489,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -5543,7 +5567,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ22">
         <v>0.86</v>
@@ -5671,7 +5695,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -5749,7 +5773,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ23">
         <v>2.57</v>
@@ -5877,7 +5901,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6083,7 +6107,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6164,7 +6188,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR25">
         <v>1.11</v>
@@ -6367,10 +6391,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ26">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR26">
         <v>0.74</v>
@@ -6495,7 +6519,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6701,7 +6725,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -6988,7 +7012,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR29">
         <v>1.65</v>
@@ -7191,10 +7215,10 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR30">
         <v>2.21</v>
@@ -7319,7 +7343,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7400,7 +7424,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ31">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>1.86</v>
@@ -8015,7 +8039,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8143,7 +8167,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8224,7 +8248,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR35">
         <v>1.25</v>
@@ -8349,7 +8373,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8967,7 +8991,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9173,7 +9197,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9379,7 +9403,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9791,7 +9815,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10203,7 +10227,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10281,10 +10305,10 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ45">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR45">
         <v>1.4</v>
@@ -10409,7 +10433,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -10487,7 +10511,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ46">
         <v>2.57</v>
@@ -10821,7 +10845,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q48">
         <v>1.83</v>
@@ -11108,7 +11132,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR49">
         <v>1.83</v>
@@ -11233,7 +11257,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11311,10 +11335,10 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ50">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR50">
         <v>1.41</v>
@@ -11439,7 +11463,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -11645,7 +11669,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -11723,7 +11747,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -11851,7 +11875,7 @@
         <v>106</v>
       </c>
       <c r="P53" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12057,7 +12081,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12547,10 +12571,10 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -12675,7 +12699,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12756,7 +12780,7 @@
         <v>2</v>
       </c>
       <c r="AQ57">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR57">
         <v>1.48</v>
@@ -13087,7 +13111,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13168,7 +13192,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ59">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <v>1.74</v>
@@ -13371,7 +13395,7 @@
         <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ60">
         <v>0.86</v>
@@ -13499,7 +13523,7 @@
         <v>135</v>
       </c>
       <c r="P61" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13705,7 +13729,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14117,7 +14141,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14404,7 +14428,7 @@
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR65">
         <v>1.54</v>
@@ -14529,7 +14553,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14735,7 +14759,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -14941,7 +14965,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15147,7 +15171,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15225,7 +15249,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ69">
         <v>1.5</v>
@@ -15353,7 +15377,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15559,7 +15583,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15637,10 +15661,10 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR71">
         <v>1.25</v>
@@ -15765,7 +15789,7 @@
         <v>93</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15846,7 +15870,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ72">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR72">
         <v>1.52</v>
@@ -15971,7 +15995,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16049,7 +16073,7 @@
         <v>2.25</v>
       </c>
       <c r="AP73">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ73">
         <v>2.57</v>
@@ -16383,7 +16407,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16589,7 +16613,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16795,7 +16819,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16876,7 +16900,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ77">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR77">
         <v>1.98</v>
@@ -17001,7 +17025,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17079,10 +17103,10 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ78">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR78">
         <v>1.8</v>
@@ -17207,7 +17231,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17285,7 +17309,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ79">
         <v>1.17</v>
@@ -17413,7 +17437,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>2.63</v>
@@ -17700,7 +17724,7 @@
         <v>2</v>
       </c>
       <c r="AQ81">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR81">
         <v>1.44</v>
@@ -17825,7 +17849,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -17903,7 +17927,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ82">
         <v>2.33</v>
@@ -18112,7 +18136,7 @@
         <v>2</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR83">
         <v>1.55</v>
@@ -18237,7 +18261,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18649,7 +18673,7 @@
         <v>90</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18730,7 +18754,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR86">
         <v>1.37</v>
@@ -19139,7 +19163,7 @@
         <v>1.75</v>
       </c>
       <c r="AP88">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ88">
         <v>1.67</v>
@@ -19551,7 +19575,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ90">
         <v>0</v>
@@ -19679,7 +19703,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -19885,7 +19909,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -19963,10 +19987,10 @@
         <v>0.2</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR92">
         <v>1.38</v>
@@ -20091,7 +20115,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20172,7 +20196,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ93">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR93">
         <v>1.3</v>
@@ -20297,7 +20321,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20503,7 +20527,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -20709,7 +20733,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -20790,7 +20814,7 @@
         <v>2</v>
       </c>
       <c r="AQ96">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR96">
         <v>1.64</v>
@@ -20915,7 +20939,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -20993,7 +21017,7 @@
         <v>0.75</v>
       </c>
       <c r="AP97">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ97">
         <v>0.5</v>
@@ -21121,7 +21145,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21199,7 +21223,7 @@
         <v>1.4</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ98">
         <v>1.67</v>
@@ -21327,7 +21351,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21611,7 +21635,7 @@
         <v>0.2</v>
       </c>
       <c r="AP100">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ100">
         <v>0.14</v>
@@ -21739,7 +21763,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22151,7 +22175,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22975,7 +22999,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q107">
         <v>2.6</v>
@@ -23262,7 +23286,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR108">
         <v>1.49</v>
@@ -23387,7 +23411,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23593,7 +23617,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24005,7 +24029,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24368,6 +24392,1036 @@
       </c>
       <c r="BP113">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7468469</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45627.45833333334</v>
+      </c>
+      <c r="F114">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>75</v>
+      </c>
+      <c r="H114" t="s">
+        <v>81</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>4</v>
+      </c>
+      <c r="O114" t="s">
+        <v>170</v>
+      </c>
+      <c r="P114" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q114">
+        <v>4.33</v>
+      </c>
+      <c r="R114">
+        <v>2.3</v>
+      </c>
+      <c r="S114">
+        <v>2.4</v>
+      </c>
+      <c r="T114">
+        <v>1.33</v>
+      </c>
+      <c r="U114">
+        <v>3.25</v>
+      </c>
+      <c r="V114">
+        <v>2.63</v>
+      </c>
+      <c r="W114">
+        <v>1.44</v>
+      </c>
+      <c r="X114">
+        <v>6.5</v>
+      </c>
+      <c r="Y114">
+        <v>1.11</v>
+      </c>
+      <c r="Z114">
+        <v>4.1</v>
+      </c>
+      <c r="AA114">
+        <v>3.94</v>
+      </c>
+      <c r="AB114">
+        <v>1.76</v>
+      </c>
+      <c r="AC114">
+        <v>1.03</v>
+      </c>
+      <c r="AD114">
+        <v>15</v>
+      </c>
+      <c r="AE114">
+        <v>1.22</v>
+      </c>
+      <c r="AF114">
+        <v>4.33</v>
+      </c>
+      <c r="AG114">
+        <v>1.7</v>
+      </c>
+      <c r="AH114">
+        <v>2.05</v>
+      </c>
+      <c r="AI114">
+        <v>1.62</v>
+      </c>
+      <c r="AJ114">
+        <v>2.2</v>
+      </c>
+      <c r="AK114">
+        <v>2</v>
+      </c>
+      <c r="AL114">
+        <v>1.22</v>
+      </c>
+      <c r="AM114">
+        <v>1.25</v>
+      </c>
+      <c r="AN114">
+        <v>1.17</v>
+      </c>
+      <c r="AO114">
+        <v>1.83</v>
+      </c>
+      <c r="AP114">
+        <v>1.14</v>
+      </c>
+      <c r="AQ114">
+        <v>1.71</v>
+      </c>
+      <c r="AR114">
+        <v>1.36</v>
+      </c>
+      <c r="AS114">
+        <v>1.49</v>
+      </c>
+      <c r="AT114">
+        <v>2.85</v>
+      </c>
+      <c r="AU114">
+        <v>6</v>
+      </c>
+      <c r="AV114">
+        <v>5</v>
+      </c>
+      <c r="AW114">
+        <v>5</v>
+      </c>
+      <c r="AX114">
+        <v>7</v>
+      </c>
+      <c r="AY114">
+        <v>12</v>
+      </c>
+      <c r="AZ114">
+        <v>14</v>
+      </c>
+      <c r="BA114">
+        <v>7</v>
+      </c>
+      <c r="BB114">
+        <v>2</v>
+      </c>
+      <c r="BC114">
+        <v>9</v>
+      </c>
+      <c r="BD114">
+        <v>2.62</v>
+      </c>
+      <c r="BE114">
+        <v>8.5</v>
+      </c>
+      <c r="BF114">
+        <v>1.7</v>
+      </c>
+      <c r="BG114">
+        <v>1.28</v>
+      </c>
+      <c r="BH114">
+        <v>2.97</v>
+      </c>
+      <c r="BI114">
+        <v>1.54</v>
+      </c>
+      <c r="BJ114">
+        <v>2.19</v>
+      </c>
+      <c r="BK114">
+        <v>1.98</v>
+      </c>
+      <c r="BL114">
+        <v>1.74</v>
+      </c>
+      <c r="BM114">
+        <v>2.52</v>
+      </c>
+      <c r="BN114">
+        <v>1.41</v>
+      </c>
+      <c r="BO114">
+        <v>3.44</v>
+      </c>
+      <c r="BP114">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7468466</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45627.54166666666</v>
+      </c>
+      <c r="F115">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>70</v>
+      </c>
+      <c r="H115" t="s">
+        <v>77</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>90</v>
+      </c>
+      <c r="P115" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q115">
+        <v>3</v>
+      </c>
+      <c r="R115">
+        <v>2.05</v>
+      </c>
+      <c r="S115">
+        <v>4</v>
+      </c>
+      <c r="T115">
+        <v>1.44</v>
+      </c>
+      <c r="U115">
+        <v>2.63</v>
+      </c>
+      <c r="V115">
+        <v>3.4</v>
+      </c>
+      <c r="W115">
+        <v>1.3</v>
+      </c>
+      <c r="X115">
+        <v>10</v>
+      </c>
+      <c r="Y115">
+        <v>1.06</v>
+      </c>
+      <c r="Z115">
+        <v>2.1</v>
+      </c>
+      <c r="AA115">
+        <v>3.4</v>
+      </c>
+      <c r="AB115">
+        <v>3.4</v>
+      </c>
+      <c r="AC115">
+        <v>1.07</v>
+      </c>
+      <c r="AD115">
+        <v>9</v>
+      </c>
+      <c r="AE115">
+        <v>1.4</v>
+      </c>
+      <c r="AF115">
+        <v>3</v>
+      </c>
+      <c r="AG115">
+        <v>1.95</v>
+      </c>
+      <c r="AH115">
+        <v>1.75</v>
+      </c>
+      <c r="AI115">
+        <v>1.95</v>
+      </c>
+      <c r="AJ115">
+        <v>1.8</v>
+      </c>
+      <c r="AK115">
+        <v>1.35</v>
+      </c>
+      <c r="AL115">
+        <v>1.3</v>
+      </c>
+      <c r="AM115">
+        <v>1.68</v>
+      </c>
+      <c r="AN115">
+        <v>1</v>
+      </c>
+      <c r="AO115">
+        <v>1</v>
+      </c>
+      <c r="AP115">
+        <v>0.86</v>
+      </c>
+      <c r="AQ115">
+        <v>1.29</v>
+      </c>
+      <c r="AR115">
+        <v>1.18</v>
+      </c>
+      <c r="AS115">
+        <v>0.97</v>
+      </c>
+      <c r="AT115">
+        <v>2.15</v>
+      </c>
+      <c r="AU115">
+        <v>2</v>
+      </c>
+      <c r="AV115">
+        <v>4</v>
+      </c>
+      <c r="AW115">
+        <v>3</v>
+      </c>
+      <c r="AX115">
+        <v>4</v>
+      </c>
+      <c r="AY115">
+        <v>6</v>
+      </c>
+      <c r="AZ115">
+        <v>13</v>
+      </c>
+      <c r="BA115">
+        <v>2</v>
+      </c>
+      <c r="BB115">
+        <v>4</v>
+      </c>
+      <c r="BC115">
+        <v>6</v>
+      </c>
+      <c r="BD115">
+        <v>1.92</v>
+      </c>
+      <c r="BE115">
+        <v>6.45</v>
+      </c>
+      <c r="BF115">
+        <v>2.43</v>
+      </c>
+      <c r="BG115">
+        <v>1.28</v>
+      </c>
+      <c r="BH115">
+        <v>2.94</v>
+      </c>
+      <c r="BI115">
+        <v>1.56</v>
+      </c>
+      <c r="BJ115">
+        <v>2.16</v>
+      </c>
+      <c r="BK115">
+        <v>2</v>
+      </c>
+      <c r="BL115">
+        <v>1.72</v>
+      </c>
+      <c r="BM115">
+        <v>2.59</v>
+      </c>
+      <c r="BN115">
+        <v>1.39</v>
+      </c>
+      <c r="BO115">
+        <v>3.54</v>
+      </c>
+      <c r="BP115">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7468467</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45627.54166666666</v>
+      </c>
+      <c r="F116">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>76</v>
+      </c>
+      <c r="H116" t="s">
+        <v>74</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>171</v>
+      </c>
+      <c r="P116" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q116">
+        <v>2.25</v>
+      </c>
+      <c r="R116">
+        <v>2.3</v>
+      </c>
+      <c r="S116">
+        <v>5</v>
+      </c>
+      <c r="T116">
+        <v>1.33</v>
+      </c>
+      <c r="U116">
+        <v>3.25</v>
+      </c>
+      <c r="V116">
+        <v>2.63</v>
+      </c>
+      <c r="W116">
+        <v>1.44</v>
+      </c>
+      <c r="X116">
+        <v>6.5</v>
+      </c>
+      <c r="Y116">
+        <v>1.11</v>
+      </c>
+      <c r="Z116">
+        <v>1.67</v>
+      </c>
+      <c r="AA116">
+        <v>3.9</v>
+      </c>
+      <c r="AB116">
+        <v>4.75</v>
+      </c>
+      <c r="AC116">
+        <v>1.04</v>
+      </c>
+      <c r="AD116">
+        <v>13</v>
+      </c>
+      <c r="AE116">
+        <v>1.24</v>
+      </c>
+      <c r="AF116">
+        <v>4.2</v>
+      </c>
+      <c r="AG116">
+        <v>1.75</v>
+      </c>
+      <c r="AH116">
+        <v>1.95</v>
+      </c>
+      <c r="AI116">
+        <v>1.7</v>
+      </c>
+      <c r="AJ116">
+        <v>2.05</v>
+      </c>
+      <c r="AK116">
+        <v>1.18</v>
+      </c>
+      <c r="AL116">
+        <v>1.22</v>
+      </c>
+      <c r="AM116">
+        <v>2.25</v>
+      </c>
+      <c r="AN116">
+        <v>1.33</v>
+      </c>
+      <c r="AO116">
+        <v>0.67</v>
+      </c>
+      <c r="AP116">
+        <v>1.57</v>
+      </c>
+      <c r="AQ116">
+        <v>0.57</v>
+      </c>
+      <c r="AR116">
+        <v>1.39</v>
+      </c>
+      <c r="AS116">
+        <v>1.24</v>
+      </c>
+      <c r="AT116">
+        <v>2.63</v>
+      </c>
+      <c r="AU116">
+        <v>8</v>
+      </c>
+      <c r="AV116">
+        <v>0</v>
+      </c>
+      <c r="AW116">
+        <v>2</v>
+      </c>
+      <c r="AX116">
+        <v>2</v>
+      </c>
+      <c r="AY116">
+        <v>13</v>
+      </c>
+      <c r="AZ116">
+        <v>6</v>
+      </c>
+      <c r="BA116">
+        <v>6</v>
+      </c>
+      <c r="BB116">
+        <v>2</v>
+      </c>
+      <c r="BC116">
+        <v>8</v>
+      </c>
+      <c r="BD116">
+        <v>1.47</v>
+      </c>
+      <c r="BE116">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF116">
+        <v>3.34</v>
+      </c>
+      <c r="BG116">
+        <v>1.24</v>
+      </c>
+      <c r="BH116">
+        <v>3.22</v>
+      </c>
+      <c r="BI116">
+        <v>1.48</v>
+      </c>
+      <c r="BJ116">
+        <v>2.33</v>
+      </c>
+      <c r="BK116">
+        <v>1.87</v>
+      </c>
+      <c r="BL116">
+        <v>1.83</v>
+      </c>
+      <c r="BM116">
+        <v>2.38</v>
+      </c>
+      <c r="BN116">
+        <v>1.46</v>
+      </c>
+      <c r="BO116">
+        <v>3.14</v>
+      </c>
+      <c r="BP116">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7468472</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45627.54166666666</v>
+      </c>
+      <c r="F117">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>80</v>
+      </c>
+      <c r="H117" t="s">
+        <v>84</v>
+      </c>
+      <c r="I117">
+        <v>3</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>4</v>
+      </c>
+      <c r="L117">
+        <v>4</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>5</v>
+      </c>
+      <c r="O117" t="s">
+        <v>172</v>
+      </c>
+      <c r="P117" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q117">
+        <v>2.6</v>
+      </c>
+      <c r="R117">
+        <v>2.3</v>
+      </c>
+      <c r="S117">
+        <v>3.75</v>
+      </c>
+      <c r="T117">
+        <v>1.33</v>
+      </c>
+      <c r="U117">
+        <v>3.25</v>
+      </c>
+      <c r="V117">
+        <v>2.5</v>
+      </c>
+      <c r="W117">
+        <v>1.5</v>
+      </c>
+      <c r="X117">
+        <v>6.5</v>
+      </c>
+      <c r="Y117">
+        <v>1.11</v>
+      </c>
+      <c r="Z117">
+        <v>2</v>
+      </c>
+      <c r="AA117">
+        <v>3.6</v>
+      </c>
+      <c r="AB117">
+        <v>3.5</v>
+      </c>
+      <c r="AC117">
+        <v>1.03</v>
+      </c>
+      <c r="AD117">
+        <v>15</v>
+      </c>
+      <c r="AE117">
+        <v>1.22</v>
+      </c>
+      <c r="AF117">
+        <v>4.33</v>
+      </c>
+      <c r="AG117">
+        <v>1.83</v>
+      </c>
+      <c r="AH117">
+        <v>1.85</v>
+      </c>
+      <c r="AI117">
+        <v>1.62</v>
+      </c>
+      <c r="AJ117">
+        <v>2.2</v>
+      </c>
+      <c r="AK117">
+        <v>1.32</v>
+      </c>
+      <c r="AL117">
+        <v>1.22</v>
+      </c>
+      <c r="AM117">
+        <v>1.83</v>
+      </c>
+      <c r="AN117">
+        <v>1.67</v>
+      </c>
+      <c r="AO117">
+        <v>1.33</v>
+      </c>
+      <c r="AP117">
+        <v>1.86</v>
+      </c>
+      <c r="AQ117">
+        <v>1.14</v>
+      </c>
+      <c r="AR117">
+        <v>1.77</v>
+      </c>
+      <c r="AS117">
+        <v>1.33</v>
+      </c>
+      <c r="AT117">
+        <v>3.1</v>
+      </c>
+      <c r="AU117">
+        <v>9</v>
+      </c>
+      <c r="AV117">
+        <v>9</v>
+      </c>
+      <c r="AW117">
+        <v>4</v>
+      </c>
+      <c r="AX117">
+        <v>3</v>
+      </c>
+      <c r="AY117">
+        <v>17</v>
+      </c>
+      <c r="AZ117">
+        <v>18</v>
+      </c>
+      <c r="BA117">
+        <v>5</v>
+      </c>
+      <c r="BB117">
+        <v>4</v>
+      </c>
+      <c r="BC117">
+        <v>9</v>
+      </c>
+      <c r="BD117">
+        <v>1.68</v>
+      </c>
+      <c r="BE117">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF117">
+        <v>2.65</v>
+      </c>
+      <c r="BG117">
+        <v>1.22</v>
+      </c>
+      <c r="BH117">
+        <v>3.35</v>
+      </c>
+      <c r="BI117">
+        <v>1.45</v>
+      </c>
+      <c r="BJ117">
+        <v>2.41</v>
+      </c>
+      <c r="BK117">
+        <v>1.83</v>
+      </c>
+      <c r="BL117">
+        <v>1.87</v>
+      </c>
+      <c r="BM117">
+        <v>2.3</v>
+      </c>
+      <c r="BN117">
+        <v>1.49</v>
+      </c>
+      <c r="BO117">
+        <v>3.02</v>
+      </c>
+      <c r="BP117">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7468471</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45627.69791666666</v>
+      </c>
+      <c r="F118">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
+        <v>87</v>
+      </c>
+      <c r="H118" t="s">
+        <v>73</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>173</v>
+      </c>
+      <c r="P118" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q118">
+        <v>3.1</v>
+      </c>
+      <c r="R118">
+        <v>2.38</v>
+      </c>
+      <c r="S118">
+        <v>3</v>
+      </c>
+      <c r="T118">
+        <v>1.29</v>
+      </c>
+      <c r="U118">
+        <v>3.5</v>
+      </c>
+      <c r="V118">
+        <v>2.38</v>
+      </c>
+      <c r="W118">
+        <v>1.53</v>
+      </c>
+      <c r="X118">
+        <v>5.5</v>
+      </c>
+      <c r="Y118">
+        <v>1.14</v>
+      </c>
+      <c r="Z118">
+        <v>2.45</v>
+      </c>
+      <c r="AA118">
+        <v>3.6</v>
+      </c>
+      <c r="AB118">
+        <v>2.62</v>
+      </c>
+      <c r="AC118">
+        <v>1.03</v>
+      </c>
+      <c r="AD118">
+        <v>17</v>
+      </c>
+      <c r="AE118">
+        <v>1.18</v>
+      </c>
+      <c r="AF118">
+        <v>5</v>
+      </c>
+      <c r="AG118">
+        <v>1.7</v>
+      </c>
+      <c r="AH118">
+        <v>2.05</v>
+      </c>
+      <c r="AI118">
+        <v>1.44</v>
+      </c>
+      <c r="AJ118">
+        <v>2.63</v>
+      </c>
+      <c r="AK118">
+        <v>1.53</v>
+      </c>
+      <c r="AL118">
+        <v>1.25</v>
+      </c>
+      <c r="AM118">
+        <v>1.52</v>
+      </c>
+      <c r="AN118">
+        <v>1</v>
+      </c>
+      <c r="AO118">
+        <v>2.4</v>
+      </c>
+      <c r="AP118">
+        <v>1.33</v>
+      </c>
+      <c r="AQ118">
+        <v>2</v>
+      </c>
+      <c r="AR118">
+        <v>1.45</v>
+      </c>
+      <c r="AS118">
+        <v>1.55</v>
+      </c>
+      <c r="AT118">
+        <v>3</v>
+      </c>
+      <c r="AU118">
+        <v>5</v>
+      </c>
+      <c r="AV118">
+        <v>5</v>
+      </c>
+      <c r="AW118">
+        <v>2</v>
+      </c>
+      <c r="AX118">
+        <v>1</v>
+      </c>
+      <c r="AY118">
+        <v>10</v>
+      </c>
+      <c r="AZ118">
+        <v>8</v>
+      </c>
+      <c r="BA118">
+        <v>5</v>
+      </c>
+      <c r="BB118">
+        <v>3</v>
+      </c>
+      <c r="BC118">
+        <v>8</v>
+      </c>
+      <c r="BD118">
+        <v>2.02</v>
+      </c>
+      <c r="BE118">
+        <v>8.1</v>
+      </c>
+      <c r="BF118">
+        <v>2.13</v>
+      </c>
+      <c r="BG118">
+        <v>1.31</v>
+      </c>
+      <c r="BH118">
+        <v>2.82</v>
+      </c>
+      <c r="BI118">
+        <v>1.59</v>
+      </c>
+      <c r="BJ118">
+        <v>2.1</v>
+      </c>
+      <c r="BK118">
+        <v>2.06</v>
+      </c>
+      <c r="BL118">
+        <v>1.68</v>
+      </c>
+      <c r="BM118">
+        <v>2.69</v>
+      </c>
+      <c r="BN118">
+        <v>1.36</v>
+      </c>
+      <c r="BO118">
+        <v>3.68</v>
+      </c>
+      <c r="BP118">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -24749,13 +24749,13 @@
         <v>3</v>
       </c>
       <c r="AX115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY115">
         <v>6</v>
       </c>
       <c r="AZ115">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA115">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="246">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -536,6 +536,9 @@
   </si>
   <si>
     <t>['53', '89']</t>
+  </si>
+  <si>
+    <t>['7', '44', '69']</t>
   </si>
   <si>
     <t>['3', '84', '86', '90']</t>
@@ -1110,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,7 +1372,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1450,7 +1453,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ2">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1575,7 +1578,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1781,7 +1784,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2193,7 +2196,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2271,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ6">
         <v>1.14</v>
@@ -2399,7 +2402,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3429,7 +3432,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -3713,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>1.29</v>
@@ -3841,7 +3844,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4128,7 +4131,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4665,7 +4668,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4871,7 +4874,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5077,7 +5080,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5489,7 +5492,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -5695,7 +5698,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -5901,7 +5904,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6107,7 +6110,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6519,7 +6522,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6725,7 +6728,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -6803,10 +6806,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR28">
         <v>1.52</v>
@@ -7343,7 +7346,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7421,7 +7424,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7630,7 +7633,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR32">
         <v>2.81</v>
@@ -8167,7 +8170,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8373,7 +8376,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8991,7 +8994,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9069,7 +9072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>0.29</v>
@@ -9197,7 +9200,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9403,7 +9406,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9484,7 +9487,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ41">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR41">
         <v>0.92</v>
@@ -9815,7 +9818,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10227,7 +10230,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10433,7 +10436,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -10717,10 +10720,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ47">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR47">
         <v>1.61</v>
@@ -10845,7 +10848,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>1.83</v>
@@ -11257,7 +11260,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11463,7 +11466,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -11669,7 +11672,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -11875,7 +11878,7 @@
         <v>106</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12081,7 +12084,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12699,7 +12702,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12983,7 +12986,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>1.17</v>
@@ -13111,7 +13114,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13523,7 +13526,7 @@
         <v>135</v>
       </c>
       <c r="P61" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13729,7 +13732,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14141,7 +14144,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14222,7 +14225,7 @@
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR64">
         <v>1.7</v>
@@ -14553,7 +14556,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14759,7 +14762,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -14965,7 +14968,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15171,7 +15174,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15377,7 +15380,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15455,7 +15458,7 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ70">
         <v>1.67</v>
@@ -15583,7 +15586,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15789,7 +15792,7 @@
         <v>93</v>
       </c>
       <c r="P72" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15995,7 +15998,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16407,7 +16410,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16613,7 +16616,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16694,7 +16697,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ76">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR76">
         <v>1.01</v>
@@ -16819,7 +16822,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17025,7 +17028,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17231,7 +17234,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17437,7 +17440,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q80">
         <v>2.63</v>
@@ -17849,7 +17852,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -17930,7 +17933,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ82">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR82">
         <v>1.67</v>
@@ -18261,7 +18264,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18339,7 +18342,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
         <v>1.5</v>
@@ -18673,7 +18676,7 @@
         <v>90</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19369,7 +19372,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ89">
         <v>0.17</v>
@@ -19703,7 +19706,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -19909,7 +19912,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20115,7 +20118,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20321,7 +20324,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20527,7 +20530,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -20608,7 +20611,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ95">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR95">
         <v>1.33</v>
@@ -20733,7 +20736,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -20939,7 +20942,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21020,7 +21023,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ97">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR97">
         <v>1.3</v>
@@ -21145,7 +21148,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21351,7 +21354,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21763,7 +21766,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -21844,7 +21847,7 @@
         <v>2</v>
       </c>
       <c r="AQ101">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR101">
         <v>1.51</v>
@@ -22175,7 +22178,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22871,7 +22874,7 @@
         <v>0.2</v>
       </c>
       <c r="AP106">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ106">
         <v>0.17</v>
@@ -22999,7 +23002,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>2.6</v>
@@ -23283,7 +23286,7 @@
         <v>1.2</v>
       </c>
       <c r="AP108">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ108">
         <v>1.29</v>
@@ -23411,7 +23414,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23617,7 +23620,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24029,7 +24032,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24441,7 +24444,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24647,7 +24650,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -25059,7 +25062,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25265,7 +25268,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -25422,6 +25425,418 @@
       </c>
       <c r="BP118">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7468477</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45632.625</v>
+      </c>
+      <c r="F119">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>81</v>
+      </c>
+      <c r="H119" t="s">
+        <v>71</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>3</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>4</v>
+      </c>
+      <c r="O119" t="s">
+        <v>174</v>
+      </c>
+      <c r="P119" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q119">
+        <v>2.3</v>
+      </c>
+      <c r="R119">
+        <v>2.2</v>
+      </c>
+      <c r="S119">
+        <v>5.5</v>
+      </c>
+      <c r="T119">
+        <v>1.4</v>
+      </c>
+      <c r="U119">
+        <v>2.75</v>
+      </c>
+      <c r="V119">
+        <v>3</v>
+      </c>
+      <c r="W119">
+        <v>1.36</v>
+      </c>
+      <c r="X119">
+        <v>9</v>
+      </c>
+      <c r="Y119">
+        <v>1.07</v>
+      </c>
+      <c r="Z119">
+        <v>1.63</v>
+      </c>
+      <c r="AA119">
+        <v>3.94</v>
+      </c>
+      <c r="AB119">
+        <v>5.4</v>
+      </c>
+      <c r="AC119">
+        <v>1.05</v>
+      </c>
+      <c r="AD119">
+        <v>12</v>
+      </c>
+      <c r="AE119">
+        <v>1.32</v>
+      </c>
+      <c r="AF119">
+        <v>3.4</v>
+      </c>
+      <c r="AG119">
+        <v>1.87</v>
+      </c>
+      <c r="AH119">
+        <v>1.93</v>
+      </c>
+      <c r="AI119">
+        <v>1.95</v>
+      </c>
+      <c r="AJ119">
+        <v>1.8</v>
+      </c>
+      <c r="AK119">
+        <v>1.17</v>
+      </c>
+      <c r="AL119">
+        <v>1.22</v>
+      </c>
+      <c r="AM119">
+        <v>2.25</v>
+      </c>
+      <c r="AN119">
+        <v>1.83</v>
+      </c>
+      <c r="AO119">
+        <v>0.5</v>
+      </c>
+      <c r="AP119">
+        <v>2</v>
+      </c>
+      <c r="AQ119">
+        <v>0.43</v>
+      </c>
+      <c r="AR119">
+        <v>1.36</v>
+      </c>
+      <c r="AS119">
+        <v>1.36</v>
+      </c>
+      <c r="AT119">
+        <v>2.72</v>
+      </c>
+      <c r="AU119">
+        <v>7</v>
+      </c>
+      <c r="AV119">
+        <v>4</v>
+      </c>
+      <c r="AW119">
+        <v>2</v>
+      </c>
+      <c r="AX119">
+        <v>4</v>
+      </c>
+      <c r="AY119">
+        <v>11</v>
+      </c>
+      <c r="AZ119">
+        <v>8</v>
+      </c>
+      <c r="BA119">
+        <v>2</v>
+      </c>
+      <c r="BB119">
+        <v>1</v>
+      </c>
+      <c r="BC119">
+        <v>3</v>
+      </c>
+      <c r="BD119">
+        <v>1.42</v>
+      </c>
+      <c r="BE119">
+        <v>6.75</v>
+      </c>
+      <c r="BF119">
+        <v>3.3</v>
+      </c>
+      <c r="BG119">
+        <v>1.49</v>
+      </c>
+      <c r="BH119">
+        <v>2.4</v>
+      </c>
+      <c r="BI119">
+        <v>1.82</v>
+      </c>
+      <c r="BJ119">
+        <v>1.86</v>
+      </c>
+      <c r="BK119">
+        <v>2.32</v>
+      </c>
+      <c r="BL119">
+        <v>1.53</v>
+      </c>
+      <c r="BM119">
+        <v>3.05</v>
+      </c>
+      <c r="BN119">
+        <v>1.32</v>
+      </c>
+      <c r="BO119">
+        <v>4</v>
+      </c>
+      <c r="BP119">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7468474</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45632.70833333334</v>
+      </c>
+      <c r="F120">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>74</v>
+      </c>
+      <c r="H120" t="s">
+        <v>79</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120" t="s">
+        <v>90</v>
+      </c>
+      <c r="P120" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q120">
+        <v>6</v>
+      </c>
+      <c r="R120">
+        <v>2.75</v>
+      </c>
+      <c r="S120">
+        <v>1.8</v>
+      </c>
+      <c r="T120">
+        <v>1.22</v>
+      </c>
+      <c r="U120">
+        <v>4</v>
+      </c>
+      <c r="V120">
+        <v>2</v>
+      </c>
+      <c r="W120">
+        <v>1.73</v>
+      </c>
+      <c r="X120">
+        <v>4.33</v>
+      </c>
+      <c r="Y120">
+        <v>1.2</v>
+      </c>
+      <c r="Z120">
+        <v>5.3</v>
+      </c>
+      <c r="AA120">
+        <v>5</v>
+      </c>
+      <c r="AB120">
+        <v>1.5</v>
+      </c>
+      <c r="AC120">
+        <v>1.01</v>
+      </c>
+      <c r="AD120">
+        <v>25</v>
+      </c>
+      <c r="AE120">
+        <v>1.12</v>
+      </c>
+      <c r="AF120">
+        <v>6.5</v>
+      </c>
+      <c r="AG120">
+        <v>1.36</v>
+      </c>
+      <c r="AH120">
+        <v>3.1</v>
+      </c>
+      <c r="AI120">
+        <v>1.62</v>
+      </c>
+      <c r="AJ120">
+        <v>2.2</v>
+      </c>
+      <c r="AK120">
+        <v>3.1</v>
+      </c>
+      <c r="AL120">
+        <v>1.12</v>
+      </c>
+      <c r="AM120">
+        <v>1.08</v>
+      </c>
+      <c r="AN120">
+        <v>2.5</v>
+      </c>
+      <c r="AO120">
+        <v>2.33</v>
+      </c>
+      <c r="AP120">
+        <v>2.29</v>
+      </c>
+      <c r="AQ120">
+        <v>2.14</v>
+      </c>
+      <c r="AR120">
+        <v>1.48</v>
+      </c>
+      <c r="AS120">
+        <v>2.13</v>
+      </c>
+      <c r="AT120">
+        <v>3.61</v>
+      </c>
+      <c r="AU120">
+        <v>3</v>
+      </c>
+      <c r="AV120">
+        <v>12</v>
+      </c>
+      <c r="AW120">
+        <v>1</v>
+      </c>
+      <c r="AX120">
+        <v>9</v>
+      </c>
+      <c r="AY120">
+        <v>7</v>
+      </c>
+      <c r="AZ120">
+        <v>26</v>
+      </c>
+      <c r="BA120">
+        <v>3</v>
+      </c>
+      <c r="BB120">
+        <v>15</v>
+      </c>
+      <c r="BC120">
+        <v>18</v>
+      </c>
+      <c r="BD120">
+        <v>4.1</v>
+      </c>
+      <c r="BE120">
+        <v>7.5</v>
+      </c>
+      <c r="BF120">
+        <v>1.27</v>
+      </c>
+      <c r="BG120">
+        <v>1.35</v>
+      </c>
+      <c r="BH120">
+        <v>2.9</v>
+      </c>
+      <c r="BI120">
+        <v>1.58</v>
+      </c>
+      <c r="BJ120">
+        <v>2.18</v>
+      </c>
+      <c r="BK120">
+        <v>1.96</v>
+      </c>
+      <c r="BL120">
+        <v>1.73</v>
+      </c>
+      <c r="BM120">
+        <v>2.48</v>
+      </c>
+      <c r="BN120">
+        <v>1.46</v>
+      </c>
+      <c r="BO120">
+        <v>3.25</v>
+      </c>
+      <c r="BP120">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="250">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,12 @@
     <t>['7', '44', '69']</t>
   </si>
   <si>
+    <t>['50', '82']</t>
+  </si>
+  <si>
+    <t>['55', '75']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -752,6 +758,12 @@
   </si>
   <si>
     <t>['41']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['26', '55', '88']</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1372,7 +1384,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1578,7 +1590,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1784,7 +1796,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2068,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ5">
         <v>0.14</v>
@@ -2196,7 +2208,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2402,7 +2414,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2892,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ9">
         <v>1.71</v>
@@ -3101,7 +3113,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3432,7 +3444,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -3844,7 +3856,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -3925,7 +3937,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4334,10 +4346,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ16">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4668,7 +4680,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4874,7 +4886,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5080,7 +5092,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5492,7 +5504,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -5698,7 +5710,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -5904,7 +5916,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -5982,7 +5994,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ24">
         <v>1.71</v>
@@ -6110,7 +6122,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6188,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ25">
         <v>1.14</v>
@@ -6522,7 +6534,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6728,7 +6740,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7346,7 +7358,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8045,7 +8057,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR34">
         <v>1.04</v>
@@ -8170,7 +8182,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8376,7 +8388,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8663,7 +8675,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR37">
         <v>2.03</v>
@@ -8866,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ38">
         <v>0.14</v>
@@ -8994,7 +9006,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9200,7 +9212,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9406,7 +9418,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9690,10 +9702,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR42">
         <v>1.39</v>
@@ -9818,7 +9830,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9896,7 +9908,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ43">
         <v>0.86</v>
@@ -10105,7 +10117,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ44">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.86</v>
@@ -10230,7 +10242,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10436,7 +10448,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -10848,7 +10860,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q48">
         <v>1.83</v>
@@ -11260,7 +11272,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11466,7 +11478,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -11544,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ51">
         <v>0</v>
@@ -11672,7 +11684,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -11753,7 +11765,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -11878,7 +11890,7 @@
         <v>106</v>
       </c>
       <c r="P53" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11956,7 +11968,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ53">
         <v>1.67</v>
@@ -12084,7 +12096,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12702,7 +12714,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12989,7 +13001,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.61</v>
@@ -13114,7 +13126,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13526,7 +13538,7 @@
         <v>135</v>
       </c>
       <c r="P61" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13732,7 +13744,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14019,7 +14031,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR63">
         <v>1.6</v>
@@ -14144,7 +14156,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14222,7 +14234,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ64">
         <v>2.14</v>
@@ -14428,7 +14440,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ65">
         <v>1.71</v>
@@ -14556,7 +14568,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14762,7 +14774,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -14968,7 +14980,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15174,7 +15186,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15255,7 +15267,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ69">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR69">
         <v>1.32</v>
@@ -15380,7 +15392,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15586,7 +15598,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15792,7 +15804,7 @@
         <v>93</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15998,7 +16010,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16285,7 +16297,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR74">
         <v>1.65</v>
@@ -16410,7 +16422,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16488,7 +16500,7 @@
         <v>0.25</v>
       </c>
       <c r="AP75">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ75">
         <v>0.14</v>
@@ -16616,7 +16628,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16822,7 +16834,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17028,7 +17040,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17234,7 +17246,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17315,7 +17327,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ79">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.36</v>
@@ -17440,7 +17452,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q80">
         <v>2.63</v>
@@ -17724,7 +17736,7 @@
         <v>3</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ81">
         <v>2</v>
@@ -17852,7 +17864,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18136,7 +18148,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ83">
         <v>1.29</v>
@@ -18264,7 +18276,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18345,7 +18357,7 @@
         <v>2</v>
       </c>
       <c r="AQ84">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR84">
         <v>1.48</v>
@@ -18676,7 +18688,7 @@
         <v>90</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19706,7 +19718,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -19912,7 +19924,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20118,7 +20130,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20324,7 +20336,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20530,7 +20542,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -20608,7 +20620,7 @@
         <v>2.2</v>
       </c>
       <c r="AP95">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ95">
         <v>2.14</v>
@@ -20736,7 +20748,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -20814,7 +20826,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ96">
         <v>1.71</v>
@@ -20942,7 +20954,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21148,7 +21160,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21354,7 +21366,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21435,7 +21447,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ99">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.67</v>
@@ -21766,7 +21778,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -21844,7 +21856,7 @@
         <v>0.6</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ101">
         <v>0.43</v>
@@ -22053,7 +22065,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ102">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR102">
         <v>2.25</v>
@@ -22178,7 +22190,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22671,7 +22683,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ105">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR105">
         <v>1.09</v>
@@ -23002,7 +23014,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q107">
         <v>2.6</v>
@@ -23083,7 +23095,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ107">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR107">
         <v>1.38</v>
@@ -23414,7 +23426,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23492,7 +23504,7 @@
         <v>0.4</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ109">
         <v>0.29</v>
@@ -23620,7 +23632,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24032,7 +24044,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24444,7 +24456,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24650,7 +24662,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -25062,7 +25074,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25268,7 +25280,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -25837,6 +25849,624 @@
       </c>
       <c r="BP120">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7468481</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45633.54166666666</v>
+      </c>
+      <c r="F121">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>73</v>
+      </c>
+      <c r="H121" t="s">
+        <v>76</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>175</v>
+      </c>
+      <c r="P121" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q121">
+        <v>2.3</v>
+      </c>
+      <c r="R121">
+        <v>2.3</v>
+      </c>
+      <c r="S121">
+        <v>4.75</v>
+      </c>
+      <c r="T121">
+        <v>1.33</v>
+      </c>
+      <c r="U121">
+        <v>3.25</v>
+      </c>
+      <c r="V121">
+        <v>2.5</v>
+      </c>
+      <c r="W121">
+        <v>1.5</v>
+      </c>
+      <c r="X121">
+        <v>6.5</v>
+      </c>
+      <c r="Y121">
+        <v>1.11</v>
+      </c>
+      <c r="Z121">
+        <v>1.67</v>
+      </c>
+      <c r="AA121">
+        <v>3.9</v>
+      </c>
+      <c r="AB121">
+        <v>4.75</v>
+      </c>
+      <c r="AC121">
+        <v>1.03</v>
+      </c>
+      <c r="AD121">
+        <v>15</v>
+      </c>
+      <c r="AE121">
+        <v>1.22</v>
+      </c>
+      <c r="AF121">
+        <v>4.33</v>
+      </c>
+      <c r="AG121">
+        <v>1.63</v>
+      </c>
+      <c r="AH121">
+        <v>2.13</v>
+      </c>
+      <c r="AI121">
+        <v>1.67</v>
+      </c>
+      <c r="AJ121">
+        <v>2.1</v>
+      </c>
+      <c r="AK121">
+        <v>1.2</v>
+      </c>
+      <c r="AL121">
+        <v>1.2</v>
+      </c>
+      <c r="AM121">
+        <v>2.15</v>
+      </c>
+      <c r="AN121">
+        <v>2</v>
+      </c>
+      <c r="AO121">
+        <v>1.17</v>
+      </c>
+      <c r="AP121">
+        <v>2.13</v>
+      </c>
+      <c r="AQ121">
+        <v>1</v>
+      </c>
+      <c r="AR121">
+        <v>1.48</v>
+      </c>
+      <c r="AS121">
+        <v>1.26</v>
+      </c>
+      <c r="AT121">
+        <v>2.74</v>
+      </c>
+      <c r="AU121">
+        <v>6</v>
+      </c>
+      <c r="AV121">
+        <v>4</v>
+      </c>
+      <c r="AW121">
+        <v>11</v>
+      </c>
+      <c r="AX121">
+        <v>2</v>
+      </c>
+      <c r="AY121">
+        <v>20</v>
+      </c>
+      <c r="AZ121">
+        <v>7</v>
+      </c>
+      <c r="BA121">
+        <v>2</v>
+      </c>
+      <c r="BB121">
+        <v>3</v>
+      </c>
+      <c r="BC121">
+        <v>5</v>
+      </c>
+      <c r="BD121">
+        <v>1.5</v>
+      </c>
+      <c r="BE121">
+        <v>6.5</v>
+      </c>
+      <c r="BF121">
+        <v>2.9</v>
+      </c>
+      <c r="BG121">
+        <v>1.4</v>
+      </c>
+      <c r="BH121">
+        <v>2.7</v>
+      </c>
+      <c r="BI121">
+        <v>1.67</v>
+      </c>
+      <c r="BJ121">
+        <v>2.05</v>
+      </c>
+      <c r="BK121">
+        <v>2.08</v>
+      </c>
+      <c r="BL121">
+        <v>1.65</v>
+      </c>
+      <c r="BM121">
+        <v>2.65</v>
+      </c>
+      <c r="BN121">
+        <v>1.41</v>
+      </c>
+      <c r="BO121">
+        <v>3.55</v>
+      </c>
+      <c r="BP121">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7468473</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45633.625</v>
+      </c>
+      <c r="F122">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>84</v>
+      </c>
+      <c r="H122" t="s">
+        <v>70</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>176</v>
+      </c>
+      <c r="P122" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q122">
+        <v>2.05</v>
+      </c>
+      <c r="R122">
+        <v>2.25</v>
+      </c>
+      <c r="S122">
+        <v>6.5</v>
+      </c>
+      <c r="T122">
+        <v>1.4</v>
+      </c>
+      <c r="U122">
+        <v>2.75</v>
+      </c>
+      <c r="V122">
+        <v>2.75</v>
+      </c>
+      <c r="W122">
+        <v>1.4</v>
+      </c>
+      <c r="X122">
+        <v>8</v>
+      </c>
+      <c r="Y122">
+        <v>1.08</v>
+      </c>
+      <c r="Z122">
+        <v>1.5</v>
+      </c>
+      <c r="AA122">
+        <v>4.6</v>
+      </c>
+      <c r="AB122">
+        <v>7.1</v>
+      </c>
+      <c r="AC122">
+        <v>1.05</v>
+      </c>
+      <c r="AD122">
+        <v>12</v>
+      </c>
+      <c r="AE122">
+        <v>1.3</v>
+      </c>
+      <c r="AF122">
+        <v>3.6</v>
+      </c>
+      <c r="AG122">
+        <v>1.96</v>
+      </c>
+      <c r="AH122">
+        <v>1.94</v>
+      </c>
+      <c r="AI122">
+        <v>2</v>
+      </c>
+      <c r="AJ122">
+        <v>1.75</v>
+      </c>
+      <c r="AK122">
+        <v>1.11</v>
+      </c>
+      <c r="AL122">
+        <v>1.19</v>
+      </c>
+      <c r="AM122">
+        <v>2.65</v>
+      </c>
+      <c r="AN122">
+        <v>2</v>
+      </c>
+      <c r="AO122">
+        <v>1</v>
+      </c>
+      <c r="AP122">
+        <v>2.14</v>
+      </c>
+      <c r="AQ122">
+        <v>0.86</v>
+      </c>
+      <c r="AR122">
+        <v>1.66</v>
+      </c>
+      <c r="AS122">
+        <v>0.96</v>
+      </c>
+      <c r="AT122">
+        <v>2.62</v>
+      </c>
+      <c r="AU122">
+        <v>6</v>
+      </c>
+      <c r="AV122">
+        <v>3</v>
+      </c>
+      <c r="AW122">
+        <v>6</v>
+      </c>
+      <c r="AX122">
+        <v>5</v>
+      </c>
+      <c r="AY122">
+        <v>18</v>
+      </c>
+      <c r="AZ122">
+        <v>13</v>
+      </c>
+      <c r="BA122">
+        <v>5</v>
+      </c>
+      <c r="BB122">
+        <v>8</v>
+      </c>
+      <c r="BC122">
+        <v>13</v>
+      </c>
+      <c r="BD122">
+        <v>1.3</v>
+      </c>
+      <c r="BE122">
+        <v>7.5</v>
+      </c>
+      <c r="BF122">
+        <v>3.9</v>
+      </c>
+      <c r="BG122">
+        <v>1.33</v>
+      </c>
+      <c r="BH122">
+        <v>2.95</v>
+      </c>
+      <c r="BI122">
+        <v>1.57</v>
+      </c>
+      <c r="BJ122">
+        <v>2.23</v>
+      </c>
+      <c r="BK122">
+        <v>1.94</v>
+      </c>
+      <c r="BL122">
+        <v>1.76</v>
+      </c>
+      <c r="BM122">
+        <v>2.43</v>
+      </c>
+      <c r="BN122">
+        <v>1.48</v>
+      </c>
+      <c r="BO122">
+        <v>3.15</v>
+      </c>
+      <c r="BP122">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7468476</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45633.70833333334</v>
+      </c>
+      <c r="F123">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>77</v>
+      </c>
+      <c r="H123" t="s">
+        <v>80</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>3</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>90</v>
+      </c>
+      <c r="P123" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q123">
+        <v>4.75</v>
+      </c>
+      <c r="R123">
+        <v>2.4</v>
+      </c>
+      <c r="S123">
+        <v>2.2</v>
+      </c>
+      <c r="T123">
+        <v>1.29</v>
+      </c>
+      <c r="U123">
+        <v>3.5</v>
+      </c>
+      <c r="V123">
+        <v>2.38</v>
+      </c>
+      <c r="W123">
+        <v>1.53</v>
+      </c>
+      <c r="X123">
+        <v>5.5</v>
+      </c>
+      <c r="Y123">
+        <v>1.14</v>
+      </c>
+      <c r="Z123">
+        <v>4.7</v>
+      </c>
+      <c r="AA123">
+        <v>4.3</v>
+      </c>
+      <c r="AB123">
+        <v>1.73</v>
+      </c>
+      <c r="AC123">
+        <v>1.02</v>
+      </c>
+      <c r="AD123">
+        <v>17</v>
+      </c>
+      <c r="AE123">
+        <v>1.19</v>
+      </c>
+      <c r="AF123">
+        <v>4.75</v>
+      </c>
+      <c r="AG123">
+        <v>1.57</v>
+      </c>
+      <c r="AH123">
+        <v>2.3</v>
+      </c>
+      <c r="AI123">
+        <v>1.62</v>
+      </c>
+      <c r="AJ123">
+        <v>2.2</v>
+      </c>
+      <c r="AK123">
+        <v>2.25</v>
+      </c>
+      <c r="AL123">
+        <v>1.2</v>
+      </c>
+      <c r="AM123">
+        <v>1.19</v>
+      </c>
+      <c r="AN123">
+        <v>0.67</v>
+      </c>
+      <c r="AO123">
+        <v>1.5</v>
+      </c>
+      <c r="AP123">
+        <v>0.57</v>
+      </c>
+      <c r="AQ123">
+        <v>1.71</v>
+      </c>
+      <c r="AR123">
+        <v>1.29</v>
+      </c>
+      <c r="AS123">
+        <v>1.21</v>
+      </c>
+      <c r="AT123">
+        <v>2.5</v>
+      </c>
+      <c r="AU123">
+        <v>3</v>
+      </c>
+      <c r="AV123">
+        <v>11</v>
+      </c>
+      <c r="AW123">
+        <v>6</v>
+      </c>
+      <c r="AX123">
+        <v>1</v>
+      </c>
+      <c r="AY123">
+        <v>11</v>
+      </c>
+      <c r="AZ123">
+        <v>17</v>
+      </c>
+      <c r="BA123">
+        <v>2</v>
+      </c>
+      <c r="BB123">
+        <v>7</v>
+      </c>
+      <c r="BC123">
+        <v>9</v>
+      </c>
+      <c r="BD123">
+        <v>2.65</v>
+      </c>
+      <c r="BE123">
+        <v>6.75</v>
+      </c>
+      <c r="BF123">
+        <v>1.56</v>
+      </c>
+      <c r="BG123">
+        <v>1.29</v>
+      </c>
+      <c r="BH123">
+        <v>3.15</v>
+      </c>
+      <c r="BI123">
+        <v>1.5</v>
+      </c>
+      <c r="BJ123">
+        <v>2.35</v>
+      </c>
+      <c r="BK123">
+        <v>1.84</v>
+      </c>
+      <c r="BL123">
+        <v>1.84</v>
+      </c>
+      <c r="BM123">
+        <v>2.3</v>
+      </c>
+      <c r="BN123">
+        <v>1.54</v>
+      </c>
+      <c r="BO123">
+        <v>2.95</v>
+      </c>
+      <c r="BP123">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,12 @@
     <t>['55', '75']</t>
   </si>
   <si>
+    <t>['39', '90+1']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -764,6 +770,9 @@
   </si>
   <si>
     <t>['26', '55', '88']</t>
+  </si>
+  <si>
+    <t>['17', '65']</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1384,7 +1393,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1590,7 +1599,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1671,7 +1680,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ3">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1796,7 +1805,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2208,7 +2217,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2414,7 +2423,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3444,7 +3453,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -3856,7 +3865,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -3934,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ14">
         <v>0.86</v>
@@ -4140,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ15">
         <v>0.43</v>
@@ -4552,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ17">
         <v>0.57</v>
@@ -4680,7 +4689,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4758,10 +4767,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ18">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4886,7 +4895,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -4967,7 +4976,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5092,7 +5101,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5504,7 +5513,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -5710,7 +5719,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -5791,7 +5800,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ23">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR23">
         <v>1.52</v>
@@ -5916,7 +5925,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6122,7 +6131,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6534,7 +6543,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6615,7 +6624,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ27">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR27">
         <v>0.32</v>
@@ -6740,7 +6749,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7024,7 +7033,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ29">
         <v>1.71</v>
@@ -7358,7 +7367,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8182,7 +8191,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8260,7 +8269,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ35">
         <v>1.29</v>
@@ -8388,7 +8397,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8466,10 +8475,10 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ36">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR36">
         <v>1.39</v>
@@ -8672,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ37">
         <v>1.71</v>
@@ -9006,7 +9015,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9212,7 +9221,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9418,7 +9427,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9830,7 +9839,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10242,7 +10251,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10448,7 +10457,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -10529,7 +10538,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ46">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR46">
         <v>1.4</v>
@@ -10860,7 +10869,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>1.83</v>
@@ -10941,7 +10950,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ48">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR48">
         <v>2.56</v>
@@ -11144,7 +11153,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ49">
         <v>1.14</v>
@@ -11272,7 +11281,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11478,7 +11487,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -11684,7 +11693,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -11890,7 +11899,7 @@
         <v>106</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11971,7 +11980,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ53">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12096,7 +12105,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12174,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ54">
         <v>0.14</v>
@@ -12380,10 +12389,10 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ55">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR55">
         <v>1.26</v>
@@ -12714,7 +12723,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12792,7 +12801,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ57">
         <v>0.57</v>
@@ -13126,7 +13135,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13538,7 +13547,7 @@
         <v>135</v>
       </c>
       <c r="P61" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13744,7 +13753,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13822,7 +13831,7 @@
         <v>1.67</v>
       </c>
       <c r="AP62">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ62">
         <v>1.71</v>
@@ -14156,7 +14165,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14568,7 +14577,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14649,7 +14658,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ66">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR66">
         <v>1.43</v>
@@ -14774,7 +14783,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -14852,7 +14861,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ67">
         <v>1.71</v>
@@ -14980,7 +14989,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15186,7 +15195,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15392,7 +15401,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15473,7 +15482,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ70">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR70">
         <v>1.54</v>
@@ -15598,7 +15607,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15804,7 +15813,7 @@
         <v>93</v>
       </c>
       <c r="P72" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15882,7 +15891,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ72">
         <v>1.14</v>
@@ -16010,7 +16019,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16091,7 +16100,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ73">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR73">
         <v>1.44</v>
@@ -16422,7 +16431,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16628,7 +16637,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16834,7 +16843,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16912,7 +16921,7 @@
         <v>1.75</v>
       </c>
       <c r="AP77">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ77">
         <v>1.71</v>
@@ -17040,7 +17049,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17246,7 +17255,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17452,7 +17461,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q80">
         <v>2.63</v>
@@ -17530,7 +17539,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ80">
         <v>0.86</v>
@@ -17864,7 +17873,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18276,7 +18285,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18688,7 +18697,7 @@
         <v>90</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18972,7 +18981,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ87">
         <v>0.29</v>
@@ -19181,7 +19190,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ88">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -19387,7 +19396,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ89">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR89">
         <v>1.39</v>
@@ -19718,7 +19727,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -19796,10 +19805,10 @@
         <v>2.4</v>
       </c>
       <c r="AP91">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ91">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR91">
         <v>1.49</v>
@@ -19924,7 +19933,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20130,7 +20139,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20208,7 +20217,7 @@
         <v>2.25</v>
       </c>
       <c r="AP93">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ93">
         <v>2</v>
@@ -20336,7 +20345,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20414,7 +20423,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ94">
         <v>0.86</v>
@@ -20542,7 +20551,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -20748,7 +20757,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -20954,7 +20963,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21160,7 +21169,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21241,7 +21250,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ98">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR98">
         <v>1.18</v>
@@ -21366,7 +21375,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21778,7 +21787,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22190,7 +22199,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22268,10 +22277,10 @@
         <v>2.5</v>
       </c>
       <c r="AP103">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ103">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR103">
         <v>1.68</v>
@@ -22474,7 +22483,7 @@
         <v>0</v>
       </c>
       <c r="AP104">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ104">
         <v>0</v>
@@ -22889,7 +22898,7 @@
         <v>2</v>
       </c>
       <c r="AQ106">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR106">
         <v>1.43</v>
@@ -23014,7 +23023,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q107">
         <v>2.6</v>
@@ -23092,7 +23101,7 @@
         <v>0.6</v>
       </c>
       <c r="AP107">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ107">
         <v>0.86</v>
@@ -23426,7 +23435,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23632,7 +23641,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24044,7 +24053,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24456,7 +24465,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24662,7 +24671,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -25074,7 +25083,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25280,7 +25289,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -26104,7 +26113,7 @@
         <v>176</v>
       </c>
       <c r="P122" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26310,7 +26319,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26467,6 +26476,830 @@
       </c>
       <c r="BP123">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7468478</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45634.45833333334</v>
+      </c>
+      <c r="F124">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>83</v>
+      </c>
+      <c r="H124" t="s">
+        <v>75</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>177</v>
+      </c>
+      <c r="P124" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q124">
+        <v>1.83</v>
+      </c>
+      <c r="R124">
+        <v>2.6</v>
+      </c>
+      <c r="S124">
+        <v>7</v>
+      </c>
+      <c r="T124">
+        <v>1.29</v>
+      </c>
+      <c r="U124">
+        <v>3.5</v>
+      </c>
+      <c r="V124">
+        <v>2.25</v>
+      </c>
+      <c r="W124">
+        <v>1.57</v>
+      </c>
+      <c r="X124">
+        <v>5.5</v>
+      </c>
+      <c r="Y124">
+        <v>1.14</v>
+      </c>
+      <c r="Z124">
+        <v>1.26</v>
+      </c>
+      <c r="AA124">
+        <v>4.75</v>
+      </c>
+      <c r="AB124">
+        <v>7.5</v>
+      </c>
+      <c r="AC124">
+        <v>1.02</v>
+      </c>
+      <c r="AD124">
+        <v>19</v>
+      </c>
+      <c r="AE124">
+        <v>1.18</v>
+      </c>
+      <c r="AF124">
+        <v>5</v>
+      </c>
+      <c r="AG124">
+        <v>1.52</v>
+      </c>
+      <c r="AH124">
+        <v>2.35</v>
+      </c>
+      <c r="AI124">
+        <v>1.91</v>
+      </c>
+      <c r="AJ124">
+        <v>1.91</v>
+      </c>
+      <c r="AK124">
+        <v>1.06</v>
+      </c>
+      <c r="AL124">
+        <v>1.13</v>
+      </c>
+      <c r="AM124">
+        <v>3.2</v>
+      </c>
+      <c r="AN124">
+        <v>1.33</v>
+      </c>
+      <c r="AO124">
+        <v>0</v>
+      </c>
+      <c r="AP124">
+        <v>1.57</v>
+      </c>
+      <c r="AQ124">
+        <v>0</v>
+      </c>
+      <c r="AR124">
+        <v>1.73</v>
+      </c>
+      <c r="AS124">
+        <v>1.12</v>
+      </c>
+      <c r="AT124">
+        <v>2.85</v>
+      </c>
+      <c r="AU124">
+        <v>5</v>
+      </c>
+      <c r="AV124">
+        <v>5</v>
+      </c>
+      <c r="AW124">
+        <v>8</v>
+      </c>
+      <c r="AX124">
+        <v>4</v>
+      </c>
+      <c r="AY124">
+        <v>19</v>
+      </c>
+      <c r="AZ124">
+        <v>10</v>
+      </c>
+      <c r="BA124">
+        <v>6</v>
+      </c>
+      <c r="BB124">
+        <v>3</v>
+      </c>
+      <c r="BC124">
+        <v>9</v>
+      </c>
+      <c r="BD124">
+        <v>1.25</v>
+      </c>
+      <c r="BE124">
+        <v>8</v>
+      </c>
+      <c r="BF124">
+        <v>4.3</v>
+      </c>
+      <c r="BG124">
+        <v>1.32</v>
+      </c>
+      <c r="BH124">
+        <v>3.05</v>
+      </c>
+      <c r="BI124">
+        <v>1.54</v>
+      </c>
+      <c r="BJ124">
+        <v>2.28</v>
+      </c>
+      <c r="BK124">
+        <v>1.88</v>
+      </c>
+      <c r="BL124">
+        <v>1.81</v>
+      </c>
+      <c r="BM124">
+        <v>2.38</v>
+      </c>
+      <c r="BN124">
+        <v>1.5</v>
+      </c>
+      <c r="BO124">
+        <v>3.05</v>
+      </c>
+      <c r="BP124">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7468479</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45634.54166666666</v>
+      </c>
+      <c r="F125">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>86</v>
+      </c>
+      <c r="H125" t="s">
+        <v>72</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125" t="s">
+        <v>90</v>
+      </c>
+      <c r="P125" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q125">
+        <v>2.88</v>
+      </c>
+      <c r="R125">
+        <v>2.25</v>
+      </c>
+      <c r="S125">
+        <v>3.4</v>
+      </c>
+      <c r="T125">
+        <v>1.33</v>
+      </c>
+      <c r="U125">
+        <v>3.25</v>
+      </c>
+      <c r="V125">
+        <v>2.63</v>
+      </c>
+      <c r="W125">
+        <v>1.44</v>
+      </c>
+      <c r="X125">
+        <v>6.5</v>
+      </c>
+      <c r="Y125">
+        <v>1.11</v>
+      </c>
+      <c r="Z125">
+        <v>2.3</v>
+      </c>
+      <c r="AA125">
+        <v>3.4</v>
+      </c>
+      <c r="AB125">
+        <v>3</v>
+      </c>
+      <c r="AC125">
+        <v>1.04</v>
+      </c>
+      <c r="AD125">
+        <v>13</v>
+      </c>
+      <c r="AE125">
+        <v>1.24</v>
+      </c>
+      <c r="AF125">
+        <v>4.2</v>
+      </c>
+      <c r="AG125">
+        <v>1.75</v>
+      </c>
+      <c r="AH125">
+        <v>2.05</v>
+      </c>
+      <c r="AI125">
+        <v>1.57</v>
+      </c>
+      <c r="AJ125">
+        <v>2.25</v>
+      </c>
+      <c r="AK125">
+        <v>1.42</v>
+      </c>
+      <c r="AL125">
+        <v>1.26</v>
+      </c>
+      <c r="AM125">
+        <v>1.62</v>
+      </c>
+      <c r="AN125">
+        <v>1.83</v>
+      </c>
+      <c r="AO125">
+        <v>1.67</v>
+      </c>
+      <c r="AP125">
+        <v>1.71</v>
+      </c>
+      <c r="AQ125">
+        <v>1.57</v>
+      </c>
+      <c r="AR125">
+        <v>1.21</v>
+      </c>
+      <c r="AS125">
+        <v>1.39</v>
+      </c>
+      <c r="AT125">
+        <v>2.6</v>
+      </c>
+      <c r="AU125">
+        <v>4</v>
+      </c>
+      <c r="AV125">
+        <v>4</v>
+      </c>
+      <c r="AW125">
+        <v>3</v>
+      </c>
+      <c r="AX125">
+        <v>4</v>
+      </c>
+      <c r="AY125">
+        <v>9</v>
+      </c>
+      <c r="AZ125">
+        <v>12</v>
+      </c>
+      <c r="BA125">
+        <v>3</v>
+      </c>
+      <c r="BB125">
+        <v>2</v>
+      </c>
+      <c r="BC125">
+        <v>5</v>
+      </c>
+      <c r="BD125">
+        <v>1.8</v>
+      </c>
+      <c r="BE125">
+        <v>6.4</v>
+      </c>
+      <c r="BF125">
+        <v>2.23</v>
+      </c>
+      <c r="BG125">
+        <v>1.37</v>
+      </c>
+      <c r="BH125">
+        <v>2.8</v>
+      </c>
+      <c r="BI125">
+        <v>1.63</v>
+      </c>
+      <c r="BJ125">
+        <v>2.12</v>
+      </c>
+      <c r="BK125">
+        <v>2.02</v>
+      </c>
+      <c r="BL125">
+        <v>1.7</v>
+      </c>
+      <c r="BM125">
+        <v>2.55</v>
+      </c>
+      <c r="BN125">
+        <v>1.43</v>
+      </c>
+      <c r="BO125">
+        <v>3.4</v>
+      </c>
+      <c r="BP125">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7468480</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45634.54166666666</v>
+      </c>
+      <c r="F126">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>85</v>
+      </c>
+      <c r="H126" t="s">
+        <v>78</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126" t="s">
+        <v>178</v>
+      </c>
+      <c r="P126" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q126">
+        <v>3.6</v>
+      </c>
+      <c r="R126">
+        <v>2.05</v>
+      </c>
+      <c r="S126">
+        <v>3.2</v>
+      </c>
+      <c r="T126">
+        <v>1.44</v>
+      </c>
+      <c r="U126">
+        <v>2.63</v>
+      </c>
+      <c r="V126">
+        <v>3.4</v>
+      </c>
+      <c r="W126">
+        <v>1.3</v>
+      </c>
+      <c r="X126">
+        <v>10</v>
+      </c>
+      <c r="Y126">
+        <v>1.06</v>
+      </c>
+      <c r="Z126">
+        <v>3</v>
+      </c>
+      <c r="AA126">
+        <v>3.2</v>
+      </c>
+      <c r="AB126">
+        <v>2.38</v>
+      </c>
+      <c r="AC126">
+        <v>1.07</v>
+      </c>
+      <c r="AD126">
+        <v>9</v>
+      </c>
+      <c r="AE126">
+        <v>1.4</v>
+      </c>
+      <c r="AF126">
+        <v>3</v>
+      </c>
+      <c r="AG126">
+        <v>2.05</v>
+      </c>
+      <c r="AH126">
+        <v>1.75</v>
+      </c>
+      <c r="AI126">
+        <v>1.91</v>
+      </c>
+      <c r="AJ126">
+        <v>1.91</v>
+      </c>
+      <c r="AK126">
+        <v>1.55</v>
+      </c>
+      <c r="AL126">
+        <v>1.3</v>
+      </c>
+      <c r="AM126">
+        <v>1.44</v>
+      </c>
+      <c r="AN126">
+        <v>0.83</v>
+      </c>
+      <c r="AO126">
+        <v>0.17</v>
+      </c>
+      <c r="AP126">
+        <v>1.14</v>
+      </c>
+      <c r="AQ126">
+        <v>0.14</v>
+      </c>
+      <c r="AR126">
+        <v>1.51</v>
+      </c>
+      <c r="AS126">
+        <v>1.15</v>
+      </c>
+      <c r="AT126">
+        <v>2.66</v>
+      </c>
+      <c r="AU126">
+        <v>3</v>
+      </c>
+      <c r="AV126">
+        <v>5</v>
+      </c>
+      <c r="AW126">
+        <v>5</v>
+      </c>
+      <c r="AX126">
+        <v>2</v>
+      </c>
+      <c r="AY126">
+        <v>16</v>
+      </c>
+      <c r="AZ126">
+        <v>7</v>
+      </c>
+      <c r="BA126">
+        <v>5</v>
+      </c>
+      <c r="BB126">
+        <v>5</v>
+      </c>
+      <c r="BC126">
+        <v>10</v>
+      </c>
+      <c r="BD126">
+        <v>2.33</v>
+      </c>
+      <c r="BE126">
+        <v>6.75</v>
+      </c>
+      <c r="BF126">
+        <v>1.72</v>
+      </c>
+      <c r="BG126">
+        <v>1.3</v>
+      </c>
+      <c r="BH126">
+        <v>3.05</v>
+      </c>
+      <c r="BI126">
+        <v>1.53</v>
+      </c>
+      <c r="BJ126">
+        <v>2.32</v>
+      </c>
+      <c r="BK126">
+        <v>1.88</v>
+      </c>
+      <c r="BL126">
+        <v>1.81</v>
+      </c>
+      <c r="BM126">
+        <v>2.35</v>
+      </c>
+      <c r="BN126">
+        <v>1.5</v>
+      </c>
+      <c r="BO126">
+        <v>3.05</v>
+      </c>
+      <c r="BP126">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7468475</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45634.69791666666</v>
+      </c>
+      <c r="F127">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>82</v>
+      </c>
+      <c r="H127" t="s">
+        <v>87</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>90</v>
+      </c>
+      <c r="P127" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q127">
+        <v>5</v>
+      </c>
+      <c r="R127">
+        <v>2.3</v>
+      </c>
+      <c r="S127">
+        <v>2.2</v>
+      </c>
+      <c r="T127">
+        <v>1.33</v>
+      </c>
+      <c r="U127">
+        <v>3.25</v>
+      </c>
+      <c r="V127">
+        <v>2.63</v>
+      </c>
+      <c r="W127">
+        <v>1.44</v>
+      </c>
+      <c r="X127">
+        <v>6.5</v>
+      </c>
+      <c r="Y127">
+        <v>1.11</v>
+      </c>
+      <c r="Z127">
+        <v>5</v>
+      </c>
+      <c r="AA127">
+        <v>4</v>
+      </c>
+      <c r="AB127">
+        <v>1.6</v>
+      </c>
+      <c r="AC127">
+        <v>1.03</v>
+      </c>
+      <c r="AD127">
+        <v>13</v>
+      </c>
+      <c r="AE127">
+        <v>1.25</v>
+      </c>
+      <c r="AF127">
+        <v>4</v>
+      </c>
+      <c r="AG127">
+        <v>1.67</v>
+      </c>
+      <c r="AH127">
+        <v>2.15</v>
+      </c>
+      <c r="AI127">
+        <v>1.75</v>
+      </c>
+      <c r="AJ127">
+        <v>2</v>
+      </c>
+      <c r="AK127">
+        <v>2.3</v>
+      </c>
+      <c r="AL127">
+        <v>1.2</v>
+      </c>
+      <c r="AM127">
+        <v>1.17</v>
+      </c>
+      <c r="AN127">
+        <v>2</v>
+      </c>
+      <c r="AO127">
+        <v>2.57</v>
+      </c>
+      <c r="AP127">
+        <v>1.71</v>
+      </c>
+      <c r="AQ127">
+        <v>2.63</v>
+      </c>
+      <c r="AR127">
+        <v>1.3</v>
+      </c>
+      <c r="AS127">
+        <v>1.22</v>
+      </c>
+      <c r="AT127">
+        <v>2.52</v>
+      </c>
+      <c r="AU127">
+        <v>3</v>
+      </c>
+      <c r="AV127">
+        <v>11</v>
+      </c>
+      <c r="AW127">
+        <v>1</v>
+      </c>
+      <c r="AX127">
+        <v>4</v>
+      </c>
+      <c r="AY127">
+        <v>5</v>
+      </c>
+      <c r="AZ127">
+        <v>22</v>
+      </c>
+      <c r="BA127">
+        <v>0</v>
+      </c>
+      <c r="BB127">
+        <v>9</v>
+      </c>
+      <c r="BC127">
+        <v>9</v>
+      </c>
+      <c r="BD127">
+        <v>3.05</v>
+      </c>
+      <c r="BE127">
+        <v>6.75</v>
+      </c>
+      <c r="BF127">
+        <v>1.47</v>
+      </c>
+      <c r="BG127">
+        <v>1.36</v>
+      </c>
+      <c r="BH127">
+        <v>2.8</v>
+      </c>
+      <c r="BI127">
+        <v>1.61</v>
+      </c>
+      <c r="BJ127">
+        <v>2.15</v>
+      </c>
+      <c r="BK127">
+        <v>1.98</v>
+      </c>
+      <c r="BL127">
+        <v>1.72</v>
+      </c>
+      <c r="BM127">
+        <v>2.55</v>
+      </c>
+      <c r="BN127">
+        <v>1.44</v>
+      </c>
+      <c r="BO127">
+        <v>3.3</v>
+      </c>
+      <c r="BP127">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -547,7 +547,7 @@
     <t>['55', '75']</t>
   </si>
   <si>
-    <t>['39', '90+1']</t>
+    <t>['39', '90+2']</t>
   </si>
   <si>
     <t>['89']</t>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -551,6 +551,9 @@
   </si>
   <si>
     <t>['89']</t>
+  </si>
+  <si>
+    <t>['55', '85']</t>
   </si>
   <si>
     <t>['3', '84', '86', '90']</t>
@@ -1134,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1393,7 +1396,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1599,7 +1602,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1805,7 +1808,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2092,7 +2095,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ5">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2217,7 +2220,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2423,7 +2426,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2707,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
         <v>0.86</v>
@@ -3453,7 +3456,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -3865,7 +3868,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4689,7 +4692,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4895,7 +4898,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5101,7 +5104,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5388,7 +5391,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ21">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR21">
         <v>1.56</v>
@@ -5513,7 +5516,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -5719,7 +5722,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -5797,7 +5800,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ23">
         <v>2.63</v>
@@ -5925,7 +5928,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6131,7 +6134,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6543,7 +6546,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6749,7 +6752,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7367,7 +7370,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8063,7 +8066,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34">
         <v>0.86</v>
@@ -8191,7 +8194,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8397,7 +8400,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8890,7 +8893,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ38">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR38">
         <v>1.16</v>
@@ -9015,7 +9018,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9221,7 +9224,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9427,7 +9430,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9839,7 +9842,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10251,7 +10254,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10457,7 +10460,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -10869,7 +10872,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q48">
         <v>1.83</v>
@@ -11281,7 +11284,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11487,7 +11490,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -11693,7 +11696,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -11771,7 +11774,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
         <v>1.71</v>
@@ -11899,7 +11902,7 @@
         <v>106</v>
       </c>
       <c r="P53" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12105,7 +12108,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12186,7 +12189,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ54">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR54">
         <v>1.5</v>
@@ -12723,7 +12726,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13135,7 +13138,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13547,7 +13550,7 @@
         <v>135</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13753,7 +13756,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14165,7 +14168,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14577,7 +14580,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14783,7 +14786,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -14989,7 +14992,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15195,7 +15198,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15401,7 +15404,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15607,7 +15610,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15685,7 +15688,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ71">
         <v>1.29</v>
@@ -15813,7 +15816,7 @@
         <v>93</v>
       </c>
       <c r="P72" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16019,7 +16022,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16431,7 +16434,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16512,7 +16515,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ75">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR75">
         <v>1.25</v>
@@ -16637,7 +16640,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16843,7 +16846,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17049,7 +17052,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17255,7 +17258,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17461,7 +17464,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q80">
         <v>2.63</v>
@@ -17873,7 +17876,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18285,7 +18288,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18697,7 +18700,7 @@
         <v>90</v>
       </c>
       <c r="P86" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19187,7 +19190,7 @@
         <v>1.75</v>
       </c>
       <c r="AP88">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ88">
         <v>1.57</v>
@@ -19727,7 +19730,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -19933,7 +19936,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20139,7 +20142,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20345,7 +20348,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20551,7 +20554,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -20757,7 +20760,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -20963,7 +20966,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21169,7 +21172,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21375,7 +21378,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21662,7 +21665,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ100">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR100">
         <v>1.78</v>
@@ -21787,7 +21790,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22199,7 +22202,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23023,7 +23026,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q107">
         <v>2.6</v>
@@ -23435,7 +23438,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23641,7 +23644,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -23928,7 +23931,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ111">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR111">
         <v>1.53</v>
@@ -24053,7 +24056,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24465,7 +24468,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24671,7 +24674,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -24955,7 +24958,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ116">
         <v>0.57</v>
@@ -25083,7 +25086,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25289,7 +25292,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -26113,7 +26116,7 @@
         <v>176</v>
       </c>
       <c r="P122" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26319,7 +26322,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27143,7 +27146,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -27299,6 +27302,212 @@
         <v>3.3</v>
       </c>
       <c r="BP127">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7468486</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45639.69791666666</v>
+      </c>
+      <c r="F128">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
+        <v>76</v>
+      </c>
+      <c r="H128" t="s">
+        <v>82</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128" t="s">
+        <v>179</v>
+      </c>
+      <c r="P128" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q128">
+        <v>2</v>
+      </c>
+      <c r="R128">
+        <v>2.38</v>
+      </c>
+      <c r="S128">
+        <v>6.5</v>
+      </c>
+      <c r="T128">
+        <v>1.33</v>
+      </c>
+      <c r="U128">
+        <v>3.25</v>
+      </c>
+      <c r="V128">
+        <v>2.63</v>
+      </c>
+      <c r="W128">
+        <v>1.44</v>
+      </c>
+      <c r="X128">
+        <v>6.5</v>
+      </c>
+      <c r="Y128">
+        <v>1.11</v>
+      </c>
+      <c r="Z128">
+        <v>1.48</v>
+      </c>
+      <c r="AA128">
+        <v>4.5</v>
+      </c>
+      <c r="AB128">
+        <v>6.5</v>
+      </c>
+      <c r="AC128">
+        <v>1.03</v>
+      </c>
+      <c r="AD128">
+        <v>13</v>
+      </c>
+      <c r="AE128">
+        <v>1.25</v>
+      </c>
+      <c r="AF128">
+        <v>4</v>
+      </c>
+      <c r="AG128">
+        <v>1.75</v>
+      </c>
+      <c r="AH128">
+        <v>2</v>
+      </c>
+      <c r="AI128">
+        <v>1.95</v>
+      </c>
+      <c r="AJ128">
+        <v>1.8</v>
+      </c>
+      <c r="AK128">
+        <v>1.11</v>
+      </c>
+      <c r="AL128">
+        <v>1.17</v>
+      </c>
+      <c r="AM128">
+        <v>2.7</v>
+      </c>
+      <c r="AN128">
+        <v>1.57</v>
+      </c>
+      <c r="AO128">
+        <v>0.14</v>
+      </c>
+      <c r="AP128">
+        <v>1.75</v>
+      </c>
+      <c r="AQ128">
+        <v>0.13</v>
+      </c>
+      <c r="AR128">
+        <v>1.4</v>
+      </c>
+      <c r="AS128">
+        <v>1.02</v>
+      </c>
+      <c r="AT128">
+        <v>2.42</v>
+      </c>
+      <c r="AU128">
+        <v>5</v>
+      </c>
+      <c r="AV128">
+        <v>3</v>
+      </c>
+      <c r="AW128">
+        <v>4</v>
+      </c>
+      <c r="AX128">
+        <v>1</v>
+      </c>
+      <c r="AY128">
+        <v>12</v>
+      </c>
+      <c r="AZ128">
+        <v>4</v>
+      </c>
+      <c r="BA128">
+        <v>2</v>
+      </c>
+      <c r="BB128">
+        <v>3</v>
+      </c>
+      <c r="BC128">
+        <v>5</v>
+      </c>
+      <c r="BD128">
+        <v>1.25</v>
+      </c>
+      <c r="BE128">
+        <v>7.5</v>
+      </c>
+      <c r="BF128">
+        <v>4.35</v>
+      </c>
+      <c r="BG128">
+        <v>1.36</v>
+      </c>
+      <c r="BH128">
+        <v>2.8</v>
+      </c>
+      <c r="BI128">
+        <v>1.62</v>
+      </c>
+      <c r="BJ128">
+        <v>2.12</v>
+      </c>
+      <c r="BK128">
+        <v>2</v>
+      </c>
+      <c r="BL128">
+        <v>1.71</v>
+      </c>
+      <c r="BM128">
+        <v>2.55</v>
+      </c>
+      <c r="BN128">
+        <v>1.44</v>
+      </c>
+      <c r="BO128">
+        <v>3.3</v>
+      </c>
+      <c r="BP128">
         <v>1.27</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="257">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,9 @@
     <t>['55', '85']</t>
   </si>
   <si>
+    <t>['31', '73']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -776,6 +779,12 @@
   </si>
   <si>
     <t>['17', '65']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['22', '45']</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1396,7 +1405,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1602,7 +1611,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1808,7 +1817,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1886,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ4">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2220,7 +2229,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2298,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ6">
         <v>1.14</v>
@@ -2426,7 +2435,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2919,7 +2928,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ9">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3456,7 +3465,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -3537,7 +3546,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3868,7 +3877,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4692,7 +4701,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4898,7 +4907,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -4976,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ19">
         <v>1.57</v>
@@ -5104,7 +5113,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5516,7 +5525,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -5722,7 +5731,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -5928,7 +5937,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6009,7 +6018,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ24">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR24">
         <v>1.57</v>
@@ -6134,7 +6143,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6546,7 +6555,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6624,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ27">
         <v>0.14</v>
@@ -6752,7 +6761,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7039,7 +7048,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ29">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR29">
         <v>1.65</v>
@@ -7242,7 +7251,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ30">
         <v>1.14</v>
@@ -7370,7 +7379,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7448,10 +7457,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR31">
         <v>1.86</v>
@@ -8194,7 +8203,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8400,7 +8409,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -9018,7 +9027,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9224,7 +9233,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9305,7 +9314,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ40">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR40">
         <v>1.95</v>
@@ -9430,7 +9439,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9508,7 +9517,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ41">
         <v>2.14</v>
@@ -9842,7 +9851,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10254,7 +10263,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10460,7 +10469,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -10744,7 +10753,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ47">
         <v>0.43</v>
@@ -10872,7 +10881,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q48">
         <v>1.83</v>
@@ -11284,7 +11293,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11365,7 +11374,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ50">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR50">
         <v>1.41</v>
@@ -11490,7 +11499,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -11696,7 +11705,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -11902,7 +11911,7 @@
         <v>106</v>
       </c>
       <c r="P53" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12108,7 +12117,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12598,7 +12607,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ56">
         <v>1.29</v>
@@ -12726,7 +12735,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13138,7 +13147,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13219,7 +13228,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR59">
         <v>1.74</v>
@@ -13550,7 +13559,7 @@
         <v>135</v>
       </c>
       <c r="P61" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13628,7 +13637,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ61">
         <v>0</v>
@@ -13756,7 +13765,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13837,7 +13846,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ62">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR62">
         <v>1.38</v>
@@ -14168,7 +14177,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14455,7 +14464,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ65">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR65">
         <v>1.54</v>
@@ -14580,7 +14589,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14786,7 +14795,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -14867,7 +14876,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ67">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR67">
         <v>1.42</v>
@@ -14992,7 +15001,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15198,7 +15207,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15404,7 +15413,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15482,7 +15491,7 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ70">
         <v>1.57</v>
@@ -15610,7 +15619,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15816,7 +15825,7 @@
         <v>93</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16022,7 +16031,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16434,7 +16443,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16640,7 +16649,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16718,7 +16727,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ76">
         <v>0.43</v>
@@ -16846,7 +16855,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16927,7 +16936,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ77">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR77">
         <v>1.98</v>
@@ -17052,7 +17061,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17258,7 +17267,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17464,7 +17473,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q80">
         <v>2.63</v>
@@ -17751,7 +17760,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR81">
         <v>1.44</v>
@@ -17876,7 +17885,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -17954,7 +17963,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ82">
         <v>2.14</v>
@@ -18288,7 +18297,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18575,7 +18584,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ85">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR85">
         <v>2.29</v>
@@ -18700,7 +18709,7 @@
         <v>90</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19396,7 +19405,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ89">
         <v>0.14</v>
@@ -19730,7 +19739,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -19936,7 +19945,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20014,7 +20023,7 @@
         <v>0.2</v>
       </c>
       <c r="AP92">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ92">
         <v>0.57</v>
@@ -20142,7 +20151,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20223,7 +20232,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ93">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR93">
         <v>1.3</v>
@@ -20348,7 +20357,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20554,7 +20563,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -20760,7 +20769,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -20841,7 +20850,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ96">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR96">
         <v>1.64</v>
@@ -20966,7 +20975,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21172,7 +21181,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21378,7 +21387,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21790,7 +21799,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22202,7 +22211,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22692,7 +22701,7 @@
         <v>1.6</v>
       </c>
       <c r="AP105">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ105">
         <v>1.71</v>
@@ -23026,7 +23035,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q107">
         <v>2.6</v>
@@ -23310,7 +23319,7 @@
         <v>1.2</v>
       </c>
       <c r="AP108">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ108">
         <v>1.29</v>
@@ -23438,7 +23447,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23644,7 +23653,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -23722,10 +23731,10 @@
         <v>1.5</v>
       </c>
       <c r="AP110">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ110">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR110">
         <v>1.22</v>
@@ -24056,7 +24065,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24468,7 +24477,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24549,7 +24558,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ114">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR114">
         <v>1.36</v>
@@ -24674,7 +24683,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -25086,7 +25095,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25292,7 +25301,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -25370,10 +25379,10 @@
         <v>2.4</v>
       </c>
       <c r="AP118">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ118">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR118">
         <v>1.45</v>
@@ -25782,7 +25791,7 @@
         <v>2.33</v>
       </c>
       <c r="AP120">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ120">
         <v>2.14</v>
@@ -26116,7 +26125,7 @@
         <v>176</v>
       </c>
       <c r="P122" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26322,7 +26331,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27146,7 +27155,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -27508,6 +27517,624 @@
         <v>3.3</v>
       </c>
       <c r="BP128">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7468489</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45640.54166666666</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129" t="s">
+        <v>87</v>
+      </c>
+      <c r="H129" t="s">
+        <v>81</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>148</v>
+      </c>
+      <c r="P129" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q129">
+        <v>2.88</v>
+      </c>
+      <c r="R129">
+        <v>2.2</v>
+      </c>
+      <c r="S129">
+        <v>3.75</v>
+      </c>
+      <c r="T129">
+        <v>1.4</v>
+      </c>
+      <c r="U129">
+        <v>2.75</v>
+      </c>
+      <c r="V129">
+        <v>2.75</v>
+      </c>
+      <c r="W129">
+        <v>1.4</v>
+      </c>
+      <c r="X129">
+        <v>8</v>
+      </c>
+      <c r="Y129">
+        <v>1.08</v>
+      </c>
+      <c r="Z129">
+        <v>2.12</v>
+      </c>
+      <c r="AA129">
+        <v>3.5</v>
+      </c>
+      <c r="AB129">
+        <v>3.1</v>
+      </c>
+      <c r="AC129">
+        <v>1.05</v>
+      </c>
+      <c r="AD129">
+        <v>11</v>
+      </c>
+      <c r="AE129">
+        <v>1.3</v>
+      </c>
+      <c r="AF129">
+        <v>3.6</v>
+      </c>
+      <c r="AG129">
+        <v>1.9</v>
+      </c>
+      <c r="AH129">
+        <v>1.96</v>
+      </c>
+      <c r="AI129">
+        <v>1.75</v>
+      </c>
+      <c r="AJ129">
+        <v>2</v>
+      </c>
+      <c r="AK129">
+        <v>1.35</v>
+      </c>
+      <c r="AL129">
+        <v>1.26</v>
+      </c>
+      <c r="AM129">
+        <v>1.7</v>
+      </c>
+      <c r="AN129">
+        <v>1.33</v>
+      </c>
+      <c r="AO129">
+        <v>1.71</v>
+      </c>
+      <c r="AP129">
+        <v>1.29</v>
+      </c>
+      <c r="AQ129">
+        <v>1.63</v>
+      </c>
+      <c r="AR129">
+        <v>1.4</v>
+      </c>
+      <c r="AS129">
+        <v>1.48</v>
+      </c>
+      <c r="AT129">
+        <v>2.88</v>
+      </c>
+      <c r="AU129">
+        <v>4</v>
+      </c>
+      <c r="AV129">
+        <v>6</v>
+      </c>
+      <c r="AW129">
+        <v>3</v>
+      </c>
+      <c r="AX129">
+        <v>4</v>
+      </c>
+      <c r="AY129">
+        <v>10</v>
+      </c>
+      <c r="AZ129">
+        <v>11</v>
+      </c>
+      <c r="BA129">
+        <v>3</v>
+      </c>
+      <c r="BB129">
+        <v>8</v>
+      </c>
+      <c r="BC129">
+        <v>11</v>
+      </c>
+      <c r="BD129">
+        <v>1.82</v>
+      </c>
+      <c r="BE129">
+        <v>6.25</v>
+      </c>
+      <c r="BF129">
+        <v>2.2</v>
+      </c>
+      <c r="BG129">
+        <v>1.41</v>
+      </c>
+      <c r="BH129">
+        <v>2.63</v>
+      </c>
+      <c r="BI129">
+        <v>1.71</v>
+      </c>
+      <c r="BJ129">
+        <v>2</v>
+      </c>
+      <c r="BK129">
+        <v>2.15</v>
+      </c>
+      <c r="BL129">
+        <v>1.61</v>
+      </c>
+      <c r="BM129">
+        <v>2.8</v>
+      </c>
+      <c r="BN129">
+        <v>1.37</v>
+      </c>
+      <c r="BO129">
+        <v>3.65</v>
+      </c>
+      <c r="BP129">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7468485</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45640.625</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" t="s">
+        <v>74</v>
+      </c>
+      <c r="H130" t="s">
+        <v>83</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>2</v>
+      </c>
+      <c r="K130">
+        <v>3</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>4</v>
+      </c>
+      <c r="O130" t="s">
+        <v>180</v>
+      </c>
+      <c r="P130" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q130">
+        <v>4.33</v>
+      </c>
+      <c r="R130">
+        <v>2.2</v>
+      </c>
+      <c r="S130">
+        <v>2.6</v>
+      </c>
+      <c r="T130">
+        <v>1.36</v>
+      </c>
+      <c r="U130">
+        <v>3</v>
+      </c>
+      <c r="V130">
+        <v>2.75</v>
+      </c>
+      <c r="W130">
+        <v>1.4</v>
+      </c>
+      <c r="X130">
+        <v>7</v>
+      </c>
+      <c r="Y130">
+        <v>1.1</v>
+      </c>
+      <c r="Z130">
+        <v>3.2</v>
+      </c>
+      <c r="AA130">
+        <v>3.6</v>
+      </c>
+      <c r="AB130">
+        <v>2.05</v>
+      </c>
+      <c r="AC130">
+        <v>1.05</v>
+      </c>
+      <c r="AD130">
+        <v>12</v>
+      </c>
+      <c r="AE130">
+        <v>1.28</v>
+      </c>
+      <c r="AF130">
+        <v>3.75</v>
+      </c>
+      <c r="AG130">
+        <v>1.75</v>
+      </c>
+      <c r="AH130">
+        <v>2.05</v>
+      </c>
+      <c r="AI130">
+        <v>1.7</v>
+      </c>
+      <c r="AJ130">
+        <v>2.05</v>
+      </c>
+      <c r="AK130">
+        <v>1.85</v>
+      </c>
+      <c r="AL130">
+        <v>1.25</v>
+      </c>
+      <c r="AM130">
+        <v>1.28</v>
+      </c>
+      <c r="AN130">
+        <v>2.29</v>
+      </c>
+      <c r="AO130">
+        <v>1.71</v>
+      </c>
+      <c r="AP130">
+        <v>2.13</v>
+      </c>
+      <c r="AQ130">
+        <v>1.63</v>
+      </c>
+      <c r="AR130">
+        <v>1.37</v>
+      </c>
+      <c r="AS130">
+        <v>1.3</v>
+      </c>
+      <c r="AT130">
+        <v>2.67</v>
+      </c>
+      <c r="AU130">
+        <v>4</v>
+      </c>
+      <c r="AV130">
+        <v>6</v>
+      </c>
+      <c r="AW130">
+        <v>4</v>
+      </c>
+      <c r="AX130">
+        <v>5</v>
+      </c>
+      <c r="AY130">
+        <v>11</v>
+      </c>
+      <c r="AZ130">
+        <v>17</v>
+      </c>
+      <c r="BA130">
+        <v>3</v>
+      </c>
+      <c r="BB130">
+        <v>5</v>
+      </c>
+      <c r="BC130">
+        <v>8</v>
+      </c>
+      <c r="BD130">
+        <v>2.7</v>
+      </c>
+      <c r="BE130">
+        <v>6.4</v>
+      </c>
+      <c r="BF130">
+        <v>1.56</v>
+      </c>
+      <c r="BG130">
+        <v>1.36</v>
+      </c>
+      <c r="BH130">
+        <v>2.8</v>
+      </c>
+      <c r="BI130">
+        <v>1.62</v>
+      </c>
+      <c r="BJ130">
+        <v>2.14</v>
+      </c>
+      <c r="BK130">
+        <v>2</v>
+      </c>
+      <c r="BL130">
+        <v>1.71</v>
+      </c>
+      <c r="BM130">
+        <v>2.55</v>
+      </c>
+      <c r="BN130">
+        <v>1.44</v>
+      </c>
+      <c r="BO130">
+        <v>3.4</v>
+      </c>
+      <c r="BP130">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7468484</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45640.70833333334</v>
+      </c>
+      <c r="F131">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>72</v>
+      </c>
+      <c r="H131" t="s">
+        <v>73</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131" t="s">
+        <v>90</v>
+      </c>
+      <c r="P131" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q131">
+        <v>4</v>
+      </c>
+      <c r="R131">
+        <v>2.3</v>
+      </c>
+      <c r="S131">
+        <v>2.6</v>
+      </c>
+      <c r="T131">
+        <v>1.33</v>
+      </c>
+      <c r="U131">
+        <v>3.25</v>
+      </c>
+      <c r="V131">
+        <v>2.63</v>
+      </c>
+      <c r="W131">
+        <v>1.44</v>
+      </c>
+      <c r="X131">
+        <v>6.5</v>
+      </c>
+      <c r="Y131">
+        <v>1.11</v>
+      </c>
+      <c r="Z131">
+        <v>3.3</v>
+      </c>
+      <c r="AA131">
+        <v>3.6</v>
+      </c>
+      <c r="AB131">
+        <v>2.02</v>
+      </c>
+      <c r="AC131">
+        <v>1.03</v>
+      </c>
+      <c r="AD131">
+        <v>13</v>
+      </c>
+      <c r="AE131">
+        <v>1.24</v>
+      </c>
+      <c r="AF131">
+        <v>4.2</v>
+      </c>
+      <c r="AG131">
+        <v>1.63</v>
+      </c>
+      <c r="AH131">
+        <v>2.29</v>
+      </c>
+      <c r="AI131">
+        <v>1.62</v>
+      </c>
+      <c r="AJ131">
+        <v>2.2</v>
+      </c>
+      <c r="AK131">
+        <v>1.8</v>
+      </c>
+      <c r="AL131">
+        <v>1.24</v>
+      </c>
+      <c r="AM131">
+        <v>1.32</v>
+      </c>
+      <c r="AN131">
+        <v>1.14</v>
+      </c>
+      <c r="AO131">
+        <v>2</v>
+      </c>
+      <c r="AP131">
+        <v>1.13</v>
+      </c>
+      <c r="AQ131">
+        <v>1.86</v>
+      </c>
+      <c r="AR131">
+        <v>1.24</v>
+      </c>
+      <c r="AS131">
+        <v>1.46</v>
+      </c>
+      <c r="AT131">
+        <v>2.7</v>
+      </c>
+      <c r="AU131">
+        <v>0</v>
+      </c>
+      <c r="AV131">
+        <v>4</v>
+      </c>
+      <c r="AW131">
+        <v>7</v>
+      </c>
+      <c r="AX131">
+        <v>7</v>
+      </c>
+      <c r="AY131">
+        <v>9</v>
+      </c>
+      <c r="AZ131">
+        <v>15</v>
+      </c>
+      <c r="BA131">
+        <v>1</v>
+      </c>
+      <c r="BB131">
+        <v>4</v>
+      </c>
+      <c r="BC131">
+        <v>5</v>
+      </c>
+      <c r="BD131">
+        <v>2.33</v>
+      </c>
+      <c r="BE131">
+        <v>6.4</v>
+      </c>
+      <c r="BF131">
+        <v>1.74</v>
+      </c>
+      <c r="BG131">
+        <v>1.35</v>
+      </c>
+      <c r="BH131">
+        <v>2.9</v>
+      </c>
+      <c r="BI131">
+        <v>1.61</v>
+      </c>
+      <c r="BJ131">
+        <v>2.15</v>
+      </c>
+      <c r="BK131">
+        <v>1.98</v>
+      </c>
+      <c r="BL131">
+        <v>1.72</v>
+      </c>
+      <c r="BM131">
+        <v>2.55</v>
+      </c>
+      <c r="BN131">
+        <v>1.44</v>
+      </c>
+      <c r="BO131">
+        <v>3.3</v>
+      </c>
+      <c r="BP131">
         <v>1.27</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,6 +559,18 @@
     <t>['31', '73']</t>
   </si>
   <si>
+    <t>['22', '80']</t>
+  </si>
+  <si>
+    <t>['24', '27', '88', '90+3']</t>
+  </si>
+  <si>
+    <t>['33', '90+2']</t>
+  </si>
+  <si>
+    <t>['8', '14', '88']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -785,6 +797,12 @@
   </si>
   <si>
     <t>['22', '45']</t>
+  </si>
+  <si>
+    <t>['17', '28']</t>
+  </si>
+  <si>
+    <t>['28', '32', '90']</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP131"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1405,7 +1423,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1483,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ2">
         <v>2.14</v>
@@ -1611,7 +1629,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1689,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>2.63</v>
@@ -1817,7 +1835,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2229,7 +2247,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2310,7 +2328,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ6">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2435,7 +2453,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2513,10 +2531,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ7">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2722,7 +2740,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3131,10 +3149,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3337,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -3465,7 +3483,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -3752,7 +3770,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3877,7 +3895,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4701,7 +4719,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4907,7 +4925,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5113,7 +5131,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5194,7 +5212,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ20">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR20">
         <v>0.4</v>
@@ -5397,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>0.13</v>
@@ -5525,7 +5543,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -5603,10 +5621,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ22">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR22">
         <v>1.21</v>
@@ -5731,7 +5749,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -5937,7 +5955,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6143,7 +6161,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6224,7 +6242,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ25">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR25">
         <v>1.11</v>
@@ -6427,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ26">
         <v>0.57</v>
@@ -6555,7 +6573,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6761,7 +6779,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7254,7 +7272,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ30">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR30">
         <v>2.21</v>
@@ -7379,7 +7397,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7663,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ32">
         <v>0.43</v>
@@ -7869,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -8203,7 +8221,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8284,7 +8302,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ35">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR35">
         <v>1.25</v>
@@ -8409,7 +8427,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8696,7 +8714,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ37">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
         <v>2.03</v>
@@ -9027,7 +9045,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9108,7 +9126,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR39">
         <v>1.47</v>
@@ -9233,7 +9251,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9311,7 +9329,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>1.63</v>
@@ -9439,7 +9457,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9851,7 +9869,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9932,7 +9950,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ43">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR43">
         <v>1.49</v>
@@ -10135,7 +10153,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10263,7 +10281,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10341,7 +10359,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ45">
         <v>0.57</v>
@@ -10469,7 +10487,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -10881,7 +10899,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q48">
         <v>1.83</v>
@@ -10959,7 +10977,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ48">
         <v>0.14</v>
@@ -11168,7 +11186,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ49">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR49">
         <v>1.83</v>
@@ -11293,7 +11311,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11371,7 +11389,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ50">
         <v>1.63</v>
@@ -11499,7 +11517,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -11705,7 +11723,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -11786,7 +11804,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ52">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -11911,7 +11929,7 @@
         <v>106</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12117,7 +12135,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12610,7 +12628,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ56">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -12735,7 +12753,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13147,7 +13165,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13225,7 +13243,7 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ59">
         <v>1.86</v>
@@ -13434,7 +13452,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ60">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR60">
         <v>1.79</v>
@@ -13559,7 +13577,7 @@
         <v>135</v>
       </c>
       <c r="P61" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13765,7 +13783,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14049,7 +14067,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>0.86</v>
@@ -14177,7 +14195,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14589,7 +14607,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14667,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
         <v>0.14</v>
@@ -14795,7 +14813,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -15001,7 +15019,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15079,10 +15097,10 @@
         <v>0.67</v>
       </c>
       <c r="AP68">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ68">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR68">
         <v>2.38</v>
@@ -15207,7 +15225,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15285,10 +15303,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ69">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>1.32</v>
@@ -15413,7 +15431,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15619,7 +15637,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15700,7 +15718,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ71">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR71">
         <v>1.25</v>
@@ -15825,7 +15843,7 @@
         <v>93</v>
       </c>
       <c r="P72" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15906,7 +15924,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ72">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.52</v>
@@ -16031,7 +16049,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16109,7 +16127,7 @@
         <v>2.25</v>
       </c>
       <c r="AP73">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ73">
         <v>2.63</v>
@@ -16315,7 +16333,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>0.86</v>
@@ -16443,7 +16461,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16649,7 +16667,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16855,7 +16873,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17061,7 +17079,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17267,7 +17285,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17345,7 +17363,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17473,7 +17491,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q80">
         <v>2.63</v>
@@ -17554,7 +17572,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ80">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR80">
         <v>1.34</v>
@@ -17885,7 +17903,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18172,7 +18190,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ83">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR83">
         <v>1.55</v>
@@ -18297,7 +18315,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18378,7 +18396,7 @@
         <v>2</v>
       </c>
       <c r="AQ84">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR84">
         <v>1.48</v>
@@ -18581,7 +18599,7 @@
         <v>1.8</v>
       </c>
       <c r="AP85">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ85">
         <v>1.63</v>
@@ -18709,7 +18727,7 @@
         <v>90</v>
       </c>
       <c r="P86" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18787,10 +18805,10 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR86">
         <v>1.37</v>
@@ -18996,7 +19014,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ87">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR87">
         <v>1.3</v>
@@ -19611,7 +19629,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ90">
         <v>0</v>
@@ -19739,7 +19757,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -19945,7 +19963,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20151,7 +20169,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20357,7 +20375,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20438,7 +20456,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ94">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR94">
         <v>1.78</v>
@@ -20563,7 +20581,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -20769,7 +20787,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -20975,7 +20993,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21053,7 +21071,7 @@
         <v>0.75</v>
       </c>
       <c r="AP97">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ97">
         <v>0.43</v>
@@ -21181,7 +21199,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21259,7 +21277,7 @@
         <v>1.4</v>
       </c>
       <c r="AP98">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ98">
         <v>1.57</v>
@@ -21387,7 +21405,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21465,7 +21483,7 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21799,7 +21817,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22083,7 +22101,7 @@
         <v>1.4</v>
       </c>
       <c r="AP102">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ102">
         <v>1</v>
@@ -22211,7 +22229,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22704,7 +22722,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ105">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR105">
         <v>1.09</v>
@@ -23035,7 +23053,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>2.6</v>
@@ -23322,7 +23340,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ108">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR108">
         <v>1.49</v>
@@ -23447,7 +23465,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23528,7 +23546,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ109">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR109">
         <v>1.61</v>
@@ -23653,7 +23671,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -23937,7 +23955,7 @@
         <v>0.17</v>
       </c>
       <c r="AP111">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
         <v>0.13</v>
@@ -24065,7 +24083,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24143,10 +24161,10 @@
         <v>0.33</v>
       </c>
       <c r="AP112">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR112">
         <v>1.45</v>
@@ -24349,10 +24367,10 @@
         <v>0.83</v>
       </c>
       <c r="AP113">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ113">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR113">
         <v>2.24</v>
@@ -24477,7 +24495,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24555,7 +24573,7 @@
         <v>1.83</v>
       </c>
       <c r="AP114">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ114">
         <v>1.63</v>
@@ -24683,7 +24701,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -24761,10 +24779,10 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ115">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR115">
         <v>1.18</v>
@@ -25095,7 +25113,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25176,7 +25194,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ117">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR117">
         <v>1.77</v>
@@ -25301,7 +25319,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -26125,7 +26143,7 @@
         <v>176</v>
       </c>
       <c r="P122" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26331,7 +26349,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26412,7 +26430,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ123">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -27155,7 +27173,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -27537,7 +27555,7 @@
         <v>45640.54166666666</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G129" t="s">
         <v>87</v>
@@ -27567,7 +27585,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27773,7 +27791,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q130">
         <v>4.33</v>
@@ -28136,6 +28154,1036 @@
       </c>
       <c r="BP131">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7468487</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45641.45833333334</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>75</v>
+      </c>
+      <c r="H132" t="s">
+        <v>84</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>2</v>
+      </c>
+      <c r="K132">
+        <v>3</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>4</v>
+      </c>
+      <c r="O132" t="s">
+        <v>181</v>
+      </c>
+      <c r="P132" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q132">
+        <v>3.5</v>
+      </c>
+      <c r="R132">
+        <v>2.25</v>
+      </c>
+      <c r="S132">
+        <v>2.88</v>
+      </c>
+      <c r="T132">
+        <v>1.33</v>
+      </c>
+      <c r="U132">
+        <v>3.25</v>
+      </c>
+      <c r="V132">
+        <v>2.63</v>
+      </c>
+      <c r="W132">
+        <v>1.44</v>
+      </c>
+      <c r="X132">
+        <v>6.5</v>
+      </c>
+      <c r="Y132">
+        <v>1.11</v>
+      </c>
+      <c r="Z132">
+        <v>3.2</v>
+      </c>
+      <c r="AA132">
+        <v>3.3</v>
+      </c>
+      <c r="AB132">
+        <v>2.05</v>
+      </c>
+      <c r="AC132">
+        <v>1.04</v>
+      </c>
+      <c r="AD132">
+        <v>13</v>
+      </c>
+      <c r="AE132">
+        <v>1.24</v>
+      </c>
+      <c r="AF132">
+        <v>4.2</v>
+      </c>
+      <c r="AG132">
+        <v>1.7</v>
+      </c>
+      <c r="AH132">
+        <v>2.1</v>
+      </c>
+      <c r="AI132">
+        <v>1.62</v>
+      </c>
+      <c r="AJ132">
+        <v>2.2</v>
+      </c>
+      <c r="AK132">
+        <v>1.66</v>
+      </c>
+      <c r="AL132">
+        <v>1.26</v>
+      </c>
+      <c r="AM132">
+        <v>1.38</v>
+      </c>
+      <c r="AN132">
+        <v>1.14</v>
+      </c>
+      <c r="AO132">
+        <v>1.14</v>
+      </c>
+      <c r="AP132">
+        <v>1.13</v>
+      </c>
+      <c r="AQ132">
+        <v>1.13</v>
+      </c>
+      <c r="AR132">
+        <v>1.36</v>
+      </c>
+      <c r="AS132">
+        <v>1.39</v>
+      </c>
+      <c r="AT132">
+        <v>2.75</v>
+      </c>
+      <c r="AU132">
+        <v>9</v>
+      </c>
+      <c r="AV132">
+        <v>7</v>
+      </c>
+      <c r="AW132">
+        <v>6</v>
+      </c>
+      <c r="AX132">
+        <v>7</v>
+      </c>
+      <c r="AY132">
+        <v>22</v>
+      </c>
+      <c r="AZ132">
+        <v>19</v>
+      </c>
+      <c r="BA132">
+        <v>9</v>
+      </c>
+      <c r="BB132">
+        <v>4</v>
+      </c>
+      <c r="BC132">
+        <v>13</v>
+      </c>
+      <c r="BD132">
+        <v>2.1</v>
+      </c>
+      <c r="BE132">
+        <v>6.4</v>
+      </c>
+      <c r="BF132">
+        <v>1.9</v>
+      </c>
+      <c r="BG132">
+        <v>1.34</v>
+      </c>
+      <c r="BH132">
+        <v>2.9</v>
+      </c>
+      <c r="BI132">
+        <v>1.58</v>
+      </c>
+      <c r="BJ132">
+        <v>2.2</v>
+      </c>
+      <c r="BK132">
+        <v>1.93</v>
+      </c>
+      <c r="BL132">
+        <v>1.76</v>
+      </c>
+      <c r="BM132">
+        <v>2.48</v>
+      </c>
+      <c r="BN132">
+        <v>1.47</v>
+      </c>
+      <c r="BO132">
+        <v>3.2</v>
+      </c>
+      <c r="BP132">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7468488</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45641.54166666666</v>
+      </c>
+      <c r="F133">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s">
+        <v>71</v>
+      </c>
+      <c r="H133" t="s">
+        <v>85</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>2</v>
+      </c>
+      <c r="L133">
+        <v>4</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>5</v>
+      </c>
+      <c r="O133" t="s">
+        <v>182</v>
+      </c>
+      <c r="P133" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q133">
+        <v>2.75</v>
+      </c>
+      <c r="R133">
+        <v>2.05</v>
+      </c>
+      <c r="S133">
+        <v>4.33</v>
+      </c>
+      <c r="T133">
+        <v>1.5</v>
+      </c>
+      <c r="U133">
+        <v>2.5</v>
+      </c>
+      <c r="V133">
+        <v>3.4</v>
+      </c>
+      <c r="W133">
+        <v>1.3</v>
+      </c>
+      <c r="X133">
+        <v>10</v>
+      </c>
+      <c r="Y133">
+        <v>1.06</v>
+      </c>
+      <c r="Z133">
+        <v>2.01</v>
+      </c>
+      <c r="AA133">
+        <v>3.1</v>
+      </c>
+      <c r="AB133">
+        <v>3.6</v>
+      </c>
+      <c r="AC133">
+        <v>1.08</v>
+      </c>
+      <c r="AD133">
+        <v>8.5</v>
+      </c>
+      <c r="AE133">
+        <v>1.42</v>
+      </c>
+      <c r="AF133">
+        <v>2.9</v>
+      </c>
+      <c r="AG133">
+        <v>2.2</v>
+      </c>
+      <c r="AH133">
+        <v>1.59</v>
+      </c>
+      <c r="AI133">
+        <v>1.95</v>
+      </c>
+      <c r="AJ133">
+        <v>1.8</v>
+      </c>
+      <c r="AK133">
+        <v>1.28</v>
+      </c>
+      <c r="AL133">
+        <v>1.28</v>
+      </c>
+      <c r="AM133">
+        <v>1.8</v>
+      </c>
+      <c r="AN133">
+        <v>1.86</v>
+      </c>
+      <c r="AO133">
+        <v>0.86</v>
+      </c>
+      <c r="AP133">
+        <v>2</v>
+      </c>
+      <c r="AQ133">
+        <v>0.75</v>
+      </c>
+      <c r="AR133">
+        <v>1.46</v>
+      </c>
+      <c r="AS133">
+        <v>1.11</v>
+      </c>
+      <c r="AT133">
+        <v>2.57</v>
+      </c>
+      <c r="AU133">
+        <v>9</v>
+      </c>
+      <c r="AV133">
+        <v>8</v>
+      </c>
+      <c r="AW133">
+        <v>3</v>
+      </c>
+      <c r="AX133">
+        <v>3</v>
+      </c>
+      <c r="AY133">
+        <v>14</v>
+      </c>
+      <c r="AZ133">
+        <v>17</v>
+      </c>
+      <c r="BA133">
+        <v>0</v>
+      </c>
+      <c r="BB133">
+        <v>5</v>
+      </c>
+      <c r="BC133">
+        <v>5</v>
+      </c>
+      <c r="BD133">
+        <v>1.58</v>
+      </c>
+      <c r="BE133">
+        <v>6.5</v>
+      </c>
+      <c r="BF133">
+        <v>2.65</v>
+      </c>
+      <c r="BG133">
+        <v>1.37</v>
+      </c>
+      <c r="BH133">
+        <v>2.8</v>
+      </c>
+      <c r="BI133">
+        <v>1.65</v>
+      </c>
+      <c r="BJ133">
+        <v>2.08</v>
+      </c>
+      <c r="BK133">
+        <v>2.04</v>
+      </c>
+      <c r="BL133">
+        <v>1.68</v>
+      </c>
+      <c r="BM133">
+        <v>2.6</v>
+      </c>
+      <c r="BN133">
+        <v>1.43</v>
+      </c>
+      <c r="BO133">
+        <v>3.4</v>
+      </c>
+      <c r="BP133">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7468483</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45641.54166666666</v>
+      </c>
+      <c r="F134">
+        <v>15</v>
+      </c>
+      <c r="G134" t="s">
+        <v>70</v>
+      </c>
+      <c r="H134" t="s">
+        <v>86</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>2</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>3</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134" t="s">
+        <v>90</v>
+      </c>
+      <c r="P134" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q134">
+        <v>3.5</v>
+      </c>
+      <c r="R134">
+        <v>2.1</v>
+      </c>
+      <c r="S134">
+        <v>3.1</v>
+      </c>
+      <c r="T134">
+        <v>1.4</v>
+      </c>
+      <c r="U134">
+        <v>2.75</v>
+      </c>
+      <c r="V134">
+        <v>3</v>
+      </c>
+      <c r="W134">
+        <v>1.36</v>
+      </c>
+      <c r="X134">
+        <v>8</v>
+      </c>
+      <c r="Y134">
+        <v>1.08</v>
+      </c>
+      <c r="Z134">
+        <v>2.6</v>
+      </c>
+      <c r="AA134">
+        <v>3.1</v>
+      </c>
+      <c r="AB134">
+        <v>2.42</v>
+      </c>
+      <c r="AC134">
+        <v>1.06</v>
+      </c>
+      <c r="AD134">
+        <v>10</v>
+      </c>
+      <c r="AE134">
+        <v>1.33</v>
+      </c>
+      <c r="AF134">
+        <v>3.4</v>
+      </c>
+      <c r="AG134">
+        <v>2.02</v>
+      </c>
+      <c r="AH134">
+        <v>1.84</v>
+      </c>
+      <c r="AI134">
+        <v>1.75</v>
+      </c>
+      <c r="AJ134">
+        <v>2</v>
+      </c>
+      <c r="AK134">
+        <v>1.57</v>
+      </c>
+      <c r="AL134">
+        <v>1.3</v>
+      </c>
+      <c r="AM134">
+        <v>1.42</v>
+      </c>
+      <c r="AN134">
+        <v>0.86</v>
+      </c>
+      <c r="AO134">
+        <v>0.29</v>
+      </c>
+      <c r="AP134">
+        <v>0.75</v>
+      </c>
+      <c r="AQ134">
+        <v>0.63</v>
+      </c>
+      <c r="AR134">
+        <v>1.14</v>
+      </c>
+      <c r="AS134">
+        <v>1.35</v>
+      </c>
+      <c r="AT134">
+        <v>2.49</v>
+      </c>
+      <c r="AU134">
+        <v>2</v>
+      </c>
+      <c r="AV134">
+        <v>6</v>
+      </c>
+      <c r="AW134">
+        <v>9</v>
+      </c>
+      <c r="AX134">
+        <v>3</v>
+      </c>
+      <c r="AY134">
+        <v>12</v>
+      </c>
+      <c r="AZ134">
+        <v>10</v>
+      </c>
+      <c r="BA134">
+        <v>3</v>
+      </c>
+      <c r="BB134">
+        <v>2</v>
+      </c>
+      <c r="BC134">
+        <v>5</v>
+      </c>
+      <c r="BD134">
+        <v>1.98</v>
+      </c>
+      <c r="BE134">
+        <v>6.1</v>
+      </c>
+      <c r="BF134">
+        <v>2.05</v>
+      </c>
+      <c r="BG134">
+        <v>1.48</v>
+      </c>
+      <c r="BH134">
+        <v>2.43</v>
+      </c>
+      <c r="BI134">
+        <v>1.79</v>
+      </c>
+      <c r="BJ134">
+        <v>1.9</v>
+      </c>
+      <c r="BK134">
+        <v>2.3</v>
+      </c>
+      <c r="BL134">
+        <v>1.54</v>
+      </c>
+      <c r="BM134">
+        <v>2.95</v>
+      </c>
+      <c r="BN134">
+        <v>1.33</v>
+      </c>
+      <c r="BO134">
+        <v>3.95</v>
+      </c>
+      <c r="BP134">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7468482</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45641.54166666666</v>
+      </c>
+      <c r="F135">
+        <v>15</v>
+      </c>
+      <c r="G135" t="s">
+        <v>78</v>
+      </c>
+      <c r="H135" t="s">
+        <v>77</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>183</v>
+      </c>
+      <c r="P135" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q135">
+        <v>2.2</v>
+      </c>
+      <c r="R135">
+        <v>2.25</v>
+      </c>
+      <c r="S135">
+        <v>6</v>
+      </c>
+      <c r="T135">
+        <v>1.4</v>
+      </c>
+      <c r="U135">
+        <v>2.75</v>
+      </c>
+      <c r="V135">
+        <v>2.75</v>
+      </c>
+      <c r="W135">
+        <v>1.4</v>
+      </c>
+      <c r="X135">
+        <v>8</v>
+      </c>
+      <c r="Y135">
+        <v>1.08</v>
+      </c>
+      <c r="Z135">
+        <v>1.46</v>
+      </c>
+      <c r="AA135">
+        <v>4</v>
+      </c>
+      <c r="AB135">
+        <v>6</v>
+      </c>
+      <c r="AC135">
+        <v>1.05</v>
+      </c>
+      <c r="AD135">
+        <v>12</v>
+      </c>
+      <c r="AE135">
+        <v>1.3</v>
+      </c>
+      <c r="AF135">
+        <v>3.6</v>
+      </c>
+      <c r="AG135">
+        <v>1.88</v>
+      </c>
+      <c r="AH135">
+        <v>1.82</v>
+      </c>
+      <c r="AI135">
+        <v>1.95</v>
+      </c>
+      <c r="AJ135">
+        <v>1.8</v>
+      </c>
+      <c r="AK135">
+        <v>1.14</v>
+      </c>
+      <c r="AL135">
+        <v>1.2</v>
+      </c>
+      <c r="AM135">
+        <v>2.4</v>
+      </c>
+      <c r="AN135">
+        <v>1.86</v>
+      </c>
+      <c r="AO135">
+        <v>1.29</v>
+      </c>
+      <c r="AP135">
+        <v>2</v>
+      </c>
+      <c r="AQ135">
+        <v>1.13</v>
+      </c>
+      <c r="AR135">
+        <v>1.64</v>
+      </c>
+      <c r="AS135">
+        <v>0.98</v>
+      </c>
+      <c r="AT135">
+        <v>2.62</v>
+      </c>
+      <c r="AU135">
+        <v>5</v>
+      </c>
+      <c r="AV135">
+        <v>2</v>
+      </c>
+      <c r="AW135">
+        <v>2</v>
+      </c>
+      <c r="AX135">
+        <v>3</v>
+      </c>
+      <c r="AY135">
+        <v>8</v>
+      </c>
+      <c r="AZ135">
+        <v>6</v>
+      </c>
+      <c r="BA135">
+        <v>2</v>
+      </c>
+      <c r="BB135">
+        <v>1</v>
+      </c>
+      <c r="BC135">
+        <v>3</v>
+      </c>
+      <c r="BD135">
+        <v>1.29</v>
+      </c>
+      <c r="BE135">
+        <v>7.5</v>
+      </c>
+      <c r="BF135">
+        <v>3.95</v>
+      </c>
+      <c r="BG135">
+        <v>1.33</v>
+      </c>
+      <c r="BH135">
+        <v>2.95</v>
+      </c>
+      <c r="BI135">
+        <v>1.56</v>
+      </c>
+      <c r="BJ135">
+        <v>2.23</v>
+      </c>
+      <c r="BK135">
+        <v>1.91</v>
+      </c>
+      <c r="BL135">
+        <v>1.77</v>
+      </c>
+      <c r="BM135">
+        <v>2.4</v>
+      </c>
+      <c r="BN135">
+        <v>1.49</v>
+      </c>
+      <c r="BO135">
+        <v>3.15</v>
+      </c>
+      <c r="BP135">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7468490</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45641.69791666666</v>
+      </c>
+      <c r="F136">
+        <v>15</v>
+      </c>
+      <c r="G136" t="s">
+        <v>79</v>
+      </c>
+      <c r="H136" t="s">
+        <v>80</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>3</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>4</v>
+      </c>
+      <c r="O136" t="s">
+        <v>184</v>
+      </c>
+      <c r="P136" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q136">
+        <v>1.83</v>
+      </c>
+      <c r="R136">
+        <v>2.88</v>
+      </c>
+      <c r="S136">
+        <v>5.5</v>
+      </c>
+      <c r="T136">
+        <v>1.18</v>
+      </c>
+      <c r="U136">
+        <v>4.5</v>
+      </c>
+      <c r="V136">
+        <v>1.83</v>
+      </c>
+      <c r="W136">
+        <v>1.83</v>
+      </c>
+      <c r="X136">
+        <v>3.75</v>
+      </c>
+      <c r="Y136">
+        <v>1.25</v>
+      </c>
+      <c r="Z136">
+        <v>1.44</v>
+      </c>
+      <c r="AA136">
+        <v>4.7</v>
+      </c>
+      <c r="AB136">
+        <v>5.1</v>
+      </c>
+      <c r="AC136">
+        <v>0</v>
+      </c>
+      <c r="AD136">
+        <v>0</v>
+      </c>
+      <c r="AE136">
+        <v>1.08</v>
+      </c>
+      <c r="AF136">
+        <v>8</v>
+      </c>
+      <c r="AG136">
+        <v>1.27</v>
+      </c>
+      <c r="AH136">
+        <v>3.54</v>
+      </c>
+      <c r="AI136">
+        <v>1.44</v>
+      </c>
+      <c r="AJ136">
+        <v>2.63</v>
+      </c>
+      <c r="AK136">
+        <v>1.1</v>
+      </c>
+      <c r="AL136">
+        <v>1.12</v>
+      </c>
+      <c r="AM136">
+        <v>3</v>
+      </c>
+      <c r="AN136">
+        <v>2.71</v>
+      </c>
+      <c r="AO136">
+        <v>1.71</v>
+      </c>
+      <c r="AP136">
+        <v>2.75</v>
+      </c>
+      <c r="AQ136">
+        <v>1.5</v>
+      </c>
+      <c r="AR136">
+        <v>2.35</v>
+      </c>
+      <c r="AS136">
+        <v>1.33</v>
+      </c>
+      <c r="AT136">
+        <v>3.68</v>
+      </c>
+      <c r="AU136">
+        <v>7</v>
+      </c>
+      <c r="AV136">
+        <v>4</v>
+      </c>
+      <c r="AW136">
+        <v>4</v>
+      </c>
+      <c r="AX136">
+        <v>2</v>
+      </c>
+      <c r="AY136">
+        <v>14</v>
+      </c>
+      <c r="AZ136">
+        <v>8</v>
+      </c>
+      <c r="BA136">
+        <v>4</v>
+      </c>
+      <c r="BB136">
+        <v>3</v>
+      </c>
+      <c r="BC136">
+        <v>7</v>
+      </c>
+      <c r="BD136">
+        <v>1.29</v>
+      </c>
+      <c r="BE136">
+        <v>7</v>
+      </c>
+      <c r="BF136">
+        <v>3.95</v>
+      </c>
+      <c r="BG136">
+        <v>1.3</v>
+      </c>
+      <c r="BH136">
+        <v>3.1</v>
+      </c>
+      <c r="BI136">
+        <v>1.53</v>
+      </c>
+      <c r="BJ136">
+        <v>2.32</v>
+      </c>
+      <c r="BK136">
+        <v>1.85</v>
+      </c>
+      <c r="BL136">
+        <v>1.83</v>
+      </c>
+      <c r="BM136">
+        <v>2.32</v>
+      </c>
+      <c r="BN136">
+        <v>1.53</v>
+      </c>
+      <c r="BO136">
+        <v>2.95</v>
+      </c>
+      <c r="BP136">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -562,13 +562,13 @@
     <t>['22', '80']</t>
   </si>
   <si>
-    <t>['24', '27', '88', '90+3']</t>
+    <t>['8', '14', '88']</t>
   </si>
   <si>
     <t>['33', '90+2']</t>
   </si>
   <si>
-    <t>['8', '14', '88']</t>
+    <t>['24', '27', '88', '90+3']</t>
   </si>
   <si>
     <t>['3', '84', '86', '90']</t>
@@ -28170,7 +28170,7 @@
         <v>69</v>
       </c>
       <c r="E132" s="2">
-        <v>45641.45833333334</v>
+        <v>45640.875</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -28367,7 +28367,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7468488</v>
+        <v>7468490</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28376,196 +28376,196 @@
         <v>69</v>
       </c>
       <c r="E133" s="2">
-        <v>45641.54166666666</v>
+        <v>45640.875</v>
       </c>
       <c r="F133">
         <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H133" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I133">
         <v>2</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L133">
+        <v>3</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
         <v>4</v>
-      </c>
-      <c r="M133">
-        <v>1</v>
-      </c>
-      <c r="N133">
-        <v>5</v>
       </c>
       <c r="O133" t="s">
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="Q133">
+        <v>1.83</v>
+      </c>
+      <c r="R133">
+        <v>2.88</v>
+      </c>
+      <c r="S133">
+        <v>5.5</v>
+      </c>
+      <c r="T133">
+        <v>1.18</v>
+      </c>
+      <c r="U133">
+        <v>4.5</v>
+      </c>
+      <c r="V133">
+        <v>1.83</v>
+      </c>
+      <c r="W133">
+        <v>1.83</v>
+      </c>
+      <c r="X133">
+        <v>3.75</v>
+      </c>
+      <c r="Y133">
+        <v>1.25</v>
+      </c>
+      <c r="Z133">
+        <v>1.44</v>
+      </c>
+      <c r="AA133">
+        <v>4.7</v>
+      </c>
+      <c r="AB133">
+        <v>5.1</v>
+      </c>
+      <c r="AC133">
+        <v>0</v>
+      </c>
+      <c r="AD133">
+        <v>0</v>
+      </c>
+      <c r="AE133">
+        <v>1.08</v>
+      </c>
+      <c r="AF133">
+        <v>8</v>
+      </c>
+      <c r="AG133">
+        <v>1.27</v>
+      </c>
+      <c r="AH133">
+        <v>3.54</v>
+      </c>
+      <c r="AI133">
+        <v>1.44</v>
+      </c>
+      <c r="AJ133">
+        <v>2.63</v>
+      </c>
+      <c r="AK133">
+        <v>1.1</v>
+      </c>
+      <c r="AL133">
+        <v>1.12</v>
+      </c>
+      <c r="AM133">
+        <v>3</v>
+      </c>
+      <c r="AN133">
+        <v>2.71</v>
+      </c>
+      <c r="AO133">
+        <v>1.71</v>
+      </c>
+      <c r="AP133">
         <v>2.75</v>
       </c>
-      <c r="R133">
-        <v>2.05</v>
-      </c>
-      <c r="S133">
-        <v>4.33</v>
-      </c>
-      <c r="T133">
+      <c r="AQ133">
         <v>1.5</v>
       </c>
-      <c r="U133">
-        <v>2.5</v>
-      </c>
-      <c r="V133">
-        <v>3.4</v>
-      </c>
-      <c r="W133">
-        <v>1.3</v>
-      </c>
-      <c r="X133">
-        <v>10</v>
-      </c>
-      <c r="Y133">
-        <v>1.06</v>
-      </c>
-      <c r="Z133">
-        <v>2.01</v>
-      </c>
-      <c r="AA133">
-        <v>3.1</v>
-      </c>
-      <c r="AB133">
-        <v>3.6</v>
-      </c>
-      <c r="AC133">
-        <v>1.08</v>
-      </c>
-      <c r="AD133">
-        <v>8.5</v>
-      </c>
-      <c r="AE133">
-        <v>1.42</v>
-      </c>
-      <c r="AF133">
-        <v>2.9</v>
-      </c>
-      <c r="AG133">
-        <v>2.2</v>
-      </c>
-      <c r="AH133">
-        <v>1.59</v>
-      </c>
-      <c r="AI133">
-        <v>1.95</v>
-      </c>
-      <c r="AJ133">
-        <v>1.8</v>
-      </c>
-      <c r="AK133">
-        <v>1.28</v>
-      </c>
-      <c r="AL133">
-        <v>1.28</v>
-      </c>
-      <c r="AM133">
-        <v>1.8</v>
-      </c>
-      <c r="AN133">
-        <v>1.86</v>
-      </c>
-      <c r="AO133">
-        <v>0.86</v>
-      </c>
-      <c r="AP133">
-        <v>2</v>
-      </c>
-      <c r="AQ133">
-        <v>0.75</v>
-      </c>
       <c r="AR133">
-        <v>1.46</v>
+        <v>2.35</v>
       </c>
       <c r="AS133">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="AT133">
-        <v>2.57</v>
+        <v>3.68</v>
       </c>
       <c r="AU133">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV133">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY133">
         <v>14</v>
       </c>
       <c r="AZ133">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="BA133">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BB133">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC133">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD133">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
       <c r="BE133">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="BF133">
-        <v>2.65</v>
+        <v>3.95</v>
       </c>
       <c r="BG133">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="BH133">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="BI133">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="BJ133">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="BK133">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="BL133">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="BM133">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="BN133">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="BO133">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="BP133">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -28573,7 +28573,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7468483</v>
+        <v>7468482</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28582,49 +28582,49 @@
         <v>69</v>
       </c>
       <c r="E134" s="2">
-        <v>45641.54166666666</v>
+        <v>45640.875</v>
       </c>
       <c r="F134">
         <v>15</v>
       </c>
       <c r="G134" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H134" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O134" t="s">
+        <v>183</v>
+      </c>
+      <c r="P134" t="s">
         <v>90</v>
       </c>
-      <c r="P134" t="s">
-        <v>262</v>
-      </c>
       <c r="Q134">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="R134">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S134">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="T134">
         <v>1.4</v>
@@ -28633,10 +28633,10 @@
         <v>2.75</v>
       </c>
       <c r="V134">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W134">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X134">
         <v>8</v>
@@ -28645,133 +28645,133 @@
         <v>1.08</v>
       </c>
       <c r="Z134">
-        <v>2.6</v>
+        <v>1.46</v>
       </c>
       <c r="AA134">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="AB134">
-        <v>2.42</v>
+        <v>6</v>
       </c>
       <c r="AC134">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD134">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE134">
+        <v>1.3</v>
+      </c>
+      <c r="AF134">
+        <v>3.6</v>
+      </c>
+      <c r="AG134">
+        <v>1.88</v>
+      </c>
+      <c r="AH134">
+        <v>1.82</v>
+      </c>
+      <c r="AI134">
+        <v>1.95</v>
+      </c>
+      <c r="AJ134">
+        <v>1.8</v>
+      </c>
+      <c r="AK134">
+        <v>1.14</v>
+      </c>
+      <c r="AL134">
+        <v>1.2</v>
+      </c>
+      <c r="AM134">
+        <v>2.4</v>
+      </c>
+      <c r="AN134">
+        <v>1.86</v>
+      </c>
+      <c r="AO134">
+        <v>1.29</v>
+      </c>
+      <c r="AP134">
+        <v>2</v>
+      </c>
+      <c r="AQ134">
+        <v>1.13</v>
+      </c>
+      <c r="AR134">
+        <v>1.64</v>
+      </c>
+      <c r="AS134">
+        <v>0.98</v>
+      </c>
+      <c r="AT134">
+        <v>2.62</v>
+      </c>
+      <c r="AU134">
+        <v>5</v>
+      </c>
+      <c r="AV134">
+        <v>2</v>
+      </c>
+      <c r="AW134">
+        <v>2</v>
+      </c>
+      <c r="AX134">
+        <v>3</v>
+      </c>
+      <c r="AY134">
+        <v>8</v>
+      </c>
+      <c r="AZ134">
+        <v>6</v>
+      </c>
+      <c r="BA134">
+        <v>2</v>
+      </c>
+      <c r="BB134">
+        <v>1</v>
+      </c>
+      <c r="BC134">
+        <v>3</v>
+      </c>
+      <c r="BD134">
+        <v>1.29</v>
+      </c>
+      <c r="BE134">
+        <v>7.5</v>
+      </c>
+      <c r="BF134">
+        <v>3.95</v>
+      </c>
+      <c r="BG134">
         <v>1.33</v>
       </c>
-      <c r="AF134">
-        <v>3.4</v>
-      </c>
-      <c r="AG134">
-        <v>2.02</v>
-      </c>
-      <c r="AH134">
-        <v>1.84</v>
-      </c>
-      <c r="AI134">
-        <v>1.75</v>
-      </c>
-      <c r="AJ134">
-        <v>2</v>
-      </c>
-      <c r="AK134">
-        <v>1.57</v>
-      </c>
-      <c r="AL134">
+      <c r="BH134">
+        <v>2.95</v>
+      </c>
+      <c r="BI134">
+        <v>1.56</v>
+      </c>
+      <c r="BJ134">
+        <v>2.23</v>
+      </c>
+      <c r="BK134">
+        <v>1.91</v>
+      </c>
+      <c r="BL134">
+        <v>1.77</v>
+      </c>
+      <c r="BM134">
+        <v>2.4</v>
+      </c>
+      <c r="BN134">
+        <v>1.49</v>
+      </c>
+      <c r="BO134">
+        <v>3.15</v>
+      </c>
+      <c r="BP134">
         <v>1.3</v>
-      </c>
-      <c r="AM134">
-        <v>1.42</v>
-      </c>
-      <c r="AN134">
-        <v>0.86</v>
-      </c>
-      <c r="AO134">
-        <v>0.29</v>
-      </c>
-      <c r="AP134">
-        <v>0.75</v>
-      </c>
-      <c r="AQ134">
-        <v>0.63</v>
-      </c>
-      <c r="AR134">
-        <v>1.14</v>
-      </c>
-      <c r="AS134">
-        <v>1.35</v>
-      </c>
-      <c r="AT134">
-        <v>2.49</v>
-      </c>
-      <c r="AU134">
-        <v>2</v>
-      </c>
-      <c r="AV134">
-        <v>6</v>
-      </c>
-      <c r="AW134">
-        <v>9</v>
-      </c>
-      <c r="AX134">
-        <v>3</v>
-      </c>
-      <c r="AY134">
-        <v>12</v>
-      </c>
-      <c r="AZ134">
-        <v>10</v>
-      </c>
-      <c r="BA134">
-        <v>3</v>
-      </c>
-      <c r="BB134">
-        <v>2</v>
-      </c>
-      <c r="BC134">
-        <v>5</v>
-      </c>
-      <c r="BD134">
-        <v>1.98</v>
-      </c>
-      <c r="BE134">
-        <v>6.1</v>
-      </c>
-      <c r="BF134">
-        <v>2.05</v>
-      </c>
-      <c r="BG134">
-        <v>1.48</v>
-      </c>
-      <c r="BH134">
-        <v>2.43</v>
-      </c>
-      <c r="BI134">
-        <v>1.79</v>
-      </c>
-      <c r="BJ134">
-        <v>1.9</v>
-      </c>
-      <c r="BK134">
-        <v>2.3</v>
-      </c>
-      <c r="BL134">
-        <v>1.54</v>
-      </c>
-      <c r="BM134">
-        <v>2.95</v>
-      </c>
-      <c r="BN134">
-        <v>1.33</v>
-      </c>
-      <c r="BO134">
-        <v>3.95</v>
-      </c>
-      <c r="BP134">
-        <v>1.2</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -28779,7 +28779,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7468482</v>
+        <v>7468488</v>
       </c>
       <c r="C135" t="s">
         <v>68</v>
@@ -28794,88 +28794,88 @@
         <v>15</v>
       </c>
       <c r="G135" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H135" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
       <c r="K135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O135" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q135">
+        <v>2.75</v>
+      </c>
+      <c r="R135">
+        <v>2.05</v>
+      </c>
+      <c r="S135">
+        <v>4.33</v>
+      </c>
+      <c r="T135">
+        <v>1.5</v>
+      </c>
+      <c r="U135">
+        <v>2.5</v>
+      </c>
+      <c r="V135">
+        <v>3.4</v>
+      </c>
+      <c r="W135">
+        <v>1.3</v>
+      </c>
+      <c r="X135">
+        <v>10</v>
+      </c>
+      <c r="Y135">
+        <v>1.06</v>
+      </c>
+      <c r="Z135">
+        <v>2.01</v>
+      </c>
+      <c r="AA135">
+        <v>3.1</v>
+      </c>
+      <c r="AB135">
+        <v>3.6</v>
+      </c>
+      <c r="AC135">
+        <v>1.08</v>
+      </c>
+      <c r="AD135">
+        <v>8.5</v>
+      </c>
+      <c r="AE135">
+        <v>1.42</v>
+      </c>
+      <c r="AF135">
+        <v>2.9</v>
+      </c>
+      <c r="AG135">
         <v>2.2</v>
       </c>
-      <c r="R135">
-        <v>2.25</v>
-      </c>
-      <c r="S135">
-        <v>6</v>
-      </c>
-      <c r="T135">
-        <v>1.4</v>
-      </c>
-      <c r="U135">
-        <v>2.75</v>
-      </c>
-      <c r="V135">
-        <v>2.75</v>
-      </c>
-      <c r="W135">
-        <v>1.4</v>
-      </c>
-      <c r="X135">
-        <v>8</v>
-      </c>
-      <c r="Y135">
-        <v>1.08</v>
-      </c>
-      <c r="Z135">
-        <v>1.46</v>
-      </c>
-      <c r="AA135">
-        <v>4</v>
-      </c>
-      <c r="AB135">
-        <v>6</v>
-      </c>
-      <c r="AC135">
-        <v>1.05</v>
-      </c>
-      <c r="AD135">
-        <v>12</v>
-      </c>
-      <c r="AE135">
-        <v>1.3</v>
-      </c>
-      <c r="AF135">
-        <v>3.6</v>
-      </c>
-      <c r="AG135">
-        <v>1.88</v>
-      </c>
       <c r="AH135">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="AI135">
         <v>1.95</v>
@@ -28884,100 +28884,100 @@
         <v>1.8</v>
       </c>
       <c r="AK135">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="AL135">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AM135">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AN135">
         <v>1.86</v>
       </c>
       <c r="AO135">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AP135">
         <v>2</v>
       </c>
       <c r="AQ135">
-        <v>1.13</v>
+        <v>0.75</v>
       </c>
       <c r="AR135">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="AS135">
-        <v>0.98</v>
+        <v>1.11</v>
       </c>
       <c r="AT135">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="AU135">
+        <v>9</v>
+      </c>
+      <c r="AV135">
+        <v>8</v>
+      </c>
+      <c r="AW135">
+        <v>3</v>
+      </c>
+      <c r="AX135">
+        <v>3</v>
+      </c>
+      <c r="AY135">
+        <v>14</v>
+      </c>
+      <c r="AZ135">
+        <v>17</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
         <v>5</v>
       </c>
-      <c r="AV135">
-        <v>2</v>
-      </c>
-      <c r="AW135">
-        <v>2</v>
-      </c>
-      <c r="AX135">
-        <v>3</v>
-      </c>
-      <c r="AY135">
-        <v>8</v>
-      </c>
-      <c r="AZ135">
-        <v>6</v>
-      </c>
-      <c r="BA135">
-        <v>2</v>
-      </c>
-      <c r="BB135">
-        <v>1</v>
-      </c>
       <c r="BC135">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD135">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
       <c r="BE135">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="BF135">
-        <v>3.95</v>
+        <v>2.65</v>
       </c>
       <c r="BG135">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="BH135">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="BI135">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="BJ135">
-        <v>2.23</v>
+        <v>2.08</v>
       </c>
       <c r="BK135">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="BL135">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="BM135">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="BN135">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="BO135">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BP135">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="136" spans="1:68">
@@ -28985,7 +28985,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7468490</v>
+        <v>7468483</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -28994,196 +28994,196 @@
         <v>69</v>
       </c>
       <c r="E136" s="2">
-        <v>45641.69791666666</v>
+        <v>45641.54166666666</v>
       </c>
       <c r="F136">
         <v>15</v>
       </c>
       <c r="G136" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H136" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O136" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="P136" t="s">
-        <v>129</v>
+        <v>262</v>
       </c>
       <c r="Q136">
-        <v>1.83</v>
+        <v>3.5</v>
       </c>
       <c r="R136">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="S136">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="T136">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="U136">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="V136">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="W136">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="X136">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="Y136">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
       <c r="Z136">
-        <v>1.44</v>
+        <v>2.6</v>
       </c>
       <c r="AA136">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="AB136">
-        <v>5.1</v>
+        <v>2.42</v>
       </c>
       <c r="AC136">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AD136">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE136">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AF136">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="AG136">
-        <v>1.27</v>
+        <v>2.02</v>
       </c>
       <c r="AH136">
-        <v>3.54</v>
+        <v>1.84</v>
       </c>
       <c r="AI136">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="AJ136">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="AK136">
-        <v>1.1</v>
+        <v>1.57</v>
       </c>
       <c r="AL136">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="AM136">
-        <v>3</v>
+        <v>1.42</v>
       </c>
       <c r="AN136">
-        <v>2.71</v>
+        <v>0.86</v>
       </c>
       <c r="AO136">
-        <v>1.71</v>
+        <v>0.29</v>
       </c>
       <c r="AP136">
-        <v>2.75</v>
+        <v>0.75</v>
       </c>
       <c r="AQ136">
-        <v>1.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR136">
-        <v>2.35</v>
+        <v>1.14</v>
       </c>
       <c r="AS136">
+        <v>1.35</v>
+      </c>
+      <c r="AT136">
+        <v>2.49</v>
+      </c>
+      <c r="AU136">
+        <v>2</v>
+      </c>
+      <c r="AV136">
+        <v>6</v>
+      </c>
+      <c r="AW136">
+        <v>9</v>
+      </c>
+      <c r="AX136">
+        <v>3</v>
+      </c>
+      <c r="AY136">
+        <v>12</v>
+      </c>
+      <c r="AZ136">
+        <v>10</v>
+      </c>
+      <c r="BA136">
+        <v>3</v>
+      </c>
+      <c r="BB136">
+        <v>2</v>
+      </c>
+      <c r="BC136">
+        <v>5</v>
+      </c>
+      <c r="BD136">
+        <v>1.98</v>
+      </c>
+      <c r="BE136">
+        <v>6.1</v>
+      </c>
+      <c r="BF136">
+        <v>2.05</v>
+      </c>
+      <c r="BG136">
+        <v>1.48</v>
+      </c>
+      <c r="BH136">
+        <v>2.43</v>
+      </c>
+      <c r="BI136">
+        <v>1.79</v>
+      </c>
+      <c r="BJ136">
+        <v>1.9</v>
+      </c>
+      <c r="BK136">
+        <v>2.3</v>
+      </c>
+      <c r="BL136">
+        <v>1.54</v>
+      </c>
+      <c r="BM136">
+        <v>2.95</v>
+      </c>
+      <c r="BN136">
         <v>1.33</v>
       </c>
-      <c r="AT136">
-        <v>3.68</v>
-      </c>
-      <c r="AU136">
-        <v>7</v>
-      </c>
-      <c r="AV136">
-        <v>4</v>
-      </c>
-      <c r="AW136">
-        <v>4</v>
-      </c>
-      <c r="AX136">
-        <v>2</v>
-      </c>
-      <c r="AY136">
-        <v>14</v>
-      </c>
-      <c r="AZ136">
-        <v>8</v>
-      </c>
-      <c r="BA136">
-        <v>4</v>
-      </c>
-      <c r="BB136">
-        <v>3</v>
-      </c>
-      <c r="BC136">
-        <v>7</v>
-      </c>
-      <c r="BD136">
-        <v>1.29</v>
-      </c>
-      <c r="BE136">
-        <v>7</v>
-      </c>
-      <c r="BF136">
+      <c r="BO136">
         <v>3.95</v>
       </c>
-      <c r="BG136">
-        <v>1.3</v>
-      </c>
-      <c r="BH136">
-        <v>3.1</v>
-      </c>
-      <c r="BI136">
-        <v>1.53</v>
-      </c>
-      <c r="BJ136">
-        <v>2.32</v>
-      </c>
-      <c r="BK136">
-        <v>1.85</v>
-      </c>
-      <c r="BL136">
-        <v>1.83</v>
-      </c>
-      <c r="BM136">
-        <v>2.32</v>
-      </c>
-      <c r="BN136">
-        <v>1.53</v>
-      </c>
-      <c r="BO136">
-        <v>2.95</v>
-      </c>
       <c r="BP136">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -562,13 +562,13 @@
     <t>['22', '80']</t>
   </si>
   <si>
-    <t>['8', '14', '88']</t>
+    <t>['24', '27', '88', '90+3']</t>
   </si>
   <si>
     <t>['33', '90+2']</t>
   </si>
   <si>
-    <t>['24', '27', '88', '90+3']</t>
+    <t>['8', '14', '88']</t>
   </si>
   <si>
     <t>['3', '84', '86', '90']</t>
@@ -28170,10 +28170,10 @@
         <v>69</v>
       </c>
       <c r="E132" s="2">
-        <v>45640.875</v>
+        <v>45641.45833333334</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G132" t="s">
         <v>75</v>
@@ -28367,7 +28367,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7468490</v>
+        <v>7468488</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28376,196 +28376,196 @@
         <v>69</v>
       </c>
       <c r="E133" s="2">
-        <v>45640.875</v>
+        <v>45641.54166666666</v>
       </c>
       <c r="F133">
         <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H133" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I133">
         <v>2</v>
       </c>
       <c r="J133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M133">
         <v>1</v>
       </c>
       <c r="N133">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O133" t="s">
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="Q133">
-        <v>1.83</v>
+        <v>2.75</v>
       </c>
       <c r="R133">
-        <v>2.88</v>
+        <v>2.05</v>
       </c>
       <c r="S133">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="T133">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="U133">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="V133">
-        <v>1.83</v>
+        <v>3.4</v>
       </c>
       <c r="W133">
-        <v>1.83</v>
+        <v>1.3</v>
       </c>
       <c r="X133">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="Y133">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="Z133">
-        <v>1.44</v>
+        <v>2.01</v>
       </c>
       <c r="AA133">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="AB133">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="AC133">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AD133">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AE133">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="AF133">
+        <v>2.9</v>
+      </c>
+      <c r="AG133">
+        <v>2.2</v>
+      </c>
+      <c r="AH133">
+        <v>1.59</v>
+      </c>
+      <c r="AI133">
+        <v>1.95</v>
+      </c>
+      <c r="AJ133">
+        <v>1.8</v>
+      </c>
+      <c r="AK133">
+        <v>1.28</v>
+      </c>
+      <c r="AL133">
+        <v>1.28</v>
+      </c>
+      <c r="AM133">
+        <v>1.8</v>
+      </c>
+      <c r="AN133">
+        <v>1.86</v>
+      </c>
+      <c r="AO133">
+        <v>0.86</v>
+      </c>
+      <c r="AP133">
+        <v>2</v>
+      </c>
+      <c r="AQ133">
+        <v>0.75</v>
+      </c>
+      <c r="AR133">
+        <v>1.46</v>
+      </c>
+      <c r="AS133">
+        <v>1.11</v>
+      </c>
+      <c r="AT133">
+        <v>2.57</v>
+      </c>
+      <c r="AU133">
+        <v>9</v>
+      </c>
+      <c r="AV133">
         <v>8</v>
       </c>
-      <c r="AG133">
-        <v>1.27</v>
-      </c>
-      <c r="AH133">
-        <v>3.54</v>
-      </c>
-      <c r="AI133">
-        <v>1.44</v>
-      </c>
-      <c r="AJ133">
-        <v>2.63</v>
-      </c>
-      <c r="AK133">
-        <v>1.1</v>
-      </c>
-      <c r="AL133">
-        <v>1.12</v>
-      </c>
-      <c r="AM133">
-        <v>3</v>
-      </c>
-      <c r="AN133">
-        <v>2.71</v>
-      </c>
-      <c r="AO133">
-        <v>1.71</v>
-      </c>
-      <c r="AP133">
-        <v>2.75</v>
-      </c>
-      <c r="AQ133">
-        <v>1.5</v>
-      </c>
-      <c r="AR133">
-        <v>2.35</v>
-      </c>
-      <c r="AS133">
-        <v>1.33</v>
-      </c>
-      <c r="AT133">
-        <v>3.68</v>
-      </c>
-      <c r="AU133">
-        <v>7</v>
-      </c>
-      <c r="AV133">
-        <v>4</v>
-      </c>
       <c r="AW133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY133">
         <v>14</v>
       </c>
       <c r="AZ133">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BA133">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BB133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC133">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD133">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
       <c r="BE133">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BF133">
-        <v>3.95</v>
+        <v>2.65</v>
       </c>
       <c r="BG133">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="BH133">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="BI133">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="BJ133">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="BK133">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="BL133">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="BM133">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="BN133">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="BO133">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="BP133">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -28573,7 +28573,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7468482</v>
+        <v>7468483</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28582,49 +28582,49 @@
         <v>69</v>
       </c>
       <c r="E134" s="2">
-        <v>45640.875</v>
+        <v>45641.54166666666</v>
       </c>
       <c r="F134">
         <v>15</v>
       </c>
       <c r="G134" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H134" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O134" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>90</v>
+        <v>262</v>
       </c>
       <c r="Q134">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="R134">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S134">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="T134">
         <v>1.4</v>
@@ -28633,10 +28633,10 @@
         <v>2.75</v>
       </c>
       <c r="V134">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W134">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X134">
         <v>8</v>
@@ -28645,133 +28645,133 @@
         <v>1.08</v>
       </c>
       <c r="Z134">
-        <v>1.46</v>
+        <v>2.6</v>
       </c>
       <c r="AA134">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="AB134">
+        <v>2.42</v>
+      </c>
+      <c r="AC134">
+        <v>1.06</v>
+      </c>
+      <c r="AD134">
+        <v>10</v>
+      </c>
+      <c r="AE134">
+        <v>1.33</v>
+      </c>
+      <c r="AF134">
+        <v>3.4</v>
+      </c>
+      <c r="AG134">
+        <v>2.02</v>
+      </c>
+      <c r="AH134">
+        <v>1.84</v>
+      </c>
+      <c r="AI134">
+        <v>1.75</v>
+      </c>
+      <c r="AJ134">
+        <v>2</v>
+      </c>
+      <c r="AK134">
+        <v>1.57</v>
+      </c>
+      <c r="AL134">
+        <v>1.3</v>
+      </c>
+      <c r="AM134">
+        <v>1.42</v>
+      </c>
+      <c r="AN134">
+        <v>0.86</v>
+      </c>
+      <c r="AO134">
+        <v>0.29</v>
+      </c>
+      <c r="AP134">
+        <v>0.75</v>
+      </c>
+      <c r="AQ134">
+        <v>0.63</v>
+      </c>
+      <c r="AR134">
+        <v>1.14</v>
+      </c>
+      <c r="AS134">
+        <v>1.35</v>
+      </c>
+      <c r="AT134">
+        <v>2.49</v>
+      </c>
+      <c r="AU134">
+        <v>2</v>
+      </c>
+      <c r="AV134">
         <v>6</v>
       </c>
-      <c r="AC134">
-        <v>1.05</v>
-      </c>
-      <c r="AD134">
+      <c r="AW134">
+        <v>9</v>
+      </c>
+      <c r="AX134">
+        <v>3</v>
+      </c>
+      <c r="AY134">
         <v>12</v>
       </c>
-      <c r="AE134">
-        <v>1.3</v>
-      </c>
-      <c r="AF134">
-        <v>3.6</v>
-      </c>
-      <c r="AG134">
-        <v>1.88</v>
-      </c>
-      <c r="AH134">
-        <v>1.82</v>
-      </c>
-      <c r="AI134">
-        <v>1.95</v>
-      </c>
-      <c r="AJ134">
-        <v>1.8</v>
-      </c>
-      <c r="AK134">
-        <v>1.14</v>
-      </c>
-      <c r="AL134">
+      <c r="AZ134">
+        <v>10</v>
+      </c>
+      <c r="BA134">
+        <v>3</v>
+      </c>
+      <c r="BB134">
+        <v>2</v>
+      </c>
+      <c r="BC134">
+        <v>5</v>
+      </c>
+      <c r="BD134">
+        <v>1.98</v>
+      </c>
+      <c r="BE134">
+        <v>6.1</v>
+      </c>
+      <c r="BF134">
+        <v>2.05</v>
+      </c>
+      <c r="BG134">
+        <v>1.48</v>
+      </c>
+      <c r="BH134">
+        <v>2.43</v>
+      </c>
+      <c r="BI134">
+        <v>1.79</v>
+      </c>
+      <c r="BJ134">
+        <v>1.9</v>
+      </c>
+      <c r="BK134">
+        <v>2.3</v>
+      </c>
+      <c r="BL134">
+        <v>1.54</v>
+      </c>
+      <c r="BM134">
+        <v>2.95</v>
+      </c>
+      <c r="BN134">
+        <v>1.33</v>
+      </c>
+      <c r="BO134">
+        <v>3.95</v>
+      </c>
+      <c r="BP134">
         <v>1.2</v>
-      </c>
-      <c r="AM134">
-        <v>2.4</v>
-      </c>
-      <c r="AN134">
-        <v>1.86</v>
-      </c>
-      <c r="AO134">
-        <v>1.29</v>
-      </c>
-      <c r="AP134">
-        <v>2</v>
-      </c>
-      <c r="AQ134">
-        <v>1.13</v>
-      </c>
-      <c r="AR134">
-        <v>1.64</v>
-      </c>
-      <c r="AS134">
-        <v>0.98</v>
-      </c>
-      <c r="AT134">
-        <v>2.62</v>
-      </c>
-      <c r="AU134">
-        <v>5</v>
-      </c>
-      <c r="AV134">
-        <v>2</v>
-      </c>
-      <c r="AW134">
-        <v>2</v>
-      </c>
-      <c r="AX134">
-        <v>3</v>
-      </c>
-      <c r="AY134">
-        <v>8</v>
-      </c>
-      <c r="AZ134">
-        <v>6</v>
-      </c>
-      <c r="BA134">
-        <v>2</v>
-      </c>
-      <c r="BB134">
-        <v>1</v>
-      </c>
-      <c r="BC134">
-        <v>3</v>
-      </c>
-      <c r="BD134">
-        <v>1.29</v>
-      </c>
-      <c r="BE134">
-        <v>7.5</v>
-      </c>
-      <c r="BF134">
-        <v>3.95</v>
-      </c>
-      <c r="BG134">
-        <v>1.33</v>
-      </c>
-      <c r="BH134">
-        <v>2.95</v>
-      </c>
-      <c r="BI134">
-        <v>1.56</v>
-      </c>
-      <c r="BJ134">
-        <v>2.23</v>
-      </c>
-      <c r="BK134">
-        <v>1.91</v>
-      </c>
-      <c r="BL134">
-        <v>1.77</v>
-      </c>
-      <c r="BM134">
-        <v>2.4</v>
-      </c>
-      <c r="BN134">
-        <v>1.49</v>
-      </c>
-      <c r="BO134">
-        <v>3.15</v>
-      </c>
-      <c r="BP134">
-        <v>1.3</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -28779,7 +28779,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7468488</v>
+        <v>7468482</v>
       </c>
       <c r="C135" t="s">
         <v>68</v>
@@ -28794,88 +28794,88 @@
         <v>15</v>
       </c>
       <c r="G135" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H135" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>183</v>
+      </c>
+      <c r="P135" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q135">
+        <v>2.2</v>
+      </c>
+      <c r="R135">
+        <v>2.25</v>
+      </c>
+      <c r="S135">
+        <v>6</v>
+      </c>
+      <c r="T135">
+        <v>1.4</v>
+      </c>
+      <c r="U135">
+        <v>2.75</v>
+      </c>
+      <c r="V135">
+        <v>2.75</v>
+      </c>
+      <c r="W135">
+        <v>1.4</v>
+      </c>
+      <c r="X135">
+        <v>8</v>
+      </c>
+      <c r="Y135">
+        <v>1.08</v>
+      </c>
+      <c r="Z135">
+        <v>1.46</v>
+      </c>
+      <c r="AA135">
         <v>4</v>
       </c>
-      <c r="M135">
-        <v>1</v>
-      </c>
-      <c r="N135">
-        <v>5</v>
-      </c>
-      <c r="O135" t="s">
-        <v>184</v>
-      </c>
-      <c r="P135" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q135">
-        <v>2.75</v>
-      </c>
-      <c r="R135">
-        <v>2.05</v>
-      </c>
-      <c r="S135">
-        <v>4.33</v>
-      </c>
-      <c r="T135">
-        <v>1.5</v>
-      </c>
-      <c r="U135">
-        <v>2.5</v>
-      </c>
-      <c r="V135">
-        <v>3.4</v>
-      </c>
-      <c r="W135">
+      <c r="AB135">
+        <v>6</v>
+      </c>
+      <c r="AC135">
+        <v>1.05</v>
+      </c>
+      <c r="AD135">
+        <v>12</v>
+      </c>
+      <c r="AE135">
         <v>1.3</v>
       </c>
-      <c r="X135">
-        <v>10</v>
-      </c>
-      <c r="Y135">
-        <v>1.06</v>
-      </c>
-      <c r="Z135">
-        <v>2.01</v>
-      </c>
-      <c r="AA135">
-        <v>3.1</v>
-      </c>
-      <c r="AB135">
+      <c r="AF135">
         <v>3.6</v>
       </c>
-      <c r="AC135">
-        <v>1.08</v>
-      </c>
-      <c r="AD135">
-        <v>8.5</v>
-      </c>
-      <c r="AE135">
-        <v>1.42</v>
-      </c>
-      <c r="AF135">
-        <v>2.9</v>
-      </c>
       <c r="AG135">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="AH135">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="AI135">
         <v>1.95</v>
@@ -28884,100 +28884,100 @@
         <v>1.8</v>
       </c>
       <c r="AK135">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="AL135">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AM135">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AN135">
         <v>1.86</v>
       </c>
       <c r="AO135">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AP135">
         <v>2</v>
       </c>
       <c r="AQ135">
-        <v>0.75</v>
+        <v>1.13</v>
       </c>
       <c r="AR135">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="AS135">
-        <v>1.11</v>
+        <v>0.98</v>
       </c>
       <c r="AT135">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="AU135">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV135">
+        <v>2</v>
+      </c>
+      <c r="AW135">
+        <v>2</v>
+      </c>
+      <c r="AX135">
+        <v>3</v>
+      </c>
+      <c r="AY135">
         <v>8</v>
       </c>
-      <c r="AW135">
-        <v>3</v>
-      </c>
-      <c r="AX135">
-        <v>3</v>
-      </c>
-      <c r="AY135">
-        <v>14</v>
-      </c>
       <c r="AZ135">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="BA135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB135">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC135">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD135">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
       <c r="BE135">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF135">
-        <v>2.65</v>
+        <v>3.95</v>
       </c>
       <c r="BG135">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="BH135">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="BI135">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="BJ135">
-        <v>2.08</v>
+        <v>2.23</v>
       </c>
       <c r="BK135">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="BL135">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="BM135">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="BN135">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="BO135">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BP135">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="136" spans="1:68">
@@ -28985,7 +28985,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7468483</v>
+        <v>7468490</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -28994,196 +28994,196 @@
         <v>69</v>
       </c>
       <c r="E136" s="2">
-        <v>45641.54166666666</v>
+        <v>45641.69791666666</v>
       </c>
       <c r="F136">
         <v>15</v>
       </c>
       <c r="G136" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H136" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O136" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="Q136">
-        <v>3.5</v>
+        <v>1.83</v>
       </c>
       <c r="R136">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="S136">
+        <v>5.5</v>
+      </c>
+      <c r="T136">
+        <v>1.18</v>
+      </c>
+      <c r="U136">
+        <v>4.5</v>
+      </c>
+      <c r="V136">
+        <v>1.83</v>
+      </c>
+      <c r="W136">
+        <v>1.83</v>
+      </c>
+      <c r="X136">
+        <v>3.75</v>
+      </c>
+      <c r="Y136">
+        <v>1.25</v>
+      </c>
+      <c r="Z136">
+        <v>1.44</v>
+      </c>
+      <c r="AA136">
+        <v>4.7</v>
+      </c>
+      <c r="AB136">
+        <v>5.1</v>
+      </c>
+      <c r="AC136">
+        <v>0</v>
+      </c>
+      <c r="AD136">
+        <v>0</v>
+      </c>
+      <c r="AE136">
+        <v>1.08</v>
+      </c>
+      <c r="AF136">
+        <v>8</v>
+      </c>
+      <c r="AG136">
+        <v>1.27</v>
+      </c>
+      <c r="AH136">
+        <v>3.54</v>
+      </c>
+      <c r="AI136">
+        <v>1.44</v>
+      </c>
+      <c r="AJ136">
+        <v>2.63</v>
+      </c>
+      <c r="AK136">
+        <v>1.1</v>
+      </c>
+      <c r="AL136">
+        <v>1.12</v>
+      </c>
+      <c r="AM136">
+        <v>3</v>
+      </c>
+      <c r="AN136">
+        <v>2.71</v>
+      </c>
+      <c r="AO136">
+        <v>1.71</v>
+      </c>
+      <c r="AP136">
+        <v>2.75</v>
+      </c>
+      <c r="AQ136">
+        <v>1.5</v>
+      </c>
+      <c r="AR136">
+        <v>2.35</v>
+      </c>
+      <c r="AS136">
+        <v>1.33</v>
+      </c>
+      <c r="AT136">
+        <v>3.68</v>
+      </c>
+      <c r="AU136">
+        <v>7</v>
+      </c>
+      <c r="AV136">
+        <v>4</v>
+      </c>
+      <c r="AW136">
+        <v>4</v>
+      </c>
+      <c r="AX136">
+        <v>2</v>
+      </c>
+      <c r="AY136">
+        <v>14</v>
+      </c>
+      <c r="AZ136">
+        <v>8</v>
+      </c>
+      <c r="BA136">
+        <v>4</v>
+      </c>
+      <c r="BB136">
+        <v>3</v>
+      </c>
+      <c r="BC136">
+        <v>7</v>
+      </c>
+      <c r="BD136">
+        <v>1.29</v>
+      </c>
+      <c r="BE136">
+        <v>7</v>
+      </c>
+      <c r="BF136">
+        <v>3.95</v>
+      </c>
+      <c r="BG136">
+        <v>1.3</v>
+      </c>
+      <c r="BH136">
         <v>3.1</v>
       </c>
-      <c r="T136">
-        <v>1.4</v>
-      </c>
-      <c r="U136">
-        <v>2.75</v>
-      </c>
-      <c r="V136">
-        <v>3</v>
-      </c>
-      <c r="W136">
-        <v>1.36</v>
-      </c>
-      <c r="X136">
-        <v>8</v>
-      </c>
-      <c r="Y136">
-        <v>1.08</v>
-      </c>
-      <c r="Z136">
-        <v>2.6</v>
-      </c>
-      <c r="AA136">
-        <v>3.1</v>
-      </c>
-      <c r="AB136">
-        <v>2.42</v>
-      </c>
-      <c r="AC136">
-        <v>1.06</v>
-      </c>
-      <c r="AD136">
-        <v>10</v>
-      </c>
-      <c r="AE136">
+      <c r="BI136">
+        <v>1.53</v>
+      </c>
+      <c r="BJ136">
+        <v>2.32</v>
+      </c>
+      <c r="BK136">
+        <v>1.85</v>
+      </c>
+      <c r="BL136">
+        <v>1.83</v>
+      </c>
+      <c r="BM136">
+        <v>2.32</v>
+      </c>
+      <c r="BN136">
+        <v>1.53</v>
+      </c>
+      <c r="BO136">
+        <v>2.95</v>
+      </c>
+      <c r="BP136">
         <v>1.33</v>
-      </c>
-      <c r="AF136">
-        <v>3.4</v>
-      </c>
-      <c r="AG136">
-        <v>2.02</v>
-      </c>
-      <c r="AH136">
-        <v>1.84</v>
-      </c>
-      <c r="AI136">
-        <v>1.75</v>
-      </c>
-      <c r="AJ136">
-        <v>2</v>
-      </c>
-      <c r="AK136">
-        <v>1.57</v>
-      </c>
-      <c r="AL136">
-        <v>1.3</v>
-      </c>
-      <c r="AM136">
-        <v>1.42</v>
-      </c>
-      <c r="AN136">
-        <v>0.86</v>
-      </c>
-      <c r="AO136">
-        <v>0.29</v>
-      </c>
-      <c r="AP136">
-        <v>0.75</v>
-      </c>
-      <c r="AQ136">
-        <v>0.63</v>
-      </c>
-      <c r="AR136">
-        <v>1.14</v>
-      </c>
-      <c r="AS136">
-        <v>1.35</v>
-      </c>
-      <c r="AT136">
-        <v>2.49</v>
-      </c>
-      <c r="AU136">
-        <v>2</v>
-      </c>
-      <c r="AV136">
-        <v>6</v>
-      </c>
-      <c r="AW136">
-        <v>9</v>
-      </c>
-      <c r="AX136">
-        <v>3</v>
-      </c>
-      <c r="AY136">
-        <v>12</v>
-      </c>
-      <c r="AZ136">
-        <v>10</v>
-      </c>
-      <c r="BA136">
-        <v>3</v>
-      </c>
-      <c r="BB136">
-        <v>2</v>
-      </c>
-      <c r="BC136">
-        <v>5</v>
-      </c>
-      <c r="BD136">
-        <v>1.98</v>
-      </c>
-      <c r="BE136">
-        <v>6.1</v>
-      </c>
-      <c r="BF136">
-        <v>2.05</v>
-      </c>
-      <c r="BG136">
-        <v>1.48</v>
-      </c>
-      <c r="BH136">
-        <v>2.43</v>
-      </c>
-      <c r="BI136">
-        <v>1.79</v>
-      </c>
-      <c r="BJ136">
-        <v>1.9</v>
-      </c>
-      <c r="BK136">
-        <v>2.3</v>
-      </c>
-      <c r="BL136">
-        <v>1.54</v>
-      </c>
-      <c r="BM136">
-        <v>2.95</v>
-      </c>
-      <c r="BN136">
-        <v>1.33</v>
-      </c>
-      <c r="BO136">
-        <v>3.95</v>
-      </c>
-      <c r="BP136">
-        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,9 @@
     <t>['8', '14', '88']</t>
   </si>
   <si>
+    <t>['53', '60']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -803,6 +806,9 @@
   </si>
   <si>
     <t>['28', '32', '90']</t>
+  </si>
+  <si>
+    <t>['24', '64', '83', '90+7']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP136"/>
+  <dimension ref="A1:BP137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1429,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1504,7 +1510,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ2">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1629,7 +1635,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1835,7 +1841,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2119,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ5">
         <v>0.13</v>
@@ -2247,7 +2253,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2453,7 +2459,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3483,7 +3489,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -3895,7 +3901,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4719,7 +4725,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4925,7 +4931,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5131,7 +5137,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5543,7 +5549,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -5749,7 +5755,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -5955,7 +5961,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6033,7 +6039,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ24">
         <v>1.63</v>
@@ -6161,7 +6167,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6573,7 +6579,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6779,7 +6785,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -6860,7 +6866,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR28">
         <v>1.52</v>
@@ -7397,7 +7403,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8221,7 +8227,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8427,7 +8433,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -9045,7 +9051,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9251,7 +9257,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9457,7 +9463,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9538,7 +9544,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ41">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR41">
         <v>0.92</v>
@@ -9741,7 +9747,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ42">
         <v>0.86</v>
@@ -9869,7 +9875,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10281,7 +10287,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10487,7 +10493,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -10899,7 +10905,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q48">
         <v>1.83</v>
@@ -11311,7 +11317,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11517,7 +11523,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -11595,7 +11601,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ51">
         <v>0</v>
@@ -11723,7 +11729,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -11929,7 +11935,7 @@
         <v>106</v>
       </c>
       <c r="P53" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -12135,7 +12141,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12753,7 +12759,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13165,7 +13171,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13577,7 +13583,7 @@
         <v>135</v>
       </c>
       <c r="P61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13783,7 +13789,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14195,7 +14201,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14276,7 +14282,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ64">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR64">
         <v>1.7</v>
@@ -14479,7 +14485,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ65">
         <v>1.63</v>
@@ -14607,7 +14613,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14813,7 +14819,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -15019,7 +15025,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15225,7 +15231,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15431,7 +15437,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15637,7 +15643,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15843,7 +15849,7 @@
         <v>93</v>
       </c>
       <c r="P72" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16049,7 +16055,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16461,7 +16467,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16667,7 +16673,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16873,7 +16879,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17079,7 +17085,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17285,7 +17291,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17491,7 +17497,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q80">
         <v>2.63</v>
@@ -17903,7 +17909,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -17984,7 +17990,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ82">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR82">
         <v>1.67</v>
@@ -18187,7 +18193,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ83">
         <v>1.13</v>
@@ -18315,7 +18321,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18727,7 +18733,7 @@
         <v>90</v>
       </c>
       <c r="P86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19757,7 +19763,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -19963,7 +19969,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20169,7 +20175,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20375,7 +20381,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20581,7 +20587,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -20662,7 +20668,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ95">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR95">
         <v>1.33</v>
@@ -20787,7 +20793,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -20993,7 +20999,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21199,7 +21205,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21405,7 +21411,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21817,7 +21823,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -21895,7 +21901,7 @@
         <v>0.6</v>
       </c>
       <c r="AP101">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ101">
         <v>0.43</v>
@@ -22229,7 +22235,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23053,7 +23059,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q107">
         <v>2.6</v>
@@ -23465,7 +23471,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23671,7 +23677,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24083,7 +24089,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24495,7 +24501,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24701,7 +24707,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -25113,7 +25119,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25319,7 +25325,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -25812,7 +25818,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ120">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR120">
         <v>1.48</v>
@@ -26015,7 +26021,7 @@
         <v>1.17</v>
       </c>
       <c r="AP121">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -26143,7 +26149,7 @@
         <v>176</v>
       </c>
       <c r="P122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26349,7 +26355,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27173,7 +27179,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -27585,7 +27591,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27791,7 +27797,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>4.33</v>
@@ -28203,7 +28209,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28615,7 +28621,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q134">
         <v>3.5</v>
@@ -29184,6 +29190,212 @@
       </c>
       <c r="BP136">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7468491</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45644.70833333334</v>
+      </c>
+      <c r="F137">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>73</v>
+      </c>
+      <c r="H137" t="s">
+        <v>79</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>4</v>
+      </c>
+      <c r="N137">
+        <v>6</v>
+      </c>
+      <c r="O137" t="s">
+        <v>185</v>
+      </c>
+      <c r="P137" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q137">
+        <v>3.4</v>
+      </c>
+      <c r="R137">
+        <v>2.5</v>
+      </c>
+      <c r="S137">
+        <v>2.63</v>
+      </c>
+      <c r="T137">
+        <v>1.25</v>
+      </c>
+      <c r="U137">
+        <v>3.75</v>
+      </c>
+      <c r="V137">
+        <v>2.2</v>
+      </c>
+      <c r="W137">
+        <v>1.62</v>
+      </c>
+      <c r="X137">
+        <v>5</v>
+      </c>
+      <c r="Y137">
+        <v>1.17</v>
+      </c>
+      <c r="Z137">
+        <v>3.85</v>
+      </c>
+      <c r="AA137">
+        <v>3.8</v>
+      </c>
+      <c r="AB137">
+        <v>1.9</v>
+      </c>
+      <c r="AC137">
+        <v>1.01</v>
+      </c>
+      <c r="AD137">
+        <v>21</v>
+      </c>
+      <c r="AE137">
+        <v>1.11</v>
+      </c>
+      <c r="AF137">
+        <v>5.05</v>
+      </c>
+      <c r="AG137">
+        <v>1.44</v>
+      </c>
+      <c r="AH137">
+        <v>2.75</v>
+      </c>
+      <c r="AI137">
+        <v>1.4</v>
+      </c>
+      <c r="AJ137">
+        <v>2.75</v>
+      </c>
+      <c r="AK137">
+        <v>1.72</v>
+      </c>
+      <c r="AL137">
+        <v>1.22</v>
+      </c>
+      <c r="AM137">
+        <v>1.38</v>
+      </c>
+      <c r="AN137">
+        <v>2.13</v>
+      </c>
+      <c r="AO137">
+        <v>2.14</v>
+      </c>
+      <c r="AP137">
+        <v>1.89</v>
+      </c>
+      <c r="AQ137">
+        <v>2.25</v>
+      </c>
+      <c r="AR137">
+        <v>1.51</v>
+      </c>
+      <c r="AS137">
+        <v>2.22</v>
+      </c>
+      <c r="AT137">
+        <v>3.73</v>
+      </c>
+      <c r="AU137">
+        <v>6</v>
+      </c>
+      <c r="AV137">
+        <v>13</v>
+      </c>
+      <c r="AW137">
+        <v>5</v>
+      </c>
+      <c r="AX137">
+        <v>3</v>
+      </c>
+      <c r="AY137">
+        <v>16</v>
+      </c>
+      <c r="AZ137">
+        <v>18</v>
+      </c>
+      <c r="BA137">
+        <v>1</v>
+      </c>
+      <c r="BB137">
+        <v>9</v>
+      </c>
+      <c r="BC137">
+        <v>10</v>
+      </c>
+      <c r="BD137">
+        <v>2.4</v>
+      </c>
+      <c r="BE137">
+        <v>6.4</v>
+      </c>
+      <c r="BF137">
+        <v>1.72</v>
+      </c>
+      <c r="BG137">
+        <v>1.34</v>
+      </c>
+      <c r="BH137">
+        <v>2.9</v>
+      </c>
+      <c r="BI137">
+        <v>1.58</v>
+      </c>
+      <c r="BJ137">
+        <v>2.18</v>
+      </c>
+      <c r="BK137">
+        <v>1.96</v>
+      </c>
+      <c r="BL137">
+        <v>1.74</v>
+      </c>
+      <c r="BM137">
+        <v>2.48</v>
+      </c>
+      <c r="BN137">
+        <v>1.47</v>
+      </c>
+      <c r="BO137">
+        <v>3.2</v>
+      </c>
+      <c r="BP137">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -268,13 +268,13 @@
     <t>Lens</t>
   </si>
   <si>
-    <t>Nice</t>
+    <t>Strasbourg</t>
   </si>
   <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>Strasbourg</t>
+    <t>Nice</t>
   </si>
   <si>
     <t>Olympique Marseille</t>
@@ -310,13 +310,13 @@
     <t>['19', '45']</t>
   </si>
   <si>
-    <t>['53']</t>
+    <t>['23', '48', '87']</t>
   </si>
   <si>
     <t>['14', '90+6']</t>
   </si>
   <si>
-    <t>['23', '48', '87']</t>
+    <t>['53']</t>
   </si>
   <si>
     <t>['25', '71']</t>
@@ -358,10 +358,10 @@
     <t>['24', '35', '60']</t>
   </si>
   <si>
-    <t>['70', '86']</t>
+    <t>['31']</t>
   </si>
   <si>
-    <t>['31']</t>
+    <t>['70', '86']</t>
   </si>
   <si>
     <t>['4', '7', '24', '26', '36', '39', '75', '86']</t>
@@ -421,13 +421,13 @@
     <t>['22', '54']</t>
   </si>
   <si>
-    <t>['6', '25', '57', '90+3']</t>
+    <t>['12', '90+2']</t>
   </si>
   <si>
     <t>['18', '60']</t>
   </si>
   <si>
-    <t>['12', '90+2']</t>
+    <t>['6', '25', '57', '90+3']</t>
   </si>
   <si>
     <t>['38']</t>
@@ -439,10 +439,10 @@
     <t>['18', '47', '66', '90']</t>
   </si>
   <si>
-    <t>['16', '52']</t>
+    <t>['64']</t>
   </si>
   <si>
-    <t>['64']</t>
+    <t>['16', '52']</t>
   </si>
   <si>
     <t>['7', '39', '69', '90+3']</t>
@@ -670,10 +670,10 @@
     <t>['6', '22']</t>
   </si>
   <si>
-    <t>['37', '90+1']</t>
+    <t>['5', '44']</t>
   </si>
   <si>
-    <t>['5', '44']</t>
+    <t>['37', '90+1']</t>
   </si>
   <si>
     <t>['52']</t>
@@ -691,13 +691,13 @@
     <t>['32', '57', '71', '87']</t>
   </si>
   <si>
-    <t>['90+5']</t>
-  </si>
-  <si>
     <t>['5']</t>
   </si>
   <si>
     <t>['72']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
   </si>
   <si>
     <t>['1', '36', '40', '58', '73']</t>
@@ -748,13 +748,13 @@
     <t>['17', '66']</t>
   </si>
   <si>
+    <t>['14', '23']</t>
+  </si>
+  <si>
     <t>['50']</t>
   </si>
   <si>
     <t>['15', '21', '57']</t>
-  </si>
-  <si>
-    <t>['14', '23']</t>
   </si>
   <si>
     <t>['50', '90+6']</t>
@@ -2229,7 +2229,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2435,7 +2435,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7468371</v>
+        <v>7468367</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -4289,46 +4289,46 @@
         <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O16" t="s">
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="Q16">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="R16">
         <v>2.2</v>
       </c>
       <c r="S16">
-        <v>4.75</v>
+        <v>2.88</v>
       </c>
       <c r="T16">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V16">
         <v>2.75</v>
@@ -4337,139 +4337,139 @@
         <v>1.4</v>
       </c>
       <c r="X16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y16">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z16">
+        <v>3.1</v>
+      </c>
+      <c r="AA16">
+        <v>3.5</v>
+      </c>
+      <c r="AB16">
+        <v>2.25</v>
+      </c>
+      <c r="AC16">
+        <v>1.04</v>
+      </c>
+      <c r="AD16">
+        <v>12</v>
+      </c>
+      <c r="AE16">
+        <v>1.28</v>
+      </c>
+      <c r="AF16">
+        <v>3.75</v>
+      </c>
+      <c r="AG16">
+        <v>1.8</v>
+      </c>
+      <c r="AH16">
+        <v>2</v>
+      </c>
+      <c r="AI16">
+        <v>1.67</v>
+      </c>
+      <c r="AJ16">
+        <v>2.1</v>
+      </c>
+      <c r="AK16">
+        <v>1.68</v>
+      </c>
+      <c r="AL16">
+        <v>1.26</v>
+      </c>
+      <c r="AM16">
+        <v>1.36</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
         <v>1.71</v>
       </c>
-      <c r="AA16">
-        <v>3.8</v>
-      </c>
-      <c r="AB16">
-        <v>4.6</v>
-      </c>
-      <c r="AC16">
-        <v>1.05</v>
-      </c>
-      <c r="AD16">
-        <v>11</v>
-      </c>
-      <c r="AE16">
-        <v>1.32</v>
-      </c>
-      <c r="AF16">
-        <v>3.4</v>
-      </c>
-      <c r="AG16">
-        <v>1.85</v>
-      </c>
-      <c r="AH16">
-        <v>1.9</v>
-      </c>
-      <c r="AI16">
+      <c r="AQ16">
+        <v>0.14</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>7</v>
+      </c>
+      <c r="AV16">
+        <v>6</v>
+      </c>
+      <c r="AW16">
+        <v>3</v>
+      </c>
+      <c r="AX16">
+        <v>6</v>
+      </c>
+      <c r="AY16">
+        <v>13</v>
+      </c>
+      <c r="AZ16">
+        <v>15</v>
+      </c>
+      <c r="BA16">
+        <v>2</v>
+      </c>
+      <c r="BB16">
+        <v>5</v>
+      </c>
+      <c r="BC16">
+        <v>7</v>
+      </c>
+      <c r="BD16">
+        <v>2.23</v>
+      </c>
+      <c r="BE16">
+        <v>6.4</v>
+      </c>
+      <c r="BF16">
         <v>1.8</v>
       </c>
-      <c r="AJ16">
-        <v>1.95</v>
-      </c>
-      <c r="AK16">
-        <v>1.22</v>
-      </c>
-      <c r="AL16">
-        <v>1.25</v>
-      </c>
-      <c r="AM16">
-        <v>2</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>2.14</v>
-      </c>
-      <c r="AQ16">
-        <v>1</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>4</v>
-      </c>
-      <c r="AV16">
-        <v>4</v>
-      </c>
-      <c r="AW16">
-        <v>5</v>
-      </c>
-      <c r="AX16">
-        <v>7</v>
-      </c>
-      <c r="AY16">
-        <v>11</v>
-      </c>
-      <c r="AZ16">
-        <v>17</v>
-      </c>
-      <c r="BA16">
-        <v>4</v>
-      </c>
-      <c r="BB16">
-        <v>4</v>
-      </c>
-      <c r="BC16">
-        <v>8</v>
-      </c>
-      <c r="BD16">
-        <v>1.41</v>
-      </c>
-      <c r="BE16">
-        <v>7</v>
-      </c>
-      <c r="BF16">
-        <v>3.3</v>
-      </c>
       <c r="BG16">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="BH16">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="BI16">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="BJ16">
-        <v>2.06</v>
+        <v>2.23</v>
       </c>
       <c r="BK16">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="BL16">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="BM16">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="BN16">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="BO16">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="BP16">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -4683,7 +4683,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7468367</v>
+        <v>7468371</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4701,46 +4701,46 @@
         <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
       <c r="N18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O18" t="s">
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="Q18">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="R18">
         <v>2.2</v>
       </c>
       <c r="S18">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="T18">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V18">
         <v>2.75</v>
@@ -4749,139 +4749,139 @@
         <v>1.4</v>
       </c>
       <c r="X18">
+        <v>8</v>
+      </c>
+      <c r="Y18">
+        <v>1.08</v>
+      </c>
+      <c r="Z18">
+        <v>1.71</v>
+      </c>
+      <c r="AA18">
+        <v>3.8</v>
+      </c>
+      <c r="AB18">
+        <v>4.6</v>
+      </c>
+      <c r="AC18">
+        <v>1.05</v>
+      </c>
+      <c r="AD18">
+        <v>11</v>
+      </c>
+      <c r="AE18">
+        <v>1.32</v>
+      </c>
+      <c r="AF18">
+        <v>3.4</v>
+      </c>
+      <c r="AG18">
+        <v>1.85</v>
+      </c>
+      <c r="AH18">
+        <v>1.9</v>
+      </c>
+      <c r="AI18">
+        <v>1.8</v>
+      </c>
+      <c r="AJ18">
+        <v>1.95</v>
+      </c>
+      <c r="AK18">
+        <v>1.22</v>
+      </c>
+      <c r="AL18">
+        <v>1.25</v>
+      </c>
+      <c r="AM18">
+        <v>2</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>2.14</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>4</v>
+      </c>
+      <c r="AV18">
+        <v>4</v>
+      </c>
+      <c r="AW18">
+        <v>5</v>
+      </c>
+      <c r="AX18">
         <v>7</v>
       </c>
-      <c r="Y18">
-        <v>1.1</v>
-      </c>
-      <c r="Z18">
-        <v>3.1</v>
-      </c>
-      <c r="AA18">
-        <v>3.5</v>
-      </c>
-      <c r="AB18">
-        <v>2.25</v>
-      </c>
-      <c r="AC18">
-        <v>1.04</v>
-      </c>
-      <c r="AD18">
-        <v>12</v>
-      </c>
-      <c r="AE18">
-        <v>1.28</v>
-      </c>
-      <c r="AF18">
-        <v>3.75</v>
-      </c>
-      <c r="AG18">
-        <v>1.8</v>
-      </c>
-      <c r="AH18">
-        <v>2</v>
-      </c>
-      <c r="AI18">
-        <v>1.67</v>
-      </c>
-      <c r="AJ18">
-        <v>2.1</v>
-      </c>
-      <c r="AK18">
-        <v>1.68</v>
-      </c>
-      <c r="AL18">
-        <v>1.26</v>
-      </c>
-      <c r="AM18">
-        <v>1.36</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>1.71</v>
-      </c>
-      <c r="AQ18">
-        <v>0.14</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
+      <c r="AY18">
+        <v>11</v>
+      </c>
+      <c r="AZ18">
+        <v>17</v>
+      </c>
+      <c r="BA18">
+        <v>4</v>
+      </c>
+      <c r="BB18">
+        <v>4</v>
+      </c>
+      <c r="BC18">
+        <v>8</v>
+      </c>
+      <c r="BD18">
+        <v>1.41</v>
+      </c>
+      <c r="BE18">
         <v>7</v>
       </c>
-      <c r="AV18">
-        <v>6</v>
-      </c>
-      <c r="AW18">
-        <v>3</v>
-      </c>
-      <c r="AX18">
-        <v>6</v>
-      </c>
-      <c r="AY18">
-        <v>13</v>
-      </c>
-      <c r="AZ18">
-        <v>15</v>
-      </c>
-      <c r="BA18">
-        <v>2</v>
-      </c>
-      <c r="BB18">
-        <v>5</v>
-      </c>
-      <c r="BC18">
-        <v>7</v>
-      </c>
-      <c r="BD18">
-        <v>2.23</v>
-      </c>
-      <c r="BE18">
-        <v>6.4</v>
-      </c>
       <c r="BF18">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="BG18">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="BH18">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="BI18">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="BJ18">
-        <v>2.23</v>
+        <v>2.06</v>
       </c>
       <c r="BK18">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="BL18">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="BM18">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="BN18">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="BO18">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="BP18">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -5113,7 +5113,7 @@
         <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -6143,7 +6143,7 @@
         <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>87</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -7979,7 +7979,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7468388</v>
+        <v>7468389</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -7994,25 +7994,25 @@
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -8021,16 +8021,16 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="Q34">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R34">
         <v>2.2</v>
       </c>
       <c r="S34">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="T34">
         <v>1.4</v>
@@ -8051,13 +8051,13 @@
         <v>1.08</v>
       </c>
       <c r="Z34">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="AA34">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AB34">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="AC34">
         <v>1.05</v>
@@ -8066,118 +8066,118 @@
         <v>11</v>
       </c>
       <c r="AE34">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AF34">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AG34">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="AH34">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="AI34">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AJ34">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AK34">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AL34">
+        <v>1.27</v>
+      </c>
+      <c r="AM34">
+        <v>2.15</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>1.71</v>
+      </c>
+      <c r="AQ34">
+        <v>1.13</v>
+      </c>
+      <c r="AR34">
         <v>1.25</v>
       </c>
-      <c r="AM34">
-        <v>1.98</v>
-      </c>
-      <c r="AN34">
-        <v>0.5</v>
-      </c>
-      <c r="AO34">
-        <v>3</v>
-      </c>
-      <c r="AP34">
-        <v>1.75</v>
-      </c>
-      <c r="AQ34">
-        <v>0.86</v>
-      </c>
-      <c r="AR34">
-        <v>1.04</v>
-      </c>
       <c r="AS34">
-        <v>1.58</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT34">
-        <v>2.62</v>
+        <v>1.94</v>
       </c>
       <c r="AU34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW34">
         <v>4</v>
       </c>
       <c r="AX34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY34">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ34">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BA34">
         <v>6</v>
       </c>
       <c r="BB34">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC34">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BD34">
-        <v>1.49</v>
+        <v>1.72</v>
       </c>
       <c r="BE34">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
       <c r="BF34">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="BG34">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="BH34">
         <v>2.65</v>
       </c>
       <c r="BI34">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="BJ34">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="BK34">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="BL34">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="BM34">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="BN34">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="BO34">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="BP34">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -8185,7 +8185,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7468389</v>
+        <v>7468387</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -8200,43 +8200,43 @@
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O35" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q35">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="R35">
         <v>2.2</v>
       </c>
       <c r="S35">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="T35">
         <v>1.4</v>
@@ -8257,133 +8257,133 @@
         <v>1.08</v>
       </c>
       <c r="Z35">
-        <v>1.73</v>
+        <v>2.24</v>
       </c>
       <c r="AA35">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="AB35">
-        <v>4.45</v>
+        <v>2.86</v>
       </c>
       <c r="AC35">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD35">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AE35">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AF35">
         <v>3.6</v>
       </c>
       <c r="AG35">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="AH35">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AI35">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AJ35">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AK35">
+        <v>1.32</v>
+      </c>
+      <c r="AL35">
+        <v>1.26</v>
+      </c>
+      <c r="AM35">
+        <v>1.58</v>
+      </c>
+      <c r="AN35">
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+      <c r="AP35">
         <v>1.14</v>
       </c>
-      <c r="AL35">
-        <v>1.27</v>
-      </c>
-      <c r="AM35">
-        <v>2.15</v>
-      </c>
-      <c r="AN35">
-        <v>3</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>1.71</v>
-      </c>
       <c r="AQ35">
-        <v>1.13</v>
+        <v>1.57</v>
       </c>
       <c r="AR35">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AS35">
-        <v>0.6899999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AT35">
-        <v>1.94</v>
+        <v>2.5</v>
       </c>
       <c r="AU35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX35">
         <v>5</v>
       </c>
       <c r="AY35">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA35">
         <v>6</v>
       </c>
       <c r="BB35">
+        <v>3</v>
+      </c>
+      <c r="BC35">
         <v>9</v>
       </c>
-      <c r="BC35">
-        <v>15</v>
-      </c>
       <c r="BD35">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="BE35">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="BF35">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="BG35">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="BH35">
-        <v>2.65</v>
+        <v>3.3</v>
       </c>
       <c r="BI35">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="BJ35">
-        <v>2.02</v>
+        <v>2.45</v>
       </c>
       <c r="BK35">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="BL35">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="BM35">
-        <v>2.7</v>
+        <v>2.18</v>
       </c>
       <c r="BN35">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="BO35">
-        <v>3.65</v>
+        <v>2.8</v>
       </c>
       <c r="BP35">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8391,7 +8391,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7468387</v>
+        <v>7468388</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8406,43 +8406,43 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O36" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>204</v>
+        <v>90</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="R36">
         <v>2.2</v>
       </c>
       <c r="S36">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="T36">
         <v>1.4</v>
@@ -8463,133 +8463,133 @@
         <v>1.08</v>
       </c>
       <c r="Z36">
-        <v>2.24</v>
+        <v>1.78</v>
       </c>
       <c r="AA36">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="AB36">
-        <v>2.86</v>
+        <v>4.25</v>
       </c>
       <c r="AC36">
+        <v>1.05</v>
+      </c>
+      <c r="AD36">
+        <v>11</v>
+      </c>
+      <c r="AE36">
+        <v>1.32</v>
+      </c>
+      <c r="AF36">
+        <v>3.4</v>
+      </c>
+      <c r="AG36">
+        <v>1.98</v>
+      </c>
+      <c r="AH36">
+        <v>1.88</v>
+      </c>
+      <c r="AI36">
+        <v>1.8</v>
+      </c>
+      <c r="AJ36">
+        <v>1.95</v>
+      </c>
+      <c r="AK36">
+        <v>1.18</v>
+      </c>
+      <c r="AL36">
+        <v>1.25</v>
+      </c>
+      <c r="AM36">
+        <v>1.98</v>
+      </c>
+      <c r="AN36">
+        <v>0.5</v>
+      </c>
+      <c r="AO36">
+        <v>3</v>
+      </c>
+      <c r="AP36">
+        <v>1.75</v>
+      </c>
+      <c r="AQ36">
+        <v>0.86</v>
+      </c>
+      <c r="AR36">
         <v>1.04</v>
       </c>
-      <c r="AD36">
-        <v>8.5</v>
-      </c>
-      <c r="AE36">
-        <v>1.25</v>
-      </c>
-      <c r="AF36">
-        <v>3.6</v>
-      </c>
-      <c r="AG36">
-        <v>1.95</v>
-      </c>
-      <c r="AH36">
-        <v>1.91</v>
-      </c>
-      <c r="AI36">
-        <v>1.7</v>
-      </c>
-      <c r="AJ36">
-        <v>2.05</v>
-      </c>
-      <c r="AK36">
-        <v>1.32</v>
-      </c>
-      <c r="AL36">
-        <v>1.26</v>
-      </c>
-      <c r="AM36">
+      <c r="AS36">
         <v>1.58</v>
       </c>
-      <c r="AN36">
-        <v>3</v>
-      </c>
-      <c r="AO36">
-        <v>1</v>
-      </c>
-      <c r="AP36">
-        <v>1.14</v>
-      </c>
-      <c r="AQ36">
-        <v>1.57</v>
-      </c>
-      <c r="AR36">
-        <v>1.39</v>
-      </c>
-      <c r="AS36">
-        <v>1.11</v>
-      </c>
       <c r="AT36">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="AU36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY36">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ36">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BA36">
         <v>6</v>
       </c>
       <c r="BB36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC36">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD36">
-        <v>1.66</v>
+        <v>1.49</v>
       </c>
       <c r="BE36">
         <v>6.75</v>
       </c>
       <c r="BF36">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="BG36">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="BH36">
-        <v>3.3</v>
+        <v>2.65</v>
       </c>
       <c r="BI36">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="BJ36">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="BK36">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
       <c r="BL36">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="BM36">
-        <v>2.18</v>
+        <v>2.65</v>
       </c>
       <c r="BN36">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="BO36">
-        <v>2.8</v>
+        <v>3.55</v>
       </c>
       <c r="BP36">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8818,7 +8818,7 @@
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s">
         <v>82</v>
@@ -9027,7 +9027,7 @@
         <v>81</v>
       </c>
       <c r="H39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -9833,7 +9833,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7468397</v>
+        <v>7468396</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9848,190 +9848,190 @@
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H43" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>2</v>
       </c>
       <c r="O43" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P43" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="Q43">
+        <v>2.88</v>
+      </c>
+      <c r="R43">
+        <v>2.2</v>
+      </c>
+      <c r="S43">
         <v>3.75</v>
       </c>
-      <c r="R43">
-        <v>2.05</v>
-      </c>
-      <c r="S43">
-        <v>3.1</v>
-      </c>
       <c r="T43">
+        <v>1.4</v>
+      </c>
+      <c r="U43">
+        <v>2.75</v>
+      </c>
+      <c r="V43">
+        <v>2.75</v>
+      </c>
+      <c r="W43">
+        <v>1.4</v>
+      </c>
+      <c r="X43">
+        <v>8</v>
+      </c>
+      <c r="Y43">
+        <v>1.08</v>
+      </c>
+      <c r="Z43">
+        <v>2.07</v>
+      </c>
+      <c r="AA43">
+        <v>3.65</v>
+      </c>
+      <c r="AB43">
+        <v>3.4</v>
+      </c>
+      <c r="AC43">
+        <v>1.05</v>
+      </c>
+      <c r="AD43">
+        <v>12</v>
+      </c>
+      <c r="AE43">
+        <v>1.32</v>
+      </c>
+      <c r="AF43">
+        <v>3.4</v>
+      </c>
+      <c r="AG43">
+        <v>1.89</v>
+      </c>
+      <c r="AH43">
+        <v>1.91</v>
+      </c>
+      <c r="AI43">
+        <v>1.75</v>
+      </c>
+      <c r="AJ43">
+        <v>2</v>
+      </c>
+      <c r="AK43">
+        <v>1.29</v>
+      </c>
+      <c r="AL43">
+        <v>1.26</v>
+      </c>
+      <c r="AM43">
+        <v>1.7</v>
+      </c>
+      <c r="AN43">
         <v>1.5</v>
       </c>
-      <c r="U43">
-        <v>2.5</v>
-      </c>
-      <c r="V43">
-        <v>3.4</v>
-      </c>
-      <c r="W43">
-        <v>1.3</v>
-      </c>
-      <c r="X43">
-        <v>10</v>
-      </c>
-      <c r="Y43">
-        <v>1.06</v>
-      </c>
-      <c r="Z43">
-        <v>3.2</v>
-      </c>
-      <c r="AA43">
-        <v>3.2</v>
-      </c>
-      <c r="AB43">
-        <v>2.33</v>
-      </c>
-      <c r="AC43">
-        <v>1.07</v>
-      </c>
-      <c r="AD43">
+      <c r="AO43">
+        <v>1</v>
+      </c>
+      <c r="AP43">
+        <v>2</v>
+      </c>
+      <c r="AQ43">
+        <v>1</v>
+      </c>
+      <c r="AR43">
+        <v>1.86</v>
+      </c>
+      <c r="AS43">
+        <v>1.17</v>
+      </c>
+      <c r="AT43">
+        <v>3.03</v>
+      </c>
+      <c r="AU43">
+        <v>6</v>
+      </c>
+      <c r="AV43">
+        <v>2</v>
+      </c>
+      <c r="AW43">
+        <v>1</v>
+      </c>
+      <c r="AX43">
         <v>9</v>
       </c>
-      <c r="AE43">
-        <v>1.4</v>
-      </c>
-      <c r="AF43">
-        <v>3</v>
-      </c>
-      <c r="AG43">
-        <v>2.25</v>
-      </c>
-      <c r="AH43">
-        <v>1.64</v>
-      </c>
-      <c r="AI43">
-        <v>1.95</v>
-      </c>
-      <c r="AJ43">
-        <v>1.8</v>
-      </c>
-      <c r="AK43">
-        <v>1.62</v>
-      </c>
-      <c r="AL43">
-        <v>1.37</v>
-      </c>
-      <c r="AM43">
-        <v>1.4</v>
-      </c>
-      <c r="AN43">
-        <v>0</v>
-      </c>
-      <c r="AO43">
-        <v>2</v>
-      </c>
-      <c r="AP43">
-        <v>0.57</v>
-      </c>
-      <c r="AQ43">
-        <v>0.75</v>
-      </c>
-      <c r="AR43">
-        <v>1.49</v>
-      </c>
-      <c r="AS43">
-        <v>1.15</v>
-      </c>
-      <c r="AT43">
-        <v>2.64</v>
-      </c>
-      <c r="AU43">
-        <v>2</v>
-      </c>
-      <c r="AV43">
+      <c r="AY43">
+        <v>9</v>
+      </c>
+      <c r="AZ43">
+        <v>12</v>
+      </c>
+      <c r="BA43">
         <v>4</v>
       </c>
-      <c r="AW43">
-        <v>3</v>
-      </c>
-      <c r="AX43">
-        <v>2</v>
-      </c>
-      <c r="AY43">
-        <v>6</v>
-      </c>
-      <c r="AZ43">
-        <v>10</v>
-      </c>
-      <c r="BA43">
-        <v>3</v>
-      </c>
       <c r="BB43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC43">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD43">
-        <v>1.98</v>
+        <v>1.61</v>
       </c>
       <c r="BE43">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF43">
-        <v>1.98</v>
+        <v>2.6</v>
       </c>
       <c r="BG43">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="BH43">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
       <c r="BI43">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="BJ43">
-        <v>2.35</v>
+        <v>1.96</v>
       </c>
       <c r="BK43">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="BL43">
-        <v>1.86</v>
+        <v>1.58</v>
       </c>
       <c r="BM43">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="BN43">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="BO43">
-        <v>2.95</v>
+        <v>3.7</v>
       </c>
       <c r="BP43">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -10039,7 +10039,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7468396</v>
+        <v>7468397</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -10054,190 +10054,190 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44">
         <v>2</v>
       </c>
       <c r="O44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="Q44">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="R44">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S44">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="T44">
+        <v>1.5</v>
+      </c>
+      <c r="U44">
+        <v>2.5</v>
+      </c>
+      <c r="V44">
+        <v>3.4</v>
+      </c>
+      <c r="W44">
+        <v>1.3</v>
+      </c>
+      <c r="X44">
+        <v>10</v>
+      </c>
+      <c r="Y44">
+        <v>1.06</v>
+      </c>
+      <c r="Z44">
+        <v>3.2</v>
+      </c>
+      <c r="AA44">
+        <v>3.2</v>
+      </c>
+      <c r="AB44">
+        <v>2.33</v>
+      </c>
+      <c r="AC44">
+        <v>1.07</v>
+      </c>
+      <c r="AD44">
+        <v>9</v>
+      </c>
+      <c r="AE44">
         <v>1.4</v>
       </c>
-      <c r="U44">
-        <v>2.75</v>
-      </c>
-      <c r="V44">
-        <v>2.75</v>
-      </c>
-      <c r="W44">
+      <c r="AF44">
+        <v>3</v>
+      </c>
+      <c r="AG44">
+        <v>2.25</v>
+      </c>
+      <c r="AH44">
+        <v>1.64</v>
+      </c>
+      <c r="AI44">
+        <v>1.95</v>
+      </c>
+      <c r="AJ44">
+        <v>1.8</v>
+      </c>
+      <c r="AK44">
+        <v>1.62</v>
+      </c>
+      <c r="AL44">
+        <v>1.37</v>
+      </c>
+      <c r="AM44">
         <v>1.4</v>
       </c>
-      <c r="X44">
-        <v>8</v>
-      </c>
-      <c r="Y44">
-        <v>1.08</v>
-      </c>
-      <c r="Z44">
-        <v>2.07</v>
-      </c>
-      <c r="AA44">
-        <v>3.65</v>
-      </c>
-      <c r="AB44">
-        <v>3.4</v>
-      </c>
-      <c r="AC44">
-        <v>1.05</v>
-      </c>
-      <c r="AD44">
-        <v>12</v>
-      </c>
-      <c r="AE44">
-        <v>1.32</v>
-      </c>
-      <c r="AF44">
-        <v>3.4</v>
-      </c>
-      <c r="AG44">
-        <v>1.89</v>
-      </c>
-      <c r="AH44">
-        <v>1.91</v>
-      </c>
-      <c r="AI44">
-        <v>1.75</v>
-      </c>
-      <c r="AJ44">
-        <v>2</v>
-      </c>
-      <c r="AK44">
-        <v>1.29</v>
-      </c>
-      <c r="AL44">
-        <v>1.26</v>
-      </c>
-      <c r="AM44">
-        <v>1.7</v>
-      </c>
       <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>2</v>
+      </c>
+      <c r="AP44">
+        <v>0.57</v>
+      </c>
+      <c r="AQ44">
+        <v>0.75</v>
+      </c>
+      <c r="AR44">
+        <v>1.49</v>
+      </c>
+      <c r="AS44">
+        <v>1.15</v>
+      </c>
+      <c r="AT44">
+        <v>2.64</v>
+      </c>
+      <c r="AU44">
+        <v>2</v>
+      </c>
+      <c r="AV44">
+        <v>4</v>
+      </c>
+      <c r="AW44">
+        <v>3</v>
+      </c>
+      <c r="AX44">
+        <v>2</v>
+      </c>
+      <c r="AY44">
+        <v>6</v>
+      </c>
+      <c r="AZ44">
+        <v>10</v>
+      </c>
+      <c r="BA44">
+        <v>3</v>
+      </c>
+      <c r="BB44">
+        <v>6</v>
+      </c>
+      <c r="BC44">
+        <v>9</v>
+      </c>
+      <c r="BD44">
+        <v>1.98</v>
+      </c>
+      <c r="BE44">
+        <v>6.5</v>
+      </c>
+      <c r="BF44">
+        <v>1.98</v>
+      </c>
+      <c r="BG44">
+        <v>1.3</v>
+      </c>
+      <c r="BH44">
+        <v>3.15</v>
+      </c>
+      <c r="BI44">
         <v>1.5</v>
       </c>
-      <c r="AO44">
-        <v>1</v>
-      </c>
-      <c r="AP44">
-        <v>2</v>
-      </c>
-      <c r="AQ44">
-        <v>1</v>
-      </c>
-      <c r="AR44">
+      <c r="BJ44">
+        <v>2.35</v>
+      </c>
+      <c r="BK44">
+        <v>1.82</v>
+      </c>
+      <c r="BL44">
         <v>1.86</v>
       </c>
-      <c r="AS44">
-        <v>1.17</v>
-      </c>
-      <c r="AT44">
-        <v>3.03</v>
-      </c>
-      <c r="AU44">
-        <v>6</v>
-      </c>
-      <c r="AV44">
-        <v>2</v>
-      </c>
-      <c r="AW44">
-        <v>1</v>
-      </c>
-      <c r="AX44">
-        <v>9</v>
-      </c>
-      <c r="AY44">
-        <v>9</v>
-      </c>
-      <c r="AZ44">
-        <v>12</v>
-      </c>
-      <c r="BA44">
-        <v>4</v>
-      </c>
-      <c r="BB44">
-        <v>3</v>
-      </c>
-      <c r="BC44">
-        <v>7</v>
-      </c>
-      <c r="BD44">
-        <v>1.61</v>
-      </c>
-      <c r="BE44">
-        <v>6.4</v>
-      </c>
-      <c r="BF44">
-        <v>2.6</v>
-      </c>
-      <c r="BG44">
-        <v>1.44</v>
-      </c>
-      <c r="BH44">
-        <v>2.55</v>
-      </c>
-      <c r="BI44">
-        <v>1.74</v>
-      </c>
-      <c r="BJ44">
-        <v>1.96</v>
-      </c>
-      <c r="BK44">
-        <v>2.18</v>
-      </c>
-      <c r="BL44">
-        <v>1.58</v>
-      </c>
       <c r="BM44">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="BN44">
-        <v>1.36</v>
+        <v>1.54</v>
       </c>
       <c r="BO44">
-        <v>3.7</v>
+        <v>2.95</v>
       </c>
       <c r="BP44">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -11087,7 +11087,7 @@
         <v>83</v>
       </c>
       <c r="H49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -11893,7 +11893,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7468410</v>
+        <v>7468406</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -11908,190 +11908,190 @@
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N53">
         <v>4</v>
       </c>
       <c r="O53" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="Q53">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="R53">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S53">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="T53">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="U53">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V53">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W53">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y53">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z53">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA53">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB53">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="AC53">
         <v>1.02</v>
       </c>
       <c r="AD53">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="AE53">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AF53">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AG53">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AH53">
         <v>1.8</v>
       </c>
       <c r="AI53">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AJ53">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AK53">
-        <v>1.68</v>
+        <v>1.2</v>
       </c>
       <c r="AL53">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AM53">
-        <v>1.35</v>
+        <v>2.1</v>
       </c>
       <c r="AN53">
-        <v>0.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP53">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="AQ53">
-        <v>1.57</v>
+        <v>0.13</v>
       </c>
       <c r="AR53">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>1.23</v>
+        <v>0.88</v>
       </c>
       <c r="AT53">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="AU53">
+        <v>5</v>
+      </c>
+      <c r="AV53">
         <v>4</v>
-      </c>
-      <c r="AV53">
-        <v>11</v>
       </c>
       <c r="AW53">
         <v>6</v>
       </c>
       <c r="AX53">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AY53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ53">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="BA53">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB53">
         <v>4</v>
       </c>
       <c r="BC53">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD53">
-        <v>2.02</v>
+        <v>1.43</v>
       </c>
       <c r="BE53">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="BF53">
-        <v>1.98</v>
+        <v>3.15</v>
       </c>
       <c r="BG53">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="BH53">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="BI53">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="BJ53">
-        <v>2.08</v>
+        <v>2.48</v>
       </c>
       <c r="BK53">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="BL53">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="BM53">
-        <v>2.65</v>
+        <v>2.17</v>
       </c>
       <c r="BN53">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="BO53">
-        <v>3.45</v>
+        <v>2.8</v>
       </c>
       <c r="BP53">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="54" spans="1:68">
@@ -12099,7 +12099,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>7468406</v>
+        <v>7468410</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
@@ -12114,190 +12114,190 @@
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N54">
         <v>4</v>
       </c>
       <c r="O54" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="Q54">
+        <v>4</v>
+      </c>
+      <c r="R54">
+        <v>2.1</v>
+      </c>
+      <c r="S54">
+        <v>2.88</v>
+      </c>
+      <c r="T54">
+        <v>1.44</v>
+      </c>
+      <c r="U54">
+        <v>2.63</v>
+      </c>
+      <c r="V54">
+        <v>3.25</v>
+      </c>
+      <c r="W54">
+        <v>1.33</v>
+      </c>
+      <c r="X54">
+        <v>9</v>
+      </c>
+      <c r="Y54">
+        <v>1.07</v>
+      </c>
+      <c r="Z54">
+        <v>3.1</v>
+      </c>
+      <c r="AA54">
+        <v>3.3</v>
+      </c>
+      <c r="AB54">
         <v>2.3</v>
-      </c>
-      <c r="R54">
-        <v>2.2</v>
-      </c>
-      <c r="S54">
-        <v>5</v>
-      </c>
-      <c r="T54">
-        <v>1.36</v>
-      </c>
-      <c r="U54">
-        <v>3</v>
-      </c>
-      <c r="V54">
-        <v>2.75</v>
-      </c>
-      <c r="W54">
-        <v>1.4</v>
-      </c>
-      <c r="X54">
-        <v>8</v>
-      </c>
-      <c r="Y54">
-        <v>1.08</v>
-      </c>
-      <c r="Z54">
-        <v>2.05</v>
-      </c>
-      <c r="AA54">
-        <v>3.4</v>
-      </c>
-      <c r="AB54">
-        <v>3.6</v>
       </c>
       <c r="AC54">
         <v>1.02</v>
       </c>
       <c r="AD54">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="AE54">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AF54">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AG54">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AH54">
         <v>1.8</v>
       </c>
       <c r="AI54">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AJ54">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AK54">
-        <v>1.2</v>
+        <v>1.68</v>
       </c>
       <c r="AL54">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AM54">
-        <v>2.1</v>
+        <v>1.35</v>
       </c>
       <c r="AN54">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="AQ54">
-        <v>0.13</v>
+        <v>1.57</v>
       </c>
       <c r="AR54">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AS54">
-        <v>0.88</v>
+        <v>1.23</v>
       </c>
       <c r="AT54">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="AU54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV54">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AW54">
         <v>6</v>
       </c>
       <c r="AX54">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AY54">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ54">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="BA54">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BB54">
         <v>4</v>
       </c>
       <c r="BC54">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD54">
-        <v>1.43</v>
+        <v>2.02</v>
       </c>
       <c r="BE54">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="BF54">
-        <v>3.15</v>
+        <v>1.98</v>
       </c>
       <c r="BG54">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="BH54">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="BI54">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="BJ54">
-        <v>2.48</v>
+        <v>2.08</v>
       </c>
       <c r="BK54">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="BL54">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="BM54">
-        <v>2.17</v>
+        <v>2.65</v>
       </c>
       <c r="BN54">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="BO54">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="BP54">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="55" spans="1:68">
@@ -12320,7 +12320,7 @@
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s">
         <v>87</v>
@@ -13541,7 +13541,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7468419</v>
+        <v>7468415</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13553,193 +13553,193 @@
         <v>45571.5</v>
       </c>
       <c r="F61">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H61" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O61" t="s">
         <v>135</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>90</v>
       </c>
       <c r="Q61">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R61">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="S61">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="T61">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="U61">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="V61">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="W61">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X61">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y61">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="Z61">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AA61">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AB61">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="AC61">
         <v>1.04</v>
       </c>
       <c r="AD61">
+        <v>8.5</v>
+      </c>
+      <c r="AE61">
+        <v>1.32</v>
+      </c>
+      <c r="AF61">
+        <v>3.2</v>
+      </c>
+      <c r="AG61">
+        <v>2.02</v>
+      </c>
+      <c r="AH61">
+        <v>1.79</v>
+      </c>
+      <c r="AI61">
+        <v>1.95</v>
+      </c>
+      <c r="AJ61">
+        <v>1.8</v>
+      </c>
+      <c r="AK61">
+        <v>1.22</v>
+      </c>
+      <c r="AL61">
+        <v>1.26</v>
+      </c>
+      <c r="AM61">
+        <v>1.95</v>
+      </c>
+      <c r="AN61">
+        <v>2</v>
+      </c>
+      <c r="AO61">
+        <v>1</v>
+      </c>
+      <c r="AP61">
+        <v>2</v>
+      </c>
+      <c r="AQ61">
+        <v>0.86</v>
+      </c>
+      <c r="AR61">
+        <v>1.6</v>
+      </c>
+      <c r="AS61">
+        <v>1.1</v>
+      </c>
+      <c r="AT61">
+        <v>2.7</v>
+      </c>
+      <c r="AU61">
+        <v>4</v>
+      </c>
+      <c r="AV61">
+        <v>0</v>
+      </c>
+      <c r="AW61">
+        <v>2</v>
+      </c>
+      <c r="AX61">
         <v>10</v>
       </c>
-      <c r="AE61">
-        <v>1.16</v>
-      </c>
-      <c r="AF61">
-        <v>4.15</v>
-      </c>
-      <c r="AG61">
-        <v>1.68</v>
-      </c>
-      <c r="AH61">
-        <v>2.17</v>
-      </c>
-      <c r="AI61">
-        <v>1.62</v>
-      </c>
-      <c r="AJ61">
-        <v>2.2</v>
-      </c>
-      <c r="AK61">
-        <v>1.25</v>
-      </c>
-      <c r="AL61">
-        <v>1.22</v>
-      </c>
-      <c r="AM61">
-        <v>1.93</v>
-      </c>
-      <c r="AN61">
-        <v>1.33</v>
-      </c>
-      <c r="AO61">
-        <v>0</v>
-      </c>
-      <c r="AP61">
-        <v>1.13</v>
-      </c>
-      <c r="AQ61">
-        <v>0</v>
-      </c>
-      <c r="AR61">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AS61">
-        <v>1.04</v>
-      </c>
-      <c r="AT61">
-        <v>1.85</v>
-      </c>
-      <c r="AU61">
-        <v>6</v>
-      </c>
-      <c r="AV61">
-        <v>4</v>
-      </c>
-      <c r="AW61">
-        <v>8</v>
-      </c>
-      <c r="AX61">
-        <v>4</v>
-      </c>
       <c r="AY61">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AZ61">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB61">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BC61">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD61">
+        <v>1.54</v>
+      </c>
+      <c r="BE61">
+        <v>8.5</v>
+      </c>
+      <c r="BF61">
+        <v>3.12</v>
+      </c>
+      <c r="BG61">
+        <v>1.41</v>
+      </c>
+      <c r="BH61">
+        <v>2.64</v>
+      </c>
+      <c r="BI61">
+        <v>1.78</v>
+      </c>
+      <c r="BJ61">
+        <v>2.03</v>
+      </c>
+      <c r="BK61">
+        <v>2.24</v>
+      </c>
+      <c r="BL61">
         <v>1.64</v>
       </c>
-      <c r="BE61">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BF61">
-        <v>2.75</v>
-      </c>
-      <c r="BG61">
-        <v>1.23</v>
-      </c>
-      <c r="BH61">
-        <v>3.28</v>
-      </c>
-      <c r="BI61">
-        <v>1.52</v>
-      </c>
-      <c r="BJ61">
-        <v>2.48</v>
-      </c>
-      <c r="BK61">
-        <v>1.86</v>
-      </c>
-      <c r="BL61">
-        <v>1.94</v>
-      </c>
       <c r="BM61">
-        <v>2.32</v>
+        <v>2.97</v>
       </c>
       <c r="BN61">
-        <v>1.59</v>
+        <v>1.28</v>
       </c>
       <c r="BO61">
-        <v>3.08</v>
+        <v>4.2</v>
       </c>
       <c r="BP61">
-        <v>1.26</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13762,7 +13762,7 @@
         <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s">
         <v>83</v>
@@ -13789,7 +13789,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13953,7 +13953,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7468415</v>
+        <v>7468419</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13965,193 +13965,193 @@
         <v>45571.5</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H63" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O63" t="s">
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="Q63">
+        <v>2.38</v>
+      </c>
+      <c r="R63">
+        <v>2.38</v>
+      </c>
+      <c r="S63">
+        <v>4.33</v>
+      </c>
+      <c r="T63">
+        <v>1.3</v>
+      </c>
+      <c r="U63">
+        <v>3.4</v>
+      </c>
+      <c r="V63">
         <v>2.5</v>
       </c>
-      <c r="R63">
-        <v>2.1</v>
-      </c>
-      <c r="S63">
-        <v>4.75</v>
-      </c>
-      <c r="T63">
-        <v>1.44</v>
-      </c>
-      <c r="U63">
-        <v>2.63</v>
-      </c>
-      <c r="V63">
-        <v>3.25</v>
-      </c>
       <c r="W63">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="X63">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y63">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="Z63">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AA63">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AB63">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="AC63">
         <v>1.04</v>
       </c>
       <c r="AD63">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AE63">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="AF63">
-        <v>3.2</v>
+        <v>4.15</v>
       </c>
       <c r="AG63">
-        <v>2.02</v>
+        <v>1.68</v>
       </c>
       <c r="AH63">
-        <v>1.79</v>
+        <v>2.17</v>
       </c>
       <c r="AI63">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="AJ63">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AK63">
+        <v>1.25</v>
+      </c>
+      <c r="AL63">
         <v>1.22</v>
       </c>
-      <c r="AL63">
+      <c r="AM63">
+        <v>1.93</v>
+      </c>
+      <c r="AN63">
+        <v>1.33</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <v>1.13</v>
+      </c>
+      <c r="AQ63">
+        <v>0</v>
+      </c>
+      <c r="AR63">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS63">
+        <v>1.04</v>
+      </c>
+      <c r="AT63">
+        <v>1.85</v>
+      </c>
+      <c r="AU63">
+        <v>6</v>
+      </c>
+      <c r="AV63">
+        <v>4</v>
+      </c>
+      <c r="AW63">
+        <v>8</v>
+      </c>
+      <c r="AX63">
+        <v>4</v>
+      </c>
+      <c r="AY63">
+        <v>19</v>
+      </c>
+      <c r="AZ63">
+        <v>11</v>
+      </c>
+      <c r="BA63">
+        <v>4</v>
+      </c>
+      <c r="BB63">
+        <v>4</v>
+      </c>
+      <c r="BC63">
+        <v>8</v>
+      </c>
+      <c r="BD63">
+        <v>1.64</v>
+      </c>
+      <c r="BE63">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF63">
+        <v>2.75</v>
+      </c>
+      <c r="BG63">
+        <v>1.23</v>
+      </c>
+      <c r="BH63">
+        <v>3.28</v>
+      </c>
+      <c r="BI63">
+        <v>1.52</v>
+      </c>
+      <c r="BJ63">
+        <v>2.48</v>
+      </c>
+      <c r="BK63">
+        <v>1.86</v>
+      </c>
+      <c r="BL63">
+        <v>1.94</v>
+      </c>
+      <c r="BM63">
+        <v>2.32</v>
+      </c>
+      <c r="BN63">
+        <v>1.59</v>
+      </c>
+      <c r="BO63">
+        <v>3.08</v>
+      </c>
+      <c r="BP63">
         <v>1.26</v>
-      </c>
-      <c r="AM63">
-        <v>1.95</v>
-      </c>
-      <c r="AN63">
-        <v>2</v>
-      </c>
-      <c r="AO63">
-        <v>1</v>
-      </c>
-      <c r="AP63">
-        <v>2</v>
-      </c>
-      <c r="AQ63">
-        <v>0.86</v>
-      </c>
-      <c r="AR63">
-        <v>1.6</v>
-      </c>
-      <c r="AS63">
-        <v>1.1</v>
-      </c>
-      <c r="AT63">
-        <v>2.7</v>
-      </c>
-      <c r="AU63">
-        <v>4</v>
-      </c>
-      <c r="AV63">
-        <v>0</v>
-      </c>
-      <c r="AW63">
-        <v>2</v>
-      </c>
-      <c r="AX63">
-        <v>10</v>
-      </c>
-      <c r="AY63">
-        <v>9</v>
-      </c>
-      <c r="AZ63">
-        <v>15</v>
-      </c>
-      <c r="BA63">
-        <v>1</v>
-      </c>
-      <c r="BB63">
-        <v>9</v>
-      </c>
-      <c r="BC63">
-        <v>10</v>
-      </c>
-      <c r="BD63">
-        <v>1.54</v>
-      </c>
-      <c r="BE63">
-        <v>8.5</v>
-      </c>
-      <c r="BF63">
-        <v>3.12</v>
-      </c>
-      <c r="BG63">
-        <v>1.41</v>
-      </c>
-      <c r="BH63">
-        <v>2.64</v>
-      </c>
-      <c r="BI63">
-        <v>1.78</v>
-      </c>
-      <c r="BJ63">
-        <v>2.03</v>
-      </c>
-      <c r="BK63">
-        <v>2.24</v>
-      </c>
-      <c r="BL63">
-        <v>1.64</v>
-      </c>
-      <c r="BM63">
-        <v>2.97</v>
-      </c>
-      <c r="BN63">
-        <v>1.28</v>
-      </c>
-      <c r="BO63">
-        <v>4.2</v>
-      </c>
-      <c r="BP63">
-        <v>1.14</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -14174,7 +14174,7 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s">
         <v>79</v>
@@ -15001,7 +15001,7 @@
         <v>79</v>
       </c>
       <c r="H68" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -15395,7 +15395,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7468420</v>
+        <v>7468421</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15410,28 +15410,28 @@
         <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H70" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="L70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M70">
         <v>1</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O70" t="s">
         <v>141</v>
@@ -15440,160 +15440,160 @@
         <v>225</v>
       </c>
       <c r="Q70">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="R70">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S70">
+        <v>6.5</v>
+      </c>
+      <c r="T70">
+        <v>1.4</v>
+      </c>
+      <c r="U70">
+        <v>2.75</v>
+      </c>
+      <c r="V70">
+        <v>3</v>
+      </c>
+      <c r="W70">
+        <v>1.36</v>
+      </c>
+      <c r="X70">
+        <v>8</v>
+      </c>
+      <c r="Y70">
+        <v>1.08</v>
+      </c>
+      <c r="Z70">
+        <v>1.5</v>
+      </c>
+      <c r="AA70">
+        <v>4.2</v>
+      </c>
+      <c r="AB70">
+        <v>6.5</v>
+      </c>
+      <c r="AC70">
+        <v>1.06</v>
+      </c>
+      <c r="AD70">
+        <v>10</v>
+      </c>
+      <c r="AE70">
+        <v>1.35</v>
+      </c>
+      <c r="AF70">
+        <v>3.25</v>
+      </c>
+      <c r="AG70">
+        <v>1.85</v>
+      </c>
+      <c r="AH70">
+        <v>1.85</v>
+      </c>
+      <c r="AI70">
+        <v>2.05</v>
+      </c>
+      <c r="AJ70">
+        <v>1.7</v>
+      </c>
+      <c r="AK70">
+        <v>1.13</v>
+      </c>
+      <c r="AL70">
+        <v>1.22</v>
+      </c>
+      <c r="AM70">
+        <v>2.4</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
+        <v>0.67</v>
+      </c>
+      <c r="AP70">
+        <v>1.75</v>
+      </c>
+      <c r="AQ70">
+        <v>1.13</v>
+      </c>
+      <c r="AR70">
+        <v>1.25</v>
+      </c>
+      <c r="AS70">
+        <v>0.93</v>
+      </c>
+      <c r="AT70">
+        <v>2.18</v>
+      </c>
+      <c r="AU70">
+        <v>6</v>
+      </c>
+      <c r="AV70">
+        <v>3</v>
+      </c>
+      <c r="AW70">
+        <v>6</v>
+      </c>
+      <c r="AX70">
+        <v>1</v>
+      </c>
+      <c r="AY70">
+        <v>12</v>
+      </c>
+      <c r="AZ70">
+        <v>4</v>
+      </c>
+      <c r="BA70">
+        <v>8</v>
+      </c>
+      <c r="BB70">
+        <v>2</v>
+      </c>
+      <c r="BC70">
+        <v>10</v>
+      </c>
+      <c r="BD70">
+        <v>1.32</v>
+      </c>
+      <c r="BE70">
+        <v>8</v>
+      </c>
+      <c r="BF70">
+        <v>4.5</v>
+      </c>
+      <c r="BG70">
+        <v>1.32</v>
+      </c>
+      <c r="BH70">
         <v>3.2</v>
       </c>
-      <c r="T70">
-        <v>1.33</v>
-      </c>
-      <c r="U70">
-        <v>3.25</v>
-      </c>
-      <c r="V70">
-        <v>2.63</v>
-      </c>
-      <c r="W70">
-        <v>1.44</v>
-      </c>
-      <c r="X70">
-        <v>6.5</v>
-      </c>
-      <c r="Y70">
-        <v>1.11</v>
-      </c>
-      <c r="Z70">
-        <v>2.2</v>
-      </c>
-      <c r="AA70">
-        <v>3.5</v>
-      </c>
-      <c r="AB70">
-        <v>3</v>
-      </c>
-      <c r="AC70">
-        <v>1.04</v>
-      </c>
-      <c r="AD70">
-        <v>13</v>
-      </c>
-      <c r="AE70">
-        <v>1.25</v>
-      </c>
-      <c r="AF70">
-        <v>4</v>
-      </c>
-      <c r="AG70">
-        <v>1.67</v>
-      </c>
-      <c r="AH70">
-        <v>2.05</v>
-      </c>
-      <c r="AI70">
-        <v>1.57</v>
-      </c>
-      <c r="AJ70">
-        <v>2.25</v>
-      </c>
-      <c r="AK70">
-        <v>1.5</v>
-      </c>
-      <c r="AL70">
-        <v>1.26</v>
-      </c>
-      <c r="AM70">
-        <v>1.53</v>
-      </c>
-      <c r="AN70">
-        <v>2</v>
-      </c>
-      <c r="AO70">
-        <v>2.33</v>
-      </c>
-      <c r="AP70">
-        <v>2.13</v>
-      </c>
-      <c r="AQ70">
-        <v>1.57</v>
-      </c>
-      <c r="AR70">
-        <v>1.54</v>
-      </c>
-      <c r="AS70">
-        <v>1.56</v>
-      </c>
-      <c r="AT70">
-        <v>3.1</v>
-      </c>
-      <c r="AU70">
-        <v>4</v>
-      </c>
-      <c r="AV70">
-        <v>3</v>
-      </c>
-      <c r="AW70">
-        <v>2</v>
-      </c>
-      <c r="AX70">
-        <v>2</v>
-      </c>
-      <c r="AY70">
-        <v>6</v>
-      </c>
-      <c r="AZ70">
-        <v>5</v>
-      </c>
-      <c r="BA70">
-        <v>5</v>
-      </c>
-      <c r="BB70">
-        <v>9</v>
-      </c>
-      <c r="BC70">
-        <v>14</v>
-      </c>
-      <c r="BD70">
+      <c r="BI70">
+        <v>1.55</v>
+      </c>
+      <c r="BJ70">
+        <v>2.35</v>
+      </c>
+      <c r="BK70">
+        <v>1.95</v>
+      </c>
+      <c r="BL70">
         <v>1.85</v>
       </c>
-      <c r="BE70">
-        <v>6.5</v>
-      </c>
-      <c r="BF70">
+      <c r="BM70">
         <v>2.45</v>
       </c>
-      <c r="BG70">
-        <v>1.33</v>
-      </c>
-      <c r="BH70">
-        <v>3.1</v>
-      </c>
-      <c r="BI70">
-        <v>1.6</v>
-      </c>
-      <c r="BJ70">
-        <v>2.25</v>
-      </c>
-      <c r="BK70">
-        <v>2</v>
-      </c>
-      <c r="BL70">
-        <v>1.8</v>
-      </c>
-      <c r="BM70">
-        <v>2.55</v>
-      </c>
       <c r="BN70">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="BO70">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BP70">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -15601,7 +15601,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7468421</v>
+        <v>7468423</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -15616,19 +15616,19 @@
         <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H71" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -15640,136 +15640,136 @@
         <v>2</v>
       </c>
       <c r="O71" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="P71" t="s">
         <v>226</v>
       </c>
       <c r="Q71">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="R71">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S71">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="T71">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U71">
+        <v>2.63</v>
+      </c>
+      <c r="V71">
+        <v>3.4</v>
+      </c>
+      <c r="W71">
+        <v>1.3</v>
+      </c>
+      <c r="X71">
+        <v>10</v>
+      </c>
+      <c r="Y71">
+        <v>1.06</v>
+      </c>
+      <c r="Z71">
         <v>2.75</v>
       </c>
-      <c r="V71">
-        <v>3</v>
-      </c>
-      <c r="W71">
-        <v>1.36</v>
-      </c>
-      <c r="X71">
-        <v>8</v>
-      </c>
-      <c r="Y71">
+      <c r="AA71">
+        <v>3.3</v>
+      </c>
+      <c r="AB71">
+        <v>2.5</v>
+      </c>
+      <c r="AC71">
         <v>1.08</v>
       </c>
-      <c r="Z71">
-        <v>1.5</v>
-      </c>
-      <c r="AA71">
-        <v>4.2</v>
-      </c>
-      <c r="AB71">
-        <v>6.5</v>
-      </c>
-      <c r="AC71">
-        <v>1.06</v>
-      </c>
       <c r="AD71">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AE71">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AF71">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="AG71">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="AH71">
-        <v>1.85</v>
+        <v>1.61</v>
       </c>
       <c r="AI71">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AJ71">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AK71">
-        <v>1.13</v>
+        <v>1.6</v>
       </c>
       <c r="AL71">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AM71">
-        <v>2.4</v>
+        <v>1.38</v>
       </c>
       <c r="AN71">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO71">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.75</v>
+        <v>1.14</v>
       </c>
       <c r="AQ71">
         <v>1.13</v>
       </c>
       <c r="AR71">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="AS71">
-        <v>0.93</v>
+        <v>1.22</v>
       </c>
       <c r="AT71">
-        <v>2.18</v>
+        <v>2.74</v>
       </c>
       <c r="AU71">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV71">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW71">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AX71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY71">
+        <v>9</v>
+      </c>
+      <c r="AZ71">
+        <v>13</v>
+      </c>
+      <c r="BA71">
+        <v>4</v>
+      </c>
+      <c r="BB71">
+        <v>8</v>
+      </c>
+      <c r="BC71">
         <v>12</v>
       </c>
-      <c r="AZ71">
-        <v>4</v>
-      </c>
-      <c r="BA71">
-        <v>8</v>
-      </c>
-      <c r="BB71">
-        <v>2</v>
-      </c>
-      <c r="BC71">
-        <v>10</v>
-      </c>
       <c r="BD71">
-        <v>1.32</v>
+        <v>2.45</v>
       </c>
       <c r="BE71">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="BF71">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="BG71">
         <v>1.32</v>
@@ -15784,10 +15784,10 @@
         <v>2.35</v>
       </c>
       <c r="BK71">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="BL71">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="BM71">
         <v>2.45</v>
@@ -15796,10 +15796,10 @@
         <v>1.52</v>
       </c>
       <c r="BO71">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BP71">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="72" spans="1:68">
@@ -15807,7 +15807,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7468423</v>
+        <v>7468420</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15822,190 +15822,190 @@
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H72" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M72">
         <v>1</v>
       </c>
       <c r="N72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O72" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="P72" t="s">
         <v>227</v>
       </c>
       <c r="Q72">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="R72">
+        <v>2.25</v>
+      </c>
+      <c r="S72">
+        <v>3.2</v>
+      </c>
+      <c r="T72">
+        <v>1.33</v>
+      </c>
+      <c r="U72">
+        <v>3.25</v>
+      </c>
+      <c r="V72">
+        <v>2.63</v>
+      </c>
+      <c r="W72">
+        <v>1.44</v>
+      </c>
+      <c r="X72">
+        <v>6.5</v>
+      </c>
+      <c r="Y72">
+        <v>1.11</v>
+      </c>
+      <c r="Z72">
+        <v>2.2</v>
+      </c>
+      <c r="AA72">
+        <v>3.5</v>
+      </c>
+      <c r="AB72">
+        <v>3</v>
+      </c>
+      <c r="AC72">
+        <v>1.04</v>
+      </c>
+      <c r="AD72">
+        <v>13</v>
+      </c>
+      <c r="AE72">
+        <v>1.25</v>
+      </c>
+      <c r="AF72">
+        <v>4</v>
+      </c>
+      <c r="AG72">
+        <v>1.67</v>
+      </c>
+      <c r="AH72">
         <v>2.05</v>
       </c>
-      <c r="S72">
-        <v>3.25</v>
-      </c>
-      <c r="T72">
-        <v>1.44</v>
-      </c>
-      <c r="U72">
-        <v>2.63</v>
-      </c>
-      <c r="V72">
-        <v>3.4</v>
-      </c>
-      <c r="W72">
-        <v>1.3</v>
-      </c>
-      <c r="X72">
-        <v>10</v>
-      </c>
-      <c r="Y72">
-        <v>1.06</v>
-      </c>
-      <c r="Z72">
-        <v>2.75</v>
-      </c>
-      <c r="AA72">
-        <v>3.3</v>
-      </c>
-      <c r="AB72">
-        <v>2.5</v>
-      </c>
-      <c r="AC72">
-        <v>1.08</v>
-      </c>
-      <c r="AD72">
-        <v>8.5</v>
-      </c>
-      <c r="AE72">
-        <v>1.42</v>
-      </c>
-      <c r="AF72">
-        <v>2.9</v>
-      </c>
-      <c r="AG72">
-        <v>2.15</v>
-      </c>
-      <c r="AH72">
-        <v>1.61</v>
-      </c>
       <c r="AI72">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="AJ72">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AK72">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AL72">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AM72">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AN72">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO72">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP72">
-        <v>1.14</v>
+        <v>2.13</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.57</v>
       </c>
       <c r="AR72">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AS72">
-        <v>1.22</v>
+        <v>1.56</v>
       </c>
       <c r="AT72">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="AU72">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV72">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW72">
         <v>2</v>
       </c>
       <c r="AX72">
+        <v>2</v>
+      </c>
+      <c r="AY72">
+        <v>6</v>
+      </c>
+      <c r="AZ72">
         <v>5</v>
       </c>
-      <c r="AY72">
+      <c r="BA72">
+        <v>5</v>
+      </c>
+      <c r="BB72">
         <v>9</v>
       </c>
-      <c r="AZ72">
-        <v>13</v>
-      </c>
-      <c r="BA72">
-        <v>4</v>
-      </c>
-      <c r="BB72">
-        <v>8</v>
-      </c>
       <c r="BC72">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD72">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="BE72">
         <v>6.5</v>
       </c>
       <c r="BF72">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="BG72">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="BH72">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="BI72">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="BJ72">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="BK72">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="BL72">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="BM72">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="BN72">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="BO72">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="BP72">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="73" spans="1:68">
@@ -17470,7 +17470,7 @@
         <v>9</v>
       </c>
       <c r="G80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H80" t="s">
         <v>85</v>
@@ -17676,7 +17676,7 @@
         <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H81" t="s">
         <v>73</v>
@@ -18709,7 +18709,7 @@
         <v>71</v>
       </c>
       <c r="H86" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -18915,7 +18915,7 @@
         <v>82</v>
       </c>
       <c r="H87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -20148,7 +20148,7 @@
         <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H93" t="s">
         <v>73</v>
@@ -20766,7 +20766,7 @@
         <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H96" t="s">
         <v>81</v>
@@ -20957,7 +20957,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7468449</v>
+        <v>7468453</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20969,193 +20969,193 @@
         <v>45606.54166666666</v>
       </c>
       <c r="F97">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H97" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K97">
         <v>2</v>
       </c>
       <c r="L97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O97" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="P97" t="s">
         <v>244</v>
       </c>
       <c r="Q97">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="R97">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S97">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="T97">
+        <v>1.44</v>
+      </c>
+      <c r="U97">
+        <v>2.63</v>
+      </c>
+      <c r="V97">
+        <v>3</v>
+      </c>
+      <c r="W97">
+        <v>1.36</v>
+      </c>
+      <c r="X97">
+        <v>9</v>
+      </c>
+      <c r="Y97">
+        <v>1.07</v>
+      </c>
+      <c r="Z97">
+        <v>2.13</v>
+      </c>
+      <c r="AA97">
+        <v>3.4</v>
+      </c>
+      <c r="AB97">
+        <v>3.32</v>
+      </c>
+      <c r="AC97">
+        <v>1.06</v>
+      </c>
+      <c r="AD97">
+        <v>10</v>
+      </c>
+      <c r="AE97">
         <v>1.33</v>
       </c>
-      <c r="U97">
-        <v>3.25</v>
-      </c>
-      <c r="V97">
-        <v>2.63</v>
-      </c>
-      <c r="W97">
-        <v>1.44</v>
-      </c>
-      <c r="X97">
-        <v>7</v>
-      </c>
-      <c r="Y97">
-        <v>1.1</v>
-      </c>
-      <c r="Z97">
-        <v>3.23</v>
-      </c>
-      <c r="AA97">
-        <v>3.5</v>
-      </c>
-      <c r="AB97">
-        <v>2.13</v>
-      </c>
-      <c r="AC97">
-        <v>1.04</v>
-      </c>
-      <c r="AD97">
-        <v>13</v>
-      </c>
-      <c r="AE97">
-        <v>1.26</v>
-      </c>
       <c r="AF97">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="AG97">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="AH97">
-        <v>2.03</v>
+        <v>1.77</v>
       </c>
       <c r="AI97">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AJ97">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AK97">
-        <v>1.65</v>
+        <v>1.32</v>
       </c>
       <c r="AL97">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AM97">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AN97">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AO97">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.13</v>
+        <v>2</v>
       </c>
       <c r="AQ97">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="AR97">
+        <v>1.67</v>
+      </c>
+      <c r="AS97">
         <v>1.3</v>
       </c>
-      <c r="AS97">
-        <v>1.07</v>
-      </c>
       <c r="AT97">
-        <v>2.37</v>
+        <v>2.97</v>
       </c>
       <c r="AU97">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV97">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX97">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AY97">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AZ97">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BA97">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB97">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC97">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD97">
-        <v>2.23</v>
+        <v>1.68</v>
       </c>
       <c r="BE97">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="BF97">
-        <v>1.81</v>
+        <v>2.43</v>
       </c>
       <c r="BG97">
         <v>1.38</v>
       </c>
       <c r="BH97">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="BI97">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="BJ97">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="BK97">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="BL97">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="BM97">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="BN97">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="BO97">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="BP97">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="98" spans="1:68">
@@ -21163,7 +21163,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7468450</v>
+        <v>7468449</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21178,190 +21178,190 @@
         <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <v>2</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O98" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="P98" t="s">
         <v>245</v>
       </c>
       <c r="Q98">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R98">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S98">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="T98">
+        <v>1.33</v>
+      </c>
+      <c r="U98">
+        <v>3.25</v>
+      </c>
+      <c r="V98">
+        <v>2.63</v>
+      </c>
+      <c r="W98">
         <v>1.44</v>
       </c>
-      <c r="U98">
-        <v>2.63</v>
-      </c>
-      <c r="V98">
-        <v>3</v>
-      </c>
-      <c r="W98">
-        <v>1.36</v>
-      </c>
       <c r="X98">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y98">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z98">
-        <v>3.17</v>
+        <v>3.23</v>
       </c>
       <c r="AA98">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AB98">
-        <v>2.24</v>
+        <v>2.13</v>
       </c>
       <c r="AC98">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AD98">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE98">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AF98">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="AG98">
-        <v>1.99</v>
+        <v>1.73</v>
       </c>
       <c r="AH98">
-        <v>1.76</v>
+        <v>2.03</v>
       </c>
       <c r="AI98">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AJ98">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AK98">
         <v>1.65</v>
       </c>
       <c r="AL98">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AM98">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AN98">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AO98">
-        <v>1.4</v>
+        <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>0.75</v>
+        <v>1.13</v>
       </c>
       <c r="AQ98">
-        <v>1.57</v>
+        <v>0.43</v>
       </c>
       <c r="AR98">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AS98">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="AT98">
-        <v>2.51</v>
+        <v>2.37</v>
       </c>
       <c r="AU98">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV98">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX98">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AY98">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ98">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA98">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BB98">
         <v>7</v>
       </c>
       <c r="BC98">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BD98">
+        <v>2.23</v>
+      </c>
+      <c r="BE98">
+        <v>6.25</v>
+      </c>
+      <c r="BF98">
+        <v>1.81</v>
+      </c>
+      <c r="BG98">
+        <v>1.38</v>
+      </c>
+      <c r="BH98">
+        <v>2.7</v>
+      </c>
+      <c r="BI98">
+        <v>1.66</v>
+      </c>
+      <c r="BJ98">
+        <v>2.06</v>
+      </c>
+      <c r="BK98">
         <v>2.08</v>
       </c>
-      <c r="BE98">
-        <v>6.1</v>
-      </c>
-      <c r="BF98">
-        <v>1.94</v>
-      </c>
-      <c r="BG98">
-        <v>1.43</v>
-      </c>
-      <c r="BH98">
-        <v>2.6</v>
-      </c>
-      <c r="BI98">
-        <v>1.72</v>
-      </c>
-      <c r="BJ98">
-        <v>1.98</v>
-      </c>
-      <c r="BK98">
-        <v>2.15</v>
-      </c>
       <c r="BL98">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="BM98">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BN98">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="BO98">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="BP98">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -21369,7 +21369,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7468453</v>
+        <v>7468450</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21381,13 +21381,13 @@
         <v>45606.54166666666</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H99" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -21402,10 +21402,10 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O99" t="s">
         <v>90</v>
@@ -21414,13 +21414,13 @@
         <v>246</v>
       </c>
       <c r="Q99">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="R99">
         <v>2.1</v>
       </c>
       <c r="S99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T99">
         <v>1.44</v>
@@ -21441,13 +21441,13 @@
         <v>1.07</v>
       </c>
       <c r="Z99">
-        <v>2.13</v>
+        <v>3.17</v>
       </c>
       <c r="AA99">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB99">
-        <v>3.32</v>
+        <v>2.24</v>
       </c>
       <c r="AC99">
         <v>1.06</v>
@@ -21462,10 +21462,10 @@
         <v>3.3</v>
       </c>
       <c r="AG99">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="AH99">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="AI99">
         <v>1.8</v>
@@ -21474,100 +21474,100 @@
         <v>1.95</v>
       </c>
       <c r="AK99">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="AL99">
         <v>1.28</v>
       </c>
       <c r="AM99">
-        <v>1.75</v>
+        <v>1.36</v>
       </c>
       <c r="AN99">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AO99">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AR99">
-        <v>1.67</v>
+        <v>1.18</v>
       </c>
       <c r="AS99">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AT99">
-        <v>2.97</v>
+        <v>2.51</v>
       </c>
       <c r="AU99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV99">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX99">
         <v>6</v>
       </c>
       <c r="AY99">
+        <v>11</v>
+      </c>
+      <c r="AZ99">
+        <v>19</v>
+      </c>
+      <c r="BA99">
         <v>8</v>
       </c>
-      <c r="AZ99">
-        <v>10</v>
-      </c>
-      <c r="BA99">
-        <v>5</v>
-      </c>
       <c r="BB99">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC99">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BD99">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="BE99">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="BF99">
-        <v>2.43</v>
+        <v>1.94</v>
       </c>
       <c r="BG99">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="BH99">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="BI99">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="BJ99">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="BK99">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="BL99">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="BM99">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="BN99">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="BO99">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="BP99">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -23017,7 +23017,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>7468460</v>
+        <v>7468462</v>
       </c>
       <c r="C107" t="s">
         <v>68</v>
@@ -23032,190 +23032,190 @@
         <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H107" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O107" t="s">
+        <v>165</v>
+      </c>
+      <c r="P107" t="s">
         <v>90</v>
       </c>
-      <c r="P107" t="s">
-        <v>249</v>
-      </c>
       <c r="Q107">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="S107">
+        <v>4.33</v>
+      </c>
+      <c r="T107">
+        <v>1.36</v>
+      </c>
+      <c r="U107">
+        <v>3</v>
+      </c>
+      <c r="V107">
+        <v>2.63</v>
+      </c>
+      <c r="W107">
+        <v>1.44</v>
+      </c>
+      <c r="X107">
+        <v>7</v>
+      </c>
+      <c r="Y107">
+        <v>1.1</v>
+      </c>
+      <c r="Z107">
+        <v>1.95</v>
+      </c>
+      <c r="AA107">
+        <v>3.34</v>
+      </c>
+      <c r="AB107">
+        <v>3.47</v>
+      </c>
+      <c r="AC107">
+        <v>1.04</v>
+      </c>
+      <c r="AD107">
+        <v>13</v>
+      </c>
+      <c r="AE107">
+        <v>1.26</v>
+      </c>
+      <c r="AF107">
+        <v>4</v>
+      </c>
+      <c r="AG107">
+        <v>1.72</v>
+      </c>
+      <c r="AH107">
+        <v>2</v>
+      </c>
+      <c r="AI107">
+        <v>1.7</v>
+      </c>
+      <c r="AJ107">
+        <v>2.05</v>
+      </c>
+      <c r="AK107">
+        <v>1.24</v>
+      </c>
+      <c r="AL107">
+        <v>1.24</v>
+      </c>
+      <c r="AM107">
+        <v>1.98</v>
+      </c>
+      <c r="AN107">
+        <v>2.4</v>
+      </c>
+      <c r="AO107">
+        <v>1.2</v>
+      </c>
+      <c r="AP107">
+        <v>2.13</v>
+      </c>
+      <c r="AQ107">
+        <v>1.13</v>
+      </c>
+      <c r="AR107">
+        <v>1.49</v>
+      </c>
+      <c r="AS107">
+        <v>0.89</v>
+      </c>
+      <c r="AT107">
+        <v>2.38</v>
+      </c>
+      <c r="AU107">
+        <v>7</v>
+      </c>
+      <c r="AV107">
+        <v>6</v>
+      </c>
+      <c r="AW107">
+        <v>4</v>
+      </c>
+      <c r="AX107">
         <v>5</v>
       </c>
-      <c r="T107">
-        <v>1.5</v>
-      </c>
-      <c r="U107">
-        <v>2.5</v>
-      </c>
-      <c r="V107">
-        <v>3.5</v>
-      </c>
-      <c r="W107">
-        <v>1.29</v>
-      </c>
-      <c r="X107">
+      <c r="AY107">
         <v>11</v>
       </c>
-      <c r="Y107">
-        <v>1.05</v>
-      </c>
-      <c r="Z107">
-        <v>1.87</v>
-      </c>
-      <c r="AA107">
-        <v>3.2</v>
-      </c>
-      <c r="AB107">
-        <v>3.95</v>
-      </c>
-      <c r="AC107">
-        <v>1.09</v>
-      </c>
-      <c r="AD107">
-        <v>8</v>
-      </c>
-      <c r="AE107">
-        <v>1.44</v>
-      </c>
-      <c r="AF107">
-        <v>2.8</v>
-      </c>
-      <c r="AG107">
-        <v>2</v>
-      </c>
-      <c r="AH107">
-        <v>1.73</v>
-      </c>
-      <c r="AI107">
-        <v>2.05</v>
-      </c>
-      <c r="AJ107">
-        <v>1.7</v>
-      </c>
-      <c r="AK107">
-        <v>1.2</v>
-      </c>
-      <c r="AL107">
+      <c r="AZ107">
+        <v>11</v>
+      </c>
+      <c r="BA107">
+        <v>2</v>
+      </c>
+      <c r="BB107">
+        <v>2</v>
+      </c>
+      <c r="BC107">
+        <v>4</v>
+      </c>
+      <c r="BD107">
+        <v>1.56</v>
+      </c>
+      <c r="BE107">
+        <v>6.5</v>
+      </c>
+      <c r="BF107">
+        <v>2.65</v>
+      </c>
+      <c r="BG107">
+        <v>1.34</v>
+      </c>
+      <c r="BH107">
+        <v>2.9</v>
+      </c>
+      <c r="BI107">
+        <v>1.58</v>
+      </c>
+      <c r="BJ107">
+        <v>2.18</v>
+      </c>
+      <c r="BK107">
+        <v>1.95</v>
+      </c>
+      <c r="BL107">
+        <v>1.74</v>
+      </c>
+      <c r="BM107">
+        <v>2.48</v>
+      </c>
+      <c r="BN107">
+        <v>1.46</v>
+      </c>
+      <c r="BO107">
+        <v>3.3</v>
+      </c>
+      <c r="BP107">
         <v>1.28</v>
-      </c>
-      <c r="AM107">
-        <v>1.96</v>
-      </c>
-      <c r="AN107">
-        <v>1</v>
-      </c>
-      <c r="AO107">
-        <v>0.6</v>
-      </c>
-      <c r="AP107">
-        <v>1.14</v>
-      </c>
-      <c r="AQ107">
-        <v>0.86</v>
-      </c>
-      <c r="AR107">
-        <v>1.38</v>
-      </c>
-      <c r="AS107">
-        <v>0.97</v>
-      </c>
-      <c r="AT107">
-        <v>2.35</v>
-      </c>
-      <c r="AU107">
-        <v>5</v>
-      </c>
-      <c r="AV107">
-        <v>4</v>
-      </c>
-      <c r="AW107">
-        <v>14</v>
-      </c>
-      <c r="AX107">
-        <v>3</v>
-      </c>
-      <c r="AY107">
-        <v>19</v>
-      </c>
-      <c r="AZ107">
-        <v>7</v>
-      </c>
-      <c r="BA107">
-        <v>10</v>
-      </c>
-      <c r="BB107">
-        <v>2</v>
-      </c>
-      <c r="BC107">
-        <v>12</v>
-      </c>
-      <c r="BD107">
-        <v>1.5</v>
-      </c>
-      <c r="BE107">
-        <v>6.75</v>
-      </c>
-      <c r="BF107">
-        <v>2.9</v>
-      </c>
-      <c r="BG107">
-        <v>1.3</v>
-      </c>
-      <c r="BH107">
-        <v>3.1</v>
-      </c>
-      <c r="BI107">
-        <v>1.52</v>
-      </c>
-      <c r="BJ107">
-        <v>2.32</v>
-      </c>
-      <c r="BK107">
-        <v>1.86</v>
-      </c>
-      <c r="BL107">
-        <v>1.82</v>
-      </c>
-      <c r="BM107">
-        <v>2.33</v>
-      </c>
-      <c r="BN107">
-        <v>1.5</v>
-      </c>
-      <c r="BO107">
-        <v>3.05</v>
-      </c>
-      <c r="BP107">
-        <v>1.32</v>
       </c>
     </row>
     <row r="108" spans="1:68">
@@ -23223,7 +23223,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7468462</v>
+        <v>7468460</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -23238,190 +23238,190 @@
         <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H108" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O108" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>90</v>
+        <v>249</v>
       </c>
       <c r="Q108">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R108">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="T108">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="U108">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V108">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="W108">
+        <v>1.29</v>
+      </c>
+      <c r="X108">
+        <v>11</v>
+      </c>
+      <c r="Y108">
+        <v>1.05</v>
+      </c>
+      <c r="Z108">
+        <v>1.87</v>
+      </c>
+      <c r="AA108">
+        <v>3.2</v>
+      </c>
+      <c r="AB108">
+        <v>3.95</v>
+      </c>
+      <c r="AC108">
+        <v>1.09</v>
+      </c>
+      <c r="AD108">
+        <v>8</v>
+      </c>
+      <c r="AE108">
         <v>1.44</v>
       </c>
-      <c r="X108">
+      <c r="AF108">
+        <v>2.8</v>
+      </c>
+      <c r="AG108">
+        <v>2</v>
+      </c>
+      <c r="AH108">
+        <v>1.73</v>
+      </c>
+      <c r="AI108">
+        <v>2.05</v>
+      </c>
+      <c r="AJ108">
+        <v>1.7</v>
+      </c>
+      <c r="AK108">
+        <v>1.2</v>
+      </c>
+      <c r="AL108">
+        <v>1.28</v>
+      </c>
+      <c r="AM108">
+        <v>1.96</v>
+      </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
+        <v>0.6</v>
+      </c>
+      <c r="AP108">
+        <v>1.14</v>
+      </c>
+      <c r="AQ108">
+        <v>0.86</v>
+      </c>
+      <c r="AR108">
+        <v>1.38</v>
+      </c>
+      <c r="AS108">
+        <v>0.97</v>
+      </c>
+      <c r="AT108">
+        <v>2.35</v>
+      </c>
+      <c r="AU108">
+        <v>5</v>
+      </c>
+      <c r="AV108">
+        <v>4</v>
+      </c>
+      <c r="AW108">
+        <v>14</v>
+      </c>
+      <c r="AX108">
+        <v>3</v>
+      </c>
+      <c r="AY108">
+        <v>19</v>
+      </c>
+      <c r="AZ108">
         <v>7</v>
       </c>
-      <c r="Y108">
-        <v>1.1</v>
-      </c>
-      <c r="Z108">
-        <v>1.95</v>
-      </c>
-      <c r="AA108">
-        <v>3.34</v>
-      </c>
-      <c r="AB108">
-        <v>3.47</v>
-      </c>
-      <c r="AC108">
-        <v>1.04</v>
-      </c>
-      <c r="AD108">
-        <v>13</v>
-      </c>
-      <c r="AE108">
-        <v>1.26</v>
-      </c>
-      <c r="AF108">
-        <v>4</v>
-      </c>
-      <c r="AG108">
-        <v>1.72</v>
-      </c>
-      <c r="AH108">
-        <v>2</v>
-      </c>
-      <c r="AI108">
-        <v>1.7</v>
-      </c>
-      <c r="AJ108">
-        <v>2.05</v>
-      </c>
-      <c r="AK108">
-        <v>1.24</v>
-      </c>
-      <c r="AL108">
-        <v>1.24</v>
-      </c>
-      <c r="AM108">
-        <v>1.98</v>
-      </c>
-      <c r="AN108">
-        <v>2.4</v>
-      </c>
-      <c r="AO108">
-        <v>1.2</v>
-      </c>
-      <c r="AP108">
-        <v>2.13</v>
-      </c>
-      <c r="AQ108">
-        <v>1.13</v>
-      </c>
-      <c r="AR108">
-        <v>1.49</v>
-      </c>
-      <c r="AS108">
-        <v>0.89</v>
-      </c>
-      <c r="AT108">
-        <v>2.38</v>
-      </c>
-      <c r="AU108">
-        <v>7</v>
-      </c>
-      <c r="AV108">
-        <v>6</v>
-      </c>
-      <c r="AW108">
-        <v>4</v>
-      </c>
-      <c r="AX108">
-        <v>5</v>
-      </c>
-      <c r="AY108">
-        <v>11</v>
-      </c>
-      <c r="AZ108">
-        <v>11</v>
-      </c>
       <c r="BA108">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BB108">
         <v>2</v>
       </c>
       <c r="BC108">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BD108">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="BE108">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF108">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="BG108">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BH108">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="BI108">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="BJ108">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="BK108">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="BL108">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="BM108">
-        <v>2.48</v>
+        <v>2.33</v>
       </c>
       <c r="BN108">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="BO108">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="BP108">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="109" spans="1:68">
@@ -23444,10 +23444,10 @@
         <v>12</v>
       </c>
       <c r="G109" t="s">
+        <v>86</v>
+      </c>
+      <c r="H109" t="s">
         <v>84</v>
-      </c>
-      <c r="H109" t="s">
-        <v>86</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -24065,7 +24065,7 @@
         <v>71</v>
       </c>
       <c r="H112" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I112">
         <v>2</v>
@@ -25095,7 +25095,7 @@
         <v>80</v>
       </c>
       <c r="H117" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I117">
         <v>3</v>
@@ -26122,7 +26122,7 @@
         <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H122" t="s">
         <v>70</v>
@@ -26740,7 +26740,7 @@
         <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H125" t="s">
         <v>72</v>
@@ -27385,7 +27385,7 @@
         <v>179</v>
       </c>
       <c r="P128" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -28185,7 +28185,7 @@
         <v>75</v>
       </c>
       <c r="H132" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -28373,7 +28373,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7468488</v>
+        <v>7468483</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28388,190 +28388,190 @@
         <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H133" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K133">
         <v>2</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N133">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O133" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="P133" t="s">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="Q133">
+        <v>3.5</v>
+      </c>
+      <c r="R133">
+        <v>2.1</v>
+      </c>
+      <c r="S133">
+        <v>3.1</v>
+      </c>
+      <c r="T133">
+        <v>1.4</v>
+      </c>
+      <c r="U133">
         <v>2.75</v>
       </c>
-      <c r="R133">
-        <v>2.05</v>
-      </c>
-      <c r="S133">
-        <v>4.33</v>
-      </c>
-      <c r="T133">
-        <v>1.5</v>
-      </c>
-      <c r="U133">
-        <v>2.5</v>
-      </c>
       <c r="V133">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="W133">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X133">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y133">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z133">
-        <v>2.01</v>
+        <v>2.6</v>
       </c>
       <c r="AA133">
         <v>3.1</v>
       </c>
       <c r="AB133">
-        <v>3.6</v>
+        <v>2.42</v>
       </c>
       <c r="AC133">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AD133">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AE133">
+        <v>1.33</v>
+      </c>
+      <c r="AF133">
+        <v>3.4</v>
+      </c>
+      <c r="AG133">
+        <v>2.02</v>
+      </c>
+      <c r="AH133">
+        <v>1.84</v>
+      </c>
+      <c r="AI133">
+        <v>1.75</v>
+      </c>
+      <c r="AJ133">
+        <v>2</v>
+      </c>
+      <c r="AK133">
+        <v>1.57</v>
+      </c>
+      <c r="AL133">
+        <v>1.3</v>
+      </c>
+      <c r="AM133">
         <v>1.42</v>
       </c>
-      <c r="AF133">
-        <v>2.9</v>
-      </c>
-      <c r="AG133">
-        <v>2.2</v>
-      </c>
-      <c r="AH133">
-        <v>1.59</v>
-      </c>
-      <c r="AI133">
-        <v>1.95</v>
-      </c>
-      <c r="AJ133">
-        <v>1.8</v>
-      </c>
-      <c r="AK133">
-        <v>1.28</v>
-      </c>
-      <c r="AL133">
-        <v>1.28</v>
-      </c>
-      <c r="AM133">
-        <v>1.8</v>
-      </c>
       <c r="AN133">
-        <v>1.86</v>
+        <v>0.86</v>
       </c>
       <c r="AO133">
-        <v>0.86</v>
+        <v>0.29</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AQ133">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="AR133">
-        <v>1.46</v>
+        <v>1.14</v>
       </c>
       <c r="AS133">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="AT133">
-        <v>2.57</v>
+        <v>2.49</v>
       </c>
       <c r="AU133">
+        <v>2</v>
+      </c>
+      <c r="AV133">
+        <v>6</v>
+      </c>
+      <c r="AW133">
         <v>9</v>
       </c>
-      <c r="AV133">
-        <v>8</v>
-      </c>
-      <c r="AW133">
-        <v>3</v>
-      </c>
       <c r="AX133">
         <v>3</v>
       </c>
       <c r="AY133">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ133">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BA133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB133">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC133">
         <v>5</v>
       </c>
       <c r="BD133">
-        <v>1.58</v>
+        <v>1.98</v>
       </c>
       <c r="BE133">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="BF133">
-        <v>2.65</v>
+        <v>2.05</v>
       </c>
       <c r="BG133">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="BH133">
-        <v>2.8</v>
+        <v>2.43</v>
       </c>
       <c r="BI133">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="BJ133">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="BK133">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="BL133">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="BM133">
-        <v>2.6</v>
+        <v>2.95</v>
       </c>
       <c r="BN133">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="BO133">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="BP133">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -28579,7 +28579,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7468483</v>
+        <v>7468488</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28594,190 +28594,190 @@
         <v>15</v>
       </c>
       <c r="G134" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H134" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K134">
         <v>2</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N134">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O134" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="P134" t="s">
-        <v>263</v>
+        <v>88</v>
       </c>
       <c r="Q134">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="R134">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S134">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="T134">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U134">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V134">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="W134">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X134">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y134">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z134">
-        <v>2.6</v>
+        <v>2.01</v>
       </c>
       <c r="AA134">
         <v>3.1</v>
       </c>
       <c r="AB134">
-        <v>2.42</v>
+        <v>3.6</v>
       </c>
       <c r="AC134">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AD134">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AE134">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AF134">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="AG134">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="AH134">
-        <v>1.84</v>
+        <v>1.59</v>
       </c>
       <c r="AI134">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AJ134">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK134">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="AL134">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM134">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="AN134">
+        <v>1.86</v>
+      </c>
+      <c r="AO134">
         <v>0.86</v>
       </c>
-      <c r="AO134">
-        <v>0.29</v>
-      </c>
       <c r="AP134">
+        <v>2</v>
+      </c>
+      <c r="AQ134">
         <v>0.75</v>
       </c>
-      <c r="AQ134">
-        <v>0.63</v>
-      </c>
       <c r="AR134">
-        <v>1.14</v>
+        <v>1.46</v>
       </c>
       <c r="AS134">
-        <v>1.35</v>
+        <v>1.11</v>
       </c>
       <c r="AT134">
-        <v>2.49</v>
+        <v>2.57</v>
       </c>
       <c r="AU134">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV134">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW134">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AX134">
         <v>3</v>
       </c>
       <c r="AY134">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ134">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BB134">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC134">
         <v>5</v>
       </c>
       <c r="BD134">
-        <v>1.98</v>
+        <v>1.58</v>
       </c>
       <c r="BE134">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="BF134">
-        <v>2.05</v>
+        <v>2.65</v>
       </c>
       <c r="BG134">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="BH134">
-        <v>2.43</v>
+        <v>2.8</v>
       </c>
       <c r="BI134">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="BJ134">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="BK134">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="BL134">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="BM134">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="BN134">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="BO134">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="BP134">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="135" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,15 @@
     <t>['53', '60']</t>
   </si>
   <si>
+    <t>['12', '34', '45+5']</t>
+  </si>
+  <si>
+    <t>['50', '57', '80']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -724,9 +733,6 @@
     <t>['7', '29', '40']</t>
   </si>
   <si>
-    <t>['90+1']</t>
-  </si>
-  <si>
     <t>['42']</t>
   </si>
   <si>
@@ -809,6 +815,12 @@
   </si>
   <si>
     <t>['24', '64', '83', '90+7']</t>
+  </si>
+  <si>
+    <t>['27', '49']</t>
+  </si>
+  <si>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP137"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,7 +1441,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1635,7 +1647,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1841,7 +1853,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2253,7 +2265,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2459,7 +2471,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2746,7 +2758,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3489,7 +3501,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -3567,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>1.86</v>
@@ -3773,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ13">
         <v>1.13</v>
@@ -3901,7 +3913,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -3979,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ14">
         <v>0.86</v>
@@ -4313,7 +4325,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4394,7 +4406,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ16">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4803,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4931,7 +4943,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5012,7 +5024,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ19">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5137,7 +5149,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5215,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>0.63</v>
@@ -5549,7 +5561,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -5630,7 +5642,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ22">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR22">
         <v>1.21</v>
@@ -5755,7 +5767,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -5961,7 +5973,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6167,7 +6179,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6579,7 +6591,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6660,7 +6672,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ27">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR27">
         <v>0.32</v>
@@ -6785,7 +6797,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -6863,7 +6875,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ28">
         <v>2.25</v>
@@ -7069,7 +7081,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ29">
         <v>1.63</v>
@@ -7403,7 +7415,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8021,7 +8033,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -8227,7 +8239,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8308,7 +8320,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ35">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR35">
         <v>1.39</v>
@@ -8923,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ38">
         <v>0.13</v>
@@ -9051,7 +9063,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9129,7 +9141,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ39">
         <v>0.63</v>
@@ -9257,7 +9269,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9463,7 +9475,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -10081,7 +10093,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q44">
         <v>3.75</v>
@@ -10162,7 +10174,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ44">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR44">
         <v>1.49</v>
@@ -10287,7 +10299,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10493,7 +10505,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -10571,7 +10583,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>2.63</v>
@@ -10905,7 +10917,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q48">
         <v>1.83</v>
@@ -10986,7 +10998,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ48">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR48">
         <v>2.56</v>
@@ -11317,7 +11329,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11523,7 +11535,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -11729,7 +11741,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -11935,7 +11947,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -12141,7 +12153,7 @@
         <v>106</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12222,7 +12234,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ54">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR54">
         <v>1.25</v>
@@ -12759,7 +12771,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12837,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ57">
         <v>0.57</v>
@@ -13043,7 +13055,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13171,7 +13183,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13455,10 +13467,10 @@
         <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR60">
         <v>1.79</v>
@@ -13789,7 +13801,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13995,7 +14007,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>2.38</v>
@@ -14201,7 +14213,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14279,7 +14291,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ64">
         <v>2.25</v>
@@ -14613,7 +14625,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14694,7 +14706,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR66">
         <v>1.43</v>
@@ -14819,7 +14831,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -14897,7 +14909,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ67">
         <v>1.63</v>
@@ -15025,7 +15037,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15231,7 +15243,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15437,7 +15449,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q70">
         <v>2.1</v>
@@ -15643,7 +15655,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15849,7 +15861,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -15930,7 +15942,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ72">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR72">
         <v>1.54</v>
@@ -16055,7 +16067,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16467,7 +16479,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16673,7 +16685,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16879,7 +16891,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17085,7 +17097,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17163,7 +17175,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
         <v>0.57</v>
@@ -17291,7 +17303,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17497,7 +17509,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q80">
         <v>2.63</v>
@@ -17578,7 +17590,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ80">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR80">
         <v>1.34</v>
@@ -17781,7 +17793,7 @@
         <v>3</v>
       </c>
       <c r="AP81">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ81">
         <v>1.86</v>
@@ -17909,7 +17921,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18321,7 +18333,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18399,7 +18411,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ84">
         <v>1.5</v>
@@ -18733,7 +18745,7 @@
         <v>90</v>
       </c>
       <c r="P86" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19017,7 +19029,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ87">
         <v>0.63</v>
@@ -19226,7 +19238,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ88">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -19432,7 +19444,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ89">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR89">
         <v>1.39</v>
@@ -19763,7 +19775,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -19969,7 +19981,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20175,7 +20187,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20381,7 +20393,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20462,7 +20474,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ94">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR94">
         <v>1.78</v>
@@ -20587,7 +20599,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -20793,7 +20805,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -20871,7 +20883,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ96">
         <v>1.63</v>
@@ -20999,7 +21011,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21205,7 +21217,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21411,7 +21423,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21492,7 +21504,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ99">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR99">
         <v>1.18</v>
@@ -21695,7 +21707,7 @@
         <v>0.2</v>
       </c>
       <c r="AP100">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
         <v>0.13</v>
@@ -21823,7 +21835,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22235,7 +22247,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22519,7 +22531,7 @@
         <v>0</v>
       </c>
       <c r="AP104">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ104">
         <v>0</v>
@@ -22931,10 +22943,10 @@
         <v>0.2</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ106">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR106">
         <v>1.43</v>
@@ -23265,7 +23277,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23471,7 +23483,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23549,7 +23561,7 @@
         <v>0.4</v>
       </c>
       <c r="AP109">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ109">
         <v>0.63</v>
@@ -23677,7 +23689,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24089,7 +24101,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24376,7 +24388,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ113">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR113">
         <v>2.24</v>
@@ -24501,7 +24513,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24707,7 +24719,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -25119,7 +25131,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25197,7 +25209,7 @@
         <v>1.33</v>
       </c>
       <c r="AP117">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>1.13</v>
@@ -25325,7 +25337,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -25609,7 +25621,7 @@
         <v>0.5</v>
       </c>
       <c r="AP119">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ119">
         <v>0.43</v>
@@ -26149,7 +26161,7 @@
         <v>176</v>
       </c>
       <c r="P122" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26227,7 +26239,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ122">
         <v>0.86</v>
@@ -26355,7 +26367,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26848,7 +26860,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ125">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR125">
         <v>1.21</v>
@@ -27054,7 +27066,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ126">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR126">
         <v>1.51</v>
@@ -27179,7 +27191,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -27257,7 +27269,7 @@
         <v>2.57</v>
       </c>
       <c r="AP127">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ127">
         <v>2.63</v>
@@ -27591,7 +27603,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27797,7 +27809,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q130">
         <v>4.33</v>
@@ -28209,7 +28221,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28415,7 +28427,7 @@
         <v>90</v>
       </c>
       <c r="P133" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28702,7 +28714,7 @@
         <v>2</v>
       </c>
       <c r="AQ134">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR134">
         <v>1.46</v>
@@ -29239,7 +29251,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29396,6 +29408,830 @@
       </c>
       <c r="BP137">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7468499</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45660.70833333334</v>
+      </c>
+      <c r="F138">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>86</v>
+      </c>
+      <c r="H138" t="s">
+        <v>78</v>
+      </c>
+      <c r="I138">
+        <v>3</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>4</v>
+      </c>
+      <c r="L138">
+        <v>3</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>5</v>
+      </c>
+      <c r="O138" t="s">
+        <v>186</v>
+      </c>
+      <c r="P138" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q138">
+        <v>2.88</v>
+      </c>
+      <c r="R138">
+        <v>2.2</v>
+      </c>
+      <c r="S138">
+        <v>3.75</v>
+      </c>
+      <c r="T138">
+        <v>1.4</v>
+      </c>
+      <c r="U138">
+        <v>2.75</v>
+      </c>
+      <c r="V138">
+        <v>3</v>
+      </c>
+      <c r="W138">
+        <v>1.36</v>
+      </c>
+      <c r="X138">
+        <v>8</v>
+      </c>
+      <c r="Y138">
+        <v>1.08</v>
+      </c>
+      <c r="Z138">
+        <v>2.15</v>
+      </c>
+      <c r="AA138">
+        <v>3.35</v>
+      </c>
+      <c r="AB138">
+        <v>3.32</v>
+      </c>
+      <c r="AC138">
+        <v>1.06</v>
+      </c>
+      <c r="AD138">
+        <v>8.75</v>
+      </c>
+      <c r="AE138">
+        <v>1.29</v>
+      </c>
+      <c r="AF138">
+        <v>3.73</v>
+      </c>
+      <c r="AG138">
+        <v>1.84</v>
+      </c>
+      <c r="AH138">
+        <v>1.9</v>
+      </c>
+      <c r="AI138">
+        <v>1.75</v>
+      </c>
+      <c r="AJ138">
+        <v>2</v>
+      </c>
+      <c r="AK138">
+        <v>1.32</v>
+      </c>
+      <c r="AL138">
+        <v>1.31</v>
+      </c>
+      <c r="AM138">
+        <v>1.66</v>
+      </c>
+      <c r="AN138">
+        <v>2.14</v>
+      </c>
+      <c r="AO138">
+        <v>0.14</v>
+      </c>
+      <c r="AP138">
+        <v>2.25</v>
+      </c>
+      <c r="AQ138">
+        <v>0.13</v>
+      </c>
+      <c r="AR138">
+        <v>1.63</v>
+      </c>
+      <c r="AS138">
+        <v>1.12</v>
+      </c>
+      <c r="AT138">
+        <v>2.75</v>
+      </c>
+      <c r="AU138">
+        <v>7</v>
+      </c>
+      <c r="AV138">
+        <v>6</v>
+      </c>
+      <c r="AW138">
+        <v>1</v>
+      </c>
+      <c r="AX138">
+        <v>3</v>
+      </c>
+      <c r="AY138">
+        <v>10</v>
+      </c>
+      <c r="AZ138">
+        <v>11</v>
+      </c>
+      <c r="BA138">
+        <v>3</v>
+      </c>
+      <c r="BB138">
+        <v>3</v>
+      </c>
+      <c r="BC138">
+        <v>6</v>
+      </c>
+      <c r="BD138">
+        <v>1.84</v>
+      </c>
+      <c r="BE138">
+        <v>6.25</v>
+      </c>
+      <c r="BF138">
+        <v>2.18</v>
+      </c>
+      <c r="BG138">
+        <v>1.43</v>
+      </c>
+      <c r="BH138">
+        <v>2.55</v>
+      </c>
+      <c r="BI138">
+        <v>1.72</v>
+      </c>
+      <c r="BJ138">
+        <v>1.98</v>
+      </c>
+      <c r="BK138">
+        <v>2.15</v>
+      </c>
+      <c r="BL138">
+        <v>1.61</v>
+      </c>
+      <c r="BM138">
+        <v>2.8</v>
+      </c>
+      <c r="BN138">
+        <v>1.37</v>
+      </c>
+      <c r="BO138">
+        <v>3.65</v>
+      </c>
+      <c r="BP138">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7468494</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45661.54166666666</v>
+      </c>
+      <c r="F139">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>82</v>
+      </c>
+      <c r="H139" t="s">
+        <v>72</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>4</v>
+      </c>
+      <c r="O139" t="s">
+        <v>187</v>
+      </c>
+      <c r="P139" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q139">
+        <v>4</v>
+      </c>
+      <c r="R139">
+        <v>2.2</v>
+      </c>
+      <c r="S139">
+        <v>2.75</v>
+      </c>
+      <c r="T139">
+        <v>1.4</v>
+      </c>
+      <c r="U139">
+        <v>2.75</v>
+      </c>
+      <c r="V139">
+        <v>3</v>
+      </c>
+      <c r="W139">
+        <v>1.36</v>
+      </c>
+      <c r="X139">
+        <v>8</v>
+      </c>
+      <c r="Y139">
+        <v>1.08</v>
+      </c>
+      <c r="Z139">
+        <v>3.4</v>
+      </c>
+      <c r="AA139">
+        <v>3.3</v>
+      </c>
+      <c r="AB139">
+        <v>2.15</v>
+      </c>
+      <c r="AC139">
+        <v>1.06</v>
+      </c>
+      <c r="AD139">
+        <v>11</v>
+      </c>
+      <c r="AE139">
+        <v>1.32</v>
+      </c>
+      <c r="AF139">
+        <v>3.4</v>
+      </c>
+      <c r="AG139">
+        <v>1.95</v>
+      </c>
+      <c r="AH139">
+        <v>1.83</v>
+      </c>
+      <c r="AI139">
+        <v>1.75</v>
+      </c>
+      <c r="AJ139">
+        <v>2</v>
+      </c>
+      <c r="AK139">
+        <v>1.68</v>
+      </c>
+      <c r="AL139">
+        <v>1.31</v>
+      </c>
+      <c r="AM139">
+        <v>1.3</v>
+      </c>
+      <c r="AN139">
+        <v>1.71</v>
+      </c>
+      <c r="AO139">
+        <v>1.57</v>
+      </c>
+      <c r="AP139">
+        <v>1.88</v>
+      </c>
+      <c r="AQ139">
+        <v>1.38</v>
+      </c>
+      <c r="AR139">
+        <v>1.2</v>
+      </c>
+      <c r="AS139">
+        <v>1.35</v>
+      </c>
+      <c r="AT139">
+        <v>2.55</v>
+      </c>
+      <c r="AU139">
+        <v>5</v>
+      </c>
+      <c r="AV139">
+        <v>2</v>
+      </c>
+      <c r="AW139">
+        <v>7</v>
+      </c>
+      <c r="AX139">
+        <v>6</v>
+      </c>
+      <c r="AY139">
+        <v>15</v>
+      </c>
+      <c r="AZ139">
+        <v>12</v>
+      </c>
+      <c r="BA139">
+        <v>6</v>
+      </c>
+      <c r="BB139">
+        <v>9</v>
+      </c>
+      <c r="BC139">
+        <v>15</v>
+      </c>
+      <c r="BD139">
+        <v>2.3</v>
+      </c>
+      <c r="BE139">
+        <v>6.5</v>
+      </c>
+      <c r="BF139">
+        <v>1.77</v>
+      </c>
+      <c r="BG139">
+        <v>1.3</v>
+      </c>
+      <c r="BH139">
+        <v>3.05</v>
+      </c>
+      <c r="BI139">
+        <v>1.54</v>
+      </c>
+      <c r="BJ139">
+        <v>2.28</v>
+      </c>
+      <c r="BK139">
+        <v>1.89</v>
+      </c>
+      <c r="BL139">
+        <v>1.8</v>
+      </c>
+      <c r="BM139">
+        <v>2.35</v>
+      </c>
+      <c r="BN139">
+        <v>1.5</v>
+      </c>
+      <c r="BO139">
+        <v>3.05</v>
+      </c>
+      <c r="BP139">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7468496</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45661.625</v>
+      </c>
+      <c r="F140">
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>81</v>
+      </c>
+      <c r="H140" t="s">
+        <v>85</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>129</v>
+      </c>
+      <c r="P140" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q140">
+        <v>2.2</v>
+      </c>
+      <c r="R140">
+        <v>2.2</v>
+      </c>
+      <c r="S140">
+        <v>6</v>
+      </c>
+      <c r="T140">
+        <v>1.4</v>
+      </c>
+      <c r="U140">
+        <v>2.75</v>
+      </c>
+      <c r="V140">
+        <v>3</v>
+      </c>
+      <c r="W140">
+        <v>1.36</v>
+      </c>
+      <c r="X140">
+        <v>8</v>
+      </c>
+      <c r="Y140">
+        <v>1.08</v>
+      </c>
+      <c r="Z140">
+        <v>1.5</v>
+      </c>
+      <c r="AA140">
+        <v>4.2</v>
+      </c>
+      <c r="AB140">
+        <v>6.5</v>
+      </c>
+      <c r="AC140">
+        <v>1.05</v>
+      </c>
+      <c r="AD140">
+        <v>11</v>
+      </c>
+      <c r="AE140">
+        <v>1.32</v>
+      </c>
+      <c r="AF140">
+        <v>3.4</v>
+      </c>
+      <c r="AG140">
+        <v>1.91</v>
+      </c>
+      <c r="AH140">
+        <v>1.85</v>
+      </c>
+      <c r="AI140">
+        <v>2.05</v>
+      </c>
+      <c r="AJ140">
+        <v>1.7</v>
+      </c>
+      <c r="AK140">
+        <v>1.12</v>
+      </c>
+      <c r="AL140">
+        <v>1.25</v>
+      </c>
+      <c r="AM140">
+        <v>2.37</v>
+      </c>
+      <c r="AN140">
+        <v>2</v>
+      </c>
+      <c r="AO140">
+        <v>0.75</v>
+      </c>
+      <c r="AP140">
+        <v>1.88</v>
+      </c>
+      <c r="AQ140">
+        <v>0.78</v>
+      </c>
+      <c r="AR140">
+        <v>1.36</v>
+      </c>
+      <c r="AS140">
+        <v>1.17</v>
+      </c>
+      <c r="AT140">
+        <v>2.53</v>
+      </c>
+      <c r="AU140">
+        <v>4</v>
+      </c>
+      <c r="AV140">
+        <v>3</v>
+      </c>
+      <c r="AW140">
+        <v>4</v>
+      </c>
+      <c r="AX140">
+        <v>3</v>
+      </c>
+      <c r="AY140">
+        <v>14</v>
+      </c>
+      <c r="AZ140">
+        <v>7</v>
+      </c>
+      <c r="BA140">
+        <v>2</v>
+      </c>
+      <c r="BB140">
+        <v>0</v>
+      </c>
+      <c r="BC140">
+        <v>2</v>
+      </c>
+      <c r="BD140">
+        <v>1.36</v>
+      </c>
+      <c r="BE140">
+        <v>7</v>
+      </c>
+      <c r="BF140">
+        <v>3.45</v>
+      </c>
+      <c r="BG140">
+        <v>1.33</v>
+      </c>
+      <c r="BH140">
+        <v>2.95</v>
+      </c>
+      <c r="BI140">
+        <v>1.56</v>
+      </c>
+      <c r="BJ140">
+        <v>2.23</v>
+      </c>
+      <c r="BK140">
+        <v>1.91</v>
+      </c>
+      <c r="BL140">
+        <v>1.77</v>
+      </c>
+      <c r="BM140">
+        <v>2.4</v>
+      </c>
+      <c r="BN140">
+        <v>1.49</v>
+      </c>
+      <c r="BO140">
+        <v>3.15</v>
+      </c>
+      <c r="BP140">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7468492</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45661.70833333334</v>
+      </c>
+      <c r="F141">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>80</v>
+      </c>
+      <c r="H141" t="s">
+        <v>75</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141" t="s">
+        <v>188</v>
+      </c>
+      <c r="P141" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q141">
+        <v>1.8</v>
+      </c>
+      <c r="R141">
+        <v>2.75</v>
+      </c>
+      <c r="S141">
+        <v>6.5</v>
+      </c>
+      <c r="T141">
+        <v>1.22</v>
+      </c>
+      <c r="U141">
+        <v>4</v>
+      </c>
+      <c r="V141">
+        <v>2</v>
+      </c>
+      <c r="W141">
+        <v>1.73</v>
+      </c>
+      <c r="X141">
+        <v>4.33</v>
+      </c>
+      <c r="Y141">
+        <v>1.2</v>
+      </c>
+      <c r="Z141">
+        <v>1.3</v>
+      </c>
+      <c r="AA141">
+        <v>5.75</v>
+      </c>
+      <c r="AB141">
+        <v>8.5</v>
+      </c>
+      <c r="AC141">
+        <v>1.01</v>
+      </c>
+      <c r="AD141">
+        <v>17</v>
+      </c>
+      <c r="AE141">
+        <v>1.12</v>
+      </c>
+      <c r="AF141">
+        <v>6.5</v>
+      </c>
+      <c r="AG141">
+        <v>1.36</v>
+      </c>
+      <c r="AH141">
+        <v>3.1</v>
+      </c>
+      <c r="AI141">
+        <v>1.62</v>
+      </c>
+      <c r="AJ141">
+        <v>2.2</v>
+      </c>
+      <c r="AK141">
+        <v>1.09</v>
+      </c>
+      <c r="AL141">
+        <v>1.16</v>
+      </c>
+      <c r="AM141">
+        <v>3</v>
+      </c>
+      <c r="AN141">
+        <v>1.86</v>
+      </c>
+      <c r="AO141">
+        <v>0</v>
+      </c>
+      <c r="AP141">
+        <v>2</v>
+      </c>
+      <c r="AQ141">
+        <v>0</v>
+      </c>
+      <c r="AR141">
+        <v>1.78</v>
+      </c>
+      <c r="AS141">
+        <v>1.12</v>
+      </c>
+      <c r="AT141">
+        <v>2.9</v>
+      </c>
+      <c r="AU141">
+        <v>4</v>
+      </c>
+      <c r="AV141">
+        <v>7</v>
+      </c>
+      <c r="AW141">
+        <v>7</v>
+      </c>
+      <c r="AX141">
+        <v>8</v>
+      </c>
+      <c r="AY141">
+        <v>14</v>
+      </c>
+      <c r="AZ141">
+        <v>17</v>
+      </c>
+      <c r="BA141">
+        <v>3</v>
+      </c>
+      <c r="BB141">
+        <v>5</v>
+      </c>
+      <c r="BC141">
+        <v>8</v>
+      </c>
+      <c r="BD141">
+        <v>1.28</v>
+      </c>
+      <c r="BE141">
+        <v>7.5</v>
+      </c>
+      <c r="BF141">
+        <v>4.1</v>
+      </c>
+      <c r="BG141">
+        <v>1.3</v>
+      </c>
+      <c r="BH141">
+        <v>3.15</v>
+      </c>
+      <c r="BI141">
+        <v>1.52</v>
+      </c>
+      <c r="BJ141">
+        <v>2.33</v>
+      </c>
+      <c r="BK141">
+        <v>1.84</v>
+      </c>
+      <c r="BL141">
+        <v>1.84</v>
+      </c>
+      <c r="BM141">
+        <v>2.32</v>
+      </c>
+      <c r="BN141">
+        <v>1.53</v>
+      </c>
+      <c r="BO141">
+        <v>2.95</v>
+      </c>
+      <c r="BP141">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -581,6 +581,15 @@
   </si>
   <si>
     <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['45+4', '59', '87']</t>
+  </si>
+  <si>
+    <t>['6', '90+5']</t>
+  </si>
+  <si>
+    <t>['25', '39', '43', '66', '75']</t>
   </si>
   <si>
     <t>['3', '84', '86', '90']</t>
@@ -1182,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1441,7 +1450,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1647,7 +1656,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1853,7 +1862,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2265,7 +2274,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2471,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2961,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ9">
         <v>1.63</v>
@@ -3501,7 +3510,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -3913,7 +3922,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -3994,7 +4003,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ14">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4197,10 +4206,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ15">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4325,7 +4334,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4403,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ16">
         <v>0.13</v>
@@ -4612,7 +4621,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ17">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4818,7 +4827,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4943,7 +4952,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5021,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
         <v>1.38</v>
@@ -5149,7 +5158,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5561,7 +5570,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -5767,7 +5776,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -5973,7 +5982,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6179,7 +6188,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6257,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ25">
         <v>1.13</v>
@@ -6466,7 +6475,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ26">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR26">
         <v>0.74</v>
@@ -6591,7 +6600,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6797,7 +6806,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7287,7 +7296,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
         <v>1.13</v>
@@ -7415,7 +7424,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7702,7 +7711,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ32">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR32">
         <v>2.81</v>
@@ -8033,7 +8042,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -8111,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ34">
         <v>1.13</v>
@@ -8239,7 +8248,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8526,7 +8535,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ36">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR36">
         <v>1.04</v>
@@ -8729,7 +8738,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37">
         <v>1.5</v>
@@ -9063,7 +9072,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9269,7 +9278,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9475,7 +9484,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9762,7 +9771,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ42">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR42">
         <v>1.39</v>
@@ -9968,7 +9977,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR43">
         <v>1.86</v>
@@ -10093,7 +10102,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q44">
         <v>3.75</v>
@@ -10171,7 +10180,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ44">
         <v>0.78</v>
@@ -10299,7 +10308,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10380,7 +10389,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ45">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR45">
         <v>1.4</v>
@@ -10505,7 +10514,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -10792,7 +10801,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ47">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR47">
         <v>1.61</v>
@@ -10917,7 +10926,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q48">
         <v>1.83</v>
@@ -11201,7 +11210,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ49">
         <v>1.13</v>
@@ -11329,7 +11338,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11535,7 +11544,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -11741,7 +11750,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -11947,7 +11956,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -12153,7 +12162,7 @@
         <v>106</v>
       </c>
       <c r="P54" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12231,7 +12240,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ54">
         <v>1.38</v>
@@ -12437,7 +12446,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ55">
         <v>2.63</v>
@@ -12643,7 +12652,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
         <v>1.13</v>
@@ -12771,7 +12780,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12852,7 +12861,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ57">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR57">
         <v>1.48</v>
@@ -13058,7 +13067,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR58">
         <v>1.61</v>
@@ -13183,7 +13192,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13676,7 +13685,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR61">
         <v>1.6</v>
@@ -13801,7 +13810,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13879,7 +13888,7 @@
         <v>1.67</v>
       </c>
       <c r="AP62">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ62">
         <v>1.63</v>
@@ -14007,7 +14016,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q63">
         <v>2.38</v>
@@ -14213,7 +14222,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14625,7 +14634,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14831,7 +14840,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -15037,7 +15046,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15243,7 +15252,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15449,7 +15458,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>2.1</v>
@@ -15655,7 +15664,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15861,7 +15870,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16067,7 +16076,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16354,7 +16363,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR74">
         <v>1.65</v>
@@ -16479,7 +16488,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16557,7 +16566,7 @@
         <v>0.25</v>
       </c>
       <c r="AP75">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ75">
         <v>0.13</v>
@@ -16685,7 +16694,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16766,7 +16775,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ76">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR76">
         <v>1.01</v>
@@ -16891,7 +16900,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16969,7 +16978,7 @@
         <v>1.75</v>
       </c>
       <c r="AP77">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ77">
         <v>1.63</v>
@@ -17097,7 +17106,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17178,7 +17187,7 @@
         <v>2</v>
       </c>
       <c r="AQ78">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR78">
         <v>1.8</v>
@@ -17303,7 +17312,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17384,7 +17393,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR79">
         <v>1.36</v>
@@ -17509,7 +17518,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q80">
         <v>2.63</v>
@@ -17587,7 +17596,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ80">
         <v>0.78</v>
@@ -17921,7 +17930,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -17999,7 +18008,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ82">
         <v>2.25</v>
@@ -18745,7 +18754,7 @@
         <v>90</v>
       </c>
       <c r="P86" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19775,7 +19784,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -19981,7 +19990,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20059,10 +20068,10 @@
         <v>0.2</v>
       </c>
       <c r="AP92">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ92">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR92">
         <v>1.38</v>
@@ -20187,7 +20196,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20265,7 +20274,7 @@
         <v>2.25</v>
       </c>
       <c r="AP93">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ93">
         <v>1.86</v>
@@ -20393,7 +20402,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20471,7 +20480,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ94">
         <v>0.78</v>
@@ -20599,7 +20608,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -20677,7 +20686,7 @@
         <v>2.2</v>
       </c>
       <c r="AP95">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ95">
         <v>2.25</v>
@@ -20805,7 +20814,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -21011,7 +21020,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21092,7 +21101,7 @@
         <v>2</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR97">
         <v>1.67</v>
@@ -21217,7 +21226,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21298,7 +21307,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ98">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR98">
         <v>1.3</v>
@@ -21423,7 +21432,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21835,7 +21844,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -21916,7 +21925,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ101">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR101">
         <v>1.51</v>
@@ -22122,7 +22131,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR102">
         <v>2.25</v>
@@ -22247,7 +22256,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22325,7 +22334,7 @@
         <v>2.5</v>
       </c>
       <c r="AP103">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ103">
         <v>2.63</v>
@@ -23277,7 +23286,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23358,7 +23367,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ108">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR108">
         <v>1.38</v>
@@ -23483,7 +23492,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23689,7 +23698,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24101,7 +24110,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24513,7 +24522,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24719,7 +24728,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -25006,7 +25015,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ116">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR116">
         <v>1.39</v>
@@ -25131,7 +25140,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25337,7 +25346,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -25415,7 +25424,7 @@
         <v>2.4</v>
       </c>
       <c r="AP118">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ118">
         <v>1.86</v>
@@ -25624,7 +25633,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ119">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR119">
         <v>1.36</v>
@@ -26036,7 +26045,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ121">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR121">
         <v>1.48</v>
@@ -26161,7 +26170,7 @@
         <v>176</v>
       </c>
       <c r="P122" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26242,7 +26251,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ122">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR122">
         <v>1.66</v>
@@ -26367,7 +26376,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26445,7 +26454,7 @@
         <v>1.5</v>
       </c>
       <c r="AP123">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ123">
         <v>1.5</v>
@@ -26651,7 +26660,7 @@
         <v>0</v>
       </c>
       <c r="AP124">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ124">
         <v>0</v>
@@ -26857,7 +26866,7 @@
         <v>1.67</v>
       </c>
       <c r="AP125">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ125">
         <v>1.38</v>
@@ -27191,7 +27200,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -27603,7 +27612,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27681,7 +27690,7 @@
         <v>1.71</v>
       </c>
       <c r="AP129">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ129">
         <v>1.63</v>
@@ -27809,7 +27818,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q130">
         <v>4.33</v>
@@ -28221,7 +28230,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28427,7 +28436,7 @@
         <v>90</v>
       </c>
       <c r="P133" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -29251,7 +29260,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29457,7 +29466,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q138">
         <v>2.88</v>
@@ -29663,7 +29672,7 @@
         <v>187</v>
       </c>
       <c r="P139" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -29869,7 +29878,7 @@
         <v>129</v>
       </c>
       <c r="P140" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q140">
         <v>2.2</v>
@@ -30232,6 +30241,830 @@
       </c>
       <c r="BP141">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7468493</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45662.45833333334</v>
+      </c>
+      <c r="F142">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>83</v>
+      </c>
+      <c r="H142" t="s">
+        <v>76</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142" t="s">
+        <v>90</v>
+      </c>
+      <c r="P142" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q142">
+        <v>2.6</v>
+      </c>
+      <c r="R142">
+        <v>2.1</v>
+      </c>
+      <c r="S142">
+        <v>4.33</v>
+      </c>
+      <c r="T142">
+        <v>1.4</v>
+      </c>
+      <c r="U142">
+        <v>2.75</v>
+      </c>
+      <c r="V142">
+        <v>3</v>
+      </c>
+      <c r="W142">
+        <v>1.36</v>
+      </c>
+      <c r="X142">
+        <v>8</v>
+      </c>
+      <c r="Y142">
+        <v>1.08</v>
+      </c>
+      <c r="Z142">
+        <v>1.95</v>
+      </c>
+      <c r="AA142">
+        <v>3.55</v>
+      </c>
+      <c r="AB142">
+        <v>4.1</v>
+      </c>
+      <c r="AC142">
+        <v>1.05</v>
+      </c>
+      <c r="AD142">
+        <v>11</v>
+      </c>
+      <c r="AE142">
+        <v>1.33</v>
+      </c>
+      <c r="AF142">
+        <v>3.4</v>
+      </c>
+      <c r="AG142">
+        <v>1.85</v>
+      </c>
+      <c r="AH142">
+        <v>1.85</v>
+      </c>
+      <c r="AI142">
+        <v>1.8</v>
+      </c>
+      <c r="AJ142">
+        <v>1.95</v>
+      </c>
+      <c r="AK142">
+        <v>1.23</v>
+      </c>
+      <c r="AL142">
+        <v>1.3</v>
+      </c>
+      <c r="AM142">
+        <v>1.85</v>
+      </c>
+      <c r="AN142">
+        <v>1.57</v>
+      </c>
+      <c r="AO142">
+        <v>1</v>
+      </c>
+      <c r="AP142">
+        <v>1.38</v>
+      </c>
+      <c r="AQ142">
+        <v>1.25</v>
+      </c>
+      <c r="AR142">
+        <v>1.73</v>
+      </c>
+      <c r="AS142">
+        <v>1.21</v>
+      </c>
+      <c r="AT142">
+        <v>2.94</v>
+      </c>
+      <c r="AU142">
+        <v>2</v>
+      </c>
+      <c r="AV142">
+        <v>5</v>
+      </c>
+      <c r="AW142">
+        <v>6</v>
+      </c>
+      <c r="AX142">
+        <v>1</v>
+      </c>
+      <c r="AY142">
+        <v>15</v>
+      </c>
+      <c r="AZ142">
+        <v>9</v>
+      </c>
+      <c r="BA142">
+        <v>7</v>
+      </c>
+      <c r="BB142">
+        <v>1</v>
+      </c>
+      <c r="BC142">
+        <v>8</v>
+      </c>
+      <c r="BD142">
+        <v>1.5</v>
+      </c>
+      <c r="BE142">
+        <v>6.75</v>
+      </c>
+      <c r="BF142">
+        <v>2.8</v>
+      </c>
+      <c r="BG142">
+        <v>1.36</v>
+      </c>
+      <c r="BH142">
+        <v>2.8</v>
+      </c>
+      <c r="BI142">
+        <v>1.64</v>
+      </c>
+      <c r="BJ142">
+        <v>2.1</v>
+      </c>
+      <c r="BK142">
+        <v>2.02</v>
+      </c>
+      <c r="BL142">
+        <v>1.68</v>
+      </c>
+      <c r="BM142">
+        <v>2.65</v>
+      </c>
+      <c r="BN142">
+        <v>1.41</v>
+      </c>
+      <c r="BO142">
+        <v>3.45</v>
+      </c>
+      <c r="BP142">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7468498</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45662.45833333334</v>
+      </c>
+      <c r="F143">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>84</v>
+      </c>
+      <c r="H143" t="s">
+        <v>74</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>4</v>
+      </c>
+      <c r="O143" t="s">
+        <v>189</v>
+      </c>
+      <c r="P143" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q143">
+        <v>2.5</v>
+      </c>
+      <c r="R143">
+        <v>2.3</v>
+      </c>
+      <c r="S143">
+        <v>4.33</v>
+      </c>
+      <c r="T143">
+        <v>1.33</v>
+      </c>
+      <c r="U143">
+        <v>3.25</v>
+      </c>
+      <c r="V143">
+        <v>2.5</v>
+      </c>
+      <c r="W143">
+        <v>1.5</v>
+      </c>
+      <c r="X143">
+        <v>6.5</v>
+      </c>
+      <c r="Y143">
+        <v>1.11</v>
+      </c>
+      <c r="Z143">
+        <v>1.85</v>
+      </c>
+      <c r="AA143">
+        <v>3.65</v>
+      </c>
+      <c r="AB143">
+        <v>4.2</v>
+      </c>
+      <c r="AC143">
+        <v>1.03</v>
+      </c>
+      <c r="AD143">
+        <v>15</v>
+      </c>
+      <c r="AE143">
+        <v>1.22</v>
+      </c>
+      <c r="AF143">
+        <v>4.33</v>
+      </c>
+      <c r="AG143">
+        <v>1.68</v>
+      </c>
+      <c r="AH143">
+        <v>2.05</v>
+      </c>
+      <c r="AI143">
+        <v>1.62</v>
+      </c>
+      <c r="AJ143">
+        <v>2.2</v>
+      </c>
+      <c r="AK143">
+        <v>1.25</v>
+      </c>
+      <c r="AL143">
+        <v>1.28</v>
+      </c>
+      <c r="AM143">
+        <v>1.85</v>
+      </c>
+      <c r="AN143">
+        <v>1.71</v>
+      </c>
+      <c r="AO143">
+        <v>0.57</v>
+      </c>
+      <c r="AP143">
+        <v>1.88</v>
+      </c>
+      <c r="AQ143">
+        <v>0.5</v>
+      </c>
+      <c r="AR143">
+        <v>1.2</v>
+      </c>
+      <c r="AS143">
+        <v>1.11</v>
+      </c>
+      <c r="AT143">
+        <v>2.31</v>
+      </c>
+      <c r="AU143">
+        <v>5</v>
+      </c>
+      <c r="AV143">
+        <v>8</v>
+      </c>
+      <c r="AW143">
+        <v>3</v>
+      </c>
+      <c r="AX143">
+        <v>6</v>
+      </c>
+      <c r="AY143">
+        <v>12</v>
+      </c>
+      <c r="AZ143">
+        <v>15</v>
+      </c>
+      <c r="BA143">
+        <v>4</v>
+      </c>
+      <c r="BB143">
+        <v>3</v>
+      </c>
+      <c r="BC143">
+        <v>7</v>
+      </c>
+      <c r="BD143">
+        <v>1.56</v>
+      </c>
+      <c r="BE143">
+        <v>6.4</v>
+      </c>
+      <c r="BF143">
+        <v>2.7</v>
+      </c>
+      <c r="BG143">
+        <v>1.38</v>
+      </c>
+      <c r="BH143">
+        <v>2.7</v>
+      </c>
+      <c r="BI143">
+        <v>1.65</v>
+      </c>
+      <c r="BJ143">
+        <v>2.08</v>
+      </c>
+      <c r="BK143">
+        <v>2.05</v>
+      </c>
+      <c r="BL143">
+        <v>1.67</v>
+      </c>
+      <c r="BM143">
+        <v>2.65</v>
+      </c>
+      <c r="BN143">
+        <v>1.41</v>
+      </c>
+      <c r="BO143">
+        <v>3.4</v>
+      </c>
+      <c r="BP143">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7468495</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45662.45833333334</v>
+      </c>
+      <c r="F144">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>77</v>
+      </c>
+      <c r="H144" t="s">
+        <v>71</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144" t="s">
+        <v>190</v>
+      </c>
+      <c r="P144" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q144">
+        <v>3.6</v>
+      </c>
+      <c r="R144">
+        <v>2.05</v>
+      </c>
+      <c r="S144">
+        <v>3.2</v>
+      </c>
+      <c r="T144">
+        <v>1.44</v>
+      </c>
+      <c r="U144">
+        <v>2.63</v>
+      </c>
+      <c r="V144">
+        <v>3.4</v>
+      </c>
+      <c r="W144">
+        <v>1.3</v>
+      </c>
+      <c r="X144">
+        <v>10</v>
+      </c>
+      <c r="Y144">
+        <v>1.06</v>
+      </c>
+      <c r="Z144">
+        <v>3.05</v>
+      </c>
+      <c r="AA144">
+        <v>3.25</v>
+      </c>
+      <c r="AB144">
+        <v>2.4</v>
+      </c>
+      <c r="AC144">
+        <v>1.07</v>
+      </c>
+      <c r="AD144">
+        <v>9</v>
+      </c>
+      <c r="AE144">
+        <v>1.38</v>
+      </c>
+      <c r="AF144">
+        <v>3.1</v>
+      </c>
+      <c r="AG144">
+        <v>2</v>
+      </c>
+      <c r="AH144">
+        <v>1.73</v>
+      </c>
+      <c r="AI144">
+        <v>1.91</v>
+      </c>
+      <c r="AJ144">
+        <v>1.91</v>
+      </c>
+      <c r="AK144">
+        <v>1.55</v>
+      </c>
+      <c r="AL144">
+        <v>1.33</v>
+      </c>
+      <c r="AM144">
+        <v>1.37</v>
+      </c>
+      <c r="AN144">
+        <v>0.57</v>
+      </c>
+      <c r="AO144">
+        <v>0.43</v>
+      </c>
+      <c r="AP144">
+        <v>0.88</v>
+      </c>
+      <c r="AQ144">
+        <v>0.38</v>
+      </c>
+      <c r="AR144">
+        <v>1.26</v>
+      </c>
+      <c r="AS144">
+        <v>1.3</v>
+      </c>
+      <c r="AT144">
+        <v>2.56</v>
+      </c>
+      <c r="AU144">
+        <v>3</v>
+      </c>
+      <c r="AV144">
+        <v>5</v>
+      </c>
+      <c r="AW144">
+        <v>4</v>
+      </c>
+      <c r="AX144">
+        <v>6</v>
+      </c>
+      <c r="AY144">
+        <v>8</v>
+      </c>
+      <c r="AZ144">
+        <v>13</v>
+      </c>
+      <c r="BA144">
+        <v>2</v>
+      </c>
+      <c r="BB144">
+        <v>4</v>
+      </c>
+      <c r="BC144">
+        <v>6</v>
+      </c>
+      <c r="BD144">
+        <v>2.2</v>
+      </c>
+      <c r="BE144">
+        <v>6.25</v>
+      </c>
+      <c r="BF144">
+        <v>1.83</v>
+      </c>
+      <c r="BG144">
+        <v>1.41</v>
+      </c>
+      <c r="BH144">
+        <v>2.65</v>
+      </c>
+      <c r="BI144">
+        <v>1.7</v>
+      </c>
+      <c r="BJ144">
+        <v>2.02</v>
+      </c>
+      <c r="BK144">
+        <v>2.1</v>
+      </c>
+      <c r="BL144">
+        <v>1.64</v>
+      </c>
+      <c r="BM144">
+        <v>2.7</v>
+      </c>
+      <c r="BN144">
+        <v>1.38</v>
+      </c>
+      <c r="BO144">
+        <v>3.65</v>
+      </c>
+      <c r="BP144">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7468497</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45662.69791666666</v>
+      </c>
+      <c r="F145">
+        <v>16</v>
+      </c>
+      <c r="G145" t="s">
+        <v>87</v>
+      </c>
+      <c r="H145" t="s">
+        <v>70</v>
+      </c>
+      <c r="I145">
+        <v>3</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>3</v>
+      </c>
+      <c r="L145">
+        <v>5</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>6</v>
+      </c>
+      <c r="O145" t="s">
+        <v>191</v>
+      </c>
+      <c r="P145" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q145">
+        <v>1.8</v>
+      </c>
+      <c r="R145">
+        <v>2.5</v>
+      </c>
+      <c r="S145">
+        <v>8.5</v>
+      </c>
+      <c r="T145">
+        <v>1.3</v>
+      </c>
+      <c r="U145">
+        <v>3.4</v>
+      </c>
+      <c r="V145">
+        <v>2.5</v>
+      </c>
+      <c r="W145">
+        <v>1.5</v>
+      </c>
+      <c r="X145">
+        <v>6</v>
+      </c>
+      <c r="Y145">
+        <v>1.13</v>
+      </c>
+      <c r="Z145">
+        <v>1.3</v>
+      </c>
+      <c r="AA145">
+        <v>5.5</v>
+      </c>
+      <c r="AB145">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="AC145">
+        <v>1.03</v>
+      </c>
+      <c r="AD145">
+        <v>15</v>
+      </c>
+      <c r="AE145">
+        <v>1.2</v>
+      </c>
+      <c r="AF145">
+        <v>4.5</v>
+      </c>
+      <c r="AG145">
+        <v>1.6</v>
+      </c>
+      <c r="AH145">
+        <v>2.25</v>
+      </c>
+      <c r="AI145">
+        <v>2.05</v>
+      </c>
+      <c r="AJ145">
+        <v>1.7</v>
+      </c>
+      <c r="AK145">
+        <v>1.06</v>
+      </c>
+      <c r="AL145">
+        <v>1.16</v>
+      </c>
+      <c r="AM145">
+        <v>3.25</v>
+      </c>
+      <c r="AN145">
+        <v>1.29</v>
+      </c>
+      <c r="AO145">
+        <v>0.86</v>
+      </c>
+      <c r="AP145">
+        <v>1.5</v>
+      </c>
+      <c r="AQ145">
+        <v>0.75</v>
+      </c>
+      <c r="AR145">
+        <v>1.34</v>
+      </c>
+      <c r="AS145">
+        <v>0.98</v>
+      </c>
+      <c r="AT145">
+        <v>2.32</v>
+      </c>
+      <c r="AU145">
+        <v>10</v>
+      </c>
+      <c r="AV145">
+        <v>2</v>
+      </c>
+      <c r="AW145">
+        <v>5</v>
+      </c>
+      <c r="AX145">
+        <v>2</v>
+      </c>
+      <c r="AY145">
+        <v>16</v>
+      </c>
+      <c r="AZ145">
+        <v>5</v>
+      </c>
+      <c r="BA145">
+        <v>4</v>
+      </c>
+      <c r="BB145">
+        <v>0</v>
+      </c>
+      <c r="BC145">
+        <v>4</v>
+      </c>
+      <c r="BD145">
+        <v>1.3</v>
+      </c>
+      <c r="BE145">
+        <v>7</v>
+      </c>
+      <c r="BF145">
+        <v>3.8</v>
+      </c>
+      <c r="BG145">
+        <v>1.41</v>
+      </c>
+      <c r="BH145">
+        <v>2.65</v>
+      </c>
+      <c r="BI145">
+        <v>1.67</v>
+      </c>
+      <c r="BJ145">
+        <v>2.05</v>
+      </c>
+      <c r="BK145">
+        <v>2.07</v>
+      </c>
+      <c r="BL145">
+        <v>1.65</v>
+      </c>
+      <c r="BM145">
+        <v>2.65</v>
+      </c>
+      <c r="BN145">
+        <v>1.41</v>
+      </c>
+      <c r="BO145">
+        <v>3.45</v>
+      </c>
+      <c r="BP145">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,9 @@
     <t>['25', '39', '43', '66', '75']</t>
   </si>
   <si>
+    <t>['12', '47']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -830,6 +833,9 @@
   </si>
   <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['52', '59']</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1450,7 +1456,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1656,7 +1662,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1862,7 +1868,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1943,7 +1949,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ4">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2274,7 +2280,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2352,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1.13</v>
@@ -2480,7 +2486,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3510,7 +3516,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -3591,7 +3597,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3922,7 +3928,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4334,7 +4340,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4618,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ17">
         <v>0.5</v>
@@ -4952,7 +4958,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5158,7 +5164,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5570,7 +5576,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -5776,7 +5782,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -5982,7 +5988,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6188,7 +6194,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6600,7 +6606,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6806,7 +6812,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7093,7 +7099,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ29">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR29">
         <v>1.65</v>
@@ -7424,7 +7430,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7502,10 +7508,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
         <v>1.86</v>
@@ -8042,7 +8048,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -8248,7 +8254,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8326,7 +8332,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ35">
         <v>1.38</v>
@@ -9072,7 +9078,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9278,7 +9284,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9484,7 +9490,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -10102,7 +10108,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q44">
         <v>3.75</v>
@@ -10308,7 +10314,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10514,7 +10520,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -10798,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>0.38</v>
@@ -10926,7 +10932,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>1.83</v>
@@ -11338,7 +11344,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11419,7 +11425,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ50">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR50">
         <v>1.41</v>
@@ -11544,7 +11550,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -11750,7 +11756,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -11956,7 +11962,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -12034,7 +12040,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ53">
         <v>0.13</v>
@@ -12162,7 +12168,7 @@
         <v>106</v>
       </c>
       <c r="P54" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12780,7 +12786,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13192,7 +13198,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13273,7 +13279,7 @@
         <v>2</v>
       </c>
       <c r="AQ59">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR59">
         <v>1.74</v>
@@ -13810,7 +13816,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14016,7 +14022,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q63">
         <v>2.38</v>
@@ -14222,7 +14228,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14509,7 +14515,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ65">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR65">
         <v>1.54</v>
@@ -14634,7 +14640,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14840,7 +14846,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -15046,7 +15052,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15252,7 +15258,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15458,7 +15464,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q70">
         <v>2.1</v>
@@ -15664,7 +15670,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15742,7 +15748,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ71">
         <v>1.13</v>
@@ -15870,7 +15876,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -15948,7 +15954,7 @@
         <v>2.33</v>
       </c>
       <c r="AP72">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
         <v>1.38</v>
@@ -16076,7 +16082,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16488,7 +16494,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16694,7 +16700,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16900,7 +16906,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16981,7 +16987,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ77">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR77">
         <v>1.98</v>
@@ -17106,7 +17112,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17312,7 +17318,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17518,7 +17524,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q80">
         <v>2.63</v>
@@ -17805,7 +17811,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ81">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR81">
         <v>1.44</v>
@@ -17930,7 +17936,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18754,7 +18760,7 @@
         <v>90</v>
       </c>
       <c r="P86" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19450,7 +19456,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
         <v>0.13</v>
@@ -19784,7 +19790,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -19862,7 +19868,7 @@
         <v>2.4</v>
       </c>
       <c r="AP91">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ91">
         <v>2.63</v>
@@ -19990,7 +19996,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20196,7 +20202,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20277,7 +20283,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ93">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR93">
         <v>1.3</v>
@@ -20402,7 +20408,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20608,7 +20614,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -20814,7 +20820,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -20895,7 +20901,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ96">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR96">
         <v>1.64</v>
@@ -21020,7 +21026,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21226,7 +21232,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21432,7 +21438,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21844,7 +21850,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22256,7 +22262,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23158,7 +23164,7 @@
         <v>1.2</v>
       </c>
       <c r="AP107">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ107">
         <v>1.13</v>
@@ -23286,7 +23292,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23364,7 +23370,7 @@
         <v>0.6</v>
       </c>
       <c r="AP108">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ108">
         <v>0.75</v>
@@ -23492,7 +23498,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23698,7 +23704,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24110,7 +24116,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24522,7 +24528,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24603,7 +24609,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ114">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR114">
         <v>1.36</v>
@@ -24728,7 +24734,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -25140,7 +25146,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25346,7 +25352,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -25427,7 +25433,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ118">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR118">
         <v>1.45</v>
@@ -25836,7 +25842,7 @@
         <v>2.33</v>
       </c>
       <c r="AP120">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ120">
         <v>2.25</v>
@@ -26170,7 +26176,7 @@
         <v>176</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26376,7 +26382,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27072,7 +27078,7 @@
         <v>0.17</v>
       </c>
       <c r="AP126">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ126">
         <v>0.13</v>
@@ -27200,7 +27206,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -27612,7 +27618,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27693,7 +27699,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ129">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR129">
         <v>1.4</v>
@@ -27818,7 +27824,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q130">
         <v>4.33</v>
@@ -27896,7 +27902,7 @@
         <v>1.71</v>
       </c>
       <c r="AP130">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ130">
         <v>1.63</v>
@@ -28105,7 +28111,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ131">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR131">
         <v>1.24</v>
@@ -28230,7 +28236,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28436,7 +28442,7 @@
         <v>90</v>
       </c>
       <c r="P133" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -29260,7 +29266,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29466,7 +29472,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q138">
         <v>2.88</v>
@@ -29672,7 +29678,7 @@
         <v>187</v>
       </c>
       <c r="P139" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -29878,7 +29884,7 @@
         <v>129</v>
       </c>
       <c r="P140" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q140">
         <v>2.2</v>
@@ -30908,7 +30914,7 @@
         <v>191</v>
       </c>
       <c r="P145" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q145">
         <v>1.8</v>
@@ -31065,6 +31071,418 @@
       </c>
       <c r="BP145">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7468501</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45667.625</v>
+      </c>
+      <c r="F146">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>85</v>
+      </c>
+      <c r="H146" t="s">
+        <v>73</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>2</v>
+      </c>
+      <c r="M146">
+        <v>2</v>
+      </c>
+      <c r="N146">
+        <v>4</v>
+      </c>
+      <c r="O146" t="s">
+        <v>192</v>
+      </c>
+      <c r="P146" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q146">
+        <v>4.33</v>
+      </c>
+      <c r="R146">
+        <v>2.2</v>
+      </c>
+      <c r="S146">
+        <v>2.5</v>
+      </c>
+      <c r="T146">
+        <v>1.4</v>
+      </c>
+      <c r="U146">
+        <v>2.75</v>
+      </c>
+      <c r="V146">
+        <v>2.75</v>
+      </c>
+      <c r="W146">
+        <v>1.4</v>
+      </c>
+      <c r="X146">
+        <v>8</v>
+      </c>
+      <c r="Y146">
+        <v>1.08</v>
+      </c>
+      <c r="Z146">
+        <v>4.2</v>
+      </c>
+      <c r="AA146">
+        <v>3.75</v>
+      </c>
+      <c r="AB146">
+        <v>1.8</v>
+      </c>
+      <c r="AC146">
+        <v>1.05</v>
+      </c>
+      <c r="AD146">
+        <v>12</v>
+      </c>
+      <c r="AE146">
+        <v>1.3</v>
+      </c>
+      <c r="AF146">
+        <v>3.6</v>
+      </c>
+      <c r="AG146">
+        <v>1.91</v>
+      </c>
+      <c r="AH146">
+        <v>1.88</v>
+      </c>
+      <c r="AI146">
+        <v>1.8</v>
+      </c>
+      <c r="AJ146">
+        <v>1.95</v>
+      </c>
+      <c r="AK146">
+        <v>1.9</v>
+      </c>
+      <c r="AL146">
+        <v>1.27</v>
+      </c>
+      <c r="AM146">
+        <v>1.23</v>
+      </c>
+      <c r="AN146">
+        <v>1.14</v>
+      </c>
+      <c r="AO146">
+        <v>1.86</v>
+      </c>
+      <c r="AP146">
+        <v>1.13</v>
+      </c>
+      <c r="AQ146">
+        <v>1.75</v>
+      </c>
+      <c r="AR146">
+        <v>1.45</v>
+      </c>
+      <c r="AS146">
+        <v>1.45</v>
+      </c>
+      <c r="AT146">
+        <v>2.9</v>
+      </c>
+      <c r="AU146">
+        <v>5</v>
+      </c>
+      <c r="AV146">
+        <v>8</v>
+      </c>
+      <c r="AW146">
+        <v>6</v>
+      </c>
+      <c r="AX146">
+        <v>8</v>
+      </c>
+      <c r="AY146">
+        <v>13</v>
+      </c>
+      <c r="AZ146">
+        <v>19</v>
+      </c>
+      <c r="BA146">
+        <v>3</v>
+      </c>
+      <c r="BB146">
+        <v>11</v>
+      </c>
+      <c r="BC146">
+        <v>14</v>
+      </c>
+      <c r="BD146">
+        <v>2.35</v>
+      </c>
+      <c r="BE146">
+        <v>6.4</v>
+      </c>
+      <c r="BF146">
+        <v>1.73</v>
+      </c>
+      <c r="BG146">
+        <v>1.34</v>
+      </c>
+      <c r="BH146">
+        <v>2.9</v>
+      </c>
+      <c r="BI146">
+        <v>1.6</v>
+      </c>
+      <c r="BJ146">
+        <v>2.17</v>
+      </c>
+      <c r="BK146">
+        <v>1.97</v>
+      </c>
+      <c r="BL146">
+        <v>1.73</v>
+      </c>
+      <c r="BM146">
+        <v>2.5</v>
+      </c>
+      <c r="BN146">
+        <v>1.46</v>
+      </c>
+      <c r="BO146">
+        <v>3.3</v>
+      </c>
+      <c r="BP146">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7468502</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45667.71180555555</v>
+      </c>
+      <c r="F147">
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>74</v>
+      </c>
+      <c r="H147" t="s">
+        <v>81</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147" t="s">
+        <v>90</v>
+      </c>
+      <c r="P147" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q147">
+        <v>4</v>
+      </c>
+      <c r="R147">
+        <v>2.25</v>
+      </c>
+      <c r="S147">
+        <v>2.5</v>
+      </c>
+      <c r="T147">
+        <v>1.33</v>
+      </c>
+      <c r="U147">
+        <v>3.25</v>
+      </c>
+      <c r="V147">
+        <v>2.63</v>
+      </c>
+      <c r="W147">
+        <v>1.44</v>
+      </c>
+      <c r="X147">
+        <v>7</v>
+      </c>
+      <c r="Y147">
+        <v>1.1</v>
+      </c>
+      <c r="Z147">
+        <v>3.76</v>
+      </c>
+      <c r="AA147">
+        <v>3.74</v>
+      </c>
+      <c r="AB147">
+        <v>1.92</v>
+      </c>
+      <c r="AC147">
+        <v>1.04</v>
+      </c>
+      <c r="AD147">
+        <v>13</v>
+      </c>
+      <c r="AE147">
+        <v>1.26</v>
+      </c>
+      <c r="AF147">
+        <v>4</v>
+      </c>
+      <c r="AG147">
+        <v>1.78</v>
+      </c>
+      <c r="AH147">
+        <v>2.03</v>
+      </c>
+      <c r="AI147">
+        <v>1.67</v>
+      </c>
+      <c r="AJ147">
+        <v>2.1</v>
+      </c>
+      <c r="AK147">
+        <v>1.82</v>
+      </c>
+      <c r="AL147">
+        <v>1.28</v>
+      </c>
+      <c r="AM147">
+        <v>1.26</v>
+      </c>
+      <c r="AN147">
+        <v>2.13</v>
+      </c>
+      <c r="AO147">
+        <v>1.63</v>
+      </c>
+      <c r="AP147">
+        <v>2</v>
+      </c>
+      <c r="AQ147">
+        <v>1.56</v>
+      </c>
+      <c r="AR147">
+        <v>1.33</v>
+      </c>
+      <c r="AS147">
+        <v>1.47</v>
+      </c>
+      <c r="AT147">
+        <v>2.8</v>
+      </c>
+      <c r="AU147">
+        <v>4</v>
+      </c>
+      <c r="AV147">
+        <v>6</v>
+      </c>
+      <c r="AW147">
+        <v>8</v>
+      </c>
+      <c r="AX147">
+        <v>9</v>
+      </c>
+      <c r="AY147">
+        <v>15</v>
+      </c>
+      <c r="AZ147">
+        <v>17</v>
+      </c>
+      <c r="BA147">
+        <v>6</v>
+      </c>
+      <c r="BB147">
+        <v>10</v>
+      </c>
+      <c r="BC147">
+        <v>16</v>
+      </c>
+      <c r="BD147">
+        <v>2.4</v>
+      </c>
+      <c r="BE147">
+        <v>6.4</v>
+      </c>
+      <c r="BF147">
+        <v>1.71</v>
+      </c>
+      <c r="BG147">
+        <v>1.44</v>
+      </c>
+      <c r="BH147">
+        <v>2.55</v>
+      </c>
+      <c r="BI147">
+        <v>1.72</v>
+      </c>
+      <c r="BJ147">
+        <v>1.98</v>
+      </c>
+      <c r="BK147">
+        <v>2.17</v>
+      </c>
+      <c r="BL147">
+        <v>1.6</v>
+      </c>
+      <c r="BM147">
+        <v>2.8</v>
+      </c>
+      <c r="BN147">
+        <v>1.36</v>
+      </c>
+      <c r="BO147">
+        <v>3.8</v>
+      </c>
+      <c r="BP147">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>
